--- a/db_29_10_2018.xlsx
+++ b/db_29_10_2018.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="199">
   <si>
     <t>employers</t>
   </si>
@@ -43,15 +43,6 @@
   </si>
   <si>
     <t>about_company</t>
-  </si>
-  <si>
-    <t>province</t>
-  </si>
-  <si>
-    <t>district</t>
-  </si>
-  <si>
-    <t>ward</t>
   </si>
   <si>
     <t>website</t>
@@ -274,9 +265,6 @@
   </si>
   <si>
     <t>office_id</t>
-  </si>
-  <si>
-    <t>Đà Nẵng, HCM, HN, …</t>
   </si>
   <si>
     <t>Length</t>
@@ -629,6 +617,22 @@
   <si>
     <t>Kỹ Năng Viết</t>
   </si>
+  <si>
+    <t>gợi ý đường trong bảng street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multiple select lưu nhiều id của bảng provinces hiển thị name 
+</t>
+  </si>
+  <si>
+    <t>province_id</t>
+  </si>
+  <si>
+    <t>district_id</t>
+  </si>
+  <si>
+    <t>ward_id</t>
+  </si>
 </sst>
 </file>
 
@@ -825,9 +829,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -840,7 +843,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -853,7 +855,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -917,6 +918,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1457,7 +1469,39 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp215.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp216.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp217.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp218.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp219.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp220.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp221.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp222.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
@@ -4322,13 +4366,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>148</xdr:row>
+          <xdr:row>147</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>149</xdr:row>
+          <xdr:row>148</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5090,13 +5134,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>148</xdr:row>
+          <xdr:row>147</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>149</xdr:row>
+          <xdr:row>148</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -8610,13 +8654,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>100</xdr:row>
+          <xdr:row>99</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>101</xdr:row>
+          <xdr:row>100</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -8674,13 +8718,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>100</xdr:row>
+          <xdr:row>99</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>101</xdr:row>
+          <xdr:row>100</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -8738,13 +8782,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>100</xdr:row>
+          <xdr:row>99</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>101</xdr:row>
+          <xdr:row>100</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -8802,13 +8846,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>100</xdr:row>
+          <xdr:row>99</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>101</xdr:row>
+          <xdr:row>100</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -8866,13 +8910,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>100</xdr:row>
+          <xdr:row>99</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>101</xdr:row>
+          <xdr:row>100</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -8930,13 +8974,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>100</xdr:row>
+          <xdr:row>99</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>101</xdr:row>
+          <xdr:row>100</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -8994,13 +9038,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>101</xdr:row>
+          <xdr:row>100</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>102</xdr:row>
+          <xdr:row>101</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9058,13 +9102,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>101</xdr:row>
+          <xdr:row>100</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>102</xdr:row>
+          <xdr:row>101</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9122,13 +9166,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>102</xdr:row>
+          <xdr:row>101</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>103</xdr:row>
+          <xdr:row>102</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9186,13 +9230,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>102</xdr:row>
+          <xdr:row>101</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>103</xdr:row>
+          <xdr:row>102</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9250,13 +9294,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>103</xdr:row>
+          <xdr:row>102</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>104</xdr:row>
+          <xdr:row>103</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9314,13 +9358,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>103</xdr:row>
+          <xdr:row>102</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>104</xdr:row>
+          <xdr:row>103</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9378,13 +9422,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>104</xdr:row>
+          <xdr:row>103</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>105</xdr:row>
+          <xdr:row>104</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9442,13 +9486,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>104</xdr:row>
+          <xdr:row>103</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>105</xdr:row>
+          <xdr:row>104</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9506,13 +9550,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>105</xdr:row>
+          <xdr:row>104</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>106</xdr:row>
+          <xdr:row>105</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9570,13 +9614,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>105</xdr:row>
+          <xdr:row>104</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>106</xdr:row>
+          <xdr:row>105</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9634,13 +9678,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>106</xdr:row>
+          <xdr:row>105</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>107</xdr:row>
+          <xdr:row>106</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9698,13 +9742,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>106</xdr:row>
+          <xdr:row>105</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>107</xdr:row>
+          <xdr:row>106</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9762,13 +9806,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>107</xdr:row>
+          <xdr:row>106</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>108</xdr:row>
+          <xdr:row>107</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9826,13 +9870,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>107</xdr:row>
+          <xdr:row>106</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>108</xdr:row>
+          <xdr:row>107</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9890,13 +9934,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>108</xdr:row>
+          <xdr:row>107</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>109</xdr:row>
+          <xdr:row>108</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9954,13 +9998,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>108</xdr:row>
+          <xdr:row>107</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>109</xdr:row>
+          <xdr:row>108</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10018,13 +10062,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>114</xdr:row>
+          <xdr:row>113</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>115</xdr:row>
+          <xdr:row>114</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10082,13 +10126,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>114</xdr:row>
+          <xdr:row>113</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>115</xdr:row>
+          <xdr:row>114</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10146,13 +10190,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>120</xdr:row>
+          <xdr:row>119</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>121</xdr:row>
+          <xdr:row>120</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10210,13 +10254,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>120</xdr:row>
+          <xdr:row>119</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>121</xdr:row>
+          <xdr:row>120</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10274,13 +10318,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>121</xdr:row>
+          <xdr:row>120</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>122</xdr:row>
+          <xdr:row>121</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10338,13 +10382,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>121</xdr:row>
+          <xdr:row>120</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>122</xdr:row>
+          <xdr:row>121</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10402,13 +10446,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>129</xdr:row>
+          <xdr:row>128</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>130</xdr:row>
+          <xdr:row>129</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10466,13 +10510,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>129</xdr:row>
+          <xdr:row>128</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>130</xdr:row>
+          <xdr:row>129</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10530,13 +10574,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>140</xdr:row>
+          <xdr:row>139</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>141</xdr:row>
+          <xdr:row>140</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10594,13 +10638,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>140</xdr:row>
+          <xdr:row>139</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>141</xdr:row>
+          <xdr:row>140</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10658,13 +10702,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>141</xdr:row>
+          <xdr:row>140</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>142</xdr:row>
+          <xdr:row>141</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10722,13 +10766,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>141</xdr:row>
+          <xdr:row>140</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>142</xdr:row>
+          <xdr:row>141</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10786,13 +10830,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>142</xdr:row>
+          <xdr:row>141</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>143</xdr:row>
+          <xdr:row>142</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10850,13 +10894,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>142</xdr:row>
+          <xdr:row>141</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>143</xdr:row>
+          <xdr:row>142</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10914,13 +10958,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>143</xdr:row>
+          <xdr:row>142</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>144</xdr:row>
+          <xdr:row>143</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10978,13 +11022,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>143</xdr:row>
+          <xdr:row>142</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>144</xdr:row>
+          <xdr:row>143</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11042,13 +11086,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>128</xdr:row>
+          <xdr:row>127</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>129</xdr:row>
+          <xdr:row>128</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11106,13 +11150,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>128</xdr:row>
+          <xdr:row>127</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>129</xdr:row>
+          <xdr:row>128</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11170,13 +11214,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>129</xdr:row>
+          <xdr:row>128</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>130</xdr:row>
+          <xdr:row>129</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11234,13 +11278,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>129</xdr:row>
+          <xdr:row>128</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>130</xdr:row>
+          <xdr:row>129</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11298,13 +11342,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>130</xdr:row>
+          <xdr:row>129</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>131</xdr:row>
+          <xdr:row>130</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11362,13 +11406,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>130</xdr:row>
+          <xdr:row>129</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>131</xdr:row>
+          <xdr:row>130</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11426,13 +11470,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>131</xdr:row>
+          <xdr:row>130</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>132</xdr:row>
+          <xdr:row>131</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11490,13 +11534,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>131</xdr:row>
+          <xdr:row>130</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>132</xdr:row>
+          <xdr:row>131</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11554,13 +11598,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>132</xdr:row>
+          <xdr:row>131</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>133</xdr:row>
+          <xdr:row>132</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11618,13 +11662,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>132</xdr:row>
+          <xdr:row>131</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>133</xdr:row>
+          <xdr:row>132</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11682,13 +11726,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>133</xdr:row>
+          <xdr:row>132</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>134</xdr:row>
+          <xdr:row>133</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11746,13 +11790,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>133</xdr:row>
+          <xdr:row>132</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>134</xdr:row>
+          <xdr:row>133</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12194,13 +12238,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>111</xdr:row>
+          <xdr:row>110</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>112</xdr:row>
+          <xdr:row>111</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12258,13 +12302,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>112</xdr:row>
+          <xdr:row>111</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>113</xdr:row>
+          <xdr:row>112</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12322,13 +12366,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>113</xdr:row>
+          <xdr:row>112</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>114</xdr:row>
+          <xdr:row>113</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12386,13 +12430,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>111</xdr:row>
+          <xdr:row>110</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>112</xdr:row>
+          <xdr:row>111</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12450,13 +12494,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>112</xdr:row>
+          <xdr:row>111</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>113</xdr:row>
+          <xdr:row>112</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12514,13 +12558,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>113</xdr:row>
+          <xdr:row>112</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>114</xdr:row>
+          <xdr:row>113</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12706,13 +12750,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>138</xdr:row>
+          <xdr:row>137</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>139</xdr:row>
+          <xdr:row>138</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12770,13 +12814,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>138</xdr:row>
+          <xdr:row>137</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>139</xdr:row>
+          <xdr:row>138</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12962,13 +13006,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>109</xdr:row>
+          <xdr:row>108</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>110</xdr:row>
+          <xdr:row>109</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -13026,13 +13070,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>109</xdr:row>
+          <xdr:row>108</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>110</xdr:row>
+          <xdr:row>109</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -13090,13 +13134,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>110</xdr:row>
+          <xdr:row>109</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>111</xdr:row>
+          <xdr:row>110</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -13154,13 +13198,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>110</xdr:row>
+          <xdr:row>109</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>111</xdr:row>
+          <xdr:row>110</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -13218,13 +13262,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>139</xdr:row>
+          <xdr:row>138</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>140</xdr:row>
+          <xdr:row>139</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -13282,13 +13326,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>139</xdr:row>
+          <xdr:row>138</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>140</xdr:row>
+          <xdr:row>139</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -13346,13 +13390,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>126</xdr:row>
+          <xdr:row>125</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>127</xdr:row>
+          <xdr:row>126</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -13410,13 +13454,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>126</xdr:row>
+          <xdr:row>125</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>127</xdr:row>
+          <xdr:row>126</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -13474,13 +13518,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>119</xdr:row>
+          <xdr:row>118</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>120</xdr:row>
+          <xdr:row>119</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -13538,13 +13582,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>119</xdr:row>
+          <xdr:row>118</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>120</xdr:row>
+          <xdr:row>119</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -13858,13 +13902,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>127</xdr:row>
+          <xdr:row>126</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>128</xdr:row>
+          <xdr:row>127</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -13922,13 +13966,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>127</xdr:row>
+          <xdr:row>126</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>128</xdr:row>
+          <xdr:row>127</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -14114,13 +14158,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>149</xdr:row>
+          <xdr:row>148</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>150</xdr:row>
+          <xdr:row>149</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -14178,13 +14222,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>149</xdr:row>
+          <xdr:row>148</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>150</xdr:row>
+          <xdr:row>149</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -15769,6 +15813,478 @@
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
       </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>110</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="209550" cy="190500"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3603" name="Check Box 531" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3603"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>111</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="209550" cy="190500"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3604" name="Check Box 532" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3604"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>112</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="209550" cy="190500"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3605" name="Check Box 533" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3605"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>110</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="209550" cy="190500"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3606" name="Check Box 534" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3606"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>111</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="209550" cy="190500"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3607" name="Check Box 535" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3607"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>112</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="209550" cy="190500"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3608" name="Check Box 536" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3608"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>113</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="209550" cy="190500"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3609" name="Check Box 537" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3609"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>113</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="209550" cy="190500"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3610" name="Check Box 538" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3610"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -16039,2779 +16555,2817 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P157"/>
+  <dimension ref="A1:P156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="27" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="39" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="22.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="27" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="57.140625" style="56" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="41" t="s">
+      <c r="G1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="J1" s="14" t="s">
         <v>64</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="L2" s="20"/>
-      <c r="M2" s="3"/>
+      <c r="B2" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" s="18"/>
+      <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="A3" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="42"/>
+      <c r="C3" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="1">
         <v>10</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="A4" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="3">
         <v>255</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="53"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="A5" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="3">
         <v>255</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="53"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="B6" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="3">
         <v>191</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="53"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="A7" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="3">
         <v>191</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="53"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="B8" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="3">
         <v>255</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="53"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="B9" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="3">
         <v>191</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="53"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="B10" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="3">
         <v>255</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="53"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="B11" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="3">
         <v>255</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="53"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="B12" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="3">
         <v>255</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="53"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="A13" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="3">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="53"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="A14" s="52" t="s">
+        <v>197</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="3">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="53"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="C15" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="A15" s="52" t="s">
+        <v>198</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="3">
+        <v>10</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="53"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="A16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="53" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="4">
+      <c r="A17" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="3">
         <v>255</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="53"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="4">
+      <c r="A18" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="43"/>
+      <c r="C18" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="3">
         <v>255</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="23" t="s">
-        <v>118</v>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="55" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="48"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="B19" s="45"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="57"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="48"/>
+      <c r="B21" s="45"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
+      <c r="A22" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="39"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="54"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="B23" s="45"/>
-      <c r="C23" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="2">
+      <c r="A23" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="42"/>
+      <c r="C23" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="1">
         <v>10</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="54"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="B24" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="C24" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="4">
+      <c r="A24" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="3">
         <v>255</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="53"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="B25" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="C25" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="4">
+      <c r="A25" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="3">
         <v>255</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="53"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="C26" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="4">
+      <c r="B26" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="3">
         <v>191</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="53"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="C27" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="4">
+      <c r="A27" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="3">
         <v>191</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="53"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="C28" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="4">
+      <c r="B28" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="3">
         <v>255</v>
       </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="53"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="C29" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
+      <c r="A29" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="53"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="C30" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
+      <c r="A30" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="B30" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="3">
+        <v>10</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="53"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="C31" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
+      <c r="A31" s="52" t="s">
+        <v>197</v>
+      </c>
+      <c r="B31" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="3">
+        <v>10</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="53"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="C32" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
+      <c r="A32" s="52" t="s">
+        <v>198</v>
+      </c>
+      <c r="B32" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="3">
+        <v>10</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I32" s="3"/>
+      <c r="J32" s="53"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="C33" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
+      <c r="A33" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="53" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="C34" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D34" s="4">
+      <c r="A34" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="3">
         <v>10</v>
       </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="53"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="B35" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="C35" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
+      <c r="A35" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="B36" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="C36" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D36" s="4">
+      <c r="A36" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="3">
         <v>255</v>
       </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="23" t="s">
-        <v>118</v>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="55" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
-      <c r="B38" s="49"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="57"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="48"/>
+      <c r="B39" s="45"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="B40" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="C40" s="42"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
+      <c r="A40" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C40" s="39"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="54"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="B41" s="45"/>
-      <c r="C41" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="D41" s="2">
+      <c r="A41" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41" s="42"/>
+      <c r="C41" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="1">
         <v>10</v>
       </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I41" s="1"/>
+      <c r="J41" s="54"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="C42" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D42" s="4">
+      <c r="A42" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="3">
         <v>191</v>
       </c>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I42" s="4"/>
-      <c r="J42" s="1" t="s">
-        <v>46</v>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I42" s="3"/>
+      <c r="J42" s="59" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B43" s="48"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
+      <c r="B43" s="45"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="57"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B45" s="48"/>
+      <c r="B45" s="45"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="B46" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="C46" s="42"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
+      <c r="A46" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" s="39"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="54"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="B47" s="45"/>
-      <c r="C47" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="D47" s="2">
+      <c r="A47" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" s="42"/>
+      <c r="C47" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" s="1">
         <v>10</v>
       </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I47" s="1"/>
+      <c r="J47" s="54"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B48" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="C48" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D48" s="4">
+      <c r="A48" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" s="3">
         <v>191</v>
       </c>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I48" s="4"/>
-      <c r="J48" s="1" t="s">
-        <v>80</v>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I48" s="3"/>
+      <c r="J48" s="59" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="48"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="3"/>
+    <row r="49" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="58"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="50"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="14"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="60"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="48"/>
+      <c r="B51" s="45"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="B52" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="C52" s="42"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
+      <c r="A52" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="C52" s="39"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="54"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="B53" s="45"/>
-      <c r="C53" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="D53" s="2">
+      <c r="A53" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" s="42"/>
+      <c r="C53" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D53" s="1">
         <v>10</v>
       </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I53" s="1"/>
+      <c r="J53" s="54"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B54" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="C54" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D54" s="4">
+      <c r="A54" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="C54" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54" s="3">
         <v>191</v>
       </c>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I54" s="4"/>
-      <c r="J54" s="1" t="s">
-        <v>82</v>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I54" s="3"/>
+      <c r="J54" s="59" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="48"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="3"/>
+    <row r="55" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="58"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
-      <c r="B56" s="50"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="14"/>
+      <c r="A56" s="12"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="60"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="48"/>
+      <c r="B57" s="45"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="C58" s="42"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
+      <c r="A58" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="C58" s="39"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="54"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="B59" s="45"/>
-      <c r="C59" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="D59" s="2">
+      <c r="A59" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B59" s="42"/>
+      <c r="C59" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D59" s="1">
         <v>10</v>
       </c>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I59" s="1"/>
+      <c r="J59" s="54"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="B60" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="C60" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D60" s="4">
+      <c r="A60" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="C60" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D60" s="3">
         <v>191</v>
       </c>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I60" s="4"/>
-      <c r="J60" s="1"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I60" s="3"/>
+      <c r="J60" s="59"/>
     </row>
-    <row r="61" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="48"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="3"/>
+    <row r="61" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="58"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
-      <c r="B62" s="50"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="14"/>
+      <c r="A62" s="12"/>
+      <c r="B62" s="47"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="60"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="48"/>
+      <c r="B63" s="45"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B64" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="C64" s="42"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
+      <c r="A64" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B64" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="C64" s="39"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="54"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="B65" s="46"/>
-      <c r="C65" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="D65" s="4">
+      <c r="A65" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B65" s="43"/>
+      <c r="C65" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D65" s="3">
         <v>10</v>
       </c>
-      <c r="E65" s="4"/>
-      <c r="F65" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="K65" s="54" t="s">
-        <v>112</v>
-      </c>
-      <c r="L65" s="52"/>
-      <c r="M65" s="52"/>
-      <c r="N65" s="52"/>
-      <c r="O65" s="52"/>
-      <c r="P65" s="52"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I65" s="3"/>
+      <c r="J65" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="K65" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="L65" s="49"/>
+      <c r="M65" s="49"/>
+      <c r="N65" s="49"/>
+      <c r="O65" s="49"/>
+      <c r="P65" s="49"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="B66" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="C66" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="D66" s="4">
+      <c r="A66" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="C66" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D66" s="3">
         <v>10</v>
       </c>
-      <c r="E66" s="4"/>
-      <c r="F66" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="54"/>
-      <c r="L66" s="52"/>
-      <c r="M66" s="52"/>
-      <c r="N66" s="52"/>
-      <c r="O66" s="52"/>
-      <c r="P66" s="52"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I66" s="3"/>
+      <c r="J66" s="53"/>
+      <c r="K66" s="51"/>
+      <c r="L66" s="49"/>
+      <c r="M66" s="49"/>
+      <c r="N66" s="49"/>
+      <c r="O66" s="49"/>
+      <c r="P66" s="49"/>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="B67" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="C67" s="43" t="s">
+      <c r="A67" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="D67" s="4">
+      <c r="B67" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C67" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D67" s="3">
         <v>10</v>
       </c>
-      <c r="E67" s="4"/>
-      <c r="F67" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="54"/>
-      <c r="L67" s="52"/>
-      <c r="M67" s="52"/>
-      <c r="N67" s="52"/>
-      <c r="O67" s="52"/>
-      <c r="P67" s="52"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I67" s="3"/>
+      <c r="J67" s="53"/>
+      <c r="K67" s="51"/>
+      <c r="L67" s="49"/>
+      <c r="M67" s="49"/>
+      <c r="N67" s="49"/>
+      <c r="O67" s="49"/>
+      <c r="P67" s="49"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="31" t="s">
+      <c r="A68" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="C68" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D68" s="3">
+        <v>255</v>
+      </c>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="53"/>
+      <c r="K68" s="51"/>
+      <c r="L68" s="49"/>
+      <c r="M68" s="49"/>
+      <c r="N68" s="49"/>
+      <c r="O68" s="49"/>
+      <c r="P68" s="49"/>
+    </row>
+    <row r="69" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B68" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="C68" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D68" s="4">
-        <v>255</v>
-      </c>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="54"/>
-      <c r="L68" s="52"/>
-      <c r="M68" s="52"/>
-      <c r="N68" s="52"/>
-      <c r="O68" s="52"/>
-      <c r="P68" s="52"/>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B69" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="C69" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4" t="s">
-        <v>74</v>
+      <c r="B69" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="C69" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="53" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B70" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="C70" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="D70" s="4">
+      <c r="A70" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B70" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="C70" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D70" s="3">
         <v>10</v>
       </c>
-      <c r="E70" s="4"/>
-      <c r="F70" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="53"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B71" s="46" t="s">
-        <v>153</v>
-      </c>
-      <c r="C71" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D71" s="4">
+      <c r="A71" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B71" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="C71" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D71" s="3">
         <v>255</v>
       </c>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="53"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="B72" s="46" t="s">
-        <v>154</v>
-      </c>
-      <c r="C72" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D72" s="4">
+      <c r="A72" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B72" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="C72" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D72" s="3">
         <v>255</v>
       </c>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="53"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="B73" s="46" t="s">
-        <v>155</v>
-      </c>
-      <c r="C73" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D73" s="4">
+      <c r="A73" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B73" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="C73" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D73" s="3">
         <v>255</v>
       </c>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4" t="s">
-        <v>86</v>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="53" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B74" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="C74" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D74" s="4">
+      <c r="A74" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B74" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="C74" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D74" s="3">
         <v>4</v>
       </c>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="53"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B75" s="46" t="s">
-        <v>157</v>
-      </c>
-      <c r="C75" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D75" s="4">
+      <c r="A75" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B75" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="C75" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D75" s="3">
         <v>4</v>
       </c>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="53"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B76" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="C76" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D76" s="4">
+      <c r="A76" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B76" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D76" s="3">
         <v>255</v>
       </c>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="53"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A77" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B77" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="C77" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D77" s="4">
+      <c r="A77" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B77" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D77" s="3">
         <v>2</v>
       </c>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="53"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="B78" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="C78" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="12" t="s">
-        <v>73</v>
+      <c r="A78" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B78" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="C78" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="61" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="B79" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="C79" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="12" t="s">
-        <v>73</v>
+      <c r="A79" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B79" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="C79" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="61" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="B80" s="46" t="s">
-        <v>162</v>
-      </c>
-      <c r="C80" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="12" t="s">
-        <v>73</v>
+      <c r="A80" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B80" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="C80" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="61" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="B81" s="46" t="s">
-        <v>163</v>
-      </c>
-      <c r="C81" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4" t="b">
+      <c r="A81" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B81" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="C81" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
-      <c r="J81" s="12" t="s">
-        <v>109</v>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="61" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="B82" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="C82" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4" t="b">
+      <c r="A82" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B82" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="C82" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
-      <c r="J82" s="12" t="s">
-        <v>110</v>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="61" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B83" s="48"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
+      <c r="B83" s="45"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="11"/>
-      <c r="B84" s="49"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11"/>
-      <c r="H84" s="11"/>
-      <c r="I84" s="11"/>
-      <c r="J84" s="11"/>
+      <c r="A84" s="10"/>
+      <c r="B84" s="46"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="57"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B85" s="48"/>
+      <c r="B85" s="45"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="B86" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="C86" s="42"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="2"/>
-      <c r="J86" s="2"/>
+      <c r="A86" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B86" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="C86" s="39"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="54"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="19" t="s">
+      <c r="A87" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B87" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="C87" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D87" s="3">
+        <v>10</v>
+      </c>
+      <c r="E87" s="3"/>
+      <c r="F87" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B87" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="C87" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="D87" s="4">
-        <v>10</v>
-      </c>
-      <c r="E87" s="4"/>
-      <c r="F87" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4" t="s">
+      <c r="G87" s="3"/>
+      <c r="H87" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I87" s="3"/>
+      <c r="J87" s="53" t="s">
         <v>97</v>
-      </c>
-      <c r="I87" s="4"/>
-      <c r="J87" s="4" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="B88" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="C88" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="D88" s="4">
+      <c r="A88" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="B88" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="C88" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D88" s="3">
         <v>10</v>
       </c>
-      <c r="E88" s="4"/>
-      <c r="F88" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I88" s="4"/>
-      <c r="J88" s="4"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I88" s="3"/>
+      <c r="J88" s="53"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="B89" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="C89" s="43" t="s">
+      <c r="A89" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="D89" s="4">
+      <c r="B89" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C89" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D89" s="3">
         <v>10</v>
       </c>
-      <c r="E89" s="4"/>
-      <c r="F89" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I89" s="4"/>
-      <c r="J89" s="4"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I89" s="3"/>
+      <c r="J89" s="53"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="B90" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="C90" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I90" s="4"/>
-      <c r="J90" s="4" t="s">
-        <v>74</v>
+      <c r="A90" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B90" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="C90" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I90" s="3"/>
+      <c r="J90" s="53" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="B91" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="C91" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="4"/>
-      <c r="H91" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I91" s="4"/>
-      <c r="J91" s="4" t="s">
-        <v>74</v>
+      <c r="A91" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B91" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="C91" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I91" s="3"/>
+      <c r="J91" s="53" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B92" s="46" t="s">
-        <v>167</v>
-      </c>
-      <c r="C92" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D92" s="4">
+      <c r="A92" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="C92" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D92" s="3">
         <v>255</v>
       </c>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
-      <c r="I92" s="4"/>
-      <c r="J92" s="4"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="53"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="9" t="s">
+      <c r="A93" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B93" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="C93" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D93" s="4">
+      <c r="B93" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C93" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D93" s="3">
         <v>191</v>
       </c>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
-      <c r="I93" s="4"/>
-      <c r="J93" s="4"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="53"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B94" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="C94" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
-      <c r="I94" s="4"/>
-      <c r="J94" s="4"/>
+      <c r="A94" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B94" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="C94" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="53"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B95" s="46" t="s">
-        <v>169</v>
-      </c>
-      <c r="C95" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="D95" s="4">
+      <c r="A95" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B95" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="C95" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D95" s="3">
         <v>10</v>
       </c>
-      <c r="E95" s="4">
+      <c r="E95" s="3">
         <v>0</v>
       </c>
-      <c r="F95" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G95" s="4"/>
-      <c r="H95" s="4"/>
-      <c r="I95" s="4"/>
-      <c r="J95" s="23" t="s">
-        <v>118</v>
+      <c r="F95" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="55" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B96" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="C96" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="D96" s="4">
+      <c r="A96" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B96" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="C96" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D96" s="3">
         <v>10</v>
       </c>
-      <c r="E96" s="4">
+      <c r="E96" s="3">
         <v>0</v>
       </c>
-      <c r="F96" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G96" s="4"/>
-      <c r="H96" s="4"/>
-      <c r="I96" s="4"/>
-      <c r="J96" s="4" t="s">
-        <v>115</v>
+      <c r="F96" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="53" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B97" s="46" t="s">
-        <v>171</v>
-      </c>
-      <c r="C97" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
-      <c r="H97" s="4"/>
-      <c r="I97" s="4"/>
-      <c r="J97" s="4"/>
+      <c r="A97" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B97" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="C97" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="53"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B98" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="C98" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D98" s="4">
+      <c r="A98" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B98" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="C98" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D98" s="3">
         <v>255</v>
       </c>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
-      <c r="I98" s="4"/>
-      <c r="J98" s="4" t="s">
-        <v>76</v>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="53" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B99" s="46" t="s">
-        <v>173</v>
-      </c>
-      <c r="C99" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G99" s="4"/>
-      <c r="H99" s="4"/>
-      <c r="I99" s="4"/>
-      <c r="J99" s="4"/>
+      <c r="A99" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B99" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="C99" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="53"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B100" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="C100" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D100" s="4">
+      <c r="A100" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B100" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="C100" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D100" s="3">
         <v>255</v>
       </c>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="4"/>
-      <c r="I100" s="4"/>
-      <c r="J100" s="4" t="s">
-        <v>84</v>
-      </c>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="53"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B101" s="46" t="s">
-        <v>174</v>
-      </c>
-      <c r="C101" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D101" s="4">
-        <v>255</v>
-      </c>
-      <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
-      <c r="H101" s="4"/>
-      <c r="I101" s="4"/>
-      <c r="J101" s="4"/>
+      <c r="A101" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B101" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="C101" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D101" s="3">
+        <v>10</v>
+      </c>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="53"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B102" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="C102" s="43" t="s">
+      <c r="A102" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B102" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="C102" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="D102" s="4">
-        <v>10</v>
-      </c>
-      <c r="E102" s="4"/>
-      <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
-      <c r="H102" s="4"/>
-      <c r="I102" s="4"/>
-      <c r="J102" s="4"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="53"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B103" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="C103" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
-      <c r="H103" s="4"/>
-      <c r="I103" s="4"/>
-      <c r="J103" s="4"/>
+      <c r="A103" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B103" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="C103" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="53"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B104" s="46" t="s">
-        <v>177</v>
-      </c>
-      <c r="C104" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
-      <c r="F104" s="4"/>
-      <c r="G104" s="4"/>
-      <c r="H104" s="4"/>
-      <c r="I104" s="4"/>
-      <c r="J104" s="4"/>
+      <c r="A104" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B104" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="C104" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="53"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B105" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="C105" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
-      <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
-      <c r="H105" s="4"/>
-      <c r="I105" s="4"/>
-      <c r="J105" s="4"/>
+      <c r="A105" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B105" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="C105" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="53"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B106" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="C106" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="D106" s="4"/>
-      <c r="E106" s="4"/>
-      <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
-      <c r="H106" s="4"/>
-      <c r="I106" s="4"/>
-      <c r="J106" s="4"/>
+      <c r="A106" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B106" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="C106" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="53"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B107" s="46" t="s">
-        <v>180</v>
-      </c>
-      <c r="C107" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="D107" s="4"/>
-      <c r="E107" s="4"/>
-      <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
-      <c r="H107" s="4"/>
-      <c r="I107" s="4"/>
-      <c r="J107" s="4"/>
+      <c r="A107" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B107" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="C107" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D107" s="3">
+        <v>255</v>
+      </c>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
+      <c r="I107" s="3"/>
+      <c r="J107" s="53"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B108" s="46" t="s">
-        <v>181</v>
-      </c>
-      <c r="C108" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D108" s="4">
+      <c r="A108" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B108" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="C108" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D108" s="3">
         <v>255</v>
       </c>
-      <c r="E108" s="4"/>
-      <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
-      <c r="H108" s="4"/>
-      <c r="I108" s="4"/>
-      <c r="J108" s="4"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="53"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B109" s="46" t="s">
-        <v>182</v>
-      </c>
-      <c r="C109" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D109" s="4">
-        <v>255</v>
-      </c>
-      <c r="E109" s="4"/>
-      <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
-      <c r="H109" s="4"/>
-      <c r="I109" s="4"/>
-      <c r="J109" s="4"/>
+      <c r="A109" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B109" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="C109" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D109" s="3">
+        <v>191</v>
+      </c>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="53"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B110" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="C110" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D110" s="4">
+      <c r="A110" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C110" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D110" s="3">
         <v>191</v>
       </c>
-      <c r="E110" s="4"/>
-      <c r="F110" s="4"/>
-      <c r="G110" s="4"/>
-      <c r="H110" s="4"/>
-      <c r="I110" s="4"/>
-      <c r="J110" s="4"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="53"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B111" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="C111" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D111" s="4">
-        <v>191</v>
-      </c>
-      <c r="E111" s="4"/>
-      <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
-      <c r="H111" s="4"/>
-      <c r="I111" s="4"/>
-      <c r="J111" s="4"/>
+      <c r="A111" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="B111" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="C111" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D111" s="3">
+        <v>10</v>
+      </c>
+      <c r="E111" s="3"/>
+      <c r="F111" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I111" s="3"/>
+      <c r="J111" s="53"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B112" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="C112" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="D112" s="4"/>
-      <c r="E112" s="4"/>
-      <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
-      <c r="H112" s="4"/>
-      <c r="I112" s="4"/>
-      <c r="J112" s="4"/>
+      <c r="A112" s="52" t="s">
+        <v>197</v>
+      </c>
+      <c r="B112" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="C112" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D112" s="3">
+        <v>10</v>
+      </c>
+      <c r="E112" s="3"/>
+      <c r="F112" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I112" s="3"/>
+      <c r="J112" s="53"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B113" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="C113" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="D113" s="4"/>
-      <c r="E113" s="4"/>
-      <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
-      <c r="H113" s="4"/>
-      <c r="I113" s="4"/>
-      <c r="J113" s="4"/>
+      <c r="A113" s="52" t="s">
+        <v>198</v>
+      </c>
+      <c r="B113" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="C113" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D113" s="3">
+        <v>10</v>
+      </c>
+      <c r="E113" s="3"/>
+      <c r="F113" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I113" s="3"/>
+      <c r="J113" s="53"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B114" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="C114" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="D114" s="4"/>
-      <c r="E114" s="4"/>
-      <c r="F114" s="4"/>
-      <c r="G114" s="4"/>
-      <c r="H114" s="4"/>
-      <c r="I114" s="4"/>
-      <c r="J114" s="4"/>
+      <c r="A114" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B114" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="C114" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="3"/>
+      <c r="J114" s="53" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B115" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="C115" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="D115" s="4"/>
-      <c r="E115" s="4"/>
-      <c r="F115" s="4"/>
-      <c r="G115" s="4"/>
-      <c r="H115" s="4"/>
-      <c r="I115" s="4"/>
-      <c r="J115" s="4"/>
+      <c r="B115" s="45"/>
+      <c r="K115" s="2"/>
+      <c r="L115" s="2"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B116" s="48"/>
-      <c r="K116" s="3"/>
-      <c r="L116" s="3"/>
+      <c r="A116" s="10"/>
+      <c r="B116" s="46"/>
+      <c r="C116" s="10"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="10"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10"/>
+      <c r="H116" s="10"/>
+      <c r="I116" s="10"/>
+      <c r="J116" s="57"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="11"/>
-      <c r="B117" s="49"/>
-      <c r="C117" s="11"/>
-      <c r="D117" s="11"/>
-      <c r="E117" s="11"/>
-      <c r="F117" s="11"/>
-      <c r="G117" s="11"/>
-      <c r="H117" s="11"/>
-      <c r="I117" s="11"/>
-      <c r="J117" s="11"/>
+      <c r="B117" s="45"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B118" s="48"/>
+      <c r="A118" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B118" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="C118" s="39"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="54"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B119" s="45" t="s">
-        <v>183</v>
-      </c>
-      <c r="C119" s="42"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
-      <c r="G119" s="2"/>
-      <c r="H119" s="2"/>
-      <c r="I119" s="2"/>
-      <c r="J119" s="2"/>
+      <c r="A119" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B119" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="C119" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D119" s="3">
+        <v>10</v>
+      </c>
+      <c r="E119" s="3"/>
+      <c r="F119" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G119" s="3"/>
+      <c r="H119" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I119" s="3"/>
+      <c r="J119" s="53" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="B120" s="46" t="s">
-        <v>184</v>
-      </c>
-      <c r="C120" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="D120" s="4">
-        <v>10</v>
-      </c>
-      <c r="E120" s="4"/>
-      <c r="F120" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G120" s="4"/>
-      <c r="H120" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I120" s="4"/>
-      <c r="J120" s="4" t="s">
-        <v>88</v>
+      <c r="A120" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="C120" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D120" s="3">
+        <v>191</v>
+      </c>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I120" s="3"/>
+      <c r="J120" s="53" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B121" s="46" t="s">
-        <v>185</v>
-      </c>
-      <c r="C121" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D121" s="4">
-        <v>191</v>
-      </c>
-      <c r="E121" s="4"/>
-      <c r="F121" s="4"/>
-      <c r="G121" s="4"/>
-      <c r="H121" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I121" s="4"/>
-      <c r="J121" s="4" t="s">
-        <v>88</v>
-      </c>
+      <c r="A121" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B121" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="C121" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3"/>
+      <c r="I121" s="3"/>
+      <c r="J121" s="53"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B122" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C122" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="D122" s="4"/>
-      <c r="E122" s="4"/>
-      <c r="F122" s="4"/>
-      <c r="G122" s="4"/>
-      <c r="H122" s="4"/>
-      <c r="I122" s="4"/>
-      <c r="J122" s="4"/>
+      <c r="B122" s="45"/>
+      <c r="K122" s="2"/>
+      <c r="L122" s="2"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B123" s="48"/>
-      <c r="K123" s="3"/>
-      <c r="L123" s="3"/>
+      <c r="A123" s="10"/>
+      <c r="B123" s="46"/>
+      <c r="C123" s="10"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
+      <c r="H123" s="10"/>
+      <c r="I123" s="10"/>
+      <c r="J123" s="57"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="11"/>
-      <c r="B124" s="49"/>
-      <c r="C124" s="11"/>
-      <c r="D124" s="11"/>
-      <c r="E124" s="11"/>
-      <c r="F124" s="11"/>
-      <c r="G124" s="11"/>
-      <c r="H124" s="11"/>
-      <c r="I124" s="11"/>
-      <c r="J124" s="11"/>
+      <c r="B124" s="45"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B125" s="48"/>
+      <c r="A125" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B125" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="C125" s="39"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="54"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B126" s="45" t="s">
-        <v>187</v>
-      </c>
-      <c r="C126" s="42"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
-      <c r="G126" s="2"/>
-      <c r="H126" s="2"/>
-      <c r="I126" s="2"/>
-      <c r="J126" s="2"/>
+      <c r="A126" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B126" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="C126" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D126" s="3">
+        <v>10</v>
+      </c>
+      <c r="E126" s="3"/>
+      <c r="F126" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I126" s="3"/>
+      <c r="J126" s="53" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="B127" s="46" t="s">
-        <v>184</v>
-      </c>
-      <c r="C127" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="D127" s="4">
-        <v>10</v>
-      </c>
-      <c r="E127" s="4"/>
-      <c r="F127" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G127" s="4"/>
-      <c r="H127" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I127" s="4"/>
-      <c r="J127" s="4" t="s">
-        <v>88</v>
+      <c r="A127" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B127" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C127" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D127" s="3">
+        <v>191</v>
+      </c>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I127" s="3"/>
+      <c r="J127" s="53" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B128" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="C128" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D128" s="4">
-        <v>191</v>
-      </c>
-      <c r="E128" s="4"/>
-      <c r="F128" s="4"/>
-      <c r="G128" s="4"/>
-      <c r="H128" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I128" s="4"/>
-      <c r="J128" s="4" t="s">
-        <v>88</v>
-      </c>
+      <c r="A128" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B128" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="C128" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D128" s="3">
+        <v>10</v>
+      </c>
+      <c r="E128" s="3"/>
+      <c r="F128" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G128" s="3"/>
+      <c r="H128" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I128" s="3"/>
+      <c r="J128" s="53"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B129" s="46" t="s">
-        <v>188</v>
-      </c>
-      <c r="C129" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="D129" s="4">
-        <v>10</v>
-      </c>
-      <c r="E129" s="4"/>
-      <c r="F129" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G129" s="4"/>
-      <c r="H129" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I129" s="4"/>
-      <c r="J129" s="4"/>
+      <c r="A129" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B129" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="C129" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
+      <c r="H129" s="3"/>
+      <c r="I129" s="3"/>
+      <c r="J129" s="53"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B130" s="46" t="s">
-        <v>189</v>
-      </c>
-      <c r="C130" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D130" s="4"/>
-      <c r="E130" s="4"/>
-      <c r="F130" s="4"/>
-      <c r="G130" s="4"/>
-      <c r="H130" s="4"/>
-      <c r="I130" s="4"/>
-      <c r="J130" s="4"/>
+      <c r="A130" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B130" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C130" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
+      <c r="H130" s="3"/>
+      <c r="I130" s="3"/>
+      <c r="J130" s="53"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B131" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="C131" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D131" s="4"/>
-      <c r="E131" s="4"/>
-      <c r="F131" s="4"/>
-      <c r="G131" s="4"/>
-      <c r="H131" s="4"/>
-      <c r="I131" s="4"/>
-      <c r="J131" s="4"/>
+      <c r="A131" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B131" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="C131" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D131" s="3">
+        <v>10</v>
+      </c>
+      <c r="E131" s="3">
+        <v>0</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G131" s="3"/>
+      <c r="H131" s="3"/>
+      <c r="I131" s="3"/>
+      <c r="J131" s="53" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B132" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="C132" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="D132" s="4">
-        <v>10</v>
-      </c>
-      <c r="E132" s="4">
-        <v>0</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G132" s="4"/>
-      <c r="H132" s="4"/>
-      <c r="I132" s="4"/>
-      <c r="J132" s="4" t="s">
-        <v>116</v>
-      </c>
+      <c r="A132" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B132" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="C132" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3"/>
+      <c r="F132" s="3"/>
+      <c r="G132" s="3"/>
+      <c r="H132" s="3"/>
+      <c r="I132" s="3"/>
+      <c r="J132" s="53"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B133" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="C133" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="D133" s="4"/>
-      <c r="E133" s="4"/>
-      <c r="F133" s="4"/>
-      <c r="G133" s="4"/>
-      <c r="H133" s="4"/>
-      <c r="I133" s="4"/>
-      <c r="J133" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="B133" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="C133" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="3"/>
+      <c r="G133" s="3"/>
+      <c r="H133" s="3"/>
+      <c r="I133" s="3"/>
+      <c r="J133" s="53"/>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B134" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="C134" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="D134" s="4"/>
-      <c r="E134" s="4"/>
-      <c r="F134" s="4"/>
-      <c r="G134" s="4"/>
-      <c r="H134" s="4"/>
-      <c r="I134" s="4"/>
-      <c r="J134" s="4"/>
+      <c r="B134" s="45"/>
+      <c r="K134" s="2"/>
+      <c r="L134" s="2"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B135" s="48"/>
-      <c r="K135" s="3"/>
-      <c r="L135" s="3"/>
+      <c r="A135" s="10"/>
+      <c r="B135" s="46"/>
+      <c r="C135" s="10"/>
+      <c r="D135" s="10"/>
+      <c r="E135" s="10"/>
+      <c r="F135" s="10"/>
+      <c r="G135" s="10"/>
+      <c r="H135" s="10"/>
+      <c r="I135" s="10"/>
+      <c r="J135" s="57"/>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" s="11"/>
-      <c r="B136" s="49"/>
-      <c r="C136" s="11"/>
-      <c r="D136" s="11"/>
-      <c r="E136" s="11"/>
-      <c r="F136" s="11"/>
-      <c r="G136" s="11"/>
-      <c r="H136" s="11"/>
-      <c r="I136" s="11"/>
-      <c r="J136" s="11"/>
+      <c r="B136" s="45"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B137" s="48"/>
+      <c r="A137" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B137" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="C137" s="39"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
+      <c r="J137" s="54"/>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A138" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B138" s="45" t="s">
-        <v>192</v>
-      </c>
-      <c r="C138" s="42"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
-      <c r="F138" s="2"/>
-      <c r="G138" s="2"/>
-      <c r="H138" s="2"/>
-      <c r="I138" s="2"/>
-      <c r="J138" s="2"/>
+      <c r="A138" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B138" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="C138" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D138" s="3">
+        <v>10</v>
+      </c>
+      <c r="E138" s="3"/>
+      <c r="F138" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G138" s="3"/>
+      <c r="H138" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I138" s="3"/>
+      <c r="J138" s="53" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A139" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="B139" s="46" t="s">
-        <v>193</v>
-      </c>
-      <c r="C139" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="D139" s="4">
+      <c r="A139" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B139" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="C139" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D139" s="3">
         <v>10</v>
       </c>
-      <c r="E139" s="4"/>
-      <c r="F139" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G139" s="4"/>
-      <c r="H139" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I139" s="4"/>
-      <c r="J139" s="4" t="s">
-        <v>88</v>
+      <c r="E139" s="3"/>
+      <c r="F139" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G139" s="3"/>
+      <c r="H139" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I139" s="3"/>
+      <c r="J139" s="53" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A140" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="B140" s="46" t="s">
-        <v>184</v>
-      </c>
-      <c r="C140" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="D140" s="4">
-        <v>10</v>
-      </c>
-      <c r="E140" s="4"/>
-      <c r="F140" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G140" s="4"/>
-      <c r="H140" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I140" s="4"/>
-      <c r="J140" s="4" t="s">
-        <v>88</v>
+      <c r="A140" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B140" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="C140" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
+      <c r="F140" s="3"/>
+      <c r="G140" s="3"/>
+      <c r="H140" s="3"/>
+      <c r="I140" s="3"/>
+      <c r="J140" s="53" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A141" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B141" s="46" t="s">
-        <v>194</v>
-      </c>
-      <c r="C141" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="D141" s="4"/>
-      <c r="E141" s="4"/>
-      <c r="F141" s="4"/>
-      <c r="G141" s="4"/>
-      <c r="H141" s="4"/>
-      <c r="I141" s="4"/>
-      <c r="J141" s="4" t="s">
-        <v>73</v>
+      <c r="A141" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B141" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="C141" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3"/>
+      <c r="F141" s="3"/>
+      <c r="G141" s="3"/>
+      <c r="H141" s="3"/>
+      <c r="I141" s="3"/>
+      <c r="J141" s="53" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A142" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B142" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="C142" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="D142" s="4"/>
-      <c r="E142" s="4"/>
-      <c r="F142" s="4"/>
-      <c r="G142" s="4"/>
-      <c r="H142" s="4"/>
-      <c r="I142" s="4"/>
-      <c r="J142" s="4" t="s">
-        <v>73</v>
+      <c r="A142" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B142" s="43" t="s">
+        <v>192</v>
+      </c>
+      <c r="C142" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3"/>
+      <c r="F142" s="3"/>
+      <c r="G142" s="3"/>
+      <c r="H142" s="3"/>
+      <c r="I142" s="3"/>
+      <c r="J142" s="53" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B143" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="C143" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="D143" s="4"/>
-      <c r="E143" s="4"/>
-      <c r="F143" s="4"/>
-      <c r="G143" s="4"/>
-      <c r="H143" s="4"/>
-      <c r="I143" s="4"/>
-      <c r="J143" s="4" t="s">
-        <v>73</v>
+        <v>49</v>
+      </c>
+      <c r="B143" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="C143" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3"/>
+      <c r="F143" s="3"/>
+      <c r="G143" s="3"/>
+      <c r="H143" s="3"/>
+      <c r="I143" s="3"/>
+      <c r="J143" s="53" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A144" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B144" s="46" t="s">
-        <v>197</v>
-      </c>
-      <c r="C144" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="D144" s="4"/>
-      <c r="E144" s="4"/>
-      <c r="F144" s="4"/>
-      <c r="G144" s="4"/>
-      <c r="H144" s="4"/>
-      <c r="I144" s="4"/>
-      <c r="J144" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="B144" s="45"/>
+      <c r="K144" s="2"/>
+      <c r="L144" s="2"/>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B145" s="48"/>
-      <c r="K145" s="3"/>
-      <c r="L145" s="3"/>
+      <c r="A145" s="10"/>
+      <c r="B145" s="46"/>
+      <c r="C145" s="10"/>
+      <c r="D145" s="10"/>
+      <c r="E145" s="10"/>
+      <c r="F145" s="10"/>
+      <c r="G145" s="10"/>
+      <c r="H145" s="10"/>
+      <c r="I145" s="10"/>
+      <c r="J145" s="57"/>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A146" s="11"/>
-      <c r="B146" s="49"/>
-      <c r="C146" s="11"/>
-      <c r="D146" s="11"/>
-      <c r="E146" s="11"/>
-      <c r="F146" s="11"/>
-      <c r="G146" s="11"/>
-      <c r="H146" s="11"/>
-      <c r="I146" s="11"/>
-      <c r="J146" s="11"/>
+      <c r="B146" s="45"/>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B147" s="48"/>
+      <c r="A147" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B147" s="43"/>
+      <c r="C147" s="39"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
+      <c r="J147" s="54"/>
+      <c r="K147" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="L147" s="50"/>
+      <c r="M147" s="50"/>
+      <c r="N147" s="50"/>
+      <c r="O147" s="50"/>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A148" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="B148" s="46"/>
-      <c r="C148" s="42"/>
-      <c r="D148" s="2"/>
-      <c r="E148" s="2"/>
-      <c r="F148" s="2"/>
-      <c r="G148" s="2"/>
-      <c r="H148" s="2"/>
-      <c r="I148" s="2"/>
-      <c r="J148" s="2"/>
-      <c r="K148" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="L148" s="53"/>
-      <c r="M148" s="53"/>
-      <c r="N148" s="53"/>
-      <c r="O148" s="53"/>
+      <c r="A148" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B148" s="43"/>
+      <c r="C148" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D148" s="3">
+        <v>10</v>
+      </c>
+      <c r="E148" s="3"/>
+      <c r="F148" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G148" s="3"/>
+      <c r="H148" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I148" s="3"/>
+      <c r="J148" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="K148" s="50"/>
+      <c r="L148" s="50"/>
+      <c r="M148" s="50"/>
+      <c r="N148" s="50"/>
+      <c r="O148" s="50"/>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A149" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="B149" s="46"/>
-      <c r="C149" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="D149" s="4">
+      <c r="A149" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B149" s="43"/>
+      <c r="C149" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D149" s="3">
         <v>10</v>
       </c>
-      <c r="E149" s="4"/>
-      <c r="F149" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G149" s="4"/>
-      <c r="H149" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I149" s="4"/>
-      <c r="J149" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="K149" s="53"/>
-      <c r="L149" s="53"/>
-      <c r="M149" s="53"/>
-      <c r="N149" s="53"/>
-      <c r="O149" s="53"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G149" s="3"/>
+      <c r="H149" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I149" s="3"/>
+      <c r="J149" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="K149" s="50"/>
+      <c r="L149" s="50"/>
+      <c r="M149" s="50"/>
+      <c r="N149" s="50"/>
+      <c r="O149" s="50"/>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A150" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="B150" s="46"/>
-      <c r="C150" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="D150" s="4">
-        <v>10</v>
-      </c>
-      <c r="E150" s="4"/>
-      <c r="F150" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G150" s="4"/>
-      <c r="H150" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I150" s="4"/>
-      <c r="J150" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="K150" s="53"/>
-      <c r="L150" s="53"/>
-      <c r="M150" s="53"/>
-      <c r="N150" s="53"/>
-      <c r="O150" s="53"/>
+      <c r="B150" s="45"/>
+      <c r="K150" s="50"/>
+      <c r="L150" s="50"/>
+      <c r="M150" s="50"/>
+      <c r="N150" s="50"/>
+      <c r="O150" s="50"/>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B151" s="48"/>
-      <c r="K151" s="53"/>
-      <c r="L151" s="53"/>
-      <c r="M151" s="53"/>
-      <c r="N151" s="53"/>
-      <c r="O151" s="53"/>
+      <c r="B151" s="45"/>
+      <c r="K151" s="50"/>
+      <c r="L151" s="50"/>
+      <c r="M151" s="50"/>
+      <c r="N151" s="50"/>
+      <c r="O151" s="50"/>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B152" s="48"/>
-      <c r="K152" s="53"/>
-      <c r="L152" s="53"/>
-      <c r="M152" s="53"/>
-      <c r="N152" s="53"/>
-      <c r="O152" s="53"/>
+      <c r="B152" s="45"/>
+      <c r="K152" s="50"/>
+      <c r="L152" s="50"/>
+      <c r="M152" s="50"/>
+      <c r="N152" s="50"/>
+      <c r="O152" s="50"/>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B153" s="48"/>
-      <c r="K153" s="53"/>
-      <c r="L153" s="53"/>
-      <c r="M153" s="53"/>
-      <c r="N153" s="53"/>
-      <c r="O153" s="53"/>
+      <c r="B153" s="45"/>
+      <c r="K153" s="50"/>
+      <c r="L153" s="50"/>
+      <c r="M153" s="50"/>
+      <c r="N153" s="50"/>
+      <c r="O153" s="50"/>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B154" s="48"/>
-      <c r="K154" s="53"/>
-      <c r="L154" s="53"/>
-      <c r="M154" s="53"/>
-      <c r="N154" s="53"/>
-      <c r="O154" s="53"/>
+      <c r="B154" s="45"/>
+      <c r="K154" s="50"/>
+      <c r="L154" s="50"/>
+      <c r="M154" s="50"/>
+      <c r="N154" s="50"/>
+      <c r="O154" s="50"/>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B155" s="48"/>
-      <c r="K155" s="53"/>
-      <c r="L155" s="53"/>
-      <c r="M155" s="53"/>
-      <c r="N155" s="53"/>
-      <c r="O155" s="53"/>
+      <c r="B155" s="45"/>
+      <c r="K155" s="50"/>
+      <c r="L155" s="50"/>
+      <c r="M155" s="50"/>
+      <c r="N155" s="50"/>
+      <c r="O155" s="50"/>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B156" s="48"/>
-      <c r="K156" s="53"/>
-      <c r="L156" s="53"/>
-      <c r="M156" s="53"/>
-      <c r="N156" s="53"/>
-      <c r="O156" s="53"/>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B157" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="K148:O156"/>
+    <mergeCell ref="K147:O155"/>
     <mergeCell ref="K65:P68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19599,13 +20153,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>148</xdr:row>
+                    <xdr:row>147</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>149</xdr:row>
+                    <xdr:row>148</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -19863,13 +20417,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>148</xdr:row>
+                    <xdr:row>147</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>149</xdr:row>
+                    <xdr:row>148</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21073,13 +21627,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>100</xdr:row>
+                    <xdr:row>99</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>101</xdr:row>
+                    <xdr:row>100</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21095,13 +21649,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>100</xdr:row>
+                    <xdr:row>99</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>101</xdr:row>
+                    <xdr:row>100</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21117,13 +21671,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>100</xdr:row>
+                    <xdr:row>99</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>101</xdr:row>
+                    <xdr:row>100</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21139,13 +21693,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>100</xdr:row>
+                    <xdr:row>99</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>101</xdr:row>
+                    <xdr:row>100</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21161,13 +21715,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>100</xdr:row>
+                    <xdr:row>99</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>101</xdr:row>
+                    <xdr:row>100</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21183,13 +21737,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>100</xdr:row>
+                    <xdr:row>99</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>101</xdr:row>
+                    <xdr:row>100</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21205,13 +21759,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>101</xdr:row>
+                    <xdr:row>100</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>102</xdr:row>
+                    <xdr:row>101</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21227,13 +21781,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>101</xdr:row>
+                    <xdr:row>100</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>102</xdr:row>
+                    <xdr:row>101</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21249,13 +21803,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>102</xdr:row>
+                    <xdr:row>101</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>103</xdr:row>
+                    <xdr:row>102</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21271,13 +21825,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>102</xdr:row>
+                    <xdr:row>101</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>103</xdr:row>
+                    <xdr:row>102</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21293,13 +21847,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>103</xdr:row>
+                    <xdr:row>102</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>104</xdr:row>
+                    <xdr:row>103</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21315,13 +21869,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>103</xdr:row>
+                    <xdr:row>102</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>104</xdr:row>
+                    <xdr:row>103</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21337,13 +21891,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>104</xdr:row>
+                    <xdr:row>103</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>105</xdr:row>
+                    <xdr:row>104</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21359,13 +21913,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>104</xdr:row>
+                    <xdr:row>103</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>105</xdr:row>
+                    <xdr:row>104</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21381,13 +21935,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>105</xdr:row>
+                    <xdr:row>104</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>106</xdr:row>
+                    <xdr:row>105</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21403,13 +21957,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>105</xdr:row>
+                    <xdr:row>104</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>106</xdr:row>
+                    <xdr:row>105</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21425,13 +21979,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>106</xdr:row>
+                    <xdr:row>105</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>107</xdr:row>
+                    <xdr:row>106</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21447,13 +22001,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>106</xdr:row>
+                    <xdr:row>105</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>107</xdr:row>
+                    <xdr:row>106</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21469,13 +22023,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>107</xdr:row>
+                    <xdr:row>106</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>108</xdr:row>
+                    <xdr:row>107</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21491,13 +22045,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>107</xdr:row>
+                    <xdr:row>106</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>108</xdr:row>
+                    <xdr:row>107</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21513,13 +22067,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>108</xdr:row>
+                    <xdr:row>107</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>109</xdr:row>
+                    <xdr:row>108</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21535,13 +22089,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>108</xdr:row>
+                    <xdr:row>107</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>109</xdr:row>
+                    <xdr:row>108</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21557,13 +22111,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>114</xdr:row>
+                    <xdr:row>113</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>115</xdr:row>
+                    <xdr:row>114</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21579,13 +22133,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>114</xdr:row>
+                    <xdr:row>113</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>115</xdr:row>
+                    <xdr:row>114</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21601,13 +22155,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>120</xdr:row>
+                    <xdr:row>119</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>121</xdr:row>
+                    <xdr:row>120</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21623,13 +22177,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>120</xdr:row>
+                    <xdr:row>119</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>121</xdr:row>
+                    <xdr:row>120</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21645,13 +22199,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>121</xdr:row>
+                    <xdr:row>120</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>122</xdr:row>
+                    <xdr:row>121</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21667,13 +22221,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>121</xdr:row>
+                    <xdr:row>120</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>122</xdr:row>
+                    <xdr:row>121</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21689,13 +22243,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>129</xdr:row>
+                    <xdr:row>128</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>130</xdr:row>
+                    <xdr:row>129</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21711,13 +22265,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>129</xdr:row>
+                    <xdr:row>128</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>130</xdr:row>
+                    <xdr:row>129</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21733,13 +22287,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>140</xdr:row>
+                    <xdr:row>139</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>141</xdr:row>
+                    <xdr:row>140</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21755,13 +22309,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>140</xdr:row>
+                    <xdr:row>139</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>141</xdr:row>
+                    <xdr:row>140</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21777,13 +22331,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>141</xdr:row>
+                    <xdr:row>140</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>142</xdr:row>
+                    <xdr:row>141</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21799,13 +22353,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>141</xdr:row>
+                    <xdr:row>140</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>142</xdr:row>
+                    <xdr:row>141</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21821,13 +22375,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>142</xdr:row>
+                    <xdr:row>141</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>143</xdr:row>
+                    <xdr:row>142</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21843,13 +22397,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>142</xdr:row>
+                    <xdr:row>141</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>143</xdr:row>
+                    <xdr:row>142</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21865,13 +22419,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>143</xdr:row>
+                    <xdr:row>142</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>144</xdr:row>
+                    <xdr:row>143</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21887,13 +22441,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>143</xdr:row>
+                    <xdr:row>142</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>144</xdr:row>
+                    <xdr:row>143</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21909,13 +22463,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>128</xdr:row>
+                    <xdr:row>127</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>129</xdr:row>
+                    <xdr:row>128</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21931,13 +22485,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>128</xdr:row>
+                    <xdr:row>127</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>129</xdr:row>
+                    <xdr:row>128</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21953,13 +22507,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>129</xdr:row>
+                    <xdr:row>128</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>130</xdr:row>
+                    <xdr:row>129</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21975,13 +22529,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>129</xdr:row>
+                    <xdr:row>128</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>130</xdr:row>
+                    <xdr:row>129</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21997,13 +22551,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>130</xdr:row>
+                    <xdr:row>129</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>131</xdr:row>
+                    <xdr:row>130</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22019,13 +22573,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>130</xdr:row>
+                    <xdr:row>129</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>131</xdr:row>
+                    <xdr:row>130</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22041,13 +22595,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>131</xdr:row>
+                    <xdr:row>130</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>132</xdr:row>
+                    <xdr:row>131</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22063,13 +22617,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>131</xdr:row>
+                    <xdr:row>130</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>132</xdr:row>
+                    <xdr:row>131</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22085,13 +22639,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>132</xdr:row>
+                    <xdr:row>131</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>133</xdr:row>
+                    <xdr:row>132</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22107,13 +22661,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>132</xdr:row>
+                    <xdr:row>131</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>133</xdr:row>
+                    <xdr:row>132</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22129,13 +22683,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>133</xdr:row>
+                    <xdr:row>132</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>134</xdr:row>
+                    <xdr:row>133</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22151,13 +22705,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>133</xdr:row>
+                    <xdr:row>132</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>134</xdr:row>
+                    <xdr:row>133</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22305,13 +22859,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>111</xdr:row>
+                    <xdr:row>110</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>112</xdr:row>
+                    <xdr:row>111</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22327,13 +22881,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>112</xdr:row>
+                    <xdr:row>111</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>113</xdr:row>
+                    <xdr:row>112</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22349,13 +22903,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>113</xdr:row>
+                    <xdr:row>112</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>114</xdr:row>
+                    <xdr:row>113</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22371,13 +22925,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>111</xdr:row>
+                    <xdr:row>110</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>112</xdr:row>
+                    <xdr:row>111</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22393,13 +22947,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>112</xdr:row>
+                    <xdr:row>111</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>113</xdr:row>
+                    <xdr:row>112</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22415,13 +22969,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>113</xdr:row>
+                    <xdr:row>112</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>114</xdr:row>
+                    <xdr:row>113</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22481,13 +23035,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>138</xdr:row>
+                    <xdr:row>137</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>139</xdr:row>
+                    <xdr:row>138</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22503,13 +23057,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>138</xdr:row>
+                    <xdr:row>137</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>139</xdr:row>
+                    <xdr:row>138</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22569,13 +23123,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>109</xdr:row>
+                    <xdr:row>108</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>110</xdr:row>
+                    <xdr:row>109</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22591,13 +23145,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>109</xdr:row>
+                    <xdr:row>108</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>110</xdr:row>
+                    <xdr:row>109</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22613,13 +23167,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>110</xdr:row>
+                    <xdr:row>109</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>111</xdr:row>
+                    <xdr:row>110</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22635,13 +23189,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>110</xdr:row>
+                    <xdr:row>109</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>111</xdr:row>
+                    <xdr:row>110</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22657,13 +23211,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>139</xdr:row>
+                    <xdr:row>138</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>140</xdr:row>
+                    <xdr:row>139</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22679,13 +23233,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>139</xdr:row>
+                    <xdr:row>138</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>140</xdr:row>
+                    <xdr:row>139</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22701,13 +23255,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>126</xdr:row>
+                    <xdr:row>125</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>127</xdr:row>
+                    <xdr:row>126</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22723,13 +23277,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>126</xdr:row>
+                    <xdr:row>125</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>127</xdr:row>
+                    <xdr:row>126</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22745,13 +23299,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>119</xdr:row>
+                    <xdr:row>118</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>120</xdr:row>
+                    <xdr:row>119</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22767,13 +23321,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>119</xdr:row>
+                    <xdr:row>118</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>120</xdr:row>
+                    <xdr:row>119</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22877,13 +23431,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>127</xdr:row>
+                    <xdr:row>126</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>128</xdr:row>
+                    <xdr:row>127</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22899,13 +23453,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>127</xdr:row>
+                    <xdr:row>126</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>128</xdr:row>
+                    <xdr:row>127</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22965,13 +23519,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>149</xdr:row>
+                    <xdr:row>148</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>150</xdr:row>
+                    <xdr:row>149</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22987,13 +23541,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>149</xdr:row>
+                    <xdr:row>148</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>150</xdr:row>
+                    <xdr:row>149</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -23529,6 +24083,182 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3603" r:id="rId218" name="Check Box 531">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>110</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>111</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3604" r:id="rId219" name="Check Box 532">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>111</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>112</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3605" r:id="rId220" name="Check Box 533">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>112</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>113</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3606" r:id="rId221" name="Check Box 534">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>110</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>111</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3607" r:id="rId222" name="Check Box 535">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>111</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>112</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3608" r:id="rId223" name="Check Box 536">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>112</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>113</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3609" r:id="rId224" name="Check Box 537">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>113</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>114</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3610" r:id="rId225" name="Check Box 538">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>113</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>114</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>

--- a/db_29_10_2018.xlsx
+++ b/db_29_10_2018.xlsx
@@ -2,17 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data type" sheetId="3" r:id="rId1"/>
+    <sheet name="v1" sheetId="6" r:id="rId2"/>
+    <sheet name="local" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'data type'!$A$1:$J$17</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="218">
   <si>
     <t>employers</t>
   </si>
@@ -369,9 +371,6 @@
 $table-&gt;primary(['job_id', 'profile_id']);</t>
   </si>
   <si>
-    <t>nếu bằng 0 hiển thị: Thỏa Thuận</t>
-  </si>
-  <si>
     <t>nếu bằng 0 không hiển thị</t>
   </si>
   <si>
@@ -633,12 +632,120 @@
   <si>
     <t>ward_id</t>
   </si>
+  <si>
+    <r>
+      <t>timviec </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>districts</t>
+    </r>
+  </si>
+  <si>
+    <t> id : int(10) unsigned</t>
+  </si>
+  <si>
+    <t> name : varchar(100)</t>
+  </si>
+  <si>
+    <t> prefix : varchar(20)</t>
+  </si>
+  <si>
+    <t> province_id : int(10) unsigned</t>
+  </si>
+  <si>
+    <r>
+      <t>timviec </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>provinces</t>
+    </r>
+  </si>
+  <si>
+    <t> name : varchar(50)</t>
+  </si>
+  <si>
+    <t> code : varchar(20)</t>
+  </si>
+  <si>
+    <r>
+      <t>timviec </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>streets</t>
+    </r>
+  </si>
+  <si>
+    <t> district_id : int(10) unsigned</t>
+  </si>
+  <si>
+    <r>
+      <t>timviec </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>wards</t>
+    </r>
+  </si>
+  <si>
+    <t>Các Chức Vụ</t>
+  </si>
+  <si>
+    <t>apply_online</t>
+  </si>
+  <si>
+    <t>1: nộp online, 0: nộp offline</t>
+  </si>
+  <si>
+    <t>&gt;= 18</t>
+  </si>
+  <si>
+    <t>wage_from</t>
+  </si>
+  <si>
+    <t>wage_to</t>
+  </si>
+  <si>
+    <t>Mức Lương Từ</t>
+  </si>
+  <si>
+    <t>Mức Lương Đến</t>
+  </si>
+  <si>
+    <t>nếu bằng null hoặc 0 hiển thị: Thỏa Thuận</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -690,8 +797,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF888888"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -719,6 +838,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDFDFDF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,7 +960,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -909,15 +1040,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -929,6 +1051,42 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1018,7 +1176,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp113.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp114.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1054,7 +1212,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp121.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp122.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1505,11 +1663,83 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp223.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp224.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp225.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp226.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp227.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp228.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp229.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp230.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp231.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp232.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp233.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp234.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp235.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp236.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp237.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp238.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp239.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp240.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
@@ -4366,13 +4596,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>147</xdr:row>
+          <xdr:row>148</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>148</xdr:row>
+          <xdr:row>149</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5134,13 +5364,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>147</xdr:row>
+          <xdr:row>148</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>148</xdr:row>
+          <xdr:row>149</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -7886,13 +8116,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>95</xdr:row>
+          <xdr:row>97</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>96</xdr:row>
+          <xdr:row>98</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -7950,13 +8180,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>95</xdr:row>
+          <xdr:row>97</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>96</xdr:row>
+          <xdr:row>98</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -8014,13 +8244,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>96</xdr:row>
+          <xdr:row>97</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>97</xdr:row>
+          <xdr:row>98</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -8078,13 +8308,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>96</xdr:row>
+          <xdr:row>97</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>97</xdr:row>
+          <xdr:row>98</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -8142,13 +8372,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>97</xdr:row>
+          <xdr:row>98</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>98</xdr:row>
+          <xdr:row>99</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -8206,13 +8436,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>97</xdr:row>
+          <xdr:row>98</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>98</xdr:row>
+          <xdr:row>99</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -8270,13 +8500,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>98</xdr:row>
+          <xdr:row>99</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>99</xdr:row>
+          <xdr:row>100</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -8334,13 +8564,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>98</xdr:row>
+          <xdr:row>99</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>99</xdr:row>
+          <xdr:row>100</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -8526,13 +8756,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>99</xdr:row>
+          <xdr:row>100</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>100</xdr:row>
+          <xdr:row>101</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -8590,13 +8820,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>99</xdr:row>
+          <xdr:row>100</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>100</xdr:row>
+          <xdr:row>101</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -8654,13 +8884,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>99</xdr:row>
+          <xdr:row>100</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>100</xdr:row>
+          <xdr:row>101</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -8718,13 +8948,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>99</xdr:row>
+          <xdr:row>100</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>100</xdr:row>
+          <xdr:row>101</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -8782,13 +9012,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>99</xdr:row>
+          <xdr:row>100</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>100</xdr:row>
+          <xdr:row>101</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -8846,13 +9076,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>99</xdr:row>
+          <xdr:row>100</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>100</xdr:row>
+          <xdr:row>101</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -8910,13 +9140,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>99</xdr:row>
+          <xdr:row>100</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>100</xdr:row>
+          <xdr:row>101</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -8974,13 +9204,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>99</xdr:row>
+          <xdr:row>100</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>100</xdr:row>
+          <xdr:row>101</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9038,13 +9268,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>100</xdr:row>
+          <xdr:row>101</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>101</xdr:row>
+          <xdr:row>102</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9102,13 +9332,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>100</xdr:row>
+          <xdr:row>101</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>101</xdr:row>
+          <xdr:row>102</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9166,13 +9396,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>101</xdr:row>
+          <xdr:row>102</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>102</xdr:row>
+          <xdr:row>103</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9230,13 +9460,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>101</xdr:row>
+          <xdr:row>102</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>102</xdr:row>
+          <xdr:row>103</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9294,13 +9524,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>102</xdr:row>
+          <xdr:row>103</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>103</xdr:row>
+          <xdr:row>104</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9358,13 +9588,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>102</xdr:row>
+          <xdr:row>103</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>103</xdr:row>
+          <xdr:row>104</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9422,13 +9652,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>103</xdr:row>
+          <xdr:row>104</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>104</xdr:row>
+          <xdr:row>105</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9486,13 +9716,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>103</xdr:row>
+          <xdr:row>104</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>104</xdr:row>
+          <xdr:row>105</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9550,13 +9780,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>104</xdr:row>
+          <xdr:row>105</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>105</xdr:row>
+          <xdr:row>106</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9614,13 +9844,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>104</xdr:row>
+          <xdr:row>105</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>105</xdr:row>
+          <xdr:row>106</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9678,13 +9908,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>105</xdr:row>
+          <xdr:row>106</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>106</xdr:row>
+          <xdr:row>107</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9742,13 +9972,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>105</xdr:row>
+          <xdr:row>106</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>106</xdr:row>
+          <xdr:row>107</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9806,13 +10036,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>106</xdr:row>
+          <xdr:row>107</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>107</xdr:row>
+          <xdr:row>108</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9870,13 +10100,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>106</xdr:row>
+          <xdr:row>107</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>107</xdr:row>
+          <xdr:row>108</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9934,13 +10164,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>107</xdr:row>
+          <xdr:row>108</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>108</xdr:row>
+          <xdr:row>109</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9998,13 +10228,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>107</xdr:row>
+          <xdr:row>108</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>108</xdr:row>
+          <xdr:row>109</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10062,13 +10292,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>113</xdr:row>
+          <xdr:row>114</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>114</xdr:row>
+          <xdr:row>115</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10126,13 +10356,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>113</xdr:row>
+          <xdr:row>114</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>114</xdr:row>
+          <xdr:row>115</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10190,13 +10420,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>119</xdr:row>
+          <xdr:row>120</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>120</xdr:row>
+          <xdr:row>121</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10254,13 +10484,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>119</xdr:row>
+          <xdr:row>120</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>120</xdr:row>
+          <xdr:row>121</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10318,13 +10548,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>120</xdr:row>
+          <xdr:row>121</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>121</xdr:row>
+          <xdr:row>122</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10382,13 +10612,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>120</xdr:row>
+          <xdr:row>121</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>121</xdr:row>
+          <xdr:row>122</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10446,13 +10676,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>128</xdr:row>
+          <xdr:row>129</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>129</xdr:row>
+          <xdr:row>130</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10510,13 +10740,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>128</xdr:row>
+          <xdr:row>129</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>129</xdr:row>
+          <xdr:row>130</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10574,13 +10804,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>139</xdr:row>
+          <xdr:row>140</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>140</xdr:row>
+          <xdr:row>141</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10638,13 +10868,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>139</xdr:row>
+          <xdr:row>140</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>140</xdr:row>
+          <xdr:row>141</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10702,13 +10932,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>140</xdr:row>
+          <xdr:row>141</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>141</xdr:row>
+          <xdr:row>142</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10766,13 +10996,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>140</xdr:row>
+          <xdr:row>141</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>141</xdr:row>
+          <xdr:row>142</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10830,13 +11060,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>141</xdr:row>
+          <xdr:row>142</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>142</xdr:row>
+          <xdr:row>143</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10894,13 +11124,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>141</xdr:row>
+          <xdr:row>142</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>142</xdr:row>
+          <xdr:row>143</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10958,13 +11188,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>142</xdr:row>
+          <xdr:row>143</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>143</xdr:row>
+          <xdr:row>144</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11022,13 +11252,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>142</xdr:row>
+          <xdr:row>143</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>143</xdr:row>
+          <xdr:row>144</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11086,13 +11316,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>127</xdr:row>
+          <xdr:row>128</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>128</xdr:row>
+          <xdr:row>129</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11150,13 +11380,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>127</xdr:row>
+          <xdr:row>128</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>128</xdr:row>
+          <xdr:row>129</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11214,13 +11444,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>128</xdr:row>
+          <xdr:row>129</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>129</xdr:row>
+          <xdr:row>130</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11278,13 +11508,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>128</xdr:row>
+          <xdr:row>129</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>129</xdr:row>
+          <xdr:row>130</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11342,13 +11572,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>129</xdr:row>
+          <xdr:row>130</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>130</xdr:row>
+          <xdr:row>131</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11406,13 +11636,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>129</xdr:row>
+          <xdr:row>130</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>130</xdr:row>
+          <xdr:row>131</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11470,13 +11700,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>130</xdr:row>
+          <xdr:row>131</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>131</xdr:row>
+          <xdr:row>132</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11534,13 +11764,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>130</xdr:row>
+          <xdr:row>131</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>131</xdr:row>
+          <xdr:row>132</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11598,13 +11828,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>131</xdr:row>
+          <xdr:row>132</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>132</xdr:row>
+          <xdr:row>133</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11662,13 +11892,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>131</xdr:row>
+          <xdr:row>132</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>132</xdr:row>
+          <xdr:row>133</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11726,13 +11956,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>132</xdr:row>
+          <xdr:row>133</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>133</xdr:row>
+          <xdr:row>134</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11790,13 +12020,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>132</xdr:row>
+          <xdr:row>133</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>133</xdr:row>
+          <xdr:row>134</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12238,13 +12468,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>110</xdr:row>
+          <xdr:row>111</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>111</xdr:row>
+          <xdr:row>112</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12302,13 +12532,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>111</xdr:row>
+          <xdr:row>112</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>112</xdr:row>
+          <xdr:row>113</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12366,13 +12596,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>112</xdr:row>
+          <xdr:row>113</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>113</xdr:row>
+          <xdr:row>114</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12430,13 +12660,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>110</xdr:row>
+          <xdr:row>111</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>111</xdr:row>
+          <xdr:row>112</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12494,13 +12724,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>111</xdr:row>
+          <xdr:row>112</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>112</xdr:row>
+          <xdr:row>113</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12558,13 +12788,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>112</xdr:row>
+          <xdr:row>113</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>113</xdr:row>
+          <xdr:row>114</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12750,13 +12980,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>137</xdr:row>
+          <xdr:row>138</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>138</xdr:row>
+          <xdr:row>139</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12814,13 +13044,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>137</xdr:row>
+          <xdr:row>138</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>138</xdr:row>
+          <xdr:row>139</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -13006,13 +13236,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>108</xdr:row>
+          <xdr:row>109</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>109</xdr:row>
+          <xdr:row>110</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -13070,13 +13300,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>108</xdr:row>
+          <xdr:row>109</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>109</xdr:row>
+          <xdr:row>110</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -13134,13 +13364,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>109</xdr:row>
+          <xdr:row>110</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>110</xdr:row>
+          <xdr:row>111</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -13198,13 +13428,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>109</xdr:row>
+          <xdr:row>110</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>110</xdr:row>
+          <xdr:row>111</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -13262,13 +13492,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>138</xdr:row>
+          <xdr:row>139</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>139</xdr:row>
+          <xdr:row>140</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -13326,13 +13556,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>138</xdr:row>
+          <xdr:row>139</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>139</xdr:row>
+          <xdr:row>140</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -13390,13 +13620,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>125</xdr:row>
+          <xdr:row>126</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>126</xdr:row>
+          <xdr:row>127</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -13454,13 +13684,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>125</xdr:row>
+          <xdr:row>126</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>126</xdr:row>
+          <xdr:row>127</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -13518,13 +13748,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>118</xdr:row>
+          <xdr:row>119</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>119</xdr:row>
+          <xdr:row>120</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -13582,13 +13812,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>118</xdr:row>
+          <xdr:row>119</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>119</xdr:row>
+          <xdr:row>120</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -13902,13 +14132,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>126</xdr:row>
+          <xdr:row>127</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>127</xdr:row>
+          <xdr:row>128</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -13966,13 +14196,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>126</xdr:row>
+          <xdr:row>127</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>127</xdr:row>
+          <xdr:row>128</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -14158,13 +14388,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>148</xdr:row>
+          <xdr:row>149</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>149</xdr:row>
+          <xdr:row>150</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -14222,13 +14452,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>148</xdr:row>
+          <xdr:row>149</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>149</xdr:row>
+          <xdr:row>150</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -15818,14 +16048,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>110</xdr:row>
+          <xdr:row>111</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="209550" cy="190500"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>112</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3603" name="Check Box 531" hidden="1">
@@ -15871,20 +16106,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>111</xdr:row>
+          <xdr:row>112</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="209550" cy="190500"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>113</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3604" name="Check Box 532" hidden="1">
@@ -15930,20 +16170,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>112</xdr:row>
+          <xdr:row>113</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="209550" cy="190500"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>114</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3605" name="Check Box 533" hidden="1">
@@ -15989,20 +16234,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>110</xdr:row>
+          <xdr:row>111</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="209550" cy="190500"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>112</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3606" name="Check Box 534" hidden="1">
@@ -16048,20 +16298,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>111</xdr:row>
+          <xdr:row>112</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="209550" cy="190500"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>113</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3607" name="Check Box 535" hidden="1">
@@ -16107,20 +16362,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>112</xdr:row>
+          <xdr:row>113</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="209550" cy="190500"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>114</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3608" name="Check Box 536" hidden="1">
@@ -16166,20 +16426,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>113</xdr:row>
+          <xdr:row>114</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="209550" cy="190500"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>115</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3609" name="Check Box 537" hidden="1">
@@ -16225,20 +16490,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>113</xdr:row>
+          <xdr:row>114</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="209550" cy="190500"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>115</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3610" name="Check Box 538" hidden="1">
@@ -16284,10 +16554,2364 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>48</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>49</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3611" name="Check Box 539" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3611"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>48</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>49</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3612" name="Check Box 540" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3612"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>95</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>96</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3613" name="Check Box 541" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3613"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>95</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>96</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3614" name="Check Box 542" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3614"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>96</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="209550" cy="190500"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3615" name="Check Box 543" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3615"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
       </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>96</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="209550" cy="190500"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3616" name="Check Box 544" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3616"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5121" name="Check Box 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5121"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5122" name="Check Box 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5122"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="Documentation">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tgtFrame="mysql_doc"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3286125" y="0"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="http://localhost/phpmyadmin/themes/dot.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3790950" y="0"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="http://localhost/phpmyadmin/themes/dot.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4276725" y="0"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="http://localhost/phpmyadmin/themes/dot.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13325475" y="0"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="http://localhost/phpmyadmin/themes/dot.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14544675" y="0"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5123" name="Check Box 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5123"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5124" name="Check Box 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5124"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5125" name="Check Box 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5125"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5126" name="Check Box 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5126"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5127" name="Check Box 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5127"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5128" name="Check Box 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5128"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5129" name="Check Box 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5129"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5130" name="Check Box 10" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5130"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="209550" cy="190500"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5133" name="Check Box 13" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5133"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="209550" cy="190500"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5134" name="Check Box 14" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5134"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="*"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="323850"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="*"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="514350"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="*"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="704850"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="*"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1295400"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="*"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1485900"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="*"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1676400"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="*"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1866900"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8" descr="*"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2457450"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9" descr="*"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2647950"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10" descr="*"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2838450"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11" descr="*"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3028950"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12" descr="*"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3219450"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13" descr="*"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3810000"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14" descr="*"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="4000500"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15" descr="*"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="4191000"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16" descr="*"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="4381500"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17" descr="*"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="4572000"/>
+          <a:ext cx="95250" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -16555,11 +19179,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P156"/>
+  <dimension ref="A1:P157"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J31" sqref="J31"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16573,7 +19197,7 @@
     <col min="7" max="7" width="5.42578125" style="5" customWidth="1"/>
     <col min="8" max="8" width="12.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.42578125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="57.140625" style="56" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="57.140625" style="53" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
@@ -16614,7 +19238,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C2" s="39"/>
       <c r="D2" s="1"/>
@@ -16623,7 +19247,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="54"/>
+      <c r="J2" s="51"/>
       <c r="K2" s="18" t="s">
         <v>98</v>
       </c>
@@ -16650,7 +19274,7 @@
         <v>93</v>
       </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="54"/>
+      <c r="J3" s="51"/>
       <c r="K3" s="19" t="s">
         <v>99</v>
       </c>
@@ -16659,10 +19283,10 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C4" s="40" t="s">
         <v>66</v>
@@ -16675,14 +19299,14 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="53"/>
+      <c r="J4" s="50"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" s="40" t="s">
         <v>66</v>
@@ -16695,14 +19319,14 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="53"/>
+      <c r="J5" s="50"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" s="40" t="s">
         <v>66</v>
@@ -16717,14 +19341,14 @@
         <v>65</v>
       </c>
       <c r="I6" s="3"/>
-      <c r="J6" s="53"/>
+      <c r="J6" s="50"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C7" s="40" t="s">
         <v>66</v>
@@ -16739,14 +19363,14 @@
         <v>65</v>
       </c>
       <c r="I7" s="3"/>
-      <c r="J7" s="53"/>
+      <c r="J7" s="50"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8" s="40" t="s">
         <v>66</v>
@@ -16759,14 +19383,14 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="53"/>
+      <c r="J8" s="50"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" s="40" t="s">
         <v>66</v>
@@ -16779,14 +19403,14 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="53"/>
+      <c r="J9" s="50"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C10" s="40" t="s">
         <v>66</v>
@@ -16799,14 +19423,14 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="53"/>
+      <c r="J10" s="50"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C11" s="40" t="s">
         <v>66</v>
@@ -16819,14 +19443,14 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="53"/>
+      <c r="J11" s="50"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C12" s="40" t="s">
         <v>66</v>
@@ -16839,14 +19463,14 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="53"/>
+      <c r="J12" s="50"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="52" t="s">
-        <v>196</v>
+      <c r="A13" s="49" t="s">
+        <v>195</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C13" s="39" t="s">
         <v>72</v>
@@ -16863,14 +19487,14 @@
         <v>101</v>
       </c>
       <c r="I13" s="3"/>
-      <c r="J13" s="53"/>
+      <c r="J13" s="50"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="52" t="s">
-        <v>197</v>
+      <c r="A14" s="49" t="s">
+        <v>196</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C14" s="39" t="s">
         <v>72</v>
@@ -16887,14 +19511,14 @@
         <v>101</v>
       </c>
       <c r="I14" s="3"/>
-      <c r="J14" s="53"/>
+      <c r="J14" s="50"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="52" t="s">
-        <v>198</v>
+      <c r="A15" s="49" t="s">
+        <v>197</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C15" s="39" t="s">
         <v>72</v>
@@ -16911,14 +19535,14 @@
         <v>101</v>
       </c>
       <c r="I15" s="3"/>
-      <c r="J15" s="53"/>
+      <c r="J15" s="50"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C16" s="40" t="s">
         <v>67</v>
@@ -16929,8 +19553,8 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="53" t="s">
-        <v>194</v>
+      <c r="J16" s="50" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -16938,7 +19562,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C17" s="40" t="s">
         <v>66</v>
@@ -16951,11 +19575,11 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="53"/>
+      <c r="J17" s="50"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B18" s="43"/>
       <c r="C18" s="40" t="s">
@@ -16969,8 +19593,8 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="55" t="s">
-        <v>114</v>
+      <c r="J18" s="52" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -16988,7 +19612,7 @@
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
-      <c r="J20" s="57"/>
+      <c r="J20" s="54"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" s="45"/>
@@ -16998,7 +19622,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C22" s="39"/>
       <c r="D22" s="1"/>
@@ -17007,7 +19631,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="54"/>
+      <c r="J22" s="51"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
@@ -17029,14 +19653,14 @@
         <v>93</v>
       </c>
       <c r="I23" s="1"/>
-      <c r="J23" s="54"/>
+      <c r="J23" s="51"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C24" s="40" t="s">
         <v>66</v>
@@ -17049,14 +19673,14 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="53"/>
+      <c r="J24" s="50"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C25" s="40" t="s">
         <v>66</v>
@@ -17069,14 +19693,14 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="53"/>
+      <c r="J25" s="50"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C26" s="40" t="s">
         <v>66</v>
@@ -17091,14 +19715,14 @@
         <v>65</v>
       </c>
       <c r="I26" s="3"/>
-      <c r="J26" s="53"/>
+      <c r="J26" s="50"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C27" s="40" t="s">
         <v>66</v>
@@ -17113,14 +19737,14 @@
         <v>65</v>
       </c>
       <c r="I27" s="3"/>
-      <c r="J27" s="53"/>
+      <c r="J27" s="50"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C28" s="40" t="s">
         <v>66</v>
@@ -17133,14 +19757,14 @@
       <c r="G28" s="3"/>
       <c r="H28" s="1"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="53"/>
+      <c r="J28" s="50"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B29" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C29" s="40" t="s">
         <v>68</v>
@@ -17151,14 +19775,14 @@
       <c r="G29" s="3"/>
       <c r="H29" s="1"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="53"/>
+      <c r="J29" s="50"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="52" t="s">
-        <v>196</v>
+      <c r="A30" s="49" t="s">
+        <v>195</v>
       </c>
       <c r="B30" s="43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C30" s="39" t="s">
         <v>72</v>
@@ -17175,14 +19799,14 @@
         <v>101</v>
       </c>
       <c r="I30" s="3"/>
-      <c r="J30" s="53"/>
+      <c r="J30" s="50"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="52" t="s">
-        <v>197</v>
+      <c r="A31" s="49" t="s">
+        <v>196</v>
       </c>
       <c r="B31" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C31" s="39" t="s">
         <v>72</v>
@@ -17199,14 +19823,14 @@
         <v>101</v>
       </c>
       <c r="I31" s="3"/>
-      <c r="J31" s="53"/>
+      <c r="J31" s="50"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="52" t="s">
-        <v>198</v>
+      <c r="A32" s="49" t="s">
+        <v>197</v>
       </c>
       <c r="B32" s="43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C32" s="39" t="s">
         <v>72</v>
@@ -17223,14 +19847,14 @@
         <v>101</v>
       </c>
       <c r="I32" s="3"/>
-      <c r="J32" s="53"/>
+      <c r="J32" s="50"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B33" s="43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C33" s="40" t="s">
         <v>67</v>
@@ -17241,8 +19865,8 @@
       <c r="G33" s="3"/>
       <c r="H33" s="1"/>
       <c r="I33" s="3"/>
-      <c r="J33" s="53" t="s">
-        <v>194</v>
+      <c r="J33" s="50" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -17250,7 +19874,7 @@
         <v>12</v>
       </c>
       <c r="B34" s="43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C34" s="40" t="s">
         <v>66</v>
@@ -17263,14 +19887,14 @@
       <c r="G34" s="3"/>
       <c r="H34" s="1"/>
       <c r="I34" s="3"/>
-      <c r="J34" s="53"/>
+      <c r="J34" s="50"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B35" s="43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C35" s="40" t="s">
         <v>104</v>
@@ -17281,18 +19905,18 @@
       <c r="G35" s="3"/>
       <c r="H35" s="1"/>
       <c r="I35" s="3"/>
-      <c r="J35" s="53" t="s">
-        <v>118</v>
+      <c r="J35" s="50" t="s">
+        <v>117</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B36" s="43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C36" s="40" t="s">
         <v>66</v>
@@ -17305,8 +19929,8 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
-      <c r="J36" s="55" t="s">
-        <v>114</v>
+      <c r="J36" s="52" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -17319,7 +19943,7 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
-      <c r="J37" s="58"/>
+      <c r="J37" s="55"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
@@ -17333,7 +19957,7 @@
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
-      <c r="J38" s="57"/>
+      <c r="J38" s="54"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B39" s="45"/>
@@ -17343,7 +19967,7 @@
         <v>55</v>
       </c>
       <c r="B40" s="43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C40" s="39"/>
       <c r="D40" s="1"/>
@@ -17352,7 +19976,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="54"/>
+      <c r="J40" s="51"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="27" t="s">
@@ -17374,14 +19998,14 @@
         <v>93</v>
       </c>
       <c r="I41" s="1"/>
-      <c r="J41" s="54"/>
+      <c r="J41" s="51"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="28" t="s">
         <v>45</v>
       </c>
       <c r="B42" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C42" s="40" t="s">
         <v>66</v>
@@ -17396,7 +20020,7 @@
         <v>65</v>
       </c>
       <c r="I42" s="3"/>
-      <c r="J42" s="59" t="s">
+      <c r="J42" s="56" t="s">
         <v>43</v>
       </c>
     </row>
@@ -17415,7 +20039,7 @@
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
-      <c r="J44" s="57"/>
+      <c r="J44" s="54"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B45" s="45"/>
@@ -17425,7 +20049,7 @@
         <v>76</v>
       </c>
       <c r="B46" s="43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C46" s="39"/>
       <c r="D46" s="1"/>
@@ -17434,7 +20058,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="54"/>
+      <c r="J46" s="51"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="27" t="s">
@@ -17456,14 +20080,14 @@
         <v>93</v>
       </c>
       <c r="I47" s="1"/>
-      <c r="J47" s="54"/>
+      <c r="J47" s="51"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="28" t="s">
         <v>15</v>
       </c>
       <c r="B48" s="43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C48" s="40" t="s">
         <v>66</v>
@@ -17478,7 +20102,7 @@
         <v>65</v>
       </c>
       <c r="I48" s="3"/>
-      <c r="J48" s="59" t="s">
+      <c r="J48" s="56" t="s">
         <v>77</v>
       </c>
     </row>
@@ -17492,7 +20116,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
-      <c r="J49" s="58"/>
+      <c r="J49" s="55"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
@@ -17504,7 +20128,7 @@
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
-      <c r="J50" s="60"/>
+      <c r="J50" s="57"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B51" s="45"/>
@@ -17514,7 +20138,7 @@
         <v>78</v>
       </c>
       <c r="B52" s="43" t="s">
-        <v>141</v>
+        <v>209</v>
       </c>
       <c r="C52" s="39"/>
       <c r="D52" s="1"/>
@@ -17523,7 +20147,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-      <c r="J52" s="54"/>
+      <c r="J52" s="51"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="27" t="s">
@@ -17545,14 +20169,14 @@
         <v>93</v>
       </c>
       <c r="I53" s="1"/>
-      <c r="J53" s="54"/>
+      <c r="J53" s="51"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="28" t="s">
         <v>20</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C54" s="40" t="s">
         <v>66</v>
@@ -17567,7 +20191,7 @@
         <v>65</v>
       </c>
       <c r="I54" s="3"/>
-      <c r="J54" s="59" t="s">
+      <c r="J54" s="56" t="s">
         <v>79</v>
       </c>
     </row>
@@ -17581,7 +20205,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="11"/>
       <c r="I55" s="11"/>
-      <c r="J55" s="58"/>
+      <c r="J55" s="55"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
@@ -17593,7 +20217,7 @@
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
-      <c r="J56" s="60"/>
+      <c r="J56" s="57"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B57" s="45"/>
@@ -17603,7 +20227,7 @@
         <v>53</v>
       </c>
       <c r="B58" s="43" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="C58" s="39"/>
       <c r="D58" s="1"/>
@@ -17612,7 +20236,7 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-      <c r="J58" s="54"/>
+      <c r="J58" s="51"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="27" t="s">
@@ -17634,14 +20258,14 @@
         <v>93</v>
       </c>
       <c r="I59" s="1"/>
-      <c r="J59" s="54"/>
+      <c r="J59" s="51"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="28" t="s">
         <v>86</v>
       </c>
       <c r="B60" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C60" s="40" t="s">
         <v>66</v>
@@ -17656,7 +20280,7 @@
         <v>65</v>
       </c>
       <c r="I60" s="3"/>
-      <c r="J60" s="59"/>
+      <c r="J60" s="56"/>
     </row>
     <row r="61" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
@@ -17668,7 +20292,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="11"/>
       <c r="I61" s="11"/>
-      <c r="J61" s="58"/>
+      <c r="J61" s="55"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="12"/>
@@ -17680,7 +20304,7 @@
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
-      <c r="J62" s="60"/>
+      <c r="J62" s="57"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B63" s="45"/>
@@ -17690,7 +20314,7 @@
         <v>34</v>
       </c>
       <c r="B64" s="42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C64" s="39"/>
       <c r="D64" s="1"/>
@@ -17699,7 +20323,7 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-      <c r="J64" s="54"/>
+      <c r="J64" s="51"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="30" t="s">
@@ -17721,24 +20345,24 @@
         <v>93</v>
       </c>
       <c r="I65" s="3"/>
-      <c r="J65" s="53" t="s">
+      <c r="J65" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="K65" s="51" t="s">
+      <c r="K65" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="L65" s="49"/>
-      <c r="M65" s="49"/>
-      <c r="N65" s="49"/>
-      <c r="O65" s="49"/>
-      <c r="P65" s="49"/>
+      <c r="L65" s="68"/>
+      <c r="M65" s="68"/>
+      <c r="N65" s="68"/>
+      <c r="O65" s="68"/>
+      <c r="P65" s="68"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="31" t="s">
         <v>74</v>
       </c>
       <c r="B66" s="43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C66" s="40" t="s">
         <v>72</v>
@@ -17755,20 +20379,20 @@
         <v>101</v>
       </c>
       <c r="I66" s="3"/>
-      <c r="J66" s="53"/>
-      <c r="K66" s="51"/>
-      <c r="L66" s="49"/>
-      <c r="M66" s="49"/>
-      <c r="N66" s="49"/>
-      <c r="O66" s="49"/>
-      <c r="P66" s="49"/>
+      <c r="J66" s="50"/>
+      <c r="K66" s="70"/>
+      <c r="L66" s="68"/>
+      <c r="M66" s="68"/>
+      <c r="N66" s="68"/>
+      <c r="O66" s="68"/>
+      <c r="P66" s="68"/>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="32" t="s">
         <v>75</v>
       </c>
       <c r="B67" s="43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C67" s="40" t="s">
         <v>72</v>
@@ -17785,20 +20409,20 @@
         <v>101</v>
       </c>
       <c r="I67" s="3"/>
-      <c r="J67" s="53"/>
-      <c r="K67" s="51"/>
-      <c r="L67" s="49"/>
-      <c r="M67" s="49"/>
-      <c r="N67" s="49"/>
-      <c r="O67" s="49"/>
-      <c r="P67" s="49"/>
+      <c r="J67" s="50"/>
+      <c r="K67" s="70"/>
+      <c r="L67" s="68"/>
+      <c r="M67" s="68"/>
+      <c r="N67" s="68"/>
+      <c r="O67" s="68"/>
+      <c r="P67" s="68"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="28" t="s">
         <v>13</v>
       </c>
       <c r="B68" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C68" s="40" t="s">
         <v>66</v>
@@ -17811,20 +20435,20 @@
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
-      <c r="J68" s="53"/>
-      <c r="K68" s="51"/>
-      <c r="L68" s="49"/>
-      <c r="M68" s="49"/>
-      <c r="N68" s="49"/>
-      <c r="O68" s="49"/>
-      <c r="P68" s="49"/>
+      <c r="J68" s="50"/>
+      <c r="K68" s="70"/>
+      <c r="L68" s="68"/>
+      <c r="M68" s="68"/>
+      <c r="N68" s="68"/>
+      <c r="O68" s="68"/>
+      <c r="P68" s="68"/>
     </row>
     <row r="69" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="32" t="s">
         <v>16</v>
       </c>
       <c r="B69" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C69" s="40" t="s">
         <v>67</v>
@@ -17835,8 +20459,8 @@
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
-      <c r="J69" s="53" t="s">
-        <v>195</v>
+      <c r="J69" s="50" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
@@ -17844,7 +20468,7 @@
         <v>19</v>
       </c>
       <c r="B70" s="43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C70" s="40" t="s">
         <v>72</v>
@@ -17859,14 +20483,14 @@
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
-      <c r="J70" s="53"/>
+      <c r="J70" s="50"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="28" t="s">
         <v>35</v>
       </c>
       <c r="B71" s="43" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C71" s="40" t="s">
         <v>66</v>
@@ -17879,14 +20503,14 @@
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
-      <c r="J71" s="53"/>
+      <c r="J71" s="50"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="28" t="s">
         <v>39</v>
       </c>
       <c r="B72" s="43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C72" s="40" t="s">
         <v>66</v>
@@ -17899,14 +20523,14 @@
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
-      <c r="J72" s="53"/>
+      <c r="J72" s="50"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="28" t="s">
         <v>109</v>
       </c>
       <c r="B73" s="43" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C73" s="40" t="s">
         <v>66</v>
@@ -17919,7 +20543,7 @@
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
-      <c r="J73" s="53" t="s">
+      <c r="J73" s="50" t="s">
         <v>82</v>
       </c>
     </row>
@@ -17928,7 +20552,7 @@
         <v>36</v>
       </c>
       <c r="B74" s="43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C74" s="40" t="s">
         <v>66</v>
@@ -17941,14 +20565,14 @@
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
-      <c r="J74" s="53"/>
+      <c r="J74" s="50"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="28" t="s">
         <v>37</v>
       </c>
       <c r="B75" s="43" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C75" s="40" t="s">
         <v>66</v>
@@ -17961,14 +20585,14 @@
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
-      <c r="J75" s="53"/>
+      <c r="J75" s="50"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="28" t="s">
         <v>40</v>
       </c>
       <c r="B76" s="43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C76" s="40" t="s">
         <v>66</v>
@@ -17981,14 +20605,14 @@
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
-      <c r="J76" s="53"/>
+      <c r="J76" s="50"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="28" t="s">
         <v>41</v>
       </c>
       <c r="B77" s="43" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C77" s="40" t="s">
         <v>66</v>
@@ -18001,14 +20625,14 @@
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
-      <c r="J77" s="53"/>
+      <c r="J77" s="50"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="28" t="s">
         <v>50</v>
       </c>
       <c r="B78" s="43" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C78" s="40" t="s">
         <v>69</v>
@@ -18019,7 +20643,7 @@
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
-      <c r="J78" s="61" t="s">
+      <c r="J78" s="58" t="s">
         <v>70</v>
       </c>
     </row>
@@ -18028,7 +20652,7 @@
         <v>51</v>
       </c>
       <c r="B79" s="43" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C79" s="40" t="s">
         <v>69</v>
@@ -18039,7 +20663,7 @@
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
-      <c r="J79" s="61" t="s">
+      <c r="J79" s="58" t="s">
         <v>70</v>
       </c>
     </row>
@@ -18048,7 +20672,7 @@
         <v>52</v>
       </c>
       <c r="B80" s="43" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C80" s="40" t="s">
         <v>69</v>
@@ -18059,7 +20683,7 @@
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
-      <c r="J80" s="61" t="s">
+      <c r="J80" s="58" t="s">
         <v>70</v>
       </c>
     </row>
@@ -18068,7 +20692,7 @@
         <v>102</v>
       </c>
       <c r="B81" s="43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C81" s="40" t="s">
         <v>104</v>
@@ -18081,7 +20705,7 @@
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
-      <c r="J81" s="61" t="s">
+      <c r="J81" s="58" t="s">
         <v>105</v>
       </c>
     </row>
@@ -18090,7 +20714,7 @@
         <v>103</v>
       </c>
       <c r="B82" s="43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C82" s="40" t="s">
         <v>104</v>
@@ -18103,7 +20727,7 @@
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
-      <c r="J82" s="61" t="s">
+      <c r="J82" s="58" t="s">
         <v>106</v>
       </c>
     </row>
@@ -18122,7 +20746,7 @@
       <c r="G84" s="10"/>
       <c r="H84" s="10"/>
       <c r="I84" s="10"/>
-      <c r="J84" s="57"/>
+      <c r="J84" s="54"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B85" s="45"/>
@@ -18132,7 +20756,7 @@
         <v>23</v>
       </c>
       <c r="B86" s="42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C86" s="39"/>
       <c r="D86" s="1"/>
@@ -18141,14 +20765,14 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-      <c r="J86" s="54"/>
+      <c r="J86" s="51"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="17" t="s">
         <v>91</v>
       </c>
       <c r="B87" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C87" s="40" t="s">
         <v>72</v>
@@ -18165,7 +20789,7 @@
         <v>93</v>
       </c>
       <c r="I87" s="3"/>
-      <c r="J87" s="53" t="s">
+      <c r="J87" s="50" t="s">
         <v>97</v>
       </c>
     </row>
@@ -18174,7 +20798,7 @@
         <v>80</v>
       </c>
       <c r="B88" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C88" s="40" t="s">
         <v>72</v>
@@ -18191,14 +20815,14 @@
         <v>101</v>
       </c>
       <c r="I88" s="3"/>
-      <c r="J88" s="53"/>
+      <c r="J88" s="50"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="35" t="s">
         <v>75</v>
       </c>
       <c r="B89" s="43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C89" s="40" t="s">
         <v>72</v>
@@ -18215,14 +20839,14 @@
         <v>101</v>
       </c>
       <c r="I89" s="3"/>
-      <c r="J89" s="53"/>
+      <c r="J89" s="50"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="35" t="s">
         <v>87</v>
       </c>
       <c r="B90" s="43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C90" s="40" t="s">
         <v>67</v>
@@ -18235,7 +20859,7 @@
         <v>101</v>
       </c>
       <c r="I90" s="3"/>
-      <c r="J90" s="53" t="s">
+      <c r="J90" s="50" t="s">
         <v>71</v>
       </c>
     </row>
@@ -18244,7 +20868,7 @@
         <v>88</v>
       </c>
       <c r="B91" s="43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C91" s="40" t="s">
         <v>67</v>
@@ -18257,7 +20881,7 @@
         <v>101</v>
       </c>
       <c r="I91" s="3"/>
-      <c r="J91" s="53" t="s">
+      <c r="J91" s="50" t="s">
         <v>71</v>
       </c>
     </row>
@@ -18266,7 +20890,7 @@
         <v>8</v>
       </c>
       <c r="B92" s="43" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C92" s="40" t="s">
         <v>66</v>
@@ -18279,14 +20903,14 @@
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
-      <c r="J92" s="53"/>
+      <c r="J92" s="50"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B93" s="43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C93" s="40" t="s">
         <v>66</v>
@@ -18299,14 +20923,14 @@
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
-      <c r="J93" s="53"/>
+      <c r="J93" s="50"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B94" s="43" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C94" s="40" t="s">
         <v>68</v>
@@ -18317,14 +20941,14 @@
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
-      <c r="J94" s="53"/>
+      <c r="J94" s="50"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B95" s="43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C95" s="40" t="s">
         <v>72</v>
@@ -18341,18 +20965,18 @@
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
-      <c r="J95" s="55" t="s">
-        <v>114</v>
+      <c r="J95" s="52" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="8" t="s">
-        <v>21</v>
+      <c r="A96" s="59" t="s">
+        <v>213</v>
       </c>
       <c r="B96" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="C96" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D96" s="3">
@@ -18367,134 +20991,140 @@
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
-      <c r="J96" s="53" t="s">
-        <v>111</v>
+      <c r="J96" s="50" t="s">
+        <v>217</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="8" t="s">
-        <v>18</v>
+    <row r="97" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="59" t="s">
+        <v>214</v>
       </c>
       <c r="B97" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="C97" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
+        <v>216</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D97" s="3">
+        <v>10</v>
+      </c>
+      <c r="E97" s="3">
+        <v>0</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
-      <c r="J97" s="53"/>
+      <c r="J97" s="50"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B98" s="43" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C98" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="D98" s="3">
-        <v>255</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="D98" s="3"/>
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
-      <c r="J98" s="53" t="s">
-        <v>73</v>
-      </c>
+      <c r="J98" s="50"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B99" s="43" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C99" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="D99" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="D99" s="3">
+        <v>255</v>
+      </c>
       <c r="E99" s="3"/>
-      <c r="F99" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="F99" s="3"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
-      <c r="J99" s="53"/>
+      <c r="J99" s="50" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B100" s="43" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C100" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="D100" s="3">
-        <v>255</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D100" s="3"/>
       <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
+      <c r="F100" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
-      <c r="J100" s="53"/>
+      <c r="J100" s="50"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B101" s="43" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C101" s="40" t="s">
         <v>66</v>
       </c>
       <c r="D101" s="3">
-        <v>10</v>
+        <v>255</v>
       </c>
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
-      <c r="J101" s="53"/>
+      <c r="J101" s="50"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B102" s="43" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C102" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="D102" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="D102" s="3">
+        <v>10</v>
+      </c>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
-      <c r="J102" s="53"/>
+      <c r="J102" s="50"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B103" s="43" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C103" s="40" t="s">
         <v>69</v>
@@ -18505,17 +21135,19 @@
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
-      <c r="J103" s="53"/>
+      <c r="J103" s="50" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B104" s="43" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C104" s="40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -18523,14 +21155,14 @@
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
-      <c r="J104" s="53"/>
+      <c r="J104" s="50"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B105" s="43" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C105" s="40" t="s">
         <v>67</v>
@@ -18541,14 +21173,14 @@
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
-      <c r="J105" s="53"/>
+      <c r="J105" s="50"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="26" t="s">
-        <v>31</v>
+      <c r="A106" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="B106" s="43" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C106" s="40" t="s">
         <v>67</v>
@@ -18559,74 +21191,74 @@
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
-      <c r="J106" s="53"/>
+      <c r="J106" s="50"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="8" t="s">
-        <v>32</v>
+      <c r="A107" s="26" t="s">
+        <v>31</v>
       </c>
       <c r="B107" s="43" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C107" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="D107" s="3">
-        <v>255</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="D107" s="3"/>
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
-      <c r="J107" s="53"/>
+      <c r="J107" s="50"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="B108" s="43" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C108" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="D108" s="3">
-        <v>255</v>
-      </c>
-      <c r="E108" s="3"/>
+        <v>104</v>
+      </c>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3">
+        <v>1</v>
+      </c>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
-      <c r="J108" s="53"/>
+      <c r="J108" s="50" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B109" s="43" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
       <c r="C109" s="40" t="s">
         <v>66</v>
       </c>
       <c r="D109" s="3">
-        <v>191</v>
+        <v>255</v>
       </c>
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
-      <c r="J109" s="53"/>
+      <c r="J109" s="50"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B110" s="43" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C110" s="40" t="s">
         <v>66</v>
@@ -18639,38 +21271,34 @@
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
-      <c r="J110" s="53"/>
+      <c r="J110" s="50"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="52" t="s">
-        <v>196</v>
+      <c r="A111" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="B111" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="C111" s="39" t="s">
-        <v>72</v>
+        <v>122</v>
+      </c>
+      <c r="C111" s="40" t="s">
+        <v>66</v>
       </c>
       <c r="D111" s="3">
-        <v>10</v>
+        <v>191</v>
       </c>
       <c r="E111" s="3"/>
-      <c r="F111" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="F111" s="3"/>
       <c r="G111" s="3"/>
-      <c r="H111" s="3" t="s">
-        <v>101</v>
-      </c>
+      <c r="H111" s="3"/>
       <c r="I111" s="3"/>
-      <c r="J111" s="53"/>
+      <c r="J111" s="50"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="52" t="s">
-        <v>197</v>
+      <c r="A112" s="49" t="s">
+        <v>195</v>
       </c>
       <c r="B112" s="43" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C112" s="39" t="s">
         <v>72</v>
@@ -18687,14 +21315,14 @@
         <v>101</v>
       </c>
       <c r="I112" s="3"/>
-      <c r="J112" s="53"/>
+      <c r="J112" s="50"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="52" t="s">
-        <v>198</v>
+      <c r="A113" s="49" t="s">
+        <v>196</v>
       </c>
       <c r="B113" s="43" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C113" s="39" t="s">
         <v>72</v>
@@ -18711,266 +21339,272 @@
         <v>101</v>
       </c>
       <c r="I113" s="3"/>
-      <c r="J113" s="53"/>
+      <c r="J113" s="50"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="62" t="s">
-        <v>11</v>
+      <c r="A114" s="49" t="s">
+        <v>197</v>
       </c>
       <c r="B114" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="C114" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="D114" s="3"/>
+        <v>130</v>
+      </c>
+      <c r="C114" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D114" s="3">
+        <v>10</v>
+      </c>
       <c r="E114" s="3"/>
-      <c r="F114" s="3"/>
+      <c r="F114" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="G114" s="3"/>
-      <c r="H114" s="3"/>
+      <c r="H114" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="I114" s="3"/>
-      <c r="J114" s="53" t="s">
-        <v>194</v>
-      </c>
+      <c r="J114" s="50"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B115" s="45"/>
-      <c r="K115" s="2"/>
-      <c r="L115" s="2"/>
+      <c r="A115" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B115" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="C115" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3"/>
+      <c r="I115" s="3"/>
+      <c r="J115" s="50" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="10"/>
-      <c r="B116" s="46"/>
-      <c r="C116" s="10"/>
-      <c r="D116" s="10"/>
-      <c r="E116" s="10"/>
-      <c r="F116" s="10"/>
-      <c r="G116" s="10"/>
-      <c r="H116" s="10"/>
-      <c r="I116" s="10"/>
-      <c r="J116" s="57"/>
+      <c r="B116" s="45"/>
+      <c r="K116" s="2"/>
+      <c r="L116" s="2"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B117" s="45"/>
+      <c r="A117" s="10"/>
+      <c r="B117" s="46"/>
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10"/>
+      <c r="H117" s="10"/>
+      <c r="I117" s="10"/>
+      <c r="J117" s="54"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B118" s="42" t="s">
-        <v>179</v>
-      </c>
-      <c r="C118" s="39"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
-      <c r="H118" s="1"/>
-      <c r="I118" s="1"/>
-      <c r="J118" s="54"/>
+      <c r="B118" s="45"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B119" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="C119" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="D119" s="3">
-        <v>10</v>
-      </c>
-      <c r="E119" s="3"/>
-      <c r="F119" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G119" s="3"/>
-      <c r="H119" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="I119" s="3"/>
-      <c r="J119" s="53" t="s">
-        <v>84</v>
-      </c>
+      <c r="A119" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B119" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="C119" s="39"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="51"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="20" t="s">
-        <v>8</v>
+      <c r="A120" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="B120" s="43" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C120" s="40" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D120" s="3">
-        <v>191</v>
+        <v>10</v>
       </c>
       <c r="E120" s="3"/>
-      <c r="F120" s="3"/>
+      <c r="F120" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="G120" s="3"/>
       <c r="H120" s="3" t="s">
         <v>100</v>
       </c>
       <c r="I120" s="3"/>
-      <c r="J120" s="53" t="s">
+      <c r="J120" s="50" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="9" t="s">
-        <v>42</v>
+      <c r="A121" s="20" t="s">
+        <v>8</v>
       </c>
       <c r="B121" s="43" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C121" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="D121" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="D121" s="3">
+        <v>191</v>
+      </c>
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
-      <c r="H121" s="3"/>
+      <c r="H121" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="I121" s="3"/>
-      <c r="J121" s="53"/>
+      <c r="J121" s="50" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B122" s="45"/>
-      <c r="K122" s="2"/>
-      <c r="L122" s="2"/>
+      <c r="A122" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B122" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="C122" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D122" s="3"/>
+      <c r="E122" s="3"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="3"/>
+      <c r="H122" s="3"/>
+      <c r="I122" s="3"/>
+      <c r="J122" s="50"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="10"/>
-      <c r="B123" s="46"/>
-      <c r="C123" s="10"/>
-      <c r="D123" s="10"/>
-      <c r="E123" s="10"/>
-      <c r="F123" s="10"/>
-      <c r="G123" s="10"/>
-      <c r="H123" s="10"/>
-      <c r="I123" s="10"/>
-      <c r="J123" s="57"/>
+      <c r="B123" s="45"/>
+      <c r="K123" s="2"/>
+      <c r="L123" s="2"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B124" s="45"/>
+      <c r="A124" s="10"/>
+      <c r="B124" s="46"/>
+      <c r="C124" s="10"/>
+      <c r="D124" s="10"/>
+      <c r="E124" s="10"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="10"/>
+      <c r="H124" s="10"/>
+      <c r="I124" s="10"/>
+      <c r="J124" s="54"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B125" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="C125" s="39"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
-      <c r="H125" s="1"/>
-      <c r="I125" s="1"/>
-      <c r="J125" s="54"/>
+      <c r="B125" s="45"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B126" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="C126" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="D126" s="3">
-        <v>10</v>
-      </c>
-      <c r="E126" s="3"/>
-      <c r="F126" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G126" s="3"/>
-      <c r="H126" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="I126" s="3"/>
-      <c r="J126" s="53" t="s">
-        <v>84</v>
-      </c>
+      <c r="A126" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B126" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="C126" s="39"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+      <c r="J126" s="51"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="20" t="s">
-        <v>3</v>
+      <c r="A127" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="B127" s="43" t="s">
-        <v>125</v>
+        <v>179</v>
       </c>
       <c r="C127" s="40" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D127" s="3">
-        <v>191</v>
+        <v>10</v>
       </c>
       <c r="E127" s="3"/>
-      <c r="F127" s="3"/>
+      <c r="F127" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="G127" s="3"/>
       <c r="H127" s="3" t="s">
         <v>100</v>
       </c>
       <c r="I127" s="3"/>
-      <c r="J127" s="53" t="s">
+      <c r="J127" s="50" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="15" t="s">
-        <v>80</v>
+      <c r="A128" s="20" t="s">
+        <v>3</v>
       </c>
       <c r="B128" s="43" t="s">
-        <v>184</v>
+        <v>124</v>
       </c>
       <c r="C128" s="40" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D128" s="3">
-        <v>10</v>
+        <v>191</v>
       </c>
       <c r="E128" s="3"/>
-      <c r="F128" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="F128" s="3"/>
       <c r="G128" s="3"/>
       <c r="H128" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I128" s="3"/>
-      <c r="J128" s="53"/>
+      <c r="J128" s="50" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="8" t="s">
-        <v>36</v>
+      <c r="A129" s="15" t="s">
+        <v>80</v>
       </c>
       <c r="B129" s="43" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C129" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="D129" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="D129" s="3">
+        <v>10</v>
+      </c>
       <c r="E129" s="3"/>
-      <c r="F129" s="3"/>
+      <c r="F129" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="G129" s="3"/>
-      <c r="H129" s="3"/>
+      <c r="H129" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="I129" s="3"/>
-      <c r="J129" s="53"/>
+      <c r="J129" s="50"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B130" s="43" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C130" s="40" t="s">
         <v>68</v>
@@ -18981,58 +21615,58 @@
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
-      <c r="J130" s="53"/>
+      <c r="J130" s="50"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B131" s="43" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="C131" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="D131" s="3">
-        <v>10</v>
-      </c>
-      <c r="E131" s="3">
-        <v>0</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>95</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
-      <c r="J131" s="53" t="s">
-        <v>112</v>
-      </c>
+      <c r="J131" s="50"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B132" s="43" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C132" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="D132" s="3"/>
-      <c r="E132" s="3"/>
-      <c r="F132" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="D132" s="3">
+        <v>10</v>
+      </c>
+      <c r="E132" s="3">
+        <v>0</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
-      <c r="J132" s="53"/>
+      <c r="J132" s="50" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" s="9" t="s">
-        <v>38</v>
+      <c r="A133" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="B133" s="43" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="C133" s="40" t="s">
         <v>67</v>
@@ -19043,76 +21677,68 @@
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
       <c r="I133" s="3"/>
-      <c r="J133" s="53"/>
+      <c r="J133" s="50"/>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B134" s="45"/>
-      <c r="K134" s="2"/>
-      <c r="L134" s="2"/>
+      <c r="A134" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B134" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C134" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="3"/>
+      <c r="H134" s="3"/>
+      <c r="I134" s="3"/>
+      <c r="J134" s="50"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="10"/>
-      <c r="B135" s="46"/>
-      <c r="C135" s="10"/>
-      <c r="D135" s="10"/>
-      <c r="E135" s="10"/>
-      <c r="F135" s="10"/>
-      <c r="G135" s="10"/>
-      <c r="H135" s="10"/>
-      <c r="I135" s="10"/>
-      <c r="J135" s="57"/>
+      <c r="B135" s="45"/>
+      <c r="K135" s="2"/>
+      <c r="L135" s="2"/>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B136" s="45"/>
+      <c r="A136" s="10"/>
+      <c r="B136" s="46"/>
+      <c r="C136" s="10"/>
+      <c r="D136" s="10"/>
+      <c r="E136" s="10"/>
+      <c r="F136" s="10"/>
+      <c r="G136" s="10"/>
+      <c r="H136" s="10"/>
+      <c r="I136" s="10"/>
+      <c r="J136" s="54"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B137" s="42" t="s">
-        <v>188</v>
-      </c>
-      <c r="C137" s="39"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
-      <c r="G137" s="1"/>
-      <c r="H137" s="1"/>
-      <c r="I137" s="1"/>
-      <c r="J137" s="54"/>
+      <c r="B137" s="45"/>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A138" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B138" s="43" t="s">
-        <v>189</v>
-      </c>
-      <c r="C138" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="D138" s="3">
-        <v>10</v>
-      </c>
-      <c r="E138" s="3"/>
-      <c r="F138" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G138" s="3"/>
-      <c r="H138" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="I138" s="3"/>
-      <c r="J138" s="53" t="s">
-        <v>84</v>
-      </c>
+      <c r="A138" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B138" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="C138" s="39"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1"/>
+      <c r="I138" s="1"/>
+      <c r="J138" s="51"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B139" s="43" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C139" s="40" t="s">
         <v>72</v>
@@ -19129,36 +21755,42 @@
         <v>100</v>
       </c>
       <c r="I139" s="3"/>
-      <c r="J139" s="53" t="s">
+      <c r="J139" s="50" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A140" s="8" t="s">
-        <v>46</v>
+      <c r="A140" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="B140" s="43" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C140" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="D140" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="D140" s="3">
+        <v>10</v>
+      </c>
       <c r="E140" s="3"/>
-      <c r="F140" s="3"/>
+      <c r="F140" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="G140" s="3"/>
-      <c r="H140" s="3"/>
+      <c r="H140" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="I140" s="3"/>
-      <c r="J140" s="53" t="s">
-        <v>70</v>
+      <c r="J140" s="50" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B141" s="43" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C141" s="40" t="s">
         <v>69</v>
@@ -19169,16 +21801,16 @@
       <c r="G141" s="3"/>
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
-      <c r="J141" s="53" t="s">
+      <c r="J141" s="50" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B142" s="43" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C142" s="40" t="s">
         <v>69</v>
@@ -19189,16 +21821,16 @@
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
       <c r="I142" s="3"/>
-      <c r="J142" s="53" t="s">
+      <c r="J142" s="50" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A143" s="9" t="s">
-        <v>49</v>
+      <c r="A143" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="B143" s="43" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C143" s="40" t="s">
         <v>69</v>
@@ -19209,83 +21841,74 @@
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
       <c r="I143" s="3"/>
-      <c r="J143" s="53" t="s">
+      <c r="J143" s="50" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B144" s="45"/>
-      <c r="K144" s="2"/>
-      <c r="L144" s="2"/>
+      <c r="A144" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B144" s="43" t="s">
+        <v>192</v>
+      </c>
+      <c r="C144" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3"/>
+      <c r="F144" s="3"/>
+      <c r="G144" s="3"/>
+      <c r="H144" s="3"/>
+      <c r="I144" s="3"/>
+      <c r="J144" s="50" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A145" s="10"/>
-      <c r="B145" s="46"/>
-      <c r="C145" s="10"/>
-      <c r="D145" s="10"/>
-      <c r="E145" s="10"/>
-      <c r="F145" s="10"/>
-      <c r="G145" s="10"/>
-      <c r="H145" s="10"/>
-      <c r="I145" s="10"/>
-      <c r="J145" s="57"/>
+      <c r="B145" s="45"/>
+      <c r="K145" s="2"/>
+      <c r="L145" s="2"/>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B146" s="45"/>
+      <c r="A146" s="10"/>
+      <c r="B146" s="46"/>
+      <c r="C146" s="10"/>
+      <c r="D146" s="10"/>
+      <c r="E146" s="10"/>
+      <c r="F146" s="10"/>
+      <c r="G146" s="10"/>
+      <c r="H146" s="10"/>
+      <c r="I146" s="10"/>
+      <c r="J146" s="54"/>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A147" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="B147" s="43"/>
-      <c r="C147" s="39"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
-      <c r="F147" s="1"/>
-      <c r="G147" s="1"/>
-      <c r="H147" s="1"/>
-      <c r="I147" s="1"/>
-      <c r="J147" s="54"/>
-      <c r="K147" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="L147" s="50"/>
-      <c r="M147" s="50"/>
-      <c r="N147" s="50"/>
-      <c r="O147" s="50"/>
+      <c r="B147" s="45"/>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A148" s="37" t="s">
-        <v>89</v>
+      <c r="A148" s="36" t="s">
+        <v>92</v>
       </c>
       <c r="B148" s="43"/>
-      <c r="C148" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="D148" s="3">
-        <v>10</v>
-      </c>
-      <c r="E148" s="3"/>
-      <c r="F148" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G148" s="3"/>
-      <c r="H148" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="I148" s="3"/>
-      <c r="J148" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="K148" s="50"/>
-      <c r="L148" s="50"/>
-      <c r="M148" s="50"/>
-      <c r="N148" s="50"/>
-      <c r="O148" s="50"/>
+      <c r="C148" s="39"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+      <c r="J148" s="51"/>
+      <c r="K148" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="L148" s="69"/>
+      <c r="M148" s="69"/>
+      <c r="N148" s="69"/>
+      <c r="O148" s="69"/>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="37" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B149" s="43"/>
       <c r="C149" s="40" t="s">
@@ -19303,69 +21926,98 @@
         <v>100</v>
       </c>
       <c r="I149" s="3"/>
-      <c r="J149" s="53" t="s">
+      <c r="J149" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="K149" s="50"/>
-      <c r="L149" s="50"/>
-      <c r="M149" s="50"/>
-      <c r="N149" s="50"/>
-      <c r="O149" s="50"/>
+      <c r="K149" s="69"/>
+      <c r="L149" s="69"/>
+      <c r="M149" s="69"/>
+      <c r="N149" s="69"/>
+      <c r="O149" s="69"/>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B150" s="45"/>
-      <c r="K150" s="50"/>
-      <c r="L150" s="50"/>
-      <c r="M150" s="50"/>
-      <c r="N150" s="50"/>
-      <c r="O150" s="50"/>
+      <c r="A150" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B150" s="43"/>
+      <c r="C150" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D150" s="3">
+        <v>10</v>
+      </c>
+      <c r="E150" s="3"/>
+      <c r="F150" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G150" s="3"/>
+      <c r="H150" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I150" s="3"/>
+      <c r="J150" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="K150" s="69"/>
+      <c r="L150" s="69"/>
+      <c r="M150" s="69"/>
+      <c r="N150" s="69"/>
+      <c r="O150" s="69"/>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B151" s="45"/>
-      <c r="K151" s="50"/>
-      <c r="L151" s="50"/>
-      <c r="M151" s="50"/>
-      <c r="N151" s="50"/>
-      <c r="O151" s="50"/>
+      <c r="K151" s="69"/>
+      <c r="L151" s="69"/>
+      <c r="M151" s="69"/>
+      <c r="N151" s="69"/>
+      <c r="O151" s="69"/>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B152" s="45"/>
-      <c r="K152" s="50"/>
-      <c r="L152" s="50"/>
-      <c r="M152" s="50"/>
-      <c r="N152" s="50"/>
-      <c r="O152" s="50"/>
+      <c r="K152" s="69"/>
+      <c r="L152" s="69"/>
+      <c r="M152" s="69"/>
+      <c r="N152" s="69"/>
+      <c r="O152" s="69"/>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B153" s="45"/>
-      <c r="K153" s="50"/>
-      <c r="L153" s="50"/>
-      <c r="M153" s="50"/>
-      <c r="N153" s="50"/>
-      <c r="O153" s="50"/>
+      <c r="K153" s="69"/>
+      <c r="L153" s="69"/>
+      <c r="M153" s="69"/>
+      <c r="N153" s="69"/>
+      <c r="O153" s="69"/>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B154" s="45"/>
-      <c r="K154" s="50"/>
-      <c r="L154" s="50"/>
-      <c r="M154" s="50"/>
-      <c r="N154" s="50"/>
-      <c r="O154" s="50"/>
+      <c r="K154" s="69"/>
+      <c r="L154" s="69"/>
+      <c r="M154" s="69"/>
+      <c r="N154" s="69"/>
+      <c r="O154" s="69"/>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B155" s="45"/>
-      <c r="K155" s="50"/>
-      <c r="L155" s="50"/>
-      <c r="M155" s="50"/>
-      <c r="N155" s="50"/>
-      <c r="O155" s="50"/>
+      <c r="K155" s="69"/>
+      <c r="L155" s="69"/>
+      <c r="M155" s="69"/>
+      <c r="N155" s="69"/>
+      <c r="O155" s="69"/>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B156" s="48"/>
+      <c r="B156" s="45"/>
+      <c r="K156" s="69"/>
+      <c r="L156" s="69"/>
+      <c r="M156" s="69"/>
+      <c r="N156" s="69"/>
+      <c r="O156" s="69"/>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B157" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="K147:O155"/>
+    <mergeCell ref="K148:O156"/>
     <mergeCell ref="K65:P68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20153,13 +22805,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>147</xdr:row>
+                    <xdr:row>148</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>148</xdr:row>
+                    <xdr:row>149</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -20417,13 +23069,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>147</xdr:row>
+                    <xdr:row>148</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>148</xdr:row>
+                    <xdr:row>149</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21363,13 +24015,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>95</xdr:row>
+                    <xdr:row>97</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>96</xdr:row>
+                    <xdr:row>98</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21385,13 +24037,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>95</xdr:row>
+                    <xdr:row>97</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>96</xdr:row>
+                    <xdr:row>98</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21407,13 +24059,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>96</xdr:row>
+                    <xdr:row>97</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>97</xdr:row>
+                    <xdr:row>98</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21429,13 +24081,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>96</xdr:row>
+                    <xdr:row>97</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>97</xdr:row>
+                    <xdr:row>98</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21451,13 +24103,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>97</xdr:row>
+                    <xdr:row>98</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>98</xdr:row>
+                    <xdr:row>99</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21473,13 +24125,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>97</xdr:row>
+                    <xdr:row>98</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>98</xdr:row>
+                    <xdr:row>99</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21495,13 +24147,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>98</xdr:row>
+                    <xdr:row>99</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>99</xdr:row>
+                    <xdr:row>100</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21517,13 +24169,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>98</xdr:row>
+                    <xdr:row>99</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>99</xdr:row>
+                    <xdr:row>100</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21583,13 +24235,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>99</xdr:row>
+                    <xdr:row>100</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>100</xdr:row>
+                    <xdr:row>101</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21605,13 +24257,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>99</xdr:row>
+                    <xdr:row>100</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>100</xdr:row>
+                    <xdr:row>101</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21627,13 +24279,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>99</xdr:row>
+                    <xdr:row>100</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>100</xdr:row>
+                    <xdr:row>101</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21649,13 +24301,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>99</xdr:row>
+                    <xdr:row>100</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>100</xdr:row>
+                    <xdr:row>101</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21671,13 +24323,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>99</xdr:row>
+                    <xdr:row>100</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>100</xdr:row>
+                    <xdr:row>101</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21693,13 +24345,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>99</xdr:row>
+                    <xdr:row>100</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>100</xdr:row>
+                    <xdr:row>101</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21715,13 +24367,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>99</xdr:row>
+                    <xdr:row>100</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>100</xdr:row>
+                    <xdr:row>101</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21737,13 +24389,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>99</xdr:row>
+                    <xdr:row>100</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>100</xdr:row>
+                    <xdr:row>101</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21759,13 +24411,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>100</xdr:row>
+                    <xdr:row>101</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>101</xdr:row>
+                    <xdr:row>102</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21781,13 +24433,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>100</xdr:row>
+                    <xdr:row>101</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>101</xdr:row>
+                    <xdr:row>102</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21803,13 +24455,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>101</xdr:row>
+                    <xdr:row>102</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>102</xdr:row>
+                    <xdr:row>103</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21825,13 +24477,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>101</xdr:row>
+                    <xdr:row>102</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>102</xdr:row>
+                    <xdr:row>103</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21847,13 +24499,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>102</xdr:row>
+                    <xdr:row>103</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>103</xdr:row>
+                    <xdr:row>104</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21869,13 +24521,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>102</xdr:row>
+                    <xdr:row>103</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>103</xdr:row>
+                    <xdr:row>104</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21891,13 +24543,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>103</xdr:row>
+                    <xdr:row>104</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>104</xdr:row>
+                    <xdr:row>105</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21913,13 +24565,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>103</xdr:row>
+                    <xdr:row>104</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>104</xdr:row>
+                    <xdr:row>105</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21935,13 +24587,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>104</xdr:row>
+                    <xdr:row>105</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>105</xdr:row>
+                    <xdr:row>106</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21957,13 +24609,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>104</xdr:row>
+                    <xdr:row>105</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>105</xdr:row>
+                    <xdr:row>106</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -21979,13 +24631,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>105</xdr:row>
+                    <xdr:row>106</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>106</xdr:row>
+                    <xdr:row>107</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22001,13 +24653,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>105</xdr:row>
+                    <xdr:row>106</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>106</xdr:row>
+                    <xdr:row>107</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22023,13 +24675,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>106</xdr:row>
+                    <xdr:row>107</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>107</xdr:row>
+                    <xdr:row>108</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22045,13 +24697,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>106</xdr:row>
+                    <xdr:row>107</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>107</xdr:row>
+                    <xdr:row>108</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22067,13 +24719,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>107</xdr:row>
+                    <xdr:row>108</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>108</xdr:row>
+                    <xdr:row>109</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22089,13 +24741,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>107</xdr:row>
+                    <xdr:row>108</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>108</xdr:row>
+                    <xdr:row>109</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22111,13 +24763,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>113</xdr:row>
+                    <xdr:row>114</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>114</xdr:row>
+                    <xdr:row>115</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22133,13 +24785,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>113</xdr:row>
+                    <xdr:row>114</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>114</xdr:row>
+                    <xdr:row>115</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22155,13 +24807,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>119</xdr:row>
+                    <xdr:row>120</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>120</xdr:row>
+                    <xdr:row>121</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22177,13 +24829,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>119</xdr:row>
+                    <xdr:row>120</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>120</xdr:row>
+                    <xdr:row>121</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22199,13 +24851,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>120</xdr:row>
+                    <xdr:row>121</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>121</xdr:row>
+                    <xdr:row>122</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22221,13 +24873,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>120</xdr:row>
+                    <xdr:row>121</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>121</xdr:row>
+                    <xdr:row>122</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22243,13 +24895,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>128</xdr:row>
+                    <xdr:row>129</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>129</xdr:row>
+                    <xdr:row>130</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22265,13 +24917,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>128</xdr:row>
+                    <xdr:row>129</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>129</xdr:row>
+                    <xdr:row>130</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22287,13 +24939,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>139</xdr:row>
+                    <xdr:row>140</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>140</xdr:row>
+                    <xdr:row>141</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22309,13 +24961,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>139</xdr:row>
+                    <xdr:row>140</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>140</xdr:row>
+                    <xdr:row>141</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22331,13 +24983,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>140</xdr:row>
+                    <xdr:row>141</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>141</xdr:row>
+                    <xdr:row>142</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22353,13 +25005,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>140</xdr:row>
+                    <xdr:row>141</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>141</xdr:row>
+                    <xdr:row>142</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22375,13 +25027,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>141</xdr:row>
+                    <xdr:row>142</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>142</xdr:row>
+                    <xdr:row>143</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22397,13 +25049,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>141</xdr:row>
+                    <xdr:row>142</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>142</xdr:row>
+                    <xdr:row>143</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22419,13 +25071,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>142</xdr:row>
+                    <xdr:row>143</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>143</xdr:row>
+                    <xdr:row>144</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22441,13 +25093,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>142</xdr:row>
+                    <xdr:row>143</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>143</xdr:row>
+                    <xdr:row>144</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22463,13 +25115,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>127</xdr:row>
+                    <xdr:row>128</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>128</xdr:row>
+                    <xdr:row>129</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22485,13 +25137,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>127</xdr:row>
+                    <xdr:row>128</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>128</xdr:row>
+                    <xdr:row>129</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22507,13 +25159,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>128</xdr:row>
+                    <xdr:row>129</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>129</xdr:row>
+                    <xdr:row>130</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22529,13 +25181,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>128</xdr:row>
+                    <xdr:row>129</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>129</xdr:row>
+                    <xdr:row>130</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22551,13 +25203,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>129</xdr:row>
+                    <xdr:row>130</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>130</xdr:row>
+                    <xdr:row>131</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22573,13 +25225,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>129</xdr:row>
+                    <xdr:row>130</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>130</xdr:row>
+                    <xdr:row>131</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22595,13 +25247,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>130</xdr:row>
+                    <xdr:row>131</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>131</xdr:row>
+                    <xdr:row>132</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22617,13 +25269,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>130</xdr:row>
+                    <xdr:row>131</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>131</xdr:row>
+                    <xdr:row>132</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22639,13 +25291,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>131</xdr:row>
+                    <xdr:row>132</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>132</xdr:row>
+                    <xdr:row>133</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22661,13 +25313,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>131</xdr:row>
+                    <xdr:row>132</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>132</xdr:row>
+                    <xdr:row>133</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22683,13 +25335,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>132</xdr:row>
+                    <xdr:row>133</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>133</xdr:row>
+                    <xdr:row>134</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22705,13 +25357,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>132</xdr:row>
+                    <xdr:row>133</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>133</xdr:row>
+                    <xdr:row>134</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22859,13 +25511,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>110</xdr:row>
+                    <xdr:row>111</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>111</xdr:row>
+                    <xdr:row>112</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22881,13 +25533,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>111</xdr:row>
+                    <xdr:row>112</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>112</xdr:row>
+                    <xdr:row>113</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22903,13 +25555,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>112</xdr:row>
+                    <xdr:row>113</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>113</xdr:row>
+                    <xdr:row>114</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22925,13 +25577,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>110</xdr:row>
+                    <xdr:row>111</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>111</xdr:row>
+                    <xdr:row>112</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22947,13 +25599,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>111</xdr:row>
+                    <xdr:row>112</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>112</xdr:row>
+                    <xdr:row>113</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -22969,13 +25621,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>112</xdr:row>
+                    <xdr:row>113</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>113</xdr:row>
+                    <xdr:row>114</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -23035,13 +25687,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>137</xdr:row>
+                    <xdr:row>138</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>138</xdr:row>
+                    <xdr:row>139</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -23057,13 +25709,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>137</xdr:row>
+                    <xdr:row>138</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>138</xdr:row>
+                    <xdr:row>139</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -23123,13 +25775,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>108</xdr:row>
+                    <xdr:row>109</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>109</xdr:row>
+                    <xdr:row>110</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -23145,13 +25797,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>108</xdr:row>
+                    <xdr:row>109</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>109</xdr:row>
+                    <xdr:row>110</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -23167,13 +25819,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>109</xdr:row>
+                    <xdr:row>110</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>110</xdr:row>
+                    <xdr:row>111</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -23189,13 +25841,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>109</xdr:row>
+                    <xdr:row>110</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>110</xdr:row>
+                    <xdr:row>111</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -23211,13 +25863,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>138</xdr:row>
+                    <xdr:row>139</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>139</xdr:row>
+                    <xdr:row>140</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -23233,13 +25885,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>138</xdr:row>
+                    <xdr:row>139</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>139</xdr:row>
+                    <xdr:row>140</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -23255,13 +25907,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>125</xdr:row>
+                    <xdr:row>126</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>126</xdr:row>
+                    <xdr:row>127</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -23277,13 +25929,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>125</xdr:row>
+                    <xdr:row>126</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>126</xdr:row>
+                    <xdr:row>127</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -23299,13 +25951,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>118</xdr:row>
+                    <xdr:row>119</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>119</xdr:row>
+                    <xdr:row>120</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -23321,13 +25973,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>118</xdr:row>
+                    <xdr:row>119</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>119</xdr:row>
+                    <xdr:row>120</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -23431,13 +26083,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>126</xdr:row>
+                    <xdr:row>127</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>127</xdr:row>
+                    <xdr:row>128</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -23453,13 +26105,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>126</xdr:row>
+                    <xdr:row>127</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>127</xdr:row>
+                    <xdr:row>128</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -23519,13 +26171,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>148</xdr:row>
+                    <xdr:row>149</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>149</xdr:row>
+                    <xdr:row>150</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -23541,13 +26193,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>148</xdr:row>
+                    <xdr:row>149</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>149</xdr:row>
+                    <xdr:row>150</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -24091,13 +26743,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>110</xdr:row>
+                    <xdr:row>111</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>111</xdr:row>
+                    <xdr:row>112</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -24113,13 +26765,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>111</xdr:row>
+                    <xdr:row>112</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>112</xdr:row>
+                    <xdr:row>113</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -24135,13 +26787,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>112</xdr:row>
+                    <xdr:row>113</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>113</xdr:row>
+                    <xdr:row>114</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -24157,13 +26809,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>110</xdr:row>
+                    <xdr:row>111</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>111</xdr:row>
+                    <xdr:row>112</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -24179,13 +26831,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>111</xdr:row>
+                    <xdr:row>112</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>112</xdr:row>
+                    <xdr:row>113</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -24201,13 +26853,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>112</xdr:row>
+                    <xdr:row>113</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>113</xdr:row>
+                    <xdr:row>114</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -24223,13 +26875,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>113</xdr:row>
+                    <xdr:row>114</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>114</xdr:row>
+                    <xdr:row>115</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -24245,13 +26897,145 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>113</xdr:row>
+                    <xdr:row>114</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>114</xdr:row>
+                    <xdr:row>115</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3611" r:id="rId226" name="Check Box 539">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>48</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>49</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3612" r:id="rId227" name="Check Box 540">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>48</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>49</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3613" r:id="rId228" name="Check Box 541">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>95</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>96</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3614" r:id="rId229" name="Check Box 542">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>95</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>96</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3615" r:id="rId230" name="Check Box 543">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>96</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>97</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3616" r:id="rId231" name="Check Box 544">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>96</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>97</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -24263,4 +27047,599 @@
     </mc:Choice>
   </mc:AlternateContent>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="64" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="3">
+        <v>255</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="67"/>
+    </row>
+    <row r="4" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="73" t="s">
+        <v>210</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="72" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="72">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="71" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="71" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="50"/>
+    </row>
+    <row r="7" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="73" t="s">
+        <v>213</v>
+      </c>
+      <c r="B7" s="74" t="s">
+        <v>215</v>
+      </c>
+      <c r="C7" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="72">
+        <v>10</v>
+      </c>
+      <c r="E7" s="72">
+        <v>0</v>
+      </c>
+      <c r="F7" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="71" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="73" t="s">
+        <v>214</v>
+      </c>
+      <c r="B8" s="74" t="s">
+        <v>216</v>
+      </c>
+      <c r="C8" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="72">
+        <v>10</v>
+      </c>
+      <c r="E8" s="72">
+        <v>0</v>
+      </c>
+      <c r="F8" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="71"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="5121" r:id="rId3" name="Check Box 1">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="5122" r:id="rId4" name="Check Box 2">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="5123" r:id="rId5" name="Check Box 3">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="5124" r:id="rId6" name="Check Box 4">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="5125" r:id="rId7" name="Check Box 5">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="5126" r:id="rId8" name="Check Box 6">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="5127" r:id="rId9" name="Check Box 7">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="5128" r:id="rId10" name="Check Box 8">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="5129" r:id="rId11" name="Check Box 9">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="5130" r:id="rId12" name="Check Box 10">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="5133" r:id="rId13" name="Check Box 13">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="5134" r:id="rId14" name="Check Box 14">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="B11:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="61" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="62" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="61" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="60" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="61" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="62" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="61" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="62" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="60" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="61" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="62" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="61" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="62" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="61" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="60" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="61" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="62" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="61" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="62" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="61" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/db_29_10_2018.xlsx
+++ b/db_29_10_2018.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="259">
   <si>
     <t>employers</t>
   </si>
@@ -850,6 +850,21 @@
   <si>
     <t>lưu đường dẫn đến ảnh</t>
   </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Trạng Thái</t>
+  </si>
+  <si>
+    <t>status == 0 không hiển thị ở trang chủ status == 1 hiển thị</t>
+  </si>
+  <si>
+    <t>null hiển bị Không</t>
+  </si>
+  <si>
+    <t>FOREGIN</t>
+  </si>
 </sst>
 </file>
 
@@ -1305,6 +1320,19 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1326,19 +1354,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1936,7 +1951,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp228.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp229.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1956,7 +1971,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp232.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp233.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1980,7 +1995,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp238.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp239.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1992,19 +2007,19 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp240.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp241.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp242.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp241.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp243.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp242.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp243.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp244.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2044,7 +2059,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp252.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp253.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2052,11 +2067,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp254.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp255.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp256.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2064,7 +2079,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp257.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp258.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2092,7 +2107,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp263.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp264.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2100,7 +2115,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp265.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp266.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2108,7 +2123,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp267.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp268.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2116,7 +2131,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp269.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2260,11 +2275,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp300.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp301.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp302.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2276,11 +2291,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp304.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp305.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp306.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2292,7 +2307,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp308.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp309.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2304,7 +2319,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp310.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp311.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2312,6 +2327,30 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp312.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp313.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp314.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp315.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp316.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp317.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp318.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
@@ -2440,7 +2479,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp60.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp61.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5136,13 +5175,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>153</xdr:row>
+          <xdr:row>154</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>154</xdr:row>
+          <xdr:row>155</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5904,13 +5943,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>153</xdr:row>
+          <xdr:row>154</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>154</xdr:row>
+          <xdr:row>155</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10704,13 +10743,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>125</xdr:row>
+          <xdr:row>126</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>126</xdr:row>
+          <xdr:row>127</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10768,13 +10807,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>125</xdr:row>
+          <xdr:row>126</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>126</xdr:row>
+          <xdr:row>127</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10832,13 +10871,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>126</xdr:row>
+          <xdr:row>127</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>127</xdr:row>
+          <xdr:row>128</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10896,13 +10935,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>126</xdr:row>
+          <xdr:row>127</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>127</xdr:row>
+          <xdr:row>128</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10960,13 +10999,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>134</xdr:row>
+          <xdr:row>135</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>135</xdr:row>
+          <xdr:row>136</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11024,13 +11063,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>134</xdr:row>
+          <xdr:row>135</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>135</xdr:row>
+          <xdr:row>136</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11088,13 +11127,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>145</xdr:row>
+          <xdr:row>146</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>146</xdr:row>
+          <xdr:row>147</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11152,13 +11191,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>145</xdr:row>
+          <xdr:row>146</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>146</xdr:row>
+          <xdr:row>147</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11216,13 +11255,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>146</xdr:row>
+          <xdr:row>147</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>147</xdr:row>
+          <xdr:row>148</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11280,13 +11319,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>146</xdr:row>
+          <xdr:row>147</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>147</xdr:row>
+          <xdr:row>148</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11344,13 +11383,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>147</xdr:row>
+          <xdr:row>148</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>148</xdr:row>
+          <xdr:row>149</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11408,13 +11447,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>147</xdr:row>
+          <xdr:row>148</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>148</xdr:row>
+          <xdr:row>149</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11472,13 +11511,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>148</xdr:row>
+          <xdr:row>149</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>149</xdr:row>
+          <xdr:row>150</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11536,13 +11575,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>148</xdr:row>
+          <xdr:row>149</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>149</xdr:row>
+          <xdr:row>150</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11600,13 +11639,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>133</xdr:row>
+          <xdr:row>134</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>134</xdr:row>
+          <xdr:row>135</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11664,13 +11703,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>133</xdr:row>
+          <xdr:row>134</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>134</xdr:row>
+          <xdr:row>135</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11728,13 +11767,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>134</xdr:row>
+          <xdr:row>135</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>135</xdr:row>
+          <xdr:row>136</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11792,13 +11831,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>134</xdr:row>
+          <xdr:row>135</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>135</xdr:row>
+          <xdr:row>136</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11856,13 +11895,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>135</xdr:row>
+          <xdr:row>136</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>136</xdr:row>
+          <xdr:row>137</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11920,13 +11959,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>135</xdr:row>
+          <xdr:row>136</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>136</xdr:row>
+          <xdr:row>137</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11984,13 +12023,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>136</xdr:row>
+          <xdr:row>137</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>137</xdr:row>
+          <xdr:row>138</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12048,13 +12087,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>136</xdr:row>
+          <xdr:row>137</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>137</xdr:row>
+          <xdr:row>138</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12112,13 +12151,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>137</xdr:row>
+          <xdr:row>138</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>138</xdr:row>
+          <xdr:row>139</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12176,13 +12215,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>137</xdr:row>
+          <xdr:row>138</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>138</xdr:row>
+          <xdr:row>139</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12240,13 +12279,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>138</xdr:row>
+          <xdr:row>139</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>139</xdr:row>
+          <xdr:row>140</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12304,13 +12343,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>138</xdr:row>
+          <xdr:row>139</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>139</xdr:row>
+          <xdr:row>140</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12880,13 +12919,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>143</xdr:row>
+          <xdr:row>144</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>144</xdr:row>
+          <xdr:row>145</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12944,13 +12983,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>143</xdr:row>
+          <xdr:row>144</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>144</xdr:row>
+          <xdr:row>145</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -13392,13 +13431,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>144</xdr:row>
+          <xdr:row>145</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>145</xdr:row>
+          <xdr:row>146</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -13456,13 +13495,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>144</xdr:row>
+          <xdr:row>145</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>145</xdr:row>
+          <xdr:row>146</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -13520,13 +13559,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>131</xdr:row>
+          <xdr:row>132</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>132</xdr:row>
+          <xdr:row>133</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -13584,13 +13623,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>131</xdr:row>
+          <xdr:row>132</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>132</xdr:row>
+          <xdr:row>133</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -13648,13 +13687,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>124</xdr:row>
+          <xdr:row>125</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>125</xdr:row>
+          <xdr:row>126</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -13712,13 +13751,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>124</xdr:row>
+          <xdr:row>125</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>125</xdr:row>
+          <xdr:row>126</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -14032,13 +14071,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>132</xdr:row>
+          <xdr:row>133</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>133</xdr:row>
+          <xdr:row>134</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -14096,13 +14135,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>132</xdr:row>
+          <xdr:row>133</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>133</xdr:row>
+          <xdr:row>134</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -14288,13 +14327,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>154</xdr:row>
+          <xdr:row>155</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>155</xdr:row>
+          <xdr:row>156</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -14352,13 +14391,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>154</xdr:row>
+          <xdr:row>155</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>155</xdr:row>
+          <xdr:row>156</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -17247,6 +17286,134 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3631"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>120</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>121</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3632" name="Check Box 560" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3632"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>120</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>121</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3633" name="Check Box 561" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3633"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20138,13 +20305,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>39</xdr:row>
+          <xdr:row>40</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>40</xdr:row>
+          <xdr:row>41</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -20202,13 +20369,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>39</xdr:row>
+          <xdr:row>40</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>40</xdr:row>
+          <xdr:row>41</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -20266,13 +20433,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>40</xdr:row>
+          <xdr:row>41</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>41</xdr:row>
+          <xdr:row>42</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -20330,13 +20497,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>40</xdr:row>
+          <xdr:row>41</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>41</xdr:row>
+          <xdr:row>42</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -21546,13 +21713,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>43</xdr:row>
+          <xdr:row>44</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>44</xdr:row>
+          <xdr:row>45</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -21610,13 +21777,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>43</xdr:row>
+          <xdr:row>44</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>44</xdr:row>
+          <xdr:row>45</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -21674,13 +21841,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>42</xdr:row>
+          <xdr:row>43</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>43</xdr:row>
+          <xdr:row>44</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -21738,13 +21905,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>42</xdr:row>
+          <xdr:row>43</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>43</xdr:row>
+          <xdr:row>44</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -21802,13 +21969,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>48</xdr:row>
+          <xdr:row>50</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>49</xdr:row>
+          <xdr:row>51</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -21866,13 +22033,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>48</xdr:row>
+          <xdr:row>50</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>49</xdr:row>
+          <xdr:row>51</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -21930,13 +22097,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>54</xdr:row>
+          <xdr:row>56</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>55</xdr:row>
+          <xdr:row>57</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -21994,13 +22161,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>54</xdr:row>
+          <xdr:row>56</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>55</xdr:row>
+          <xdr:row>57</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -22058,13 +22225,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>60</xdr:row>
+          <xdr:row>62</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>61</xdr:row>
+          <xdr:row>63</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -22122,13 +22289,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>60</xdr:row>
+          <xdr:row>62</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>61</xdr:row>
+          <xdr:row>63</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -22186,13 +22353,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>66</xdr:row>
+          <xdr:row>68</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>67</xdr:row>
+          <xdr:row>69</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -22250,13 +22417,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>66</xdr:row>
+          <xdr:row>68</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>67</xdr:row>
+          <xdr:row>69</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -22314,13 +22481,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>47</xdr:row>
+          <xdr:row>49</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>48</xdr:row>
+          <xdr:row>50</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -22378,13 +22545,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>53</xdr:row>
+          <xdr:row>55</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>54</xdr:row>
+          <xdr:row>56</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -22442,13 +22609,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>59</xdr:row>
+          <xdr:row>61</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>60</xdr:row>
+          <xdr:row>62</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -22506,13 +22673,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>65</xdr:row>
+          <xdr:row>67</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>66</xdr:row>
+          <xdr:row>68</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -22570,13 +22737,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>55</xdr:row>
+          <xdr:row>57</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>56</xdr:row>
+          <xdr:row>58</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -22634,13 +22801,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>55</xdr:row>
+          <xdr:row>57</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>56</xdr:row>
+          <xdr:row>58</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -22698,13 +22865,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>72</xdr:row>
+          <xdr:row>74</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>73</xdr:row>
+          <xdr:row>75</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -22762,13 +22929,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>72</xdr:row>
+          <xdr:row>74</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>73</xdr:row>
+          <xdr:row>75</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -22826,13 +22993,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>71</xdr:row>
+          <xdr:row>73</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>72</xdr:row>
+          <xdr:row>74</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -22890,13 +23057,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>41</xdr:row>
+          <xdr:row>42</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>42</xdr:row>
+          <xdr:row>43</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -22954,13 +23121,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>41</xdr:row>
+          <xdr:row>42</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>42</xdr:row>
+          <xdr:row>43</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -23018,13 +23185,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>44</xdr:row>
+          <xdr:row>45</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>45</xdr:row>
+          <xdr:row>46</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -23082,13 +23249,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>44</xdr:row>
+          <xdr:row>45</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>45</xdr:row>
+          <xdr:row>46</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -23097,6 +23264,262 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5211"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5212" name="Check Box 92" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5212"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5213" name="Check Box 93" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5213"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>46</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5214" name="Check Box 94" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5214"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>46</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5215" name="Check Box 95" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5215"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24347,11 +24770,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P162"/>
+  <dimension ref="A1:P163"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J73" sqref="J73"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25597,7 +26020,7 @@
       <c r="J70" s="50"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="129" t="s">
+      <c r="A71" s="122" t="s">
         <v>85</v>
       </c>
       <c r="B71" s="84"/>
@@ -25619,14 +26042,14 @@
       <c r="J71" s="49" t="s">
         <v>244</v>
       </c>
-      <c r="K71" s="124" t="s">
+      <c r="K71" s="131" t="s">
         <v>102</v>
       </c>
-      <c r="L71" s="122"/>
-      <c r="M71" s="122"/>
-      <c r="N71" s="122"/>
-      <c r="O71" s="122"/>
-      <c r="P71" s="122"/>
+      <c r="L71" s="129"/>
+      <c r="M71" s="129"/>
+      <c r="N71" s="129"/>
+      <c r="O71" s="129"/>
+      <c r="P71" s="129"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="120" t="s">
@@ -25651,12 +26074,12 @@
       <c r="J72" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="K72" s="124"/>
-      <c r="L72" s="122"/>
-      <c r="M72" s="122"/>
-      <c r="N72" s="122"/>
-      <c r="O72" s="122"/>
-      <c r="P72" s="122"/>
+      <c r="K72" s="131"/>
+      <c r="L72" s="129"/>
+      <c r="M72" s="129"/>
+      <c r="N72" s="129"/>
+      <c r="O72" s="129"/>
+      <c r="P72" s="129"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="30" t="s">
@@ -25681,12 +26104,12 @@
       </c>
       <c r="I73" s="3"/>
       <c r="J73" s="49"/>
-      <c r="K73" s="124"/>
-      <c r="L73" s="122"/>
-      <c r="M73" s="122"/>
-      <c r="N73" s="122"/>
-      <c r="O73" s="122"/>
-      <c r="P73" s="122"/>
+      <c r="K73" s="131"/>
+      <c r="L73" s="129"/>
+      <c r="M73" s="129"/>
+      <c r="N73" s="129"/>
+      <c r="O73" s="129"/>
+      <c r="P73" s="129"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="30" t="s">
@@ -25713,12 +26136,12 @@
       <c r="J74" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="K74" s="124"/>
-      <c r="L74" s="122"/>
-      <c r="M74" s="122"/>
-      <c r="N74" s="122"/>
-      <c r="O74" s="122"/>
-      <c r="P74" s="122"/>
+      <c r="K74" s="131"/>
+      <c r="L74" s="129"/>
+      <c r="M74" s="129"/>
+      <c r="N74" s="129"/>
+      <c r="O74" s="129"/>
+      <c r="P74" s="129"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="31" t="s">
@@ -25743,12 +26166,12 @@
       </c>
       <c r="I75" s="3"/>
       <c r="J75" s="49"/>
-      <c r="K75" s="124"/>
-      <c r="L75" s="122"/>
-      <c r="M75" s="122"/>
-      <c r="N75" s="122"/>
-      <c r="O75" s="122"/>
-      <c r="P75" s="122"/>
+      <c r="K75" s="131"/>
+      <c r="L75" s="129"/>
+      <c r="M75" s="129"/>
+      <c r="N75" s="129"/>
+      <c r="O75" s="129"/>
+      <c r="P75" s="129"/>
     </row>
     <row r="76" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="31" t="s">
@@ -25764,7 +26187,9 @@
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
+      <c r="H76" s="3" t="s">
+        <v>258</v>
+      </c>
       <c r="I76" s="3"/>
       <c r="J76" s="49" t="s">
         <v>186</v>
@@ -26448,7 +26873,9 @@
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
-      <c r="J110" s="49"/>
+      <c r="J110" s="49" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
@@ -26647,80 +27074,80 @@
       <c r="L120" s="2"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B121" s="44"/>
+      <c r="A121" s="58" t="s">
+        <v>254</v>
+      </c>
+      <c r="B121" s="42" t="s">
+        <v>255</v>
+      </c>
+      <c r="C121" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3"/>
+      <c r="I121" s="3"/>
+      <c r="J121" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="K121" s="2"/>
+      <c r="L121" s="2"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="10"/>
-      <c r="B122" s="45"/>
-      <c r="C122" s="10"/>
-      <c r="D122" s="10"/>
-      <c r="E122" s="10"/>
-      <c r="F122" s="10"/>
-      <c r="G122" s="10"/>
-      <c r="H122" s="10"/>
-      <c r="I122" s="10"/>
-      <c r="J122" s="53"/>
+      <c r="B122" s="44"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B123" s="44"/>
+      <c r="A123" s="10"/>
+      <c r="B123" s="45"/>
+      <c r="C123" s="10"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
+      <c r="H123" s="10"/>
+      <c r="I123" s="10"/>
+      <c r="J123" s="53"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="B124" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="C124" s="38"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
-      <c r="G124" s="1"/>
-      <c r="H124" s="1"/>
-      <c r="I124" s="1"/>
-      <c r="J124" s="50"/>
+      <c r="B124" s="44"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B125" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="C125" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="D125" s="3">
-        <v>10</v>
-      </c>
-      <c r="E125" s="3"/>
-      <c r="F125" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G125" s="3"/>
-      <c r="H125" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I125" s="3"/>
-      <c r="J125" s="49" t="s">
-        <v>80</v>
-      </c>
+      <c r="A125" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B125" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="C125" s="38"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="50"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="20" t="s">
-        <v>8</v>
+      <c r="A126" s="17" t="s">
+        <v>79</v>
       </c>
       <c r="B126" s="42" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
       <c r="C126" s="39" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D126" s="3">
-        <v>191</v>
+        <v>10</v>
       </c>
       <c r="E126" s="3"/>
-      <c r="F126" s="3"/>
+      <c r="F126" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="G126" s="3"/>
       <c r="H126" s="3" t="s">
         <v>94</v>
@@ -26731,100 +27158,100 @@
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="9" t="s">
-        <v>225</v>
+      <c r="A127" s="20" t="s">
+        <v>8</v>
       </c>
       <c r="B127" s="42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C127" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="D127" s="3"/>
+        <v>62</v>
+      </c>
+      <c r="D127" s="3">
+        <v>191</v>
+      </c>
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
-      <c r="H127" s="3"/>
+      <c r="H127" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="I127" s="3"/>
-      <c r="J127" s="49"/>
-      <c r="K127" s="2"/>
-      <c r="L127" s="2"/>
+      <c r="J127" s="49" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B128" s="44"/>
+      <c r="A128" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B128" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="C128" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="3"/>
+      <c r="I128" s="3"/>
+      <c r="J128" s="49"/>
+      <c r="K128" s="2"/>
+      <c r="L128" s="2"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="10"/>
-      <c r="B129" s="45"/>
-      <c r="C129" s="10"/>
-      <c r="D129" s="10"/>
-      <c r="E129" s="10"/>
-      <c r="F129" s="10"/>
-      <c r="G129" s="10"/>
-      <c r="H129" s="10"/>
-      <c r="I129" s="10"/>
-      <c r="J129" s="53"/>
+      <c r="B129" s="44"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B130" s="44"/>
+      <c r="A130" s="10"/>
+      <c r="B130" s="45"/>
+      <c r="C130" s="10"/>
+      <c r="D130" s="10"/>
+      <c r="E130" s="10"/>
+      <c r="F130" s="10"/>
+      <c r="G130" s="10"/>
+      <c r="H130" s="10"/>
+      <c r="I130" s="10"/>
+      <c r="J130" s="53"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B131" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="C131" s="38"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
-      <c r="G131" s="1"/>
-      <c r="H131" s="1"/>
-      <c r="I131" s="1"/>
-      <c r="J131" s="50"/>
+      <c r="B131" s="44"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B132" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="C132" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="D132" s="3">
-        <v>10</v>
-      </c>
-      <c r="E132" s="3"/>
-      <c r="F132" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G132" s="3"/>
-      <c r="H132" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I132" s="3"/>
-      <c r="J132" s="49" t="s">
-        <v>80</v>
-      </c>
+      <c r="A132" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B132" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="C132" s="38"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="1"/>
+      <c r="J132" s="50"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" s="20" t="s">
-        <v>3</v>
+      <c r="A133" s="17" t="s">
+        <v>79</v>
       </c>
       <c r="B133" s="42" t="s">
-        <v>118</v>
+        <v>173</v>
       </c>
       <c r="C133" s="39" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D133" s="3">
-        <v>191</v>
+        <v>10</v>
       </c>
       <c r="E133" s="3"/>
-      <c r="F133" s="3"/>
+      <c r="F133" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="G133" s="3"/>
       <c r="H133" s="3" t="s">
         <v>94</v>
@@ -26835,53 +27262,59 @@
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" s="15" t="s">
-        <v>76</v>
+      <c r="A134" s="20" t="s">
+        <v>3</v>
       </c>
       <c r="B134" s="42" t="s">
-        <v>175</v>
+        <v>118</v>
       </c>
       <c r="C134" s="39" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D134" s="3">
-        <v>10</v>
+        <v>191</v>
       </c>
       <c r="E134" s="3"/>
-      <c r="F134" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="F134" s="3"/>
       <c r="G134" s="3"/>
       <c r="H134" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I134" s="3"/>
-      <c r="J134" s="49"/>
+      <c r="J134" s="49" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
-        <v>34</v>
+      <c r="A135" s="15" t="s">
+        <v>76</v>
       </c>
       <c r="B135" s="42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C135" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="D135" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="D135" s="3">
+        <v>10</v>
+      </c>
       <c r="E135" s="3"/>
-      <c r="F135" s="3"/>
+      <c r="F135" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="G135" s="3"/>
-      <c r="H135" s="3"/>
+      <c r="H135" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="I135" s="3"/>
       <c r="J135" s="49"/>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B136" s="42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C136" s="39" t="s">
         <v>64</v>
@@ -26896,54 +27329,54 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B137" s="42" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="C137" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="D137" s="3">
-        <v>10</v>
-      </c>
-      <c r="E137" s="3">
-        <v>0</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>90</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
-      <c r="J137" s="49" t="s">
-        <v>105</v>
-      </c>
+      <c r="J137" s="49"/>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B138" s="42" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C138" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="D138" s="3"/>
-      <c r="E138" s="3"/>
-      <c r="F138" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="D138" s="3">
+        <v>10</v>
+      </c>
+      <c r="E138" s="3">
+        <v>0</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="G138" s="3"/>
       <c r="H138" s="3"/>
       <c r="I138" s="3"/>
-      <c r="J138" s="49"/>
+      <c r="J138" s="49" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A139" s="9" t="s">
-        <v>36</v>
+      <c r="A139" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="B139" s="42" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="C139" s="39" t="s">
         <v>63</v>
@@ -26955,75 +27388,67 @@
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
       <c r="J139" s="49"/>
-      <c r="K139" s="2"/>
-      <c r="L139" s="2"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B140" s="44"/>
+      <c r="A140" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B140" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="C140" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
+      <c r="F140" s="3"/>
+      <c r="G140" s="3"/>
+      <c r="H140" s="3"/>
+      <c r="I140" s="3"/>
+      <c r="J140" s="49"/>
+      <c r="K140" s="2"/>
+      <c r="L140" s="2"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A141" s="10"/>
-      <c r="B141" s="45"/>
-      <c r="C141" s="10"/>
-      <c r="D141" s="10"/>
-      <c r="E141" s="10"/>
-      <c r="F141" s="10"/>
-      <c r="G141" s="10"/>
-      <c r="H141" s="10"/>
-      <c r="I141" s="10"/>
-      <c r="J141" s="53"/>
+      <c r="B141" s="44"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B142" s="44"/>
+      <c r="A142" s="10"/>
+      <c r="B142" s="45"/>
+      <c r="C142" s="10"/>
+      <c r="D142" s="10"/>
+      <c r="E142" s="10"/>
+      <c r="F142" s="10"/>
+      <c r="G142" s="10"/>
+      <c r="H142" s="10"/>
+      <c r="I142" s="10"/>
+      <c r="J142" s="53"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A143" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B143" s="41" t="s">
-        <v>179</v>
-      </c>
-      <c r="C143" s="38"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="1"/>
-      <c r="F143" s="1"/>
-      <c r="G143" s="1"/>
-      <c r="H143" s="1"/>
-      <c r="I143" s="1"/>
-      <c r="J143" s="50"/>
+      <c r="B143" s="44"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A144" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B144" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="C144" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="D144" s="3">
-        <v>10</v>
-      </c>
-      <c r="E144" s="3"/>
-      <c r="F144" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G144" s="3"/>
-      <c r="H144" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I144" s="3"/>
-      <c r="J144" s="49" t="s">
-        <v>80</v>
-      </c>
+      <c r="A144" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B144" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="C144" s="38"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
+      <c r="J144" s="50"/>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B145" s="42" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C145" s="39" t="s">
         <v>68</v>
@@ -27045,31 +27470,37 @@
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A146" s="8" t="s">
-        <v>42</v>
+      <c r="A146" s="17" t="s">
+        <v>79</v>
       </c>
       <c r="B146" s="42" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C146" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="D146" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="D146" s="3">
+        <v>10</v>
+      </c>
       <c r="E146" s="3"/>
-      <c r="F146" s="3"/>
+      <c r="F146" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="G146" s="3"/>
-      <c r="H146" s="3"/>
+      <c r="H146" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="I146" s="3"/>
       <c r="J146" s="49" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B147" s="42" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C147" s="39" t="s">
         <v>65</v>
@@ -27086,10 +27517,10 @@
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B148" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C148" s="39" t="s">
         <v>65</v>
@@ -27105,11 +27536,11 @@
       </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A149" s="9" t="s">
-        <v>45</v>
+      <c r="A149" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="B149" s="42" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C149" s="39" t="s">
         <v>65</v>
@@ -27123,85 +27554,76 @@
       <c r="J149" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="K149" s="2"/>
-      <c r="L149" s="2"/>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B150" s="44"/>
+      <c r="A150" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B150" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="C150" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3"/>
+      <c r="F150" s="3"/>
+      <c r="G150" s="3"/>
+      <c r="H150" s="3"/>
+      <c r="I150" s="3"/>
+      <c r="J150" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="K150" s="2"/>
+      <c r="L150" s="2"/>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A151" s="10"/>
-      <c r="B151" s="45"/>
-      <c r="C151" s="10"/>
-      <c r="D151" s="10"/>
-      <c r="E151" s="10"/>
-      <c r="F151" s="10"/>
-      <c r="G151" s="10"/>
-      <c r="H151" s="10"/>
-      <c r="I151" s="10"/>
-      <c r="J151" s="53"/>
+      <c r="B151" s="44"/>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B152" s="44"/>
-      <c r="K152" s="122" t="s">
-        <v>104</v>
-      </c>
-      <c r="L152" s="123"/>
-      <c r="M152" s="123"/>
-      <c r="N152" s="123"/>
-      <c r="O152" s="123"/>
+      <c r="A152" s="10"/>
+      <c r="B152" s="45"/>
+      <c r="C152" s="10"/>
+      <c r="D152" s="10"/>
+      <c r="E152" s="10"/>
+      <c r="F152" s="10"/>
+      <c r="G152" s="10"/>
+      <c r="H152" s="10"/>
+      <c r="I152" s="10"/>
+      <c r="J152" s="53"/>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A153" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="B153" s="42"/>
-      <c r="C153" s="38"/>
-      <c r="D153" s="1"/>
-      <c r="E153" s="1"/>
-      <c r="F153" s="1"/>
-      <c r="G153" s="1"/>
-      <c r="H153" s="1"/>
-      <c r="I153" s="1"/>
-      <c r="J153" s="50"/>
-      <c r="K153" s="123"/>
-      <c r="L153" s="123"/>
-      <c r="M153" s="123"/>
-      <c r="N153" s="123"/>
-      <c r="O153" s="123"/>
+      <c r="B153" s="44"/>
+      <c r="K153" s="129" t="s">
+        <v>104</v>
+      </c>
+      <c r="L153" s="130"/>
+      <c r="M153" s="130"/>
+      <c r="N153" s="130"/>
+      <c r="O153" s="130"/>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A154" s="36" t="s">
-        <v>84</v>
+      <c r="A154" s="35" t="s">
+        <v>87</v>
       </c>
       <c r="B154" s="42"/>
-      <c r="C154" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="D154" s="3">
-        <v>10</v>
-      </c>
-      <c r="E154" s="3"/>
-      <c r="F154" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G154" s="3"/>
-      <c r="H154" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I154" s="3"/>
-      <c r="J154" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="K154" s="123"/>
-      <c r="L154" s="123"/>
-      <c r="M154" s="123"/>
-      <c r="N154" s="123"/>
-      <c r="O154" s="123"/>
+      <c r="C154" s="38"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+      <c r="H154" s="1"/>
+      <c r="I154" s="1"/>
+      <c r="J154" s="50"/>
+      <c r="K154" s="130"/>
+      <c r="L154" s="130"/>
+      <c r="M154" s="130"/>
+      <c r="N154" s="130"/>
+      <c r="O154" s="130"/>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="36" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B155" s="42"/>
       <c r="C155" s="39" t="s">
@@ -27222,61 +27644,90 @@
       <c r="J155" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="K155" s="123"/>
-      <c r="L155" s="123"/>
-      <c r="M155" s="123"/>
-      <c r="N155" s="123"/>
-      <c r="O155" s="123"/>
+      <c r="K155" s="130"/>
+      <c r="L155" s="130"/>
+      <c r="M155" s="130"/>
+      <c r="N155" s="130"/>
+      <c r="O155" s="130"/>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B156" s="44"/>
-      <c r="K156" s="123"/>
-      <c r="L156" s="123"/>
-      <c r="M156" s="123"/>
-      <c r="N156" s="123"/>
-      <c r="O156" s="123"/>
+      <c r="A156" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B156" s="42"/>
+      <c r="C156" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D156" s="3">
+        <v>10</v>
+      </c>
+      <c r="E156" s="3"/>
+      <c r="F156" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G156" s="3"/>
+      <c r="H156" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I156" s="3"/>
+      <c r="J156" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="K156" s="130"/>
+      <c r="L156" s="130"/>
+      <c r="M156" s="130"/>
+      <c r="N156" s="130"/>
+      <c r="O156" s="130"/>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B157" s="44"/>
-      <c r="K157" s="123"/>
-      <c r="L157" s="123"/>
-      <c r="M157" s="123"/>
-      <c r="N157" s="123"/>
-      <c r="O157" s="123"/>
+      <c r="K157" s="130"/>
+      <c r="L157" s="130"/>
+      <c r="M157" s="130"/>
+      <c r="N157" s="130"/>
+      <c r="O157" s="130"/>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B158" s="44"/>
-      <c r="K158" s="123"/>
-      <c r="L158" s="123"/>
-      <c r="M158" s="123"/>
-      <c r="N158" s="123"/>
-      <c r="O158" s="123"/>
+      <c r="K158" s="130"/>
+      <c r="L158" s="130"/>
+      <c r="M158" s="130"/>
+      <c r="N158" s="130"/>
+      <c r="O158" s="130"/>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B159" s="44"/>
-      <c r="K159" s="123"/>
-      <c r="L159" s="123"/>
-      <c r="M159" s="123"/>
-      <c r="N159" s="123"/>
-      <c r="O159" s="123"/>
+      <c r="K159" s="130"/>
+      <c r="L159" s="130"/>
+      <c r="M159" s="130"/>
+      <c r="N159" s="130"/>
+      <c r="O159" s="130"/>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B160" s="44"/>
-      <c r="K160" s="123"/>
-      <c r="L160" s="123"/>
-      <c r="M160" s="123"/>
-      <c r="N160" s="123"/>
-      <c r="O160" s="123"/>
+      <c r="K160" s="130"/>
+      <c r="L160" s="130"/>
+      <c r="M160" s="130"/>
+      <c r="N160" s="130"/>
+      <c r="O160" s="130"/>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B161" s="44"/>
+      <c r="K161" s="130"/>
+      <c r="L161" s="130"/>
+      <c r="M161" s="130"/>
+      <c r="N161" s="130"/>
+      <c r="O161" s="130"/>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B162" s="47"/>
+    <row r="162" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B162" s="44"/>
+    </row>
+    <row r="163" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B163" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="K152:O160"/>
+    <mergeCell ref="K153:O161"/>
     <mergeCell ref="K71:P75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28064,13 +28515,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>153</xdr:row>
+                    <xdr:row>154</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>154</xdr:row>
+                    <xdr:row>155</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -28328,13 +28779,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>153</xdr:row>
+                    <xdr:row>154</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>154</xdr:row>
+                    <xdr:row>155</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -29978,13 +30429,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>125</xdr:row>
+                    <xdr:row>126</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>126</xdr:row>
+                    <xdr:row>127</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -30000,13 +30451,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>125</xdr:row>
+                    <xdr:row>126</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>126</xdr:row>
+                    <xdr:row>127</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -30022,13 +30473,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>126</xdr:row>
+                    <xdr:row>127</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>127</xdr:row>
+                    <xdr:row>128</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -30044,13 +30495,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>126</xdr:row>
+                    <xdr:row>127</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>127</xdr:row>
+                    <xdr:row>128</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -30066,13 +30517,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>134</xdr:row>
+                    <xdr:row>135</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>135</xdr:row>
+                    <xdr:row>136</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -30088,13 +30539,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>134</xdr:row>
+                    <xdr:row>135</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>135</xdr:row>
+                    <xdr:row>136</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -30110,13 +30561,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>145</xdr:row>
+                    <xdr:row>146</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>146</xdr:row>
+                    <xdr:row>147</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -30132,13 +30583,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>145</xdr:row>
+                    <xdr:row>146</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>146</xdr:row>
+                    <xdr:row>147</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -30154,13 +30605,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>146</xdr:row>
+                    <xdr:row>147</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>147</xdr:row>
+                    <xdr:row>148</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -30176,13 +30627,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>146</xdr:row>
+                    <xdr:row>147</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>147</xdr:row>
+                    <xdr:row>148</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -30198,13 +30649,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>147</xdr:row>
+                    <xdr:row>148</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>148</xdr:row>
+                    <xdr:row>149</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -30220,13 +30671,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>147</xdr:row>
+                    <xdr:row>148</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>148</xdr:row>
+                    <xdr:row>149</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -30242,13 +30693,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>148</xdr:row>
+                    <xdr:row>149</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>149</xdr:row>
+                    <xdr:row>150</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -30264,13 +30715,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>148</xdr:row>
+                    <xdr:row>149</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>149</xdr:row>
+                    <xdr:row>150</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -30286,13 +30737,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>133</xdr:row>
+                    <xdr:row>134</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>134</xdr:row>
+                    <xdr:row>135</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -30308,13 +30759,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>133</xdr:row>
+                    <xdr:row>134</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>134</xdr:row>
+                    <xdr:row>135</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -30330,13 +30781,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>134</xdr:row>
+                    <xdr:row>135</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>135</xdr:row>
+                    <xdr:row>136</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -30352,13 +30803,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>134</xdr:row>
+                    <xdr:row>135</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>135</xdr:row>
+                    <xdr:row>136</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -30374,13 +30825,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>135</xdr:row>
+                    <xdr:row>136</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>136</xdr:row>
+                    <xdr:row>137</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -30396,13 +30847,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>135</xdr:row>
+                    <xdr:row>136</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>136</xdr:row>
+                    <xdr:row>137</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -30418,13 +30869,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>136</xdr:row>
+                    <xdr:row>137</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>137</xdr:row>
+                    <xdr:row>138</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -30440,13 +30891,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>136</xdr:row>
+                    <xdr:row>137</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>137</xdr:row>
+                    <xdr:row>138</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -30462,13 +30913,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>137</xdr:row>
+                    <xdr:row>138</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>138</xdr:row>
+                    <xdr:row>139</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -30484,13 +30935,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>137</xdr:row>
+                    <xdr:row>138</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>138</xdr:row>
+                    <xdr:row>139</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -30506,13 +30957,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>138</xdr:row>
+                    <xdr:row>139</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>139</xdr:row>
+                    <xdr:row>140</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -30528,13 +30979,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>138</xdr:row>
+                    <xdr:row>139</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>139</xdr:row>
+                    <xdr:row>140</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -30726,13 +31177,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>143</xdr:row>
+                    <xdr:row>144</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>144</xdr:row>
+                    <xdr:row>145</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -30748,13 +31199,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>143</xdr:row>
+                    <xdr:row>144</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>144</xdr:row>
+                    <xdr:row>145</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -30902,13 +31353,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>144</xdr:row>
+                    <xdr:row>145</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>145</xdr:row>
+                    <xdr:row>146</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -30924,13 +31375,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>144</xdr:row>
+                    <xdr:row>145</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>145</xdr:row>
+                    <xdr:row>146</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -30946,13 +31397,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>131</xdr:row>
+                    <xdr:row>132</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>132</xdr:row>
+                    <xdr:row>133</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -30968,13 +31419,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>131</xdr:row>
+                    <xdr:row>132</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>132</xdr:row>
+                    <xdr:row>133</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -30990,13 +31441,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>124</xdr:row>
+                    <xdr:row>125</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>125</xdr:row>
+                    <xdr:row>126</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -31012,13 +31463,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>124</xdr:row>
+                    <xdr:row>125</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>125</xdr:row>
+                    <xdr:row>126</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -31122,13 +31573,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>132</xdr:row>
+                    <xdr:row>133</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>133</xdr:row>
+                    <xdr:row>134</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -31144,13 +31595,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>132</xdr:row>
+                    <xdr:row>133</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>133</xdr:row>
+                    <xdr:row>134</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -31210,13 +31661,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>154</xdr:row>
+                    <xdr:row>155</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>155</xdr:row>
+                    <xdr:row>156</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -31232,13 +31683,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>154</xdr:row>
+                    <xdr:row>155</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>155</xdr:row>
+                    <xdr:row>156</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -32229,6 +32680,50 @@
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>89</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3632" r:id="rId229" name="Check Box 560">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>120</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>121</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3633" r:id="rId230" name="Check Box 561">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>120</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>121</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -32355,11 +32850,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:K75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J44" sqref="J44"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32688,7 +33183,7 @@
       <c r="H17" s="90"/>
       <c r="I17" s="90"/>
       <c r="J17" s="93"/>
-      <c r="K17" s="125" t="s">
+      <c r="K17" s="132" t="s">
         <v>232</v>
       </c>
     </row>
@@ -32713,7 +33208,7 @@
       </c>
       <c r="I18" s="90"/>
       <c r="J18" s="93"/>
-      <c r="K18" s="125"/>
+      <c r="K18" s="132"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="96" t="s">
@@ -32736,7 +33231,7 @@
       </c>
       <c r="I19" s="79"/>
       <c r="J19" s="93"/>
-      <c r="K19" s="125"/>
+      <c r="K19" s="132"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
@@ -32799,7 +33294,7 @@
       <c r="H24" s="90"/>
       <c r="I24" s="90"/>
       <c r="J24" s="93"/>
-      <c r="K24" s="126" t="s">
+      <c r="K24" s="133" t="s">
         <v>230</v>
       </c>
     </row>
@@ -32828,7 +33323,7 @@
       <c r="J25" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="K25" s="127"/>
+      <c r="K25" s="134"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="97" t="s">
@@ -32853,7 +33348,7 @@
       <c r="J26" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="K26" s="127"/>
+      <c r="K26" s="134"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="98" t="s">
@@ -32872,7 +33367,7 @@
       <c r="H27" s="79"/>
       <c r="I27" s="79"/>
       <c r="J27" s="80"/>
-      <c r="K27" s="128"/>
+      <c r="K27" s="135"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="104">
@@ -33043,136 +33538,138 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="111"/>
-      <c r="B38" s="112"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="113"/>
+      <c r="A38" s="83" t="s">
+        <v>254</v>
+      </c>
+      <c r="B38" s="77" t="s">
+        <v>255</v>
+      </c>
+      <c r="C38" s="78" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="79"/>
+      <c r="E38" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" s="79"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="79"/>
+      <c r="I38" s="79"/>
+      <c r="J38" s="80" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="105" t="s">
-        <v>32</v>
-      </c>
+      <c r="A39" s="111"/>
+      <c r="B39" s="112"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="113"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="130" t="s">
-        <v>89</v>
-      </c>
-      <c r="B40" s="131"/>
-      <c r="C40" s="132" t="s">
-        <v>68</v>
-      </c>
-      <c r="D40" s="133">
-        <v>10</v>
-      </c>
-      <c r="E40" s="133"/>
-      <c r="F40" s="134" t="s">
-        <v>90</v>
-      </c>
-      <c r="G40" s="133"/>
-      <c r="H40" s="133" t="s">
-        <v>88</v>
-      </c>
-      <c r="I40" s="133"/>
-      <c r="J40" s="135"/>
+      <c r="A40" s="105" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="103" t="s">
-        <v>85</v>
-      </c>
-      <c r="B41" s="69"/>
-      <c r="C41" s="39" t="s">
+      <c r="A41" s="123" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="124"/>
+      <c r="C41" s="125" t="s">
         <v>68</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="126">
         <v>10</v>
       </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="1" t="s">
+      <c r="E41" s="126"/>
+      <c r="F41" s="127" t="s">
         <v>90</v>
       </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="67" t="s">
+      <c r="G41" s="126"/>
+      <c r="H41" s="126" t="s">
         <v>88</v>
       </c>
-      <c r="I41" s="3"/>
-      <c r="J41" s="66" t="s">
-        <v>244</v>
-      </c>
+      <c r="I41" s="126"/>
+      <c r="J41" s="128"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="96" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" s="77" t="s">
-        <v>250</v>
-      </c>
-      <c r="C42" s="78" t="s">
-        <v>62</v>
-      </c>
-      <c r="D42" s="79">
-        <v>191</v>
-      </c>
-      <c r="E42" s="79"/>
-      <c r="F42" s="79"/>
-      <c r="G42" s="79"/>
-      <c r="H42" s="79" t="s">
+      <c r="A42" s="103" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="69"/>
+      <c r="C42" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" s="3">
+        <v>10</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="I42" s="79"/>
-      <c r="J42" s="80"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="66" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="118" t="s">
-        <v>15</v>
-      </c>
-      <c r="B43" s="108" t="s">
-        <v>140</v>
-      </c>
-      <c r="C43" s="109" t="s">
-        <v>63</v>
-      </c>
-      <c r="D43" s="110"/>
-      <c r="E43" s="110"/>
-      <c r="F43" s="110"/>
-      <c r="G43" s="110"/>
-      <c r="H43" s="110"/>
-      <c r="I43" s="110"/>
-      <c r="J43" s="119" t="s">
-        <v>186</v>
-      </c>
+      <c r="A43" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="77" t="s">
+        <v>250</v>
+      </c>
+      <c r="C43" s="78" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" s="79">
+        <v>191</v>
+      </c>
+      <c r="E43" s="79"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="79"/>
+      <c r="H43" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="I43" s="79"/>
+      <c r="J43" s="80"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="96" t="s">
-        <v>248</v>
-      </c>
-      <c r="B44" s="77" t="s">
+      <c r="A44" s="118" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="108" t="s">
         <v>140</v>
       </c>
-      <c r="C44" s="78" t="s">
+      <c r="C44" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="D44" s="79"/>
-      <c r="E44" s="79"/>
-      <c r="F44" s="79"/>
-      <c r="G44" s="79"/>
-      <c r="H44" s="79"/>
-      <c r="I44" s="79"/>
-      <c r="J44" s="80" t="s">
+      <c r="D44" s="110"/>
+      <c r="E44" s="110"/>
+      <c r="F44" s="110"/>
+      <c r="G44" s="110"/>
+      <c r="H44" s="110"/>
+      <c r="I44" s="110"/>
+      <c r="J44" s="119" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="96" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B45" s="77" t="s">
-        <v>252</v>
+        <v>140</v>
       </c>
       <c r="C45" s="78" t="s">
         <v>63</v>
@@ -33183,95 +33680,111 @@
       <c r="G45" s="79"/>
       <c r="H45" s="79"/>
       <c r="I45" s="79"/>
-      <c r="J45" s="121" t="s">
+      <c r="J45" s="80" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="96" t="s">
+        <v>251</v>
+      </c>
+      <c r="B46" s="77" t="s">
+        <v>252</v>
+      </c>
+      <c r="C46" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" s="79"/>
+      <c r="E46" s="79"/>
+      <c r="F46" s="79"/>
+      <c r="G46" s="79"/>
+      <c r="H46" s="79"/>
+      <c r="I46" s="79"/>
+      <c r="J46" s="121" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
-        <v>51</v>
+      <c r="A47" s="28" t="s">
+        <v>39</v>
       </c>
       <c r="B47" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="C47" s="38"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="50"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="B48" s="41"/>
-      <c r="C48" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="D48" s="1">
-        <v>10</v>
-      </c>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I48" s="1"/>
-      <c r="J48" s="50"/>
+        <v>148</v>
+      </c>
+      <c r="C47" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" s="3">
+        <v>2</v>
+      </c>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="49"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="31" t="s">
-        <v>8</v>
+      <c r="A49" s="22" t="s">
+        <v>51</v>
       </c>
       <c r="B49" s="42" t="s">
-        <v>133</v>
-      </c>
-      <c r="C49" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="D49" s="3">
-        <v>191</v>
-      </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I49" s="3"/>
-      <c r="J49" s="55" t="s">
-        <v>40</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="C49" s="38"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="50"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-      <c r="B50" s="44"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="52"/>
+      <c r="A50" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" s="41"/>
+      <c r="C50" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" s="1">
+        <v>10</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I50" s="1"/>
+      <c r="J50" s="50"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
-      <c r="B51" s="45"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="53"/>
+      <c r="A51" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="3">
+        <v>191</v>
+      </c>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I51" s="3"/>
+      <c r="J51" s="55" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
@@ -33286,356 +33799,380 @@
       <c r="J52" s="52"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="B53" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="C53" s="38"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="50"/>
+      <c r="A53" s="10"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="53"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="B54" s="41"/>
-      <c r="C54" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="D54" s="1">
-        <v>10</v>
-      </c>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I54" s="1"/>
-      <c r="J54" s="50"/>
+      <c r="A54" s="5"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="52"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="31" t="s">
-        <v>8</v>
+      <c r="A55" s="22" t="s">
+        <v>72</v>
       </c>
       <c r="B55" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="C55" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="D55" s="3">
-        <v>191</v>
-      </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I55" s="3"/>
-      <c r="J55" s="55" t="s">
-        <v>73</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="C55" s="38"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="50"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="44"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="54"/>
+      <c r="A56" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B56" s="41"/>
+      <c r="C56" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" s="1">
+        <v>10</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I56" s="1"/>
+      <c r="J56" s="50"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="12"/>
-      <c r="B57" s="46"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="56"/>
+      <c r="A57" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D57" s="3">
+        <v>191</v>
+      </c>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I57" s="3"/>
+      <c r="J57" s="55" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
+      <c r="A58" s="2"/>
       <c r="B58" s="44"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="52"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="54"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B59" s="42" t="s">
-        <v>201</v>
-      </c>
-      <c r="C59" s="38"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="50"/>
+      <c r="A59" s="12"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="56"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="B60" s="41"/>
-      <c r="C60" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="D60" s="1">
-        <v>10</v>
-      </c>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I60" s="1"/>
-      <c r="J60" s="50"/>
+      <c r="A60" s="5"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="52"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="31" t="s">
-        <v>8</v>
+      <c r="A61" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="B61" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="C61" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="D61" s="3">
-        <v>191</v>
-      </c>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I61" s="3"/>
-      <c r="J61" s="55" t="s">
-        <v>75</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="C61" s="38"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="50"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
-      <c r="B62" s="44"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="54"/>
+      <c r="A62" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B62" s="41"/>
+      <c r="C62" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" s="1">
+        <v>10</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I62" s="1"/>
+      <c r="J62" s="50"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="12"/>
-      <c r="B63" s="46"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
-      <c r="J63" s="56"/>
+      <c r="A63" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="C63" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D63" s="3">
+        <v>191</v>
+      </c>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I63" s="3"/>
+      <c r="J63" s="55" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
+      <c r="A64" s="2"/>
       <c r="B64" s="44"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="52"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="54"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B65" s="42" t="s">
-        <v>179</v>
-      </c>
-      <c r="C65" s="38"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="50"/>
+      <c r="A65" s="12"/>
+      <c r="B65" s="46"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="56"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="B66" s="41"/>
-      <c r="C66" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="D66" s="1">
-        <v>10</v>
-      </c>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I66" s="1"/>
-      <c r="J66" s="50"/>
+      <c r="A66" s="5"/>
+      <c r="B66" s="44"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="52"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="31" t="s">
-        <v>8</v>
+      <c r="A67" s="22" t="s">
+        <v>49</v>
       </c>
       <c r="B67" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="C67" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="D67" s="3">
-        <v>191</v>
-      </c>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I67" s="3"/>
-      <c r="J67" s="55"/>
+        <v>179</v>
+      </c>
+      <c r="C67" s="38"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="50"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
-      <c r="B68" s="44"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="11"/>
-      <c r="J68" s="54"/>
+      <c r="A68" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B68" s="41"/>
+      <c r="C68" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" s="1">
+        <v>10</v>
+      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I68" s="1"/>
+      <c r="J68" s="50"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="12"/>
-      <c r="B69" s="46"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="13"/>
-      <c r="J69" s="56"/>
+      <c r="A69" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="C69" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D69" s="3">
+        <v>191</v>
+      </c>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I69" s="3"/>
+      <c r="J69" s="55"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="85"/>
-      <c r="B70" s="86"/>
-      <c r="C70" s="87"/>
-      <c r="D70" s="87"/>
-      <c r="E70" s="87"/>
-      <c r="F70" s="87"/>
-      <c r="G70" s="87"/>
-      <c r="H70" s="87"/>
-      <c r="I70" s="87"/>
-      <c r="J70" s="88"/>
+      <c r="A70" s="2"/>
+      <c r="B70" s="44"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="54"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="99" t="s">
-        <v>41</v>
-      </c>
-      <c r="B71" s="41" t="s">
-        <v>172</v>
-      </c>
-      <c r="C71" s="38"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="50"/>
+      <c r="A71" s="12"/>
+      <c r="B71" s="46"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="56"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="B72" s="41"/>
-      <c r="C72" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="D72" s="1">
-        <v>10</v>
-      </c>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I72" s="1"/>
-      <c r="J72" s="50"/>
+      <c r="A72" s="85"/>
+      <c r="B72" s="86"/>
+      <c r="C72" s="87"/>
+      <c r="D72" s="87"/>
+      <c r="E72" s="87"/>
+      <c r="F72" s="87"/>
+      <c r="G72" s="87"/>
+      <c r="H72" s="87"/>
+      <c r="I72" s="87"/>
+      <c r="J72" s="88"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="31" t="s">
+      <c r="A73" s="99" t="s">
+        <v>41</v>
+      </c>
+      <c r="B73" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="C73" s="38"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="50"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B74" s="41"/>
+      <c r="C74" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" s="1">
+        <v>10</v>
+      </c>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I74" s="1"/>
+      <c r="J74" s="50"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B73" s="42" t="s">
+      <c r="B75" s="42" t="s">
         <v>222</v>
       </c>
-      <c r="C73" s="39" t="s">
+      <c r="C75" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D75" s="3">
         <v>191</v>
       </c>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3" t="s">
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I73" s="3"/>
-      <c r="J73" s="55"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -34536,13 +35073,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>39</xdr:row>
+                    <xdr:row>40</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>40</xdr:row>
+                    <xdr:row>41</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -34558,13 +35095,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>39</xdr:row>
+                    <xdr:row>40</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>40</xdr:row>
+                    <xdr:row>41</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -34580,13 +35117,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>40</xdr:row>
+                    <xdr:row>41</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>41</xdr:row>
+                    <xdr:row>42</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -34602,13 +35139,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>40</xdr:row>
+                    <xdr:row>41</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>41</xdr:row>
+                    <xdr:row>42</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -35020,13 +35557,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>43</xdr:row>
+                    <xdr:row>44</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>44</xdr:row>
+                    <xdr:row>45</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -35042,13 +35579,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>43</xdr:row>
+                    <xdr:row>44</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>44</xdr:row>
+                    <xdr:row>45</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -35064,13 +35601,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>42</xdr:row>
+                    <xdr:row>43</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>43</xdr:row>
+                    <xdr:row>44</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -35086,13 +35623,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>42</xdr:row>
+                    <xdr:row>43</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>43</xdr:row>
+                    <xdr:row>44</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -35108,13 +35645,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>48</xdr:row>
+                    <xdr:row>50</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>49</xdr:row>
+                    <xdr:row>51</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -35130,13 +35667,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>48</xdr:row>
+                    <xdr:row>50</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>49</xdr:row>
+                    <xdr:row>51</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -35152,13 +35689,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>54</xdr:row>
+                    <xdr:row>56</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>55</xdr:row>
+                    <xdr:row>57</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -35174,13 +35711,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>54</xdr:row>
+                    <xdr:row>56</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>55</xdr:row>
+                    <xdr:row>57</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -35196,13 +35733,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>60</xdr:row>
+                    <xdr:row>62</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>61</xdr:row>
+                    <xdr:row>63</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -35218,13 +35755,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>60</xdr:row>
+                    <xdr:row>62</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>61</xdr:row>
+                    <xdr:row>63</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -35240,13 +35777,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>66</xdr:row>
+                    <xdr:row>68</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>67</xdr:row>
+                    <xdr:row>69</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -35262,13 +35799,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>66</xdr:row>
+                    <xdr:row>68</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>67</xdr:row>
+                    <xdr:row>69</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -35284,13 +35821,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>47</xdr:row>
+                    <xdr:row>49</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>48</xdr:row>
+                    <xdr:row>50</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -35306,13 +35843,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>53</xdr:row>
+                    <xdr:row>55</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>54</xdr:row>
+                    <xdr:row>56</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -35328,13 +35865,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>59</xdr:row>
+                    <xdr:row>61</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>60</xdr:row>
+                    <xdr:row>62</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -35350,13 +35887,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>65</xdr:row>
+                    <xdr:row>67</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>66</xdr:row>
+                    <xdr:row>68</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -35372,13 +35909,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>55</xdr:row>
+                    <xdr:row>57</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>56</xdr:row>
+                    <xdr:row>58</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -35394,13 +35931,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>55</xdr:row>
+                    <xdr:row>57</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>56</xdr:row>
+                    <xdr:row>58</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -35416,13 +35953,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>72</xdr:row>
+                    <xdr:row>74</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>73</xdr:row>
+                    <xdr:row>75</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -35438,13 +35975,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>72</xdr:row>
+                    <xdr:row>74</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>73</xdr:row>
+                    <xdr:row>75</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -35460,13 +35997,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>71</xdr:row>
+                    <xdr:row>73</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>72</xdr:row>
+                    <xdr:row>74</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -35482,13 +36019,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>41</xdr:row>
+                    <xdr:row>42</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>42</xdr:row>
+                    <xdr:row>43</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -35504,13 +36041,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>41</xdr:row>
+                    <xdr:row>42</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>42</xdr:row>
+                    <xdr:row>43</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -35526,13 +36063,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>44</xdr:row>
+                    <xdr:row>45</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>45</xdr:row>
+                    <xdr:row>46</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -35548,13 +36085,101 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>44</xdr:row>
+                    <xdr:row>45</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>45</xdr:row>
+                    <xdr:row>46</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="5212" r:id="rId90" name="Check Box 92">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>37</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>38</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="5213" r:id="rId91" name="Check Box 93">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>37</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>38</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="5214" r:id="rId92" name="Check Box 94">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>46</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>47</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="5215" r:id="rId93" name="Check Box 95">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>46</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>47</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>

--- a/db_29_10_2018.xlsx
+++ b/db_29_10_2018.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11505" windowHeight="4515" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11505" windowHeight="4515"/>
   </bookViews>
   <sheets>
     <sheet name="tables" sheetId="3" r:id="rId1"/>
@@ -21887,7 +21887,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -21898,9 +21898,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P197"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A88" sqref="A88"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
@@ -31103,7 +31103,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J34" sqref="J34"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31398,7 +31398,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31638,7 +31638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>

--- a/db_29_10_2018.xlsx
+++ b/db_29_10_2018.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11505" windowHeight="4515"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11505" windowHeight="4515" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="tables" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="301">
   <si>
     <t>employers</t>
   </si>
@@ -994,6 +994,12 @@
   <si>
     <t>Vị Trí Mong Muốn</t>
   </si>
+  <si>
+    <t>other_soft</t>
+  </si>
+  <si>
+    <t>Phần Mềm Khác</t>
+  </si>
 </sst>
 </file>
 
@@ -1628,18 +1634,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1652,6 +1646,18 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2658,7 +2664,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp263.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp264.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2674,7 +2680,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp267.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp268.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2702,7 +2708,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp273.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp274.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2710,19 +2716,19 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp275.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp276.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp277.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp276.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp278.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp277.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp278.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp279.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2762,7 +2768,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp287.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp288.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2770,7 +2776,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp289.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2778,7 +2784,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp290.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp291.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2786,7 +2792,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp292.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp293.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2810,7 +2816,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp298.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp299.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2826,7 +2832,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp300.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp301.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2834,7 +2840,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp302.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp303.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2842,7 +2848,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp304.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp305.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2978,11 +2984,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp335.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp336.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp337.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2994,7 +3000,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp339.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3002,7 +3008,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp340.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp341.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3014,7 +3020,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp343.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp344.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3022,7 +3028,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp345.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp346.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3034,7 +3040,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp348.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp349.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3054,7 +3060,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp352.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp353.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3070,7 +3076,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp356.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp357.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3078,7 +3084,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp358.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp359.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3090,7 +3096,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp360.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp361.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3098,7 +3104,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp362.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp363.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3106,7 +3112,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp364.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp365.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3134,7 +3140,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp370.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp371.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3150,7 +3156,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp374.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp375.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3158,11 +3164,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp376.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp377.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp378.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3170,7 +3176,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp379.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp38.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3194,7 +3200,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp384.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp385.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3210,7 +3216,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp388.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp389.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3306,7 +3312,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp409.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp41.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3326,6 +3332,14 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp413.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp414.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp415.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
@@ -7130,13 +7144,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>147</xdr:row>
+          <xdr:row>148</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>148</xdr:row>
+          <xdr:row>149</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -7194,13 +7208,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>148</xdr:row>
+          <xdr:row>149</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>149</xdr:row>
+          <xdr:row>150</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -7258,13 +7272,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>148</xdr:row>
+          <xdr:row>149</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>149</xdr:row>
+          <xdr:row>150</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -7322,13 +7336,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>149</xdr:row>
+          <xdr:row>150</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>150</xdr:row>
+          <xdr:row>151</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -7386,13 +7400,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>150</xdr:row>
+          <xdr:row>151</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>151</xdr:row>
+          <xdr:row>152</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -7450,13 +7464,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>145</xdr:row>
+          <xdr:row>146</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>145</xdr:row>
+          <xdr:row>146</xdr:row>
           <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -7834,13 +7848,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>147</xdr:row>
+          <xdr:row>148</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>148</xdr:row>
+          <xdr:row>149</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -7898,13 +7912,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>148</xdr:row>
+          <xdr:row>149</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>149</xdr:row>
+          <xdr:row>150</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -7962,13 +7976,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>148</xdr:row>
+          <xdr:row>149</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>149</xdr:row>
+          <xdr:row>150</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -8026,13 +8040,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>149</xdr:row>
+          <xdr:row>150</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>150</xdr:row>
+          <xdr:row>151</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -8090,13 +8104,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>150</xdr:row>
+          <xdr:row>151</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>151</xdr:row>
+          <xdr:row>152</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -8154,13 +8168,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>145</xdr:row>
+          <xdr:row>146</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>145</xdr:row>
+          <xdr:row>146</xdr:row>
           <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -8858,13 +8872,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>118</xdr:row>
+          <xdr:row>119</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>119</xdr:row>
+          <xdr:row>120</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -8922,13 +8936,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>118</xdr:row>
+          <xdr:row>119</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>119</xdr:row>
+          <xdr:row>120</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -8986,13 +9000,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>122</xdr:row>
+          <xdr:row>123</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>123</xdr:row>
+          <xdr:row>124</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9050,13 +9064,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>122</xdr:row>
+          <xdr:row>123</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>123</xdr:row>
+          <xdr:row>124</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9114,13 +9128,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>123</xdr:row>
+          <xdr:row>124</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>124</xdr:row>
+          <xdr:row>125</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9178,13 +9192,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>123</xdr:row>
+          <xdr:row>124</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>124</xdr:row>
+          <xdr:row>125</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9242,13 +9256,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>116</xdr:row>
+          <xdr:row>117</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>117</xdr:row>
+          <xdr:row>118</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9306,13 +9320,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>116</xdr:row>
+          <xdr:row>117</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>117</xdr:row>
+          <xdr:row>118</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9370,13 +9384,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>116</xdr:row>
+          <xdr:row>117</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>117</xdr:row>
+          <xdr:row>118</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9434,13 +9448,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>116</xdr:row>
+          <xdr:row>117</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>117</xdr:row>
+          <xdr:row>118</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9498,13 +9512,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>126</xdr:row>
+          <xdr:row>127</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>127</xdr:row>
+          <xdr:row>128</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9562,13 +9576,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>126</xdr:row>
+          <xdr:row>127</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>127</xdr:row>
+          <xdr:row>128</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9626,13 +9640,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>126</xdr:row>
+          <xdr:row>127</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>127</xdr:row>
+          <xdr:row>128</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9690,13 +9704,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>126</xdr:row>
+          <xdr:row>127</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>127</xdr:row>
+          <xdr:row>128</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9754,13 +9768,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>127</xdr:row>
+          <xdr:row>128</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>128</xdr:row>
+          <xdr:row>129</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9818,13 +9832,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>127</xdr:row>
+          <xdr:row>128</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>128</xdr:row>
+          <xdr:row>129</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9882,13 +9896,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>127</xdr:row>
+          <xdr:row>128</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>128</xdr:row>
+          <xdr:row>129</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9946,13 +9960,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>127</xdr:row>
+          <xdr:row>128</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>128</xdr:row>
+          <xdr:row>129</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10010,13 +10024,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>127</xdr:row>
+          <xdr:row>128</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>128</xdr:row>
+          <xdr:row>129</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10074,13 +10088,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>127</xdr:row>
+          <xdr:row>128</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>128</xdr:row>
+          <xdr:row>129</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10138,13 +10152,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>127</xdr:row>
+          <xdr:row>128</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>128</xdr:row>
+          <xdr:row>129</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10202,13 +10216,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>127</xdr:row>
+          <xdr:row>128</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>128</xdr:row>
+          <xdr:row>129</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10266,13 +10280,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>128</xdr:row>
+          <xdr:row>129</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>129</xdr:row>
+          <xdr:row>130</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10330,13 +10344,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>128</xdr:row>
+          <xdr:row>129</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>129</xdr:row>
+          <xdr:row>130</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10394,13 +10408,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>129</xdr:row>
+          <xdr:row>130</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>130</xdr:row>
+          <xdr:row>131</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10458,13 +10472,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>129</xdr:row>
+          <xdr:row>130</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>130</xdr:row>
+          <xdr:row>131</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10522,13 +10536,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>130</xdr:row>
+          <xdr:row>131</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>131</xdr:row>
+          <xdr:row>132</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10586,13 +10600,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>130</xdr:row>
+          <xdr:row>131</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>131</xdr:row>
+          <xdr:row>132</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10650,13 +10664,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>131</xdr:row>
+          <xdr:row>132</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>132</xdr:row>
+          <xdr:row>133</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10714,13 +10728,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>131</xdr:row>
+          <xdr:row>132</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>132</xdr:row>
+          <xdr:row>133</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10778,13 +10792,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>132</xdr:row>
+          <xdr:row>133</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>133</xdr:row>
+          <xdr:row>134</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10842,13 +10856,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>132</xdr:row>
+          <xdr:row>133</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>133</xdr:row>
+          <xdr:row>134</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10906,13 +10920,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>133</xdr:row>
+          <xdr:row>134</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>134</xdr:row>
+          <xdr:row>135</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10970,13 +10984,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>133</xdr:row>
+          <xdr:row>134</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>134</xdr:row>
+          <xdr:row>135</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11034,13 +11048,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>134</xdr:row>
+          <xdr:row>135</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>135</xdr:row>
+          <xdr:row>136</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11098,13 +11112,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>134</xdr:row>
+          <xdr:row>135</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>135</xdr:row>
+          <xdr:row>136</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11162,13 +11176,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>135</xdr:row>
+          <xdr:row>136</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>136</xdr:row>
+          <xdr:row>137</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11226,13 +11240,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>135</xdr:row>
+          <xdr:row>136</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>136</xdr:row>
+          <xdr:row>137</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11290,13 +11304,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>146</xdr:row>
+          <xdr:row>147</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>147</xdr:row>
+          <xdr:row>148</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11354,13 +11368,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>146</xdr:row>
+          <xdr:row>147</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>147</xdr:row>
+          <xdr:row>148</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11418,13 +11432,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>151</xdr:row>
+          <xdr:row>152</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>152</xdr:row>
+          <xdr:row>153</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11482,13 +11496,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>151</xdr:row>
+          <xdr:row>152</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>152</xdr:row>
+          <xdr:row>153</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11546,13 +11560,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>160</xdr:row>
+          <xdr:row>161</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>161</xdr:row>
+          <xdr:row>162</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11610,13 +11624,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>160</xdr:row>
+          <xdr:row>161</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>161</xdr:row>
+          <xdr:row>162</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11674,13 +11688,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>171</xdr:row>
+          <xdr:row>172</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>172</xdr:row>
+          <xdr:row>173</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11738,13 +11752,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>171</xdr:row>
+          <xdr:row>172</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>172</xdr:row>
+          <xdr:row>173</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11802,13 +11816,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>172</xdr:row>
+          <xdr:row>173</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>173</xdr:row>
+          <xdr:row>174</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11866,13 +11880,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>172</xdr:row>
+          <xdr:row>173</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>173</xdr:row>
+          <xdr:row>174</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11930,13 +11944,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>173</xdr:row>
+          <xdr:row>174</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>174</xdr:row>
+          <xdr:row>175</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11994,13 +12008,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>173</xdr:row>
+          <xdr:row>174</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>174</xdr:row>
+          <xdr:row>175</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12058,13 +12072,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>174</xdr:row>
+          <xdr:row>175</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>175</xdr:row>
+          <xdr:row>176</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12122,13 +12136,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>174</xdr:row>
+          <xdr:row>175</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>175</xdr:row>
+          <xdr:row>176</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12186,13 +12200,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>159</xdr:row>
+          <xdr:row>160</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>160</xdr:row>
+          <xdr:row>161</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12250,13 +12264,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>159</xdr:row>
+          <xdr:row>160</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>160</xdr:row>
+          <xdr:row>161</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12314,13 +12328,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>160</xdr:row>
+          <xdr:row>161</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>161</xdr:row>
+          <xdr:row>162</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12378,13 +12392,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>160</xdr:row>
+          <xdr:row>161</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>161</xdr:row>
+          <xdr:row>162</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12442,13 +12456,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>161</xdr:row>
+          <xdr:row>162</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>162</xdr:row>
+          <xdr:row>163</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12506,13 +12520,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>161</xdr:row>
+          <xdr:row>162</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>162</xdr:row>
+          <xdr:row>163</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12570,13 +12584,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>162</xdr:row>
+          <xdr:row>163</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>163</xdr:row>
+          <xdr:row>164</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12634,13 +12648,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>162</xdr:row>
+          <xdr:row>163</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>163</xdr:row>
+          <xdr:row>164</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12698,13 +12712,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>163</xdr:row>
+          <xdr:row>164</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>164</xdr:row>
+          <xdr:row>165</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12762,13 +12776,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>163</xdr:row>
+          <xdr:row>164</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>164</xdr:row>
+          <xdr:row>165</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12826,13 +12840,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>164</xdr:row>
+          <xdr:row>165</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>165</xdr:row>
+          <xdr:row>166</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12890,13 +12904,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>164</xdr:row>
+          <xdr:row>165</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>165</xdr:row>
+          <xdr:row>166</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -13338,13 +13352,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>169</xdr:row>
+          <xdr:row>170</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>170</xdr:row>
+          <xdr:row>171</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -13402,13 +13416,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>169</xdr:row>
+          <xdr:row>170</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>170</xdr:row>
+          <xdr:row>171</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -13594,13 +13608,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>136</xdr:row>
+          <xdr:row>137</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>137</xdr:row>
+          <xdr:row>138</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -13658,13 +13672,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>136</xdr:row>
+          <xdr:row>137</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>137</xdr:row>
+          <xdr:row>138</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -13722,13 +13736,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>137</xdr:row>
+          <xdr:row>138</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>138</xdr:row>
+          <xdr:row>139</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -13786,13 +13800,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>137</xdr:row>
+          <xdr:row>138</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>138</xdr:row>
+          <xdr:row>139</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -13850,13 +13864,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>170</xdr:row>
+          <xdr:row>171</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>171</xdr:row>
+          <xdr:row>172</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -13914,13 +13928,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>170</xdr:row>
+          <xdr:row>171</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>171</xdr:row>
+          <xdr:row>172</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -13978,13 +13992,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>157</xdr:row>
+          <xdr:row>158</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>158</xdr:row>
+          <xdr:row>159</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -14042,13 +14056,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>157</xdr:row>
+          <xdr:row>158</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>158</xdr:row>
+          <xdr:row>159</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -14106,13 +14120,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>144</xdr:row>
+          <xdr:row>145</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>145</xdr:row>
+          <xdr:row>146</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -14170,13 +14184,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>144</xdr:row>
+          <xdr:row>145</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>145</xdr:row>
+          <xdr:row>146</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -14234,13 +14248,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>113</xdr:row>
+          <xdr:row>114</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>114</xdr:row>
+          <xdr:row>115</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -14298,13 +14312,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>114</xdr:row>
+          <xdr:row>115</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>115</xdr:row>
+          <xdr:row>116</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -14362,13 +14376,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>113</xdr:row>
+          <xdr:row>114</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>114</xdr:row>
+          <xdr:row>115</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -14426,13 +14440,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>114</xdr:row>
+          <xdr:row>115</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>115</xdr:row>
+          <xdr:row>116</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -14490,13 +14504,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>158</xdr:row>
+          <xdr:row>159</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>159</xdr:row>
+          <xdr:row>160</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -14554,13 +14568,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>158</xdr:row>
+          <xdr:row>159</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>159</xdr:row>
+          <xdr:row>160</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -14746,13 +14760,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>112</xdr:row>
+          <xdr:row>113</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>113</xdr:row>
+          <xdr:row>114</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -14810,13 +14824,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>112</xdr:row>
+          <xdr:row>113</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>113</xdr:row>
+          <xdr:row>114</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -15386,13 +15400,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>105</xdr:row>
+          <xdr:row>106</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>106</xdr:row>
+          <xdr:row>107</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -15450,13 +15464,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>105</xdr:row>
+          <xdr:row>106</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>106</xdr:row>
+          <xdr:row>107</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -15514,13 +15528,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>106</xdr:row>
+          <xdr:row>107</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>107</xdr:row>
+          <xdr:row>108</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -15578,13 +15592,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>106</xdr:row>
+          <xdr:row>107</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>107</xdr:row>
+          <xdr:row>108</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -16410,13 +16424,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>124</xdr:row>
+          <xdr:row>125</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>125</xdr:row>
+          <xdr:row>126</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -16474,13 +16488,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>124</xdr:row>
+          <xdr:row>125</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>125</xdr:row>
+          <xdr:row>126</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -16538,13 +16552,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>125</xdr:row>
+          <xdr:row>126</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>126</xdr:row>
+          <xdr:row>127</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -16602,13 +16616,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>125</xdr:row>
+          <xdr:row>126</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>126</xdr:row>
+          <xdr:row>127</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -16666,13 +16680,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>115</xdr:row>
+          <xdr:row>116</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>116</xdr:row>
+          <xdr:row>117</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -16730,13 +16744,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>115</xdr:row>
+          <xdr:row>116</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>116</xdr:row>
+          <xdr:row>117</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -17114,13 +17128,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>111</xdr:row>
+          <xdr:row>112</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>112</xdr:row>
+          <xdr:row>113</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -17178,13 +17192,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>111</xdr:row>
+          <xdr:row>112</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>112</xdr:row>
+          <xdr:row>113</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -17498,13 +17512,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>104</xdr:row>
+          <xdr:row>105</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>105</xdr:row>
+          <xdr:row>106</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -17562,13 +17576,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>104</xdr:row>
+          <xdr:row>105</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>105</xdr:row>
+          <xdr:row>106</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -17626,13 +17640,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>138</xdr:row>
+          <xdr:row>139</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>139</xdr:row>
+          <xdr:row>140</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -17690,13 +17704,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>138</xdr:row>
+          <xdr:row>139</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>139</xdr:row>
+          <xdr:row>140</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -17754,13 +17768,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>117</xdr:row>
+          <xdr:row>118</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>118</xdr:row>
+          <xdr:row>119</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -17818,13 +17832,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>117</xdr:row>
+          <xdr:row>118</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>118</xdr:row>
+          <xdr:row>119</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -17882,13 +17896,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>117</xdr:row>
+          <xdr:row>118</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>118</xdr:row>
+          <xdr:row>119</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -17946,13 +17960,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>117</xdr:row>
+          <xdr:row>118</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>118</xdr:row>
+          <xdr:row>119</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -18394,13 +18408,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>185</xdr:row>
+          <xdr:row>186</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>186</xdr:row>
+          <xdr:row>187</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -18458,13 +18472,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>185</xdr:row>
+          <xdr:row>186</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>186</xdr:row>
+          <xdr:row>187</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -18522,13 +18536,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>186</xdr:row>
+          <xdr:row>187</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>187</xdr:row>
+          <xdr:row>188</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -18586,13 +18600,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>186</xdr:row>
+          <xdr:row>187</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>187</xdr:row>
+          <xdr:row>188</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -18650,13 +18664,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>191</xdr:row>
+          <xdr:row>192</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>192</xdr:row>
+          <xdr:row>193</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -18714,13 +18728,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>191</xdr:row>
+          <xdr:row>192</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>192</xdr:row>
+          <xdr:row>193</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -18778,13 +18792,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>192</xdr:row>
+          <xdr:row>193</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>193</xdr:row>
+          <xdr:row>194</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -18842,13 +18856,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>192</xdr:row>
+          <xdr:row>193</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>193</xdr:row>
+          <xdr:row>194</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -18906,13 +18920,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>197</xdr:row>
+          <xdr:row>198</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>198</xdr:row>
+          <xdr:row>199</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -18970,13 +18984,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>197</xdr:row>
+          <xdr:row>198</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>198</xdr:row>
+          <xdr:row>199</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -19034,13 +19048,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>198</xdr:row>
+          <xdr:row>199</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>199</xdr:row>
+          <xdr:row>200</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -19098,13 +19112,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>198</xdr:row>
+          <xdr:row>199</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>199</xdr:row>
+          <xdr:row>200</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -19162,13 +19176,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>203</xdr:row>
+          <xdr:row>204</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>204</xdr:row>
+          <xdr:row>205</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -19226,13 +19240,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>203</xdr:row>
+          <xdr:row>204</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>204</xdr:row>
+          <xdr:row>205</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -19290,13 +19304,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>204</xdr:row>
+          <xdr:row>205</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>205</xdr:row>
+          <xdr:row>206</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -19354,13 +19368,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>204</xdr:row>
+          <xdr:row>205</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>205</xdr:row>
+          <xdr:row>206</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -19418,13 +19432,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>179</xdr:row>
+          <xdr:row>180</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>180</xdr:row>
+          <xdr:row>181</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -19482,13 +19496,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>179</xdr:row>
+          <xdr:row>180</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>180</xdr:row>
+          <xdr:row>181</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -19546,13 +19560,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>180</xdr:row>
+          <xdr:row>181</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>181</xdr:row>
+          <xdr:row>182</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -19610,13 +19624,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>180</xdr:row>
+          <xdr:row>181</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>181</xdr:row>
+          <xdr:row>182</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -19674,13 +19688,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>156</xdr:row>
+          <xdr:row>157</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>157</xdr:row>
+          <xdr:row>158</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -19738,13 +19752,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>156</xdr:row>
+          <xdr:row>157</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>157</xdr:row>
+          <xdr:row>158</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -19802,13 +19816,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>143</xdr:row>
+          <xdr:row>144</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>144</xdr:row>
+          <xdr:row>145</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -19866,13 +19880,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>143</xdr:row>
+          <xdr:row>144</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>144</xdr:row>
+          <xdr:row>145</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -20054,14 +20068,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>94</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="209550" cy="180975"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>95</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3682" name="Check Box 610" hidden="1">
@@ -20107,20 +20126,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>94</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="209550" cy="180975"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>95</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3683" name="Check Box 611" hidden="1">
@@ -20166,20 +20190,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>83</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="209550" cy="180975"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>84</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3684" name="Check Box 612" hidden="1">
@@ -20225,20 +20254,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>83</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="209550" cy="180975"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>84</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3685" name="Check Box 613" hidden="1">
@@ -20284,20 +20318,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>82</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="209550" cy="190500"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>83</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3686" name="Check Box 614" hidden="1">
@@ -20343,20 +20382,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>95</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="209550" cy="180975"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>95</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3687" name="Check Box 615" hidden="1">
@@ -20402,20 +20446,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>95</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="209550" cy="180975"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>95</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3688" name="Check Box 616" hidden="1">
@@ -20461,7 +20510,135 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>104</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>105</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3689" name="Check Box 617" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3689"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>104</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>105</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3690" name="Check Box 618" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3690"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -31760,11 +31937,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P205"/>
+  <dimension ref="A1:P206"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B99" sqref="B99"/>
+      <selection pane="bottomLeft" activeCell="J105" sqref="J105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -33365,7 +33542,7 @@
       <c r="J89" s="153"/>
     </row>
     <row r="90" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A90" s="193" t="s">
+      <c r="A90" s="189" t="s">
         <v>84</v>
       </c>
       <c r="B90" s="81"/>
@@ -33389,7 +33566,7 @@
       </c>
     </row>
     <row r="91" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A91" s="194" t="s">
+      <c r="A91" s="190" t="s">
         <v>8</v>
       </c>
       <c r="B91" s="81" t="s">
@@ -33516,7 +33693,7 @@
       <c r="A96" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="B96" s="196" t="s">
+      <c r="B96" s="192" t="s">
         <v>297</v>
       </c>
       <c r="C96" s="149" t="s">
@@ -33698,54 +33875,52 @@
         <v>66</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" s="144" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="28" t="s">
-        <v>236</v>
-      </c>
-      <c r="B105" s="40" t="s">
-        <v>237</v>
-      </c>
-      <c r="C105" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
-      <c r="I105" s="3"/>
-      <c r="J105" s="54" t="s">
-        <v>238</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="B105" s="150" t="s">
+        <v>300</v>
+      </c>
+      <c r="C105" s="149" t="s">
+        <v>62</v>
+      </c>
+      <c r="D105" s="143">
+        <v>255</v>
+      </c>
+      <c r="E105" s="143"/>
+      <c r="F105" s="143"/>
+      <c r="G105" s="143"/>
+      <c r="H105" s="143"/>
+      <c r="I105" s="143"/>
+      <c r="J105" s="54"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="28" t="s">
-        <v>94</v>
+        <v>236</v>
       </c>
       <c r="B106" s="40" t="s">
-        <v>142</v>
+        <v>237</v>
       </c>
       <c r="C106" s="37" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="D106" s="3"/>
-      <c r="E106" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="E106" s="3"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
       <c r="J106" s="54" t="s">
-        <v>97</v>
+        <v>238</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B107" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C107" s="37" t="s">
         <v>96</v>
@@ -33759,68 +33934,68 @@
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
       <c r="J107" s="54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B108" s="42"/>
+      <c r="A108" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B108" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="C108" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="54" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A109" s="10"/>
-      <c r="B109" s="43"/>
-      <c r="C109" s="10"/>
-      <c r="D109" s="10"/>
-      <c r="E109" s="10"/>
-      <c r="F109" s="10"/>
-      <c r="G109" s="10"/>
-      <c r="H109" s="10"/>
-      <c r="I109" s="10"/>
-      <c r="J109" s="50"/>
+      <c r="B109" s="42"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B110" s="42"/>
+      <c r="A110" s="10"/>
+      <c r="B110" s="43"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="10"/>
+      <c r="I110" s="10"/>
+      <c r="J110" s="50"/>
     </row>
-    <row r="111" spans="1:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A111" s="32" t="s">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B111" s="42"/>
+    </row>
+    <row r="112" spans="1:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A112" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B111" s="39" t="s">
+      <c r="B112" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="C111" s="36"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
-      <c r="J111" s="47"/>
+      <c r="C112" s="36"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="47"/>
     </row>
-    <row r="112" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A112" s="20" t="s">
+    <row r="113" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A113" s="20" t="s">
         <v>87</v>
-      </c>
-      <c r="B112" s="40"/>
-      <c r="C112" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="D112" s="3">
-        <v>10</v>
-      </c>
-      <c r="E112" s="3"/>
-      <c r="F112" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G112" s="3"/>
-      <c r="H112" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="I112" s="3"/>
-      <c r="J112" s="46"/>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A113" s="15" t="s">
-        <v>85</v>
       </c>
       <c r="B113" s="40"/>
       <c r="C113" s="37" t="s">
@@ -33835,20 +34010,16 @@
       </c>
       <c r="G113" s="3"/>
       <c r="H113" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I113" s="3"/>
-      <c r="J113" s="46" t="s">
-        <v>231</v>
-      </c>
+      <c r="J113" s="46"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A114" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="B114" s="40" t="s">
-        <v>131</v>
-      </c>
+      <c r="A114" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B114" s="40"/>
       <c r="C114" s="37" t="s">
         <v>68</v>
       </c>
@@ -33864,14 +34035,16 @@
         <v>93</v>
       </c>
       <c r="I114" s="3"/>
-      <c r="J114" s="46"/>
+      <c r="J114" s="46" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A115" s="34" t="s">
-        <v>71</v>
+      <c r="A115" s="33" t="s">
+        <v>76</v>
       </c>
       <c r="B115" s="40" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C115" s="37" t="s">
         <v>68</v>
@@ -33891,20 +34064,20 @@
       <c r="J115" s="46"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A116" s="65" t="s">
-        <v>216</v>
-      </c>
-      <c r="B116" s="81" t="s">
-        <v>206</v>
-      </c>
-      <c r="C116" s="3" t="s">
+      <c r="A116" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B116" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="C116" s="37" t="s">
         <v>68</v>
       </c>
       <c r="D116" s="3">
         <v>10</v>
       </c>
       <c r="E116" s="3"/>
-      <c r="F116" s="3" t="s">
+      <c r="F116" s="1" t="s">
         <v>88</v>
       </c>
       <c r="G116" s="3"/>
@@ -33912,25 +34085,23 @@
         <v>93</v>
       </c>
       <c r="I116" s="3"/>
-      <c r="J116" s="46" t="s">
-        <v>208</v>
-      </c>
+      <c r="J116" s="46"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A117" s="34" t="s">
-        <v>246</v>
-      </c>
-      <c r="B117" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="C117" s="37" t="s">
+      <c r="A117" s="65" t="s">
+        <v>216</v>
+      </c>
+      <c r="B117" s="81" t="s">
+        <v>206</v>
+      </c>
+      <c r="C117" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D117" s="3">
         <v>10</v>
       </c>
       <c r="E117" s="3"/>
-      <c r="F117" s="1" t="s">
+      <c r="F117" s="3" t="s">
         <v>88</v>
       </c>
       <c r="G117" s="3"/>
@@ -33938,14 +34109,16 @@
         <v>93</v>
       </c>
       <c r="I117" s="3"/>
-      <c r="J117" s="46"/>
+      <c r="J117" s="46" t="s">
+        <v>208</v>
+      </c>
     </row>
-    <row r="118" spans="1:12" s="136" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="65" t="s">
-        <v>247</v>
-      </c>
-      <c r="B118" s="81" t="s">
-        <v>149</v>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A118" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="B118" s="40" t="s">
+        <v>150</v>
       </c>
       <c r="C118" s="37" t="s">
         <v>68</v>
@@ -33965,49 +34138,55 @@
       <c r="J118" s="46"/>
     </row>
     <row r="119" spans="1:12" s="136" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B119" s="40" t="s">
-        <v>146</v>
+      <c r="A119" s="65" t="s">
+        <v>247</v>
+      </c>
+      <c r="B119" s="81" t="s">
+        <v>149</v>
       </c>
       <c r="C119" s="37" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D119" s="3">
-        <v>255</v>
+        <v>10</v>
       </c>
       <c r="E119" s="3"/>
-      <c r="F119" s="3"/>
+      <c r="F119" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="G119" s="3"/>
-      <c r="H119" s="3"/>
+      <c r="H119" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="I119" s="3"/>
       <c r="J119" s="46"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A120" s="140" t="s">
-        <v>260</v>
-      </c>
-      <c r="B120" s="139" t="s">
-        <v>130</v>
-      </c>
-      <c r="C120" s="137"/>
-      <c r="D120" s="135"/>
-      <c r="E120" s="135"/>
-      <c r="F120" s="135"/>
-      <c r="G120" s="135"/>
-      <c r="H120" s="135"/>
-      <c r="I120" s="135"/>
-      <c r="J120" s="153" t="s">
+    <row r="120" spans="1:12" s="136" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="C120" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="D120" s="3">
         <v>255</v>
       </c>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="3"/>
+      <c r="I120" s="3"/>
+      <c r="J120" s="46"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="140" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B121" s="139" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C121" s="137"/>
       <c r="D121" s="135"/>
@@ -34021,75 +34200,67 @@
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A122" s="138" t="s">
-        <v>259</v>
+      <c r="A122" s="140" t="s">
+        <v>261</v>
       </c>
       <c r="B122" s="139" t="s">
-        <v>134</v>
-      </c>
-      <c r="C122" s="37"/>
-      <c r="D122" s="3"/>
-      <c r="E122" s="3"/>
-      <c r="F122" s="3"/>
-      <c r="G122" s="3"/>
-      <c r="H122" s="3"/>
-      <c r="I122" s="3"/>
-      <c r="J122" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="C122" s="137"/>
+      <c r="D122" s="135"/>
+      <c r="E122" s="135"/>
+      <c r="F122" s="135"/>
+      <c r="G122" s="135"/>
+      <c r="H122" s="135"/>
+      <c r="I122" s="135"/>
+      <c r="J122" s="153" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A123" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B123" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="C123" s="37" t="s">
-        <v>64</v>
-      </c>
+      <c r="A123" s="138" t="s">
+        <v>259</v>
+      </c>
+      <c r="B123" s="139" t="s">
+        <v>134</v>
+      </c>
+      <c r="C123" s="37"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
-      <c r="J123" s="46"/>
+      <c r="J123" s="46" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B124" s="105" t="s">
-        <v>148</v>
+        <v>22</v>
+      </c>
+      <c r="B124" s="40" t="s">
+        <v>147</v>
       </c>
       <c r="C124" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="D124" s="3">
-        <v>10</v>
-      </c>
-      <c r="E124" s="3">
-        <v>0</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>88</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3"/>
+      <c r="F124" s="3"/>
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
-      <c r="J124" s="48" t="s">
-        <v>102</v>
-      </c>
+      <c r="J124" s="46"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A125" s="55" t="s">
-        <v>192</v>
-      </c>
-      <c r="B125" s="40" t="s">
-        <v>194</v>
-      </c>
-      <c r="C125" s="3" t="s">
+      <c r="A125" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B125" s="105" t="s">
+        <v>148</v>
+      </c>
+      <c r="C125" s="37" t="s">
         <v>68</v>
       </c>
       <c r="D125" s="3">
@@ -34104,18 +34275,16 @@
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
-      <c r="J125" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="K125" s="2"/>
-      <c r="L125" s="2"/>
+      <c r="J125" s="48" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="55" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B126" s="40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>68</v>
@@ -34132,22 +34301,28 @@
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
-      <c r="J126" s="46"/>
+      <c r="J126" s="46" t="s">
+        <v>196</v>
+      </c>
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A127" s="8" t="s">
-        <v>24</v>
+      <c r="A127" s="55" t="s">
+        <v>193</v>
       </c>
       <c r="B127" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="C127" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="C127" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D127" s="3"/>
-      <c r="E127" s="3"/>
+      <c r="D127" s="3">
+        <v>10</v>
+      </c>
+      <c r="E127" s="3">
+        <v>0</v>
+      </c>
       <c r="F127" s="1" t="s">
         <v>88</v>
       </c>
@@ -34155,75 +34330,77 @@
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
       <c r="J127" s="46"/>
+      <c r="K127" s="2"/>
+      <c r="L127" s="2"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B128" s="40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C128" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="D128" s="3">
-        <v>255</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D128" s="3"/>
       <c r="E128" s="3"/>
-      <c r="F128" s="3"/>
+      <c r="F128" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
-      <c r="J128" s="46" t="s">
-        <v>242</v>
-      </c>
+      <c r="J128" s="46"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="8" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B129" s="40" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C129" s="37" t="s">
         <v>62</v>
       </c>
       <c r="D129" s="3">
-        <v>10</v>
+        <v>255</v>
       </c>
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
-      <c r="J129" s="46"/>
+      <c r="J129" s="46" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="8" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B130" s="40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C130" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="D130" s="3"/>
+        <v>62</v>
+      </c>
+      <c r="D130" s="3">
+        <v>10</v>
+      </c>
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
-      <c r="J130" s="46" t="s">
-        <v>191</v>
-      </c>
+      <c r="J130" s="46"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B131" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C131" s="37" t="s">
         <v>65</v>
@@ -34234,17 +34411,19 @@
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
-      <c r="J131" s="46"/>
+      <c r="J131" s="46" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="8" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B132" s="40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C132" s="37" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -34256,10 +34435,10 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="8" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B133" s="40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C133" s="37" t="s">
         <v>63</v>
@@ -34271,15 +34450,13 @@
       <c r="H133" s="3"/>
       <c r="I133" s="3"/>
       <c r="J133" s="46"/>
-      <c r="K133" s="2"/>
-      <c r="L133" s="2"/>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A134" s="26" t="s">
-        <v>29</v>
+      <c r="A134" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="B134" s="40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C134" s="37" t="s">
         <v>63</v>
@@ -34291,61 +34468,61 @@
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
       <c r="J134" s="46"/>
+      <c r="K134" s="2"/>
+      <c r="L134" s="2"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A135" s="8" t="s">
-        <v>189</v>
+      <c r="A135" s="26" t="s">
+        <v>29</v>
       </c>
       <c r="B135" s="40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C135" s="37" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="D135" s="3"/>
-      <c r="E135" s="3">
-        <v>1</v>
-      </c>
+      <c r="E135" s="3"/>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
-      <c r="J135" s="46" t="s">
-        <v>190</v>
-      </c>
+      <c r="J135" s="46"/>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="8" t="s">
-        <v>31</v>
+        <v>189</v>
       </c>
       <c r="B136" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C136" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="D136" s="3">
-        <v>255</v>
-      </c>
-      <c r="E136" s="3"/>
+        <v>96</v>
+      </c>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3">
+        <v>1</v>
+      </c>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
-      <c r="J136" s="46"/>
+      <c r="J136" s="46" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="8" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B137" s="40" t="s">
-        <v>110</v>
+        <v>161</v>
       </c>
       <c r="C137" s="37" t="s">
         <v>62</v>
       </c>
       <c r="D137" s="3">
-        <v>191</v>
+        <v>255</v>
       </c>
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
@@ -34355,11 +34532,11 @@
       <c r="J137" s="46"/>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A138" s="55" t="s">
-        <v>9</v>
+      <c r="A138" s="8" t="s">
+        <v>1</v>
       </c>
       <c r="B138" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C138" s="37" t="s">
         <v>62</v>
@@ -34376,116 +34553,110 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="55" t="s">
-        <v>239</v>
+        <v>9</v>
       </c>
       <c r="B139" s="40" t="s">
-        <v>240</v>
+        <v>111</v>
       </c>
       <c r="C139" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="D139" s="3"/>
-      <c r="E139" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D139" s="3">
+        <v>191</v>
+      </c>
+      <c r="E139" s="3"/>
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
-      <c r="J139" s="46" t="s">
-        <v>241</v>
-      </c>
+      <c r="J139" s="46"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B140" s="42"/>
+      <c r="A140" s="55" t="s">
+        <v>239</v>
+      </c>
+      <c r="B140" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="C140" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F140" s="3"/>
+      <c r="G140" s="3"/>
+      <c r="H140" s="3"/>
+      <c r="I140" s="3"/>
+      <c r="J140" s="46" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A141" s="10"/>
-      <c r="B141" s="43"/>
-      <c r="C141" s="10"/>
-      <c r="D141" s="10"/>
-      <c r="E141" s="10"/>
-      <c r="F141" s="10"/>
-      <c r="G141" s="10"/>
-      <c r="H141" s="10"/>
-      <c r="I141" s="10"/>
-      <c r="J141" s="50"/>
+      <c r="B141" s="42"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B142" s="42"/>
+      <c r="A142" s="10"/>
+      <c r="B142" s="43"/>
+      <c r="C142" s="10"/>
+      <c r="D142" s="10"/>
+      <c r="E142" s="10"/>
+      <c r="F142" s="10"/>
+      <c r="G142" s="10"/>
+      <c r="H142" s="10"/>
+      <c r="I142" s="10"/>
+      <c r="J142" s="50"/>
     </row>
-    <row r="143" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A143" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="B143" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="C143" s="36"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="1"/>
-      <c r="F143" s="1"/>
-      <c r="G143" s="1"/>
-      <c r="H143" s="1"/>
-      <c r="I143" s="1"/>
-      <c r="J143" s="47"/>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B143" s="42"/>
     </row>
     <row r="144" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A144" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="B144" s="150"/>
-      <c r="C144" s="149" t="s">
-        <v>68</v>
-      </c>
-      <c r="D144" s="143">
-        <v>10</v>
-      </c>
-      <c r="E144" s="143"/>
-      <c r="F144" s="142" t="s">
-        <v>88</v>
-      </c>
-      <c r="G144" s="143"/>
-      <c r="H144" s="143" t="s">
-        <v>92</v>
-      </c>
-      <c r="I144" s="143"/>
-      <c r="J144" s="153"/>
-      <c r="K144" s="2"/>
-      <c r="L144" s="2"/>
+      <c r="A144" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B144" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="C144" s="36"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
+      <c r="J144" s="47"/>
     </row>
     <row r="145" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A145" s="184" t="s">
-        <v>78</v>
-      </c>
-      <c r="B145" s="40" t="s">
-        <v>163</v>
-      </c>
-      <c r="C145" s="37" t="s">
+      <c r="A145" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B145" s="150"/>
+      <c r="C145" s="149" t="s">
         <v>68</v>
       </c>
-      <c r="D145" s="3">
+      <c r="D145" s="143">
         <v>10</v>
       </c>
-      <c r="E145" s="3"/>
-      <c r="F145" s="1" t="s">
+      <c r="E145" s="143"/>
+      <c r="F145" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="G145" s="3"/>
-      <c r="H145" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I145" s="3"/>
-      <c r="J145" s="46" t="s">
-        <v>79</v>
-      </c>
+      <c r="G145" s="143"/>
+      <c r="H145" s="143" t="s">
+        <v>92</v>
+      </c>
+      <c r="I145" s="143"/>
+      <c r="J145" s="153"/>
+      <c r="K145" s="2"/>
+      <c r="L145" s="2"/>
     </row>
     <row r="146" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A146" s="195" t="s">
-        <v>292</v>
+      <c r="A146" s="184" t="s">
+        <v>78</v>
       </c>
       <c r="B146" s="40" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="C146" s="37" t="s">
         <v>68</v>
@@ -34494,88 +34665,92 @@
         <v>10</v>
       </c>
       <c r="E146" s="3"/>
-      <c r="F146" s="142" t="s">
+      <c r="F146" s="1" t="s">
         <v>88</v>
       </c>
       <c r="G146" s="3"/>
       <c r="H146" s="3" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="I146" s="3"/>
-      <c r="J146" s="46"/>
+      <c r="J146" s="46" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="147" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A147" s="185" t="s">
+      <c r="A147" s="191" t="s">
+        <v>292</v>
+      </c>
+      <c r="B147" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="C147" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D147" s="3">
+        <v>10</v>
+      </c>
+      <c r="E147" s="3"/>
+      <c r="F147" s="142" t="s">
+        <v>88</v>
+      </c>
+      <c r="G147" s="3"/>
+      <c r="H147" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I147" s="3"/>
+      <c r="J147" s="46"/>
+    </row>
+    <row r="148" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A148" s="185" t="s">
         <v>8</v>
       </c>
-      <c r="B147" s="190" t="s">
+      <c r="B148" s="186" t="s">
         <v>290</v>
-      </c>
-      <c r="C147" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="D147" s="3">
-        <v>191</v>
-      </c>
-      <c r="E147" s="3"/>
-      <c r="F147" s="3"/>
-      <c r="G147" s="3"/>
-      <c r="H147" s="143" t="s">
-        <v>61</v>
-      </c>
-      <c r="I147" s="3"/>
-      <c r="J147" s="46" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A148" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B148" s="190" t="s">
-        <v>289</v>
       </c>
       <c r="C148" s="37" t="s">
         <v>62</v>
       </c>
       <c r="D148" s="3">
-        <v>255</v>
+        <v>191</v>
       </c>
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
-      <c r="H148" s="3"/>
+      <c r="H148" s="143" t="s">
+        <v>61</v>
+      </c>
       <c r="I148" s="3"/>
-      <c r="J148" s="46"/>
+      <c r="J148" s="46" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B149" s="40" t="s">
-        <v>285</v>
+        <v>37</v>
+      </c>
+      <c r="B149" s="186" t="s">
+        <v>289</v>
       </c>
       <c r="C149" s="37" t="s">
         <v>62</v>
       </c>
       <c r="D149" s="3">
-        <v>10</v>
+        <v>255</v>
       </c>
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
       <c r="H149" s="3"/>
       <c r="I149" s="3"/>
-      <c r="J149" s="46" t="s">
-        <v>287</v>
-      </c>
+      <c r="J149" s="46"/>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B150" s="40" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C150" s="37" t="s">
         <v>62</v>
@@ -34588,41 +34763,45 @@
       <c r="G150" s="3"/>
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
-      <c r="J150" s="153" t="s">
-        <v>288</v>
+      <c r="J150" s="46" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="28" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B151" s="40" t="s">
-        <v>137</v>
+        <v>286</v>
       </c>
       <c r="C151" s="37" t="s">
         <v>62</v>
       </c>
       <c r="D151" s="3">
-        <v>255</v>
+        <v>10</v>
       </c>
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
       <c r="H151" s="3"/>
       <c r="I151" s="3"/>
-      <c r="J151" s="46"/>
+      <c r="J151" s="153" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A152" s="9" t="s">
-        <v>212</v>
+      <c r="A152" s="28" t="s">
+        <v>38</v>
       </c>
       <c r="B152" s="40" t="s">
-        <v>215</v>
+        <v>137</v>
       </c>
       <c r="C152" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="D152" s="3"/>
+        <v>62</v>
+      </c>
+      <c r="D152" s="3">
+        <v>255</v>
+      </c>
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
@@ -34631,93 +34810,80 @@
       <c r="J152" s="46"/>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B153" s="42"/>
+      <c r="A153" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B153" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="C153" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D153" s="3"/>
+      <c r="E153" s="3"/>
+      <c r="F153" s="3"/>
+      <c r="G153" s="3"/>
+      <c r="H153" s="3"/>
+      <c r="I153" s="3"/>
+      <c r="J153" s="46"/>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A154" s="10"/>
-      <c r="B154" s="43"/>
-      <c r="C154" s="10"/>
-      <c r="D154" s="10"/>
-      <c r="E154" s="10"/>
-      <c r="F154" s="10"/>
-      <c r="G154" s="10"/>
-      <c r="H154" s="10"/>
-      <c r="I154" s="10"/>
-      <c r="J154" s="50"/>
-      <c r="K154" s="2"/>
-      <c r="L154" s="2"/>
+      <c r="B154" s="42"/>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B155" s="42"/>
+      <c r="A155" s="10"/>
+      <c r="B155" s="43"/>
+      <c r="C155" s="10"/>
+      <c r="D155" s="10"/>
+      <c r="E155" s="10"/>
+      <c r="F155" s="10"/>
+      <c r="G155" s="10"/>
+      <c r="H155" s="10"/>
+      <c r="I155" s="10"/>
+      <c r="J155" s="50"/>
+      <c r="K155" s="2"/>
+      <c r="L155" s="2"/>
     </row>
-    <row r="156" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A156" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="B156" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="C156" s="36"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
-      <c r="G156" s="1"/>
-      <c r="H156" s="1"/>
-      <c r="I156" s="1"/>
-      <c r="J156" s="47"/>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B156" s="42"/>
     </row>
     <row r="157" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A157" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="B157" s="150"/>
-      <c r="C157" s="149" t="s">
-        <v>68</v>
-      </c>
-      <c r="D157" s="143">
-        <v>10</v>
-      </c>
-      <c r="E157" s="143"/>
-      <c r="F157" s="142" t="s">
-        <v>88</v>
-      </c>
-      <c r="G157" s="143"/>
-      <c r="H157" s="143" t="s">
-        <v>92</v>
-      </c>
-      <c r="I157" s="143"/>
-      <c r="J157" s="153"/>
-      <c r="K157" s="51"/>
-      <c r="L157" s="51"/>
-      <c r="M157" s="51"/>
-      <c r="N157" s="51"/>
-      <c r="O157" s="51"/>
+      <c r="A157" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B157" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="C157" s="36"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+      <c r="J157" s="47"/>
     </row>
     <row r="158" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A158" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B158" s="40" t="s">
-        <v>163</v>
-      </c>
-      <c r="C158" s="37" t="s">
+      <c r="A158" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B158" s="150"/>
+      <c r="C158" s="149" t="s">
         <v>68</v>
       </c>
-      <c r="D158" s="3">
+      <c r="D158" s="143">
         <v>10</v>
       </c>
-      <c r="E158" s="3"/>
-      <c r="F158" s="1" t="s">
+      <c r="E158" s="143"/>
+      <c r="F158" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="G158" s="3"/>
-      <c r="H158" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I158" s="3"/>
-      <c r="J158" s="46" t="s">
-        <v>79</v>
-      </c>
+      <c r="G158" s="143"/>
+      <c r="H158" s="143" t="s">
+        <v>92</v>
+      </c>
+      <c r="I158" s="143"/>
+      <c r="J158" s="153"/>
       <c r="K158" s="51"/>
       <c r="L158" s="51"/>
       <c r="M158" s="51"/>
@@ -34725,22 +34891,24 @@
       <c r="O158" s="51"/>
     </row>
     <row r="159" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A159" s="185" t="s">
-        <v>3</v>
+      <c r="A159" s="17" t="s">
+        <v>78</v>
       </c>
       <c r="B159" s="40" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="C159" s="37" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D159" s="3">
-        <v>191</v>
+        <v>10</v>
       </c>
       <c r="E159" s="3"/>
-      <c r="F159" s="3"/>
+      <c r="F159" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="G159" s="3"/>
-      <c r="H159" s="143" t="s">
+      <c r="H159" s="3" t="s">
         <v>61</v>
       </c>
       <c r="I159" s="3"/>
@@ -34753,29 +34921,29 @@
       <c r="N159" s="51"/>
       <c r="O159" s="51"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A160" s="15" t="s">
-        <v>76</v>
+    <row r="160" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A160" s="185" t="s">
+        <v>3</v>
       </c>
       <c r="B160" s="40" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="C160" s="37" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D160" s="3">
-        <v>10</v>
+        <v>191</v>
       </c>
       <c r="E160" s="3"/>
-      <c r="F160" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="F160" s="3"/>
       <c r="G160" s="3"/>
-      <c r="H160" s="3" t="s">
-        <v>93</v>
+      <c r="H160" s="143" t="s">
+        <v>61</v>
       </c>
       <c r="I160" s="3"/>
-      <c r="J160" s="46"/>
+      <c r="J160" s="46" t="s">
+        <v>79</v>
+      </c>
       <c r="K160" s="51"/>
       <c r="L160" s="51"/>
       <c r="M160" s="51"/>
@@ -34783,26 +34951,28 @@
       <c r="O160" s="51"/>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A161" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B161" s="150" t="s">
-        <v>285</v>
+      <c r="A161" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B161" s="40" t="s">
+        <v>131</v>
       </c>
       <c r="C161" s="37" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D161" s="3">
         <v>10</v>
       </c>
       <c r="E161" s="3"/>
-      <c r="F161" s="3"/>
+      <c r="F161" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="G161" s="3"/>
-      <c r="H161" s="3"/>
+      <c r="H161" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="I161" s="3"/>
-      <c r="J161" s="153" t="s">
-        <v>287</v>
-      </c>
+      <c r="J161" s="46"/>
       <c r="K161" s="51"/>
       <c r="L161" s="51"/>
       <c r="M161" s="51"/>
@@ -34811,15 +34981,15 @@
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B162" s="150" t="s">
-        <v>286</v>
-      </c>
-      <c r="C162" s="149" t="s">
+        <v>285</v>
+      </c>
+      <c r="C162" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D162" s="143">
+      <c r="D162" s="3">
         <v>10</v>
       </c>
       <c r="E162" s="3"/>
@@ -34828,7 +34998,7 @@
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
       <c r="J162" s="153" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K162" s="51"/>
       <c r="L162" s="51"/>
@@ -34838,28 +35008,24 @@
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B163" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="C163" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="D163" s="3">
+        <v>35</v>
+      </c>
+      <c r="B163" s="150" t="s">
+        <v>286</v>
+      </c>
+      <c r="C163" s="149" t="s">
+        <v>62</v>
+      </c>
+      <c r="D163" s="143">
         <v>10</v>
       </c>
-      <c r="E163" s="3">
-        <v>0</v>
-      </c>
-      <c r="F163" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="E163" s="3"/>
+      <c r="F163" s="3"/>
       <c r="G163" s="3"/>
       <c r="H163" s="3"/>
       <c r="I163" s="3"/>
-      <c r="J163" s="46" t="s">
-        <v>100</v>
+      <c r="J163" s="153" t="s">
+        <v>288</v>
       </c>
       <c r="K163" s="51"/>
       <c r="L163" s="51"/>
@@ -34869,21 +35035,29 @@
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B164" s="40" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C164" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="D164" s="3"/>
-      <c r="E164" s="3"/>
-      <c r="F164" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="D164" s="3">
+        <v>10</v>
+      </c>
+      <c r="E164" s="3">
+        <v>0</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="G164" s="3"/>
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
-      <c r="J164" s="46"/>
+      <c r="J164" s="46" t="s">
+        <v>100</v>
+      </c>
       <c r="K164" s="51"/>
       <c r="L164" s="51"/>
       <c r="M164" s="51"/>
@@ -34891,11 +35065,11 @@
       <c r="O164" s="51"/>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A165" s="9" t="s">
-        <v>36</v>
+      <c r="A165" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="B165" s="40" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C165" s="37" t="s">
         <v>63</v>
@@ -34914,71 +35088,68 @@
       <c r="O165" s="51"/>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B166" s="42"/>
+      <c r="A166" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B166" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="C166" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D166" s="3"/>
+      <c r="E166" s="3"/>
+      <c r="F166" s="3"/>
+      <c r="G166" s="3"/>
+      <c r="H166" s="3"/>
+      <c r="I166" s="3"/>
+      <c r="J166" s="46"/>
+      <c r="K166" s="51"/>
+      <c r="L166" s="51"/>
+      <c r="M166" s="51"/>
+      <c r="N166" s="51"/>
+      <c r="O166" s="51"/>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A167" s="10"/>
-      <c r="B167" s="43"/>
-      <c r="C167" s="10"/>
-      <c r="D167" s="10"/>
-      <c r="E167" s="10"/>
-      <c r="F167" s="10"/>
-      <c r="G167" s="10"/>
-      <c r="H167" s="10"/>
-      <c r="I167" s="10"/>
-      <c r="J167" s="50"/>
+      <c r="B167" s="42"/>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B168" s="42"/>
+      <c r="A168" s="10"/>
+      <c r="B168" s="43"/>
+      <c r="C168" s="10"/>
+      <c r="D168" s="10"/>
+      <c r="E168" s="10"/>
+      <c r="F168" s="10"/>
+      <c r="G168" s="10"/>
+      <c r="H168" s="10"/>
+      <c r="I168" s="10"/>
+      <c r="J168" s="50"/>
     </row>
-    <row r="169" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A169" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B169" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="C169" s="36"/>
-      <c r="D169" s="1"/>
-      <c r="E169" s="1"/>
-      <c r="F169" s="1"/>
-      <c r="G169" s="1"/>
-      <c r="H169" s="1"/>
-      <c r="I169" s="1"/>
-      <c r="J169" s="47"/>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B169" s="42"/>
     </row>
     <row r="170" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A170" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B170" s="40" t="s">
-        <v>167</v>
-      </c>
-      <c r="C170" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="D170" s="3">
-        <v>10</v>
-      </c>
-      <c r="E170" s="3"/>
-      <c r="F170" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G170" s="3"/>
-      <c r="H170" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I170" s="3"/>
-      <c r="J170" s="46" t="s">
-        <v>79</v>
-      </c>
+      <c r="A170" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B170" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="C170" s="36"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+      <c r="H170" s="1"/>
+      <c r="I170" s="1"/>
+      <c r="J170" s="47"/>
     </row>
     <row r="171" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A171" s="17" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B171" s="40" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C171" s="37" t="s">
         <v>68</v>
@@ -34999,32 +35170,38 @@
         <v>79</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A172" s="8" t="s">
-        <v>42</v>
+    <row r="172" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A172" s="17" t="s">
+        <v>78</v>
       </c>
       <c r="B172" s="40" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C172" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="D172" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="D172" s="3">
+        <v>10</v>
+      </c>
       <c r="E172" s="3"/>
-      <c r="F172" s="3"/>
+      <c r="F172" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="G172" s="3"/>
-      <c r="H172" s="3"/>
+      <c r="H172" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="I172" s="3"/>
       <c r="J172" s="46" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B173" s="40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C173" s="37" t="s">
         <v>65</v>
@@ -35039,12 +35216,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="174" spans="1:15" s="144" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B174" s="40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C174" s="37" t="s">
         <v>65</v>
@@ -35059,12 +35236,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A175" s="9" t="s">
-        <v>45</v>
+    <row r="175" spans="1:15" s="144" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="B175" s="40" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C175" s="37" t="s">
         <v>65</v>
@@ -35080,64 +35257,60 @@
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B176" s="42"/>
+      <c r="A176" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B176" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="C176" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D176" s="3"/>
+      <c r="E176" s="3"/>
+      <c r="F176" s="3"/>
+      <c r="G176" s="3"/>
+      <c r="H176" s="3"/>
+      <c r="I176" s="3"/>
+      <c r="J176" s="46" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A177" s="10"/>
-      <c r="B177" s="43"/>
-      <c r="C177" s="10"/>
-      <c r="D177" s="10"/>
-      <c r="E177" s="10"/>
-      <c r="F177" s="10"/>
-      <c r="G177" s="10"/>
-      <c r="H177" s="10"/>
-      <c r="I177" s="10"/>
-      <c r="J177" s="50"/>
+      <c r="B177" s="42"/>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B178" s="42"/>
+      <c r="A178" s="10"/>
+      <c r="B178" s="43"/>
+      <c r="C178" s="10"/>
+      <c r="D178" s="10"/>
+      <c r="E178" s="10"/>
+      <c r="F178" s="10"/>
+      <c r="G178" s="10"/>
+      <c r="H178" s="10"/>
+      <c r="I178" s="10"/>
+      <c r="J178" s="50"/>
     </row>
-    <row r="179" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A179" s="146" t="s">
-        <v>267</v>
-      </c>
-      <c r="B179" s="150"/>
-      <c r="C179" s="148"/>
-      <c r="D179" s="142"/>
-      <c r="E179" s="142"/>
-      <c r="F179" s="142"/>
-      <c r="G179" s="142"/>
-      <c r="H179" s="142"/>
-      <c r="I179" s="142"/>
-      <c r="J179" s="154"/>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B179" s="42"/>
     </row>
     <row r="180" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A180" s="147" t="s">
-        <v>83</v>
+      <c r="A180" s="146" t="s">
+        <v>267</v>
       </c>
       <c r="B180" s="150"/>
-      <c r="C180" s="149" t="s">
-        <v>68</v>
-      </c>
-      <c r="D180" s="143">
-        <v>10</v>
-      </c>
-      <c r="E180" s="143"/>
-      <c r="F180" s="142" t="s">
-        <v>88</v>
-      </c>
-      <c r="G180" s="143"/>
-      <c r="H180" s="143" t="s">
-        <v>92</v>
-      </c>
-      <c r="I180" s="143"/>
-      <c r="J180" s="153" t="s">
-        <v>79</v>
-      </c>
+      <c r="C180" s="148"/>
+      <c r="D180" s="142"/>
+      <c r="E180" s="142"/>
+      <c r="F180" s="142"/>
+      <c r="G180" s="142"/>
+      <c r="H180" s="142"/>
+      <c r="I180" s="142"/>
+      <c r="J180" s="154"/>
     </row>
     <row r="181" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A181" s="147" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B181" s="150"/>
       <c r="C181" s="149" t="s">
@@ -35159,83 +35332,83 @@
         <v>79</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A182" s="144"/>
-      <c r="B182" s="151"/>
-      <c r="C182" s="144"/>
-      <c r="D182" s="144"/>
-      <c r="E182" s="144"/>
-      <c r="F182" s="144"/>
-      <c r="G182" s="144"/>
-      <c r="H182" s="144"/>
-      <c r="I182" s="144"/>
-      <c r="J182" s="155"/>
+    <row r="182" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A182" s="147" t="s">
+        <v>78</v>
+      </c>
+      <c r="B182" s="150"/>
+      <c r="C182" s="149" t="s">
+        <v>68</v>
+      </c>
+      <c r="D182" s="143">
+        <v>10</v>
+      </c>
+      <c r="E182" s="143"/>
+      <c r="F182" s="142" t="s">
+        <v>88</v>
+      </c>
+      <c r="G182" s="143"/>
+      <c r="H182" s="143" t="s">
+        <v>92</v>
+      </c>
+      <c r="I182" s="143"/>
+      <c r="J182" s="153" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A183" s="145"/>
-      <c r="B183" s="152"/>
-      <c r="C183" s="145"/>
-      <c r="D183" s="145"/>
-      <c r="E183" s="145"/>
-      <c r="F183" s="145"/>
-      <c r="G183" s="145"/>
-      <c r="H183" s="145"/>
-      <c r="I183" s="145"/>
-      <c r="J183" s="156"/>
+      <c r="A183" s="144"/>
+      <c r="B183" s="151"/>
+      <c r="C183" s="144"/>
+      <c r="D183" s="144"/>
+      <c r="E183" s="144"/>
+      <c r="F183" s="144"/>
+      <c r="G183" s="144"/>
+      <c r="H183" s="144"/>
+      <c r="I183" s="144"/>
+      <c r="J183" s="155"/>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A184" s="2"/>
-      <c r="B184" s="109"/>
-      <c r="C184" s="2"/>
-      <c r="D184" s="2"/>
-      <c r="E184" s="2"/>
-      <c r="F184" s="2"/>
-      <c r="G184" s="2"/>
-      <c r="H184" s="2"/>
-      <c r="I184" s="2"/>
-      <c r="J184" s="51"/>
+      <c r="A184" s="145"/>
+      <c r="B184" s="152"/>
+      <c r="C184" s="145"/>
+      <c r="D184" s="145"/>
+      <c r="E184" s="145"/>
+      <c r="F184" s="145"/>
+      <c r="G184" s="145"/>
+      <c r="H184" s="145"/>
+      <c r="I184" s="145"/>
+      <c r="J184" s="156"/>
     </row>
-    <row r="185" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A185" s="146" t="s">
-        <v>254</v>
-      </c>
-      <c r="B185" s="150"/>
-      <c r="C185" s="148"/>
-      <c r="D185" s="142"/>
-      <c r="E185" s="142"/>
-      <c r="F185" s="142"/>
-      <c r="G185" s="142"/>
-      <c r="H185" s="142"/>
-      <c r="I185" s="142"/>
-      <c r="J185" s="154"/>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A185" s="2"/>
+      <c r="B185" s="109"/>
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
+      <c r="E185" s="2"/>
+      <c r="F185" s="2"/>
+      <c r="G185" s="2"/>
+      <c r="H185" s="2"/>
+      <c r="I185" s="2"/>
+      <c r="J185" s="51"/>
     </row>
     <row r="186" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A186" s="147" t="s">
-        <v>83</v>
+      <c r="A186" s="146" t="s">
+        <v>254</v>
       </c>
       <c r="B186" s="150"/>
-      <c r="C186" s="149" t="s">
-        <v>68</v>
-      </c>
-      <c r="D186" s="143">
-        <v>10</v>
-      </c>
-      <c r="E186" s="143"/>
-      <c r="F186" s="142" t="s">
-        <v>88</v>
-      </c>
-      <c r="G186" s="143"/>
-      <c r="H186" s="143" t="s">
-        <v>92</v>
-      </c>
-      <c r="I186" s="143"/>
-      <c r="J186" s="153" t="s">
-        <v>79</v>
-      </c>
+      <c r="C186" s="148"/>
+      <c r="D186" s="142"/>
+      <c r="E186" s="142"/>
+      <c r="F186" s="142"/>
+      <c r="G186" s="142"/>
+      <c r="H186" s="142"/>
+      <c r="I186" s="142"/>
+      <c r="J186" s="154"/>
     </row>
     <row r="187" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A187" s="147" t="s">
-        <v>174</v>
+        <v>83</v>
       </c>
       <c r="B187" s="150"/>
       <c r="C187" s="149" t="s">
@@ -35257,83 +35430,83 @@
         <v>79</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A188" s="144"/>
-      <c r="B188" s="151"/>
-      <c r="C188" s="144"/>
-      <c r="D188" s="144"/>
-      <c r="E188" s="144"/>
-      <c r="F188" s="144"/>
-      <c r="G188" s="144"/>
-      <c r="H188" s="144"/>
-      <c r="I188" s="144"/>
-      <c r="J188" s="155"/>
+    <row r="188" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A188" s="147" t="s">
+        <v>174</v>
+      </c>
+      <c r="B188" s="150"/>
+      <c r="C188" s="149" t="s">
+        <v>68</v>
+      </c>
+      <c r="D188" s="143">
+        <v>10</v>
+      </c>
+      <c r="E188" s="143"/>
+      <c r="F188" s="142" t="s">
+        <v>88</v>
+      </c>
+      <c r="G188" s="143"/>
+      <c r="H188" s="143" t="s">
+        <v>92</v>
+      </c>
+      <c r="I188" s="143"/>
+      <c r="J188" s="153" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A189" s="145"/>
-      <c r="B189" s="152"/>
-      <c r="C189" s="145"/>
-      <c r="D189" s="145"/>
-      <c r="E189" s="145"/>
-      <c r="F189" s="145"/>
-      <c r="G189" s="145"/>
-      <c r="H189" s="145"/>
-      <c r="I189" s="145"/>
-      <c r="J189" s="156"/>
+      <c r="A189" s="144"/>
+      <c r="B189" s="151"/>
+      <c r="C189" s="144"/>
+      <c r="D189" s="144"/>
+      <c r="E189" s="144"/>
+      <c r="F189" s="144"/>
+      <c r="G189" s="144"/>
+      <c r="H189" s="144"/>
+      <c r="I189" s="144"/>
+      <c r="J189" s="155"/>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A190" s="141"/>
-      <c r="B190" s="141"/>
-      <c r="C190" s="141"/>
-      <c r="D190" s="141"/>
-      <c r="E190" s="141"/>
-      <c r="F190" s="141"/>
-      <c r="G190" s="141"/>
-      <c r="H190" s="141"/>
-      <c r="I190" s="141"/>
-      <c r="J190" s="141"/>
+      <c r="A190" s="145"/>
+      <c r="B190" s="152"/>
+      <c r="C190" s="145"/>
+      <c r="D190" s="145"/>
+      <c r="E190" s="145"/>
+      <c r="F190" s="145"/>
+      <c r="G190" s="145"/>
+      <c r="H190" s="145"/>
+      <c r="I190" s="145"/>
+      <c r="J190" s="156"/>
     </row>
-    <row r="191" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A191" s="146" t="s">
-        <v>256</v>
-      </c>
-      <c r="B191" s="150"/>
-      <c r="C191" s="148"/>
-      <c r="D191" s="142"/>
-      <c r="E191" s="142"/>
-      <c r="F191" s="142"/>
-      <c r="G191" s="142"/>
-      <c r="H191" s="142"/>
-      <c r="I191" s="142"/>
-      <c r="J191" s="154"/>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A191" s="141"/>
+      <c r="B191" s="141"/>
+      <c r="C191" s="141"/>
+      <c r="D191" s="141"/>
+      <c r="E191" s="141"/>
+      <c r="F191" s="141"/>
+      <c r="G191" s="141"/>
+      <c r="H191" s="141"/>
+      <c r="I191" s="141"/>
+      <c r="J191" s="141"/>
     </row>
     <row r="192" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A192" s="147" t="s">
-        <v>70</v>
+      <c r="A192" s="146" t="s">
+        <v>256</v>
       </c>
       <c r="B192" s="150"/>
-      <c r="C192" s="149" t="s">
-        <v>68</v>
-      </c>
-      <c r="D192" s="143">
-        <v>10</v>
-      </c>
-      <c r="E192" s="143"/>
-      <c r="F192" s="142" t="s">
-        <v>88</v>
-      </c>
-      <c r="G192" s="143"/>
-      <c r="H192" s="143" t="s">
-        <v>92</v>
-      </c>
-      <c r="I192" s="143"/>
-      <c r="J192" s="153" t="s">
-        <v>79</v>
-      </c>
+      <c r="C192" s="148"/>
+      <c r="D192" s="142"/>
+      <c r="E192" s="142"/>
+      <c r="F192" s="142"/>
+      <c r="G192" s="142"/>
+      <c r="H192" s="142"/>
+      <c r="I192" s="142"/>
+      <c r="J192" s="154"/>
     </row>
     <row r="193" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A193" s="147" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B193" s="150"/>
       <c r="C193" s="149" t="s">
@@ -35355,83 +35528,83 @@
         <v>79</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A194" s="144"/>
-      <c r="B194" s="151"/>
-      <c r="C194" s="144"/>
-      <c r="D194" s="144"/>
-      <c r="E194" s="144"/>
-      <c r="F194" s="144"/>
-      <c r="G194" s="144"/>
-      <c r="H194" s="144"/>
-      <c r="I194" s="144"/>
-      <c r="J194" s="155"/>
+    <row r="194" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A194" s="147" t="s">
+        <v>83</v>
+      </c>
+      <c r="B194" s="150"/>
+      <c r="C194" s="149" t="s">
+        <v>68</v>
+      </c>
+      <c r="D194" s="143">
+        <v>10</v>
+      </c>
+      <c r="E194" s="143"/>
+      <c r="F194" s="142" t="s">
+        <v>88</v>
+      </c>
+      <c r="G194" s="143"/>
+      <c r="H194" s="143" t="s">
+        <v>92</v>
+      </c>
+      <c r="I194" s="143"/>
+      <c r="J194" s="153" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A195" s="145"/>
-      <c r="B195" s="152"/>
-      <c r="C195" s="145"/>
-      <c r="D195" s="145"/>
-      <c r="E195" s="145"/>
-      <c r="F195" s="145"/>
-      <c r="G195" s="145"/>
-      <c r="H195" s="145"/>
-      <c r="I195" s="145"/>
-      <c r="J195" s="156"/>
+      <c r="A195" s="144"/>
+      <c r="B195" s="151"/>
+      <c r="C195" s="144"/>
+      <c r="D195" s="144"/>
+      <c r="E195" s="144"/>
+      <c r="F195" s="144"/>
+      <c r="G195" s="144"/>
+      <c r="H195" s="144"/>
+      <c r="I195" s="144"/>
+      <c r="J195" s="155"/>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A196" s="141"/>
-      <c r="B196" s="141"/>
-      <c r="C196" s="141"/>
-      <c r="D196" s="141"/>
-      <c r="E196" s="141"/>
-      <c r="F196" s="141"/>
-      <c r="G196" s="141"/>
-      <c r="H196" s="141"/>
-      <c r="I196" s="141"/>
-      <c r="J196" s="141"/>
+      <c r="A196" s="145"/>
+      <c r="B196" s="152"/>
+      <c r="C196" s="145"/>
+      <c r="D196" s="145"/>
+      <c r="E196" s="145"/>
+      <c r="F196" s="145"/>
+      <c r="G196" s="145"/>
+      <c r="H196" s="145"/>
+      <c r="I196" s="145"/>
+      <c r="J196" s="156"/>
     </row>
-    <row r="197" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A197" s="146" t="s">
-        <v>257</v>
-      </c>
-      <c r="B197" s="150"/>
-      <c r="C197" s="148"/>
-      <c r="D197" s="142"/>
-      <c r="E197" s="142"/>
-      <c r="F197" s="142"/>
-      <c r="G197" s="142"/>
-      <c r="H197" s="142"/>
-      <c r="I197" s="142"/>
-      <c r="J197" s="154"/>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A197" s="141"/>
+      <c r="B197" s="141"/>
+      <c r="C197" s="141"/>
+      <c r="D197" s="141"/>
+      <c r="E197" s="141"/>
+      <c r="F197" s="141"/>
+      <c r="G197" s="141"/>
+      <c r="H197" s="141"/>
+      <c r="I197" s="141"/>
+      <c r="J197" s="141"/>
     </row>
     <row r="198" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A198" s="147" t="s">
-        <v>83</v>
+      <c r="A198" s="146" t="s">
+        <v>257</v>
       </c>
       <c r="B198" s="150"/>
-      <c r="C198" s="149" t="s">
-        <v>68</v>
-      </c>
-      <c r="D198" s="143">
-        <v>10</v>
-      </c>
-      <c r="E198" s="143"/>
-      <c r="F198" s="142" t="s">
-        <v>88</v>
-      </c>
-      <c r="G198" s="143"/>
-      <c r="H198" s="143" t="s">
-        <v>92</v>
-      </c>
-      <c r="I198" s="143"/>
-      <c r="J198" s="153" t="s">
-        <v>79</v>
-      </c>
+      <c r="C198" s="148"/>
+      <c r="D198" s="142"/>
+      <c r="E198" s="142"/>
+      <c r="F198" s="142"/>
+      <c r="G198" s="142"/>
+      <c r="H198" s="142"/>
+      <c r="I198" s="142"/>
+      <c r="J198" s="154"/>
     </row>
     <row r="199" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A199" s="147" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B199" s="150"/>
       <c r="C199" s="149" t="s">
@@ -35453,83 +35626,83 @@
         <v>79</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A200" s="144"/>
-      <c r="B200" s="151"/>
-      <c r="C200" s="144"/>
-      <c r="D200" s="144"/>
-      <c r="E200" s="144"/>
-      <c r="F200" s="144"/>
-      <c r="G200" s="144"/>
-      <c r="H200" s="144"/>
-      <c r="I200" s="144"/>
-      <c r="J200" s="155"/>
+    <row r="200" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A200" s="147" t="s">
+        <v>80</v>
+      </c>
+      <c r="B200" s="150"/>
+      <c r="C200" s="149" t="s">
+        <v>68</v>
+      </c>
+      <c r="D200" s="143">
+        <v>10</v>
+      </c>
+      <c r="E200" s="143"/>
+      <c r="F200" s="142" t="s">
+        <v>88</v>
+      </c>
+      <c r="G200" s="143"/>
+      <c r="H200" s="143" t="s">
+        <v>92</v>
+      </c>
+      <c r="I200" s="143"/>
+      <c r="J200" s="153" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A201" s="145"/>
-      <c r="B201" s="152"/>
-      <c r="C201" s="145"/>
-      <c r="D201" s="145"/>
-      <c r="E201" s="145"/>
-      <c r="F201" s="145"/>
-      <c r="G201" s="145"/>
-      <c r="H201" s="145"/>
-      <c r="I201" s="145"/>
-      <c r="J201" s="156"/>
+      <c r="A201" s="144"/>
+      <c r="B201" s="151"/>
+      <c r="C201" s="144"/>
+      <c r="D201" s="144"/>
+      <c r="E201" s="144"/>
+      <c r="F201" s="144"/>
+      <c r="G201" s="144"/>
+      <c r="H201" s="144"/>
+      <c r="I201" s="144"/>
+      <c r="J201" s="155"/>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A202" s="141"/>
-      <c r="B202" s="141"/>
-      <c r="C202" s="141"/>
-      <c r="D202" s="141"/>
-      <c r="E202" s="141"/>
-      <c r="F202" s="141"/>
-      <c r="G202" s="141"/>
-      <c r="H202" s="141"/>
-      <c r="I202" s="141"/>
-      <c r="J202" s="141"/>
+      <c r="A202" s="145"/>
+      <c r="B202" s="152"/>
+      <c r="C202" s="145"/>
+      <c r="D202" s="145"/>
+      <c r="E202" s="145"/>
+      <c r="F202" s="145"/>
+      <c r="G202" s="145"/>
+      <c r="H202" s="145"/>
+      <c r="I202" s="145"/>
+      <c r="J202" s="156"/>
     </row>
-    <row r="203" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A203" s="146" t="s">
-        <v>258</v>
-      </c>
-      <c r="B203" s="150"/>
-      <c r="C203" s="148"/>
-      <c r="D203" s="142"/>
-      <c r="E203" s="142"/>
-      <c r="F203" s="142"/>
-      <c r="G203" s="142"/>
-      <c r="H203" s="142"/>
-      <c r="I203" s="142"/>
-      <c r="J203" s="154"/>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A203" s="141"/>
+      <c r="B203" s="141"/>
+      <c r="C203" s="141"/>
+      <c r="D203" s="141"/>
+      <c r="E203" s="141"/>
+      <c r="F203" s="141"/>
+      <c r="G203" s="141"/>
+      <c r="H203" s="141"/>
+      <c r="I203" s="141"/>
+      <c r="J203" s="141"/>
     </row>
     <row r="204" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A204" s="147" t="s">
-        <v>78</v>
+      <c r="A204" s="146" t="s">
+        <v>258</v>
       </c>
       <c r="B204" s="150"/>
-      <c r="C204" s="149" t="s">
-        <v>68</v>
-      </c>
-      <c r="D204" s="143">
-        <v>10</v>
-      </c>
-      <c r="E204" s="143"/>
-      <c r="F204" s="142" t="s">
-        <v>88</v>
-      </c>
-      <c r="G204" s="143"/>
-      <c r="H204" s="143" t="s">
-        <v>92</v>
-      </c>
-      <c r="I204" s="143"/>
-      <c r="J204" s="153" t="s">
-        <v>79</v>
-      </c>
+      <c r="C204" s="148"/>
+      <c r="D204" s="142"/>
+      <c r="E204" s="142"/>
+      <c r="F204" s="142"/>
+      <c r="G204" s="142"/>
+      <c r="H204" s="142"/>
+      <c r="I204" s="142"/>
+      <c r="J204" s="154"/>
     </row>
     <row r="205" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A205" s="147" t="s">
-        <v>174</v>
+        <v>78</v>
       </c>
       <c r="B205" s="150"/>
       <c r="C205" s="149" t="s">
@@ -35548,6 +35721,30 @@
       </c>
       <c r="I205" s="143"/>
       <c r="J205" s="153" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A206" s="147" t="s">
+        <v>174</v>
+      </c>
+      <c r="B206" s="150"/>
+      <c r="C206" s="149" t="s">
+        <v>68</v>
+      </c>
+      <c r="D206" s="143">
+        <v>10</v>
+      </c>
+      <c r="E206" s="143"/>
+      <c r="F206" s="142" t="s">
+        <v>88</v>
+      </c>
+      <c r="G206" s="143"/>
+      <c r="H206" s="143" t="s">
+        <v>92</v>
+      </c>
+      <c r="I206" s="143"/>
+      <c r="J206" s="153" t="s">
         <v>79</v>
       </c>
     </row>
@@ -36689,13 +36886,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>147</xdr:row>
+                    <xdr:row>148</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>148</xdr:row>
+                    <xdr:row>149</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -36711,13 +36908,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>148</xdr:row>
+                    <xdr:row>149</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>149</xdr:row>
+                    <xdr:row>150</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -36733,13 +36930,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>148</xdr:row>
+                    <xdr:row>149</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>149</xdr:row>
+                    <xdr:row>150</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -36755,13 +36952,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>149</xdr:row>
+                    <xdr:row>150</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>150</xdr:row>
+                    <xdr:row>151</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -36777,13 +36974,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>150</xdr:row>
+                    <xdr:row>151</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>151</xdr:row>
+                    <xdr:row>152</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -36799,13 +36996,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>145</xdr:row>
+                    <xdr:row>146</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>145</xdr:row>
+                    <xdr:row>146</xdr:row>
                     <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
@@ -36931,13 +37128,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>147</xdr:row>
+                    <xdr:row>148</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>148</xdr:row>
+                    <xdr:row>149</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -36953,13 +37150,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>148</xdr:row>
+                    <xdr:row>149</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>149</xdr:row>
+                    <xdr:row>150</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -36975,13 +37172,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>148</xdr:row>
+                    <xdr:row>149</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>149</xdr:row>
+                    <xdr:row>150</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -36997,13 +37194,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>149</xdr:row>
+                    <xdr:row>150</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>150</xdr:row>
+                    <xdr:row>151</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -37019,13 +37216,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>150</xdr:row>
+                    <xdr:row>151</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>151</xdr:row>
+                    <xdr:row>152</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -37041,13 +37238,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>145</xdr:row>
+                    <xdr:row>146</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>145</xdr:row>
+                    <xdr:row>146</xdr:row>
                     <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
@@ -37283,13 +37480,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>118</xdr:row>
+                    <xdr:row>119</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>119</xdr:row>
+                    <xdr:row>120</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -37305,13 +37502,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>118</xdr:row>
+                    <xdr:row>119</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>119</xdr:row>
+                    <xdr:row>120</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -37327,13 +37524,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>122</xdr:row>
+                    <xdr:row>123</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>123</xdr:row>
+                    <xdr:row>124</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -37349,13 +37546,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>122</xdr:row>
+                    <xdr:row>123</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>123</xdr:row>
+                    <xdr:row>124</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -37371,13 +37568,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>123</xdr:row>
+                    <xdr:row>124</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>124</xdr:row>
+                    <xdr:row>125</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -37393,13 +37590,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>123</xdr:row>
+                    <xdr:row>124</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>124</xdr:row>
+                    <xdr:row>125</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -37415,13 +37612,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>116</xdr:row>
+                    <xdr:row>117</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>117</xdr:row>
+                    <xdr:row>118</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -37437,13 +37634,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>116</xdr:row>
+                    <xdr:row>117</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>117</xdr:row>
+                    <xdr:row>118</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -37459,13 +37656,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>116</xdr:row>
+                    <xdr:row>117</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>117</xdr:row>
+                    <xdr:row>118</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -37481,13 +37678,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>116</xdr:row>
+                    <xdr:row>117</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>117</xdr:row>
+                    <xdr:row>118</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -37503,13 +37700,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>126</xdr:row>
+                    <xdr:row>127</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>127</xdr:row>
+                    <xdr:row>128</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -37525,13 +37722,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>126</xdr:row>
+                    <xdr:row>127</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>127</xdr:row>
+                    <xdr:row>128</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -37547,13 +37744,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>126</xdr:row>
+                    <xdr:row>127</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>127</xdr:row>
+                    <xdr:row>128</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -37569,13 +37766,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>126</xdr:row>
+                    <xdr:row>127</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>127</xdr:row>
+                    <xdr:row>128</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -37591,13 +37788,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>127</xdr:row>
+                    <xdr:row>128</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>128</xdr:row>
+                    <xdr:row>129</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -37613,13 +37810,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>127</xdr:row>
+                    <xdr:row>128</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>128</xdr:row>
+                    <xdr:row>129</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -37635,13 +37832,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>127</xdr:row>
+                    <xdr:row>128</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>128</xdr:row>
+                    <xdr:row>129</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -37657,13 +37854,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>127</xdr:row>
+                    <xdr:row>128</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>128</xdr:row>
+                    <xdr:row>129</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -37679,13 +37876,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>127</xdr:row>
+                    <xdr:row>128</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>128</xdr:row>
+                    <xdr:row>129</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -37701,13 +37898,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>127</xdr:row>
+                    <xdr:row>128</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>128</xdr:row>
+                    <xdr:row>129</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -37723,13 +37920,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>127</xdr:row>
+                    <xdr:row>128</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>128</xdr:row>
+                    <xdr:row>129</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -37745,13 +37942,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>127</xdr:row>
+                    <xdr:row>128</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>128</xdr:row>
+                    <xdr:row>129</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -37767,13 +37964,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>128</xdr:row>
+                    <xdr:row>129</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>129</xdr:row>
+                    <xdr:row>130</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -37789,13 +37986,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>128</xdr:row>
+                    <xdr:row>129</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>129</xdr:row>
+                    <xdr:row>130</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -37811,13 +38008,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>129</xdr:row>
+                    <xdr:row>130</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>130</xdr:row>
+                    <xdr:row>131</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -37833,13 +38030,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>129</xdr:row>
+                    <xdr:row>130</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>130</xdr:row>
+                    <xdr:row>131</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -37855,13 +38052,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>130</xdr:row>
+                    <xdr:row>131</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>131</xdr:row>
+                    <xdr:row>132</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -37877,13 +38074,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>130</xdr:row>
+                    <xdr:row>131</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>131</xdr:row>
+                    <xdr:row>132</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -37899,13 +38096,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>131</xdr:row>
+                    <xdr:row>132</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>132</xdr:row>
+                    <xdr:row>133</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -37921,13 +38118,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>131</xdr:row>
+                    <xdr:row>132</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>132</xdr:row>
+                    <xdr:row>133</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -37943,13 +38140,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>132</xdr:row>
+                    <xdr:row>133</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>133</xdr:row>
+                    <xdr:row>134</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -37965,13 +38162,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>132</xdr:row>
+                    <xdr:row>133</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>133</xdr:row>
+                    <xdr:row>134</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -37987,13 +38184,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>133</xdr:row>
+                    <xdr:row>134</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>134</xdr:row>
+                    <xdr:row>135</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38009,13 +38206,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>133</xdr:row>
+                    <xdr:row>134</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>134</xdr:row>
+                    <xdr:row>135</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38031,13 +38228,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>134</xdr:row>
+                    <xdr:row>135</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>135</xdr:row>
+                    <xdr:row>136</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38053,13 +38250,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>134</xdr:row>
+                    <xdr:row>135</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>135</xdr:row>
+                    <xdr:row>136</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38075,13 +38272,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>135</xdr:row>
+                    <xdr:row>136</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>136</xdr:row>
+                    <xdr:row>137</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38097,13 +38294,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>135</xdr:row>
+                    <xdr:row>136</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>136</xdr:row>
+                    <xdr:row>137</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38119,13 +38316,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>146</xdr:row>
+                    <xdr:row>147</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>147</xdr:row>
+                    <xdr:row>148</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38141,13 +38338,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>146</xdr:row>
+                    <xdr:row>147</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>147</xdr:row>
+                    <xdr:row>148</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38163,13 +38360,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>151</xdr:row>
+                    <xdr:row>152</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>152</xdr:row>
+                    <xdr:row>153</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38185,13 +38382,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>151</xdr:row>
+                    <xdr:row>152</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>152</xdr:row>
+                    <xdr:row>153</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38207,13 +38404,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>160</xdr:row>
+                    <xdr:row>161</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>161</xdr:row>
+                    <xdr:row>162</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38229,13 +38426,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>160</xdr:row>
+                    <xdr:row>161</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>161</xdr:row>
+                    <xdr:row>162</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38251,13 +38448,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>171</xdr:row>
+                    <xdr:row>172</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>172</xdr:row>
+                    <xdr:row>173</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38273,13 +38470,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>171</xdr:row>
+                    <xdr:row>172</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>172</xdr:row>
+                    <xdr:row>173</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38295,13 +38492,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>172</xdr:row>
+                    <xdr:row>173</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>173</xdr:row>
+                    <xdr:row>174</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38317,13 +38514,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>172</xdr:row>
+                    <xdr:row>173</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>173</xdr:row>
+                    <xdr:row>174</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38339,13 +38536,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>173</xdr:row>
+                    <xdr:row>174</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>174</xdr:row>
+                    <xdr:row>175</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38361,13 +38558,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>173</xdr:row>
+                    <xdr:row>174</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>174</xdr:row>
+                    <xdr:row>175</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38383,13 +38580,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>174</xdr:row>
+                    <xdr:row>175</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>175</xdr:row>
+                    <xdr:row>176</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38405,13 +38602,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>174</xdr:row>
+                    <xdr:row>175</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>175</xdr:row>
+                    <xdr:row>176</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38427,13 +38624,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>159</xdr:row>
+                    <xdr:row>160</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>160</xdr:row>
+                    <xdr:row>161</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38449,13 +38646,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>159</xdr:row>
+                    <xdr:row>160</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>160</xdr:row>
+                    <xdr:row>161</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38471,13 +38668,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>160</xdr:row>
+                    <xdr:row>161</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>161</xdr:row>
+                    <xdr:row>162</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38493,13 +38690,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>160</xdr:row>
+                    <xdr:row>161</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>161</xdr:row>
+                    <xdr:row>162</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38515,13 +38712,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>161</xdr:row>
+                    <xdr:row>162</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>162</xdr:row>
+                    <xdr:row>163</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38537,13 +38734,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>161</xdr:row>
+                    <xdr:row>162</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>162</xdr:row>
+                    <xdr:row>163</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38559,13 +38756,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>162</xdr:row>
+                    <xdr:row>163</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>163</xdr:row>
+                    <xdr:row>164</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38581,13 +38778,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>162</xdr:row>
+                    <xdr:row>163</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>163</xdr:row>
+                    <xdr:row>164</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38603,13 +38800,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>163</xdr:row>
+                    <xdr:row>164</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>164</xdr:row>
+                    <xdr:row>165</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38625,13 +38822,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>163</xdr:row>
+                    <xdr:row>164</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>164</xdr:row>
+                    <xdr:row>165</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38647,13 +38844,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>164</xdr:row>
+                    <xdr:row>165</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>165</xdr:row>
+                    <xdr:row>166</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38669,13 +38866,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>164</xdr:row>
+                    <xdr:row>165</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>165</xdr:row>
+                    <xdr:row>166</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38823,13 +39020,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>169</xdr:row>
+                    <xdr:row>170</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>170</xdr:row>
+                    <xdr:row>171</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38845,13 +39042,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>169</xdr:row>
+                    <xdr:row>170</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>170</xdr:row>
+                    <xdr:row>171</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38911,13 +39108,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>136</xdr:row>
+                    <xdr:row>137</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>137</xdr:row>
+                    <xdr:row>138</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38933,13 +39130,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>136</xdr:row>
+                    <xdr:row>137</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>137</xdr:row>
+                    <xdr:row>138</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38955,13 +39152,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>137</xdr:row>
+                    <xdr:row>138</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>138</xdr:row>
+                    <xdr:row>139</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38977,13 +39174,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>137</xdr:row>
+                    <xdr:row>138</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>138</xdr:row>
+                    <xdr:row>139</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38999,13 +39196,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>170</xdr:row>
+                    <xdr:row>171</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>171</xdr:row>
+                    <xdr:row>172</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -39021,13 +39218,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>170</xdr:row>
+                    <xdr:row>171</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>171</xdr:row>
+                    <xdr:row>172</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -39043,13 +39240,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>157</xdr:row>
+                    <xdr:row>158</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>158</xdr:row>
+                    <xdr:row>159</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -39065,13 +39262,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>157</xdr:row>
+                    <xdr:row>158</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>158</xdr:row>
+                    <xdr:row>159</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -39087,13 +39284,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>144</xdr:row>
+                    <xdr:row>145</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>145</xdr:row>
+                    <xdr:row>146</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -39109,13 +39306,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>144</xdr:row>
+                    <xdr:row>145</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>145</xdr:row>
+                    <xdr:row>146</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -39131,13 +39328,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>113</xdr:row>
+                    <xdr:row>114</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>114</xdr:row>
+                    <xdr:row>115</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -39153,13 +39350,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>114</xdr:row>
+                    <xdr:row>115</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>115</xdr:row>
+                    <xdr:row>116</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -39175,13 +39372,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>113</xdr:row>
+                    <xdr:row>114</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>114</xdr:row>
+                    <xdr:row>115</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -39197,13 +39394,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>114</xdr:row>
+                    <xdr:row>115</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>115</xdr:row>
+                    <xdr:row>116</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -39219,13 +39416,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>158</xdr:row>
+                    <xdr:row>159</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>159</xdr:row>
+                    <xdr:row>160</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -39241,13 +39438,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>158</xdr:row>
+                    <xdr:row>159</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>159</xdr:row>
+                    <xdr:row>160</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -39307,13 +39504,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>112</xdr:row>
+                    <xdr:row>113</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>113</xdr:row>
+                    <xdr:row>114</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -39329,13 +39526,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>112</xdr:row>
+                    <xdr:row>113</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>113</xdr:row>
+                    <xdr:row>114</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -39527,13 +39724,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>105</xdr:row>
+                    <xdr:row>106</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>106</xdr:row>
+                    <xdr:row>107</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -39549,13 +39746,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>105</xdr:row>
+                    <xdr:row>106</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>106</xdr:row>
+                    <xdr:row>107</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -39571,13 +39768,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>106</xdr:row>
+                    <xdr:row>107</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>107</xdr:row>
+                    <xdr:row>108</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -39593,13 +39790,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>106</xdr:row>
+                    <xdr:row>107</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>107</xdr:row>
+                    <xdr:row>108</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -39879,13 +40076,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>124</xdr:row>
+                    <xdr:row>125</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>125</xdr:row>
+                    <xdr:row>126</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -39901,13 +40098,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>124</xdr:row>
+                    <xdr:row>125</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>125</xdr:row>
+                    <xdr:row>126</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -39923,13 +40120,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>125</xdr:row>
+                    <xdr:row>126</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>126</xdr:row>
+                    <xdr:row>127</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -39945,13 +40142,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>125</xdr:row>
+                    <xdr:row>126</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>126</xdr:row>
+                    <xdr:row>127</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -39967,13 +40164,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>115</xdr:row>
+                    <xdr:row>116</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>116</xdr:row>
+                    <xdr:row>117</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -39989,13 +40186,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>115</xdr:row>
+                    <xdr:row>116</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>116</xdr:row>
+                    <xdr:row>117</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40121,13 +40318,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>111</xdr:row>
+                    <xdr:row>112</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>112</xdr:row>
+                    <xdr:row>113</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40143,13 +40340,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>111</xdr:row>
+                    <xdr:row>112</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>112</xdr:row>
+                    <xdr:row>113</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40253,13 +40450,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>104</xdr:row>
+                    <xdr:row>105</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>105</xdr:row>
+                    <xdr:row>106</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40275,13 +40472,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>104</xdr:row>
+                    <xdr:row>105</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>105</xdr:row>
+                    <xdr:row>106</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40297,13 +40494,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>138</xdr:row>
+                    <xdr:row>139</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>139</xdr:row>
+                    <xdr:row>140</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40319,13 +40516,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>138</xdr:row>
+                    <xdr:row>139</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>139</xdr:row>
+                    <xdr:row>140</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40341,13 +40538,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>117</xdr:row>
+                    <xdr:row>118</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>118</xdr:row>
+                    <xdr:row>119</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40363,13 +40560,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>117</xdr:row>
+                    <xdr:row>118</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>118</xdr:row>
+                    <xdr:row>119</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40385,13 +40582,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>117</xdr:row>
+                    <xdr:row>118</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>118</xdr:row>
+                    <xdr:row>119</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40407,13 +40604,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>117</xdr:row>
+                    <xdr:row>118</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>118</xdr:row>
+                    <xdr:row>119</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40561,13 +40758,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>185</xdr:row>
+                    <xdr:row>186</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>186</xdr:row>
+                    <xdr:row>187</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40583,13 +40780,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>185</xdr:row>
+                    <xdr:row>186</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>186</xdr:row>
+                    <xdr:row>187</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40605,13 +40802,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>186</xdr:row>
+                    <xdr:row>187</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>187</xdr:row>
+                    <xdr:row>188</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40627,13 +40824,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>186</xdr:row>
+                    <xdr:row>187</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>187</xdr:row>
+                    <xdr:row>188</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40649,13 +40846,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>191</xdr:row>
+                    <xdr:row>192</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>192</xdr:row>
+                    <xdr:row>193</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40671,13 +40868,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>191</xdr:row>
+                    <xdr:row>192</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>192</xdr:row>
+                    <xdr:row>193</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40693,13 +40890,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>192</xdr:row>
+                    <xdr:row>193</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>193</xdr:row>
+                    <xdr:row>194</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40715,13 +40912,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>192</xdr:row>
+                    <xdr:row>193</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>193</xdr:row>
+                    <xdr:row>194</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40737,13 +40934,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>197</xdr:row>
+                    <xdr:row>198</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>198</xdr:row>
+                    <xdr:row>199</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40759,13 +40956,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>197</xdr:row>
+                    <xdr:row>198</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>198</xdr:row>
+                    <xdr:row>199</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40781,13 +40978,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>198</xdr:row>
+                    <xdr:row>199</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>199</xdr:row>
+                    <xdr:row>200</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40803,13 +41000,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>198</xdr:row>
+                    <xdr:row>199</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>199</xdr:row>
+                    <xdr:row>200</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40825,13 +41022,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>203</xdr:row>
+                    <xdr:row>204</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>204</xdr:row>
+                    <xdr:row>205</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40847,13 +41044,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>203</xdr:row>
+                    <xdr:row>204</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>204</xdr:row>
+                    <xdr:row>205</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40869,13 +41066,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>204</xdr:row>
+                    <xdr:row>205</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>205</xdr:row>
+                    <xdr:row>206</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40891,13 +41088,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>204</xdr:row>
+                    <xdr:row>205</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>205</xdr:row>
+                    <xdr:row>206</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40913,13 +41110,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>179</xdr:row>
+                    <xdr:row>180</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>180</xdr:row>
+                    <xdr:row>181</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40935,13 +41132,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>179</xdr:row>
+                    <xdr:row>180</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>180</xdr:row>
+                    <xdr:row>181</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40957,13 +41154,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>180</xdr:row>
+                    <xdr:row>181</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>181</xdr:row>
+                    <xdr:row>182</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40979,13 +41176,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>180</xdr:row>
+                    <xdr:row>181</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>181</xdr:row>
+                    <xdr:row>182</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -41001,13 +41198,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>156</xdr:row>
+                    <xdr:row>157</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>157</xdr:row>
+                    <xdr:row>158</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -41023,13 +41220,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>156</xdr:row>
+                    <xdr:row>157</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>157</xdr:row>
+                    <xdr:row>158</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -41045,13 +41242,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>143</xdr:row>
+                    <xdr:row>144</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>144</xdr:row>
+                    <xdr:row>145</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -41067,13 +41264,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>143</xdr:row>
+                    <xdr:row>144</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>144</xdr:row>
+                    <xdr:row>145</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -41273,6 +41470,50 @@
                     <xdr:colOff>285750</xdr:colOff>
                     <xdr:row>95</xdr:row>
                     <xdr:rowOff>180975</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3689" r:id="rId264" name="Check Box 617">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>104</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>105</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3690" r:id="rId265" name="Check Box 618">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>104</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>105</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -41912,11 +42153,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K141"/>
+  <dimension ref="A1:K144"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B145" sqref="B145"/>
+      <selection pane="bottomLeft" activeCell="A145" sqref="A145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -42245,7 +42486,7 @@
       <c r="H17" s="87"/>
       <c r="I17" s="87"/>
       <c r="J17" s="90"/>
-      <c r="K17" s="186" t="s">
+      <c r="K17" s="193" t="s">
         <v>219</v>
       </c>
     </row>
@@ -42270,7 +42511,7 @@
       </c>
       <c r="I18" s="87"/>
       <c r="J18" s="90"/>
-      <c r="K18" s="186"/>
+      <c r="K18" s="193"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="93" t="s">
@@ -42293,7 +42534,7 @@
       </c>
       <c r="I19" s="76"/>
       <c r="J19" s="90"/>
-      <c r="K19" s="186"/>
+      <c r="K19" s="193"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
@@ -42356,7 +42597,7 @@
       <c r="H24" s="87"/>
       <c r="I24" s="87"/>
       <c r="J24" s="90"/>
-      <c r="K24" s="187" t="s">
+      <c r="K24" s="194" t="s">
         <v>217</v>
       </c>
     </row>
@@ -42385,7 +42626,7 @@
       <c r="J25" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="K25" s="188"/>
+      <c r="K25" s="195"/>
     </row>
     <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="94" t="s">
@@ -42410,7 +42651,7 @@
       <c r="J26" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="K26" s="188"/>
+      <c r="K26" s="195"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="95" t="s">
@@ -42429,7 +42670,7 @@
       <c r="H27" s="76"/>
       <c r="I27" s="76"/>
       <c r="J27" s="77"/>
-      <c r="K27" s="189"/>
+      <c r="K27" s="196"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="101">
@@ -44122,7 +44363,7 @@
       </c>
     </row>
     <row r="139" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A139" s="192" t="s">
+      <c r="A139" s="188" t="s">
         <v>32</v>
       </c>
       <c r="B139" s="151"/>
@@ -44131,11 +44372,21 @@
       <c r="A140" s="128" t="s">
         <v>211</v>
       </c>
-      <c r="B140" s="191"/>
+      <c r="B140" s="187"/>
     </row>
     <row r="141" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>248</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A143" s="101">
+        <v>43416</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A144" s="188" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/db_29_10_2018.xlsx
+++ b/db_29_10_2018.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11505" windowHeight="4515" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11505" windowHeight="4515"/>
   </bookViews>
   <sheets>
     <sheet name="tables" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="298">
   <si>
     <t>employers</t>
   </si>
@@ -86,9 +86,6 @@
     <t>desire_minimum_wage</t>
   </si>
   <si>
-    <t>wage</t>
-  </si>
-  <si>
     <t>job_description</t>
   </si>
   <si>
@@ -135,9 +132,6 @@
   </si>
   <si>
     <t>ended_at</t>
-  </si>
-  <si>
-    <t>achievement</t>
   </si>
   <si>
     <t>school</t>
@@ -327,9 +321,6 @@
   </si>
   <si>
     <t>language_profile</t>
-  </si>
-  <si>
-    <t>nếu bằng 0 không hiển thị</t>
   </si>
   <si>
     <t>forget_password</t>
@@ -1357,7 +1348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1647,6 +1638,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -11688,13 +11680,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>172</xdr:row>
+          <xdr:row>171</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>173</xdr:row>
+          <xdr:row>172</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11752,13 +11744,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>172</xdr:row>
+          <xdr:row>171</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>173</xdr:row>
+          <xdr:row>172</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11816,13 +11808,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>173</xdr:row>
+          <xdr:row>172</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>174</xdr:row>
+          <xdr:row>173</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11880,13 +11872,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>173</xdr:row>
+          <xdr:row>172</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>174</xdr:row>
+          <xdr:row>173</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11944,13 +11936,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>174</xdr:row>
+          <xdr:row>173</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>175</xdr:row>
+          <xdr:row>174</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12008,13 +12000,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>174</xdr:row>
+          <xdr:row>173</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>175</xdr:row>
+          <xdr:row>174</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12072,13 +12064,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>175</xdr:row>
+          <xdr:row>174</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>176</xdr:row>
+          <xdr:row>175</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12136,13 +12128,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>175</xdr:row>
+          <xdr:row>174</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>176</xdr:row>
+          <xdr:row>175</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12712,13 +12704,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>164</xdr:row>
+          <xdr:row>163</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>165</xdr:row>
+          <xdr:row>164</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12776,13 +12768,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>164</xdr:row>
+          <xdr:row>163</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>165</xdr:row>
+          <xdr:row>164</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12840,13 +12832,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>165</xdr:row>
+          <xdr:row>164</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>166</xdr:row>
+          <xdr:row>165</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12904,13 +12896,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>165</xdr:row>
+          <xdr:row>164</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>166</xdr:row>
+          <xdr:row>165</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -13352,13 +13344,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>170</xdr:row>
+          <xdr:row>169</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>171</xdr:row>
+          <xdr:row>170</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -13416,13 +13408,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>170</xdr:row>
+          <xdr:row>169</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>171</xdr:row>
+          <xdr:row>170</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -13864,13 +13856,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>171</xdr:row>
+          <xdr:row>170</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>172</xdr:row>
+          <xdr:row>171</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -13928,13 +13920,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>171</xdr:row>
+          <xdr:row>170</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>172</xdr:row>
+          <xdr:row>171</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -18408,13 +18400,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>186</xdr:row>
+          <xdr:row>185</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>187</xdr:row>
+          <xdr:row>186</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -18472,13 +18464,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>186</xdr:row>
+          <xdr:row>185</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>187</xdr:row>
+          <xdr:row>186</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -18536,13 +18528,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>187</xdr:row>
+          <xdr:row>186</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>188</xdr:row>
+          <xdr:row>187</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -18600,13 +18592,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>187</xdr:row>
+          <xdr:row>186</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>188</xdr:row>
+          <xdr:row>187</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -18664,13 +18656,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>192</xdr:row>
+          <xdr:row>191</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>193</xdr:row>
+          <xdr:row>192</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -18728,13 +18720,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>192</xdr:row>
+          <xdr:row>191</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>193</xdr:row>
+          <xdr:row>192</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -18792,13 +18784,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>193</xdr:row>
+          <xdr:row>192</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>194</xdr:row>
+          <xdr:row>193</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -18856,13 +18848,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>193</xdr:row>
+          <xdr:row>192</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>194</xdr:row>
+          <xdr:row>193</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -18920,13 +18912,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>198</xdr:row>
+          <xdr:row>197</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>199</xdr:row>
+          <xdr:row>198</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -18984,13 +18976,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>198</xdr:row>
+          <xdr:row>197</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>199</xdr:row>
+          <xdr:row>198</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -19048,13 +19040,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>199</xdr:row>
+          <xdr:row>198</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>200</xdr:row>
+          <xdr:row>199</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -19112,13 +19104,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>199</xdr:row>
+          <xdr:row>198</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>200</xdr:row>
+          <xdr:row>199</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -19176,13 +19168,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>204</xdr:row>
+          <xdr:row>203</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>205</xdr:row>
+          <xdr:row>204</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -19240,13 +19232,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>204</xdr:row>
+          <xdr:row>203</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>205</xdr:row>
+          <xdr:row>204</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -19304,13 +19296,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>205</xdr:row>
+          <xdr:row>204</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>206</xdr:row>
+          <xdr:row>205</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -19368,13 +19360,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>205</xdr:row>
+          <xdr:row>204</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>206</xdr:row>
+          <xdr:row>205</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -19432,13 +19424,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>180</xdr:row>
+          <xdr:row>179</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>181</xdr:row>
+          <xdr:row>180</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -19496,13 +19488,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>180</xdr:row>
+          <xdr:row>179</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>181</xdr:row>
+          <xdr:row>180</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -19560,13 +19552,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>181</xdr:row>
+          <xdr:row>180</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>182</xdr:row>
+          <xdr:row>181</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -19624,13 +19616,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>181</xdr:row>
+          <xdr:row>180</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>182</xdr:row>
+          <xdr:row>181</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -31937,11 +31929,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P206"/>
+  <dimension ref="A1:P205"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J105" sqref="J105"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F155" sqref="F155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -31962,34 +31954,34 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="35" t="s">
+      <c r="F1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="14" t="s">
         <v>58</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.25">
@@ -31997,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C2" s="36"/>
       <c r="D2" s="1"/>
@@ -32008,47 +32000,47 @@
       <c r="I2" s="1"/>
       <c r="J2" s="47"/>
       <c r="K2" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L2" s="18"/>
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D3" s="1">
         <v>10</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="47"/>
       <c r="K3" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L3" s="19"/>
       <c r="M3" s="19"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="24" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D4" s="3">
         <v>255</v>
@@ -32060,18 +32052,18 @@
       <c r="I4" s="3"/>
       <c r="J4" s="46"/>
       <c r="K4" s="97" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D5" s="3">
         <v>255</v>
@@ -32083,7 +32075,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="46"/>
       <c r="K5" s="22" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -32091,10 +32083,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D6" s="3">
         <v>191</v>
@@ -32103,12 +32095,12 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="46"/>
       <c r="K6" s="140" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -32116,10 +32108,10 @@
         <v>9</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D7" s="3">
         <v>191</v>
@@ -32128,7 +32120,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="46"/>
@@ -32138,10 +32130,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D8" s="3">
         <v>255</v>
@@ -32158,10 +32150,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D9" s="3">
         <v>191</v>
@@ -32178,10 +32170,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D10" s="3">
         <v>255</v>
@@ -32198,10 +32190,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D11" s="3">
         <v>255</v>
@@ -32218,10 +32210,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D12" s="3">
         <v>255</v>
@@ -32235,72 +32227,72 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="45" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D13" s="3">
         <v>10</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="46"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="45" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D14" s="3">
         <v>10</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="46"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="45" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D15" s="3">
         <v>10</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="46"/>
@@ -32310,10 +32302,10 @@
         <v>11</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -32322,7 +32314,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="46" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -32330,10 +32322,10 @@
         <v>7</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D17" s="3">
         <v>255</v>
@@ -32347,11 +32339,11 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="24" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B18" s="40"/>
       <c r="C18" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D18" s="3">
         <v>255</v>
@@ -32362,7 +32354,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -32390,7 +32382,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C22" s="36"/>
       <c r="D22" s="1"/>
@@ -32403,35 +32395,35 @@
     </row>
     <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B23" s="39"/>
       <c r="C23" s="36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D23" s="1">
         <v>10</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="47"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="24" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D24" s="3">
         <v>255</v>
@@ -32445,13 +32437,13 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="24" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D25" s="3">
         <v>255</v>
@@ -32468,10 +32460,10 @@
         <v>1</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D26" s="3">
         <v>191</v>
@@ -32480,7 +32472,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="46"/>
@@ -32490,10 +32482,10 @@
         <v>9</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D27" s="3">
         <v>191</v>
@@ -32502,7 +32494,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="46"/>
@@ -32512,10 +32504,10 @@
         <v>2</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D28" s="3">
         <v>255</v>
@@ -32532,10 +32524,10 @@
         <v>10</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -32547,72 +32539,72 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="45" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D30" s="3">
         <v>10</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="46"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="45" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B31" s="40" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D31" s="3">
         <v>10</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="46"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="45" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D32" s="3">
         <v>10</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="46"/>
@@ -32622,10 +32614,10 @@
         <v>11</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -32634,7 +32626,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="3"/>
       <c r="J33" s="46" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -32642,10 +32634,10 @@
         <v>12</v>
       </c>
       <c r="B34" s="40" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C34" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D34" s="3">
         <v>10</v>
@@ -32659,13 +32651,13 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="26" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B35" s="40" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C35" s="37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -32674,20 +32666,20 @@
       <c r="H35" s="1"/>
       <c r="I35" s="3"/>
       <c r="J35" s="46" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="24" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C36" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D36" s="3">
         <v>255</v>
@@ -32698,7 +32690,7 @@
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -32732,10 +32724,10 @@
     </row>
     <row r="40" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C40" s="36"/>
       <c r="D40" s="1"/>
@@ -32748,22 +32740,22 @@
     </row>
     <row r="41" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B41" s="39"/>
       <c r="C41" s="36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D41" s="1">
         <v>10</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="47"/>
@@ -32773,10 +32765,10 @@
         <v>8</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C42" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D42" s="3">
         <v>191</v>
@@ -32785,11 +32777,11 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="52" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
@@ -32814,10 +32806,10 @@
     </row>
     <row r="46" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B46" s="40" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C46" s="36"/>
       <c r="D46" s="1"/>
@@ -32830,22 +32822,22 @@
     </row>
     <row r="47" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B47" s="39"/>
       <c r="C47" s="36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D47" s="1">
         <v>10</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="47"/>
@@ -32855,10 +32847,10 @@
         <v>8</v>
       </c>
       <c r="B48" s="40" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D48" s="3">
         <v>191</v>
@@ -32867,11 +32859,11 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="52" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
@@ -32903,10 +32895,10 @@
     </row>
     <row r="52" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B52" s="40" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="1"/>
@@ -32919,22 +32911,22 @@
     </row>
     <row r="53" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B53" s="39"/>
       <c r="C53" s="36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D53" s="1">
         <v>10</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="47"/>
@@ -32944,10 +32936,10 @@
         <v>8</v>
       </c>
       <c r="B54" s="40" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C54" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D54" s="3">
         <v>191</v>
@@ -32956,11 +32948,11 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I54" s="3"/>
       <c r="J54" s="52" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
@@ -32992,10 +32984,10 @@
     </row>
     <row r="58" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B58" s="40" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C58" s="36"/>
       <c r="D58" s="1"/>
@@ -33008,22 +33000,22 @@
     </row>
     <row r="59" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B59" s="39"/>
       <c r="C59" s="36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D59" s="1">
         <v>10</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="47"/>
@@ -33033,10 +33025,10 @@
         <v>8</v>
       </c>
       <c r="B60" s="40" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C60" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D60" s="3">
         <v>191</v>
@@ -33045,7 +33037,7 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I60" s="3"/>
       <c r="J60" s="52"/>
@@ -33088,10 +33080,10 @@
     </row>
     <row r="64" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="96" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B64" s="39" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C64" s="36"/>
       <c r="D64" s="1"/>
@@ -33104,22 +33096,22 @@
     </row>
     <row r="65" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B65" s="39"/>
       <c r="C65" s="36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D65" s="1">
         <v>10</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I65" s="1"/>
       <c r="J65" s="47"/>
@@ -33129,10 +33121,10 @@
         <v>8</v>
       </c>
       <c r="B66" s="40" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C66" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D66" s="3">
         <v>191</v>
@@ -33141,7 +33133,7 @@
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I66" s="3"/>
       <c r="J66" s="52"/>
@@ -33184,10 +33176,10 @@
     </row>
     <row r="70" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="96" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B70" s="39" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C70" s="36"/>
       <c r="D70" s="1"/>
@@ -33200,22 +33192,22 @@
     </row>
     <row r="71" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B71" s="129"/>
       <c r="C71" s="36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D71" s="1">
         <v>10</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I71" s="1"/>
       <c r="J71" s="47"/>
@@ -33225,10 +33217,10 @@
         <v>8</v>
       </c>
       <c r="B72" s="81" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C72" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D72" s="3">
         <v>191</v>
@@ -33237,11 +33229,11 @@
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I72" s="3"/>
       <c r="J72" s="47" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
@@ -33300,10 +33292,10 @@
     </row>
     <row r="76" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="96" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B76" s="39" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C76" s="36"/>
       <c r="D76" s="1"/>
@@ -33322,22 +33314,22 @@
     </row>
     <row r="77" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B77" s="129"/>
       <c r="C77" s="36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D77" s="1">
         <v>10</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I77" s="1"/>
       <c r="J77" s="47"/>
@@ -33353,10 +33345,10 @@
         <v>8</v>
       </c>
       <c r="B78" s="81" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C78" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D78" s="3">
         <v>191</v>
@@ -33365,11 +33357,11 @@
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I78" s="3"/>
       <c r="J78" s="47" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="K78" s="124"/>
       <c r="L78" s="124"/>
@@ -33416,10 +33408,10 @@
     </row>
     <row r="82" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="96" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B82" s="39" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C82" s="148"/>
       <c r="D82" s="142"/>
@@ -33432,22 +33424,22 @@
     </row>
     <row r="83" spans="1:12" s="144" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B83" s="129"/>
       <c r="C83" s="148" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D83" s="142">
         <v>10</v>
       </c>
       <c r="E83" s="142"/>
       <c r="F83" s="142" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G83" s="142"/>
       <c r="H83" s="142" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I83" s="142"/>
       <c r="J83" s="154"/>
@@ -33457,10 +33449,10 @@
         <v>8</v>
       </c>
       <c r="B84" s="81" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C84" s="149" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D84" s="143">
         <v>191</v>
@@ -33469,11 +33461,11 @@
       <c r="F84" s="143"/>
       <c r="G84" s="143"/>
       <c r="H84" s="143" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I84" s="143"/>
       <c r="J84" s="154" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
@@ -33505,10 +33497,10 @@
     </row>
     <row r="88" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B88" s="39" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C88" s="36"/>
       <c r="D88" s="1"/>
@@ -33521,48 +33513,48 @@
     </row>
     <row r="89" spans="1:12" s="144" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B89" s="150"/>
       <c r="C89" s="149" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D89" s="143">
         <v>10</v>
       </c>
       <c r="E89" s="143"/>
       <c r="F89" s="142" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G89" s="143"/>
       <c r="H89" s="143" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I89" s="143"/>
       <c r="J89" s="153"/>
     </row>
     <row r="90" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="189" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B90" s="81"/>
       <c r="C90" s="37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D90" s="3">
         <v>10</v>
       </c>
       <c r="E90" s="3"/>
       <c r="F90" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G90" s="3"/>
       <c r="H90" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I90" s="3"/>
       <c r="J90" s="153" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -33570,10 +33562,10 @@
         <v>8</v>
       </c>
       <c r="B91" s="81" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C91" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D91" s="3">
         <v>191</v>
@@ -33582,107 +33574,107 @@
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
       <c r="H91" s="143" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I91" s="3"/>
       <c r="J91" s="46" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B92" s="40" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C92" s="37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D92" s="3">
         <v>10</v>
       </c>
       <c r="E92" s="3"/>
       <c r="F92" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G92" s="3"/>
       <c r="H92" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I92" s="3"/>
       <c r="J92" s="46"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="30" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B93" s="40" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C93" s="37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D93" s="3">
         <v>10</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G93" s="3"/>
       <c r="H93" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I93" s="3"/>
       <c r="J93" s="46" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="31" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B94" s="40" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C94" s="37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D94" s="3">
         <v>10</v>
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I94" s="3"/>
       <c r="J94" s="46"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="31" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B95" s="150" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C95" s="149" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D95" s="143">
         <v>10</v>
       </c>
       <c r="E95" s="143"/>
       <c r="F95" s="142" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G95" s="143"/>
       <c r="H95" s="143" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I95" s="143"/>
       <c r="J95" s="153"/>
@@ -33691,34 +33683,34 @@
     </row>
     <row r="96" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B96" s="192" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C96" s="149" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D96" s="143">
         <v>10</v>
       </c>
       <c r="E96" s="143"/>
       <c r="F96" s="142" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G96" s="143"/>
       <c r="H96" s="143" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I96" s="143"/>
       <c r="J96" s="153"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="138" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B97" s="139" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C97" s="149"/>
       <c r="D97" s="143"/>
@@ -33728,7 +33720,7 @@
       <c r="H97" s="143"/>
       <c r="I97" s="143"/>
       <c r="J97" s="153" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
@@ -33736,10 +33728,10 @@
         <v>13</v>
       </c>
       <c r="B98" s="40" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C98" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D98" s="3">
         <v>255</v>
@@ -33756,17 +33748,17 @@
         <v>18</v>
       </c>
       <c r="B99" s="40" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C99" s="37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D99" s="3">
         <v>10</v>
       </c>
       <c r="E99" s="3"/>
       <c r="F99" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
@@ -33775,13 +33767,13 @@
     </row>
     <row r="100" spans="1:10" s="144" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="28" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B100" s="150" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C100" s="149" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D100" s="143">
         <v>255</v>
@@ -33792,18 +33784,18 @@
       <c r="H100" s="143"/>
       <c r="I100" s="143"/>
       <c r="J100" s="153" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B101" s="40" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C101" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D101" s="3">
         <v>255</v>
@@ -33817,13 +33809,13 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B102" s="40" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C102" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -33832,18 +33824,18 @@
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
       <c r="J102" s="54" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B103" s="40" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C103" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -33852,18 +33844,18 @@
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
       <c r="J103" s="54" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B104" s="40" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C104" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -33872,18 +33864,18 @@
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
       <c r="J104" s="54" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="105" spans="1:10" s="144" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="28" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B105" s="150" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C105" s="149" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D105" s="143">
         <v>255</v>
@@ -33897,13 +33889,13 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="28" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B106" s="40" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C106" s="37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -33912,18 +33904,18 @@
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
       <c r="J106" s="54" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="B107" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="C107" s="37" t="s">
         <v>94</v>
-      </c>
-      <c r="B107" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="C107" s="37" t="s">
-        <v>96</v>
       </c>
       <c r="D107" s="3"/>
       <c r="E107" s="3" t="b">
@@ -33934,18 +33926,18 @@
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
       <c r="J107" s="54" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B108" s="40" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C108" s="37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="3" t="b">
@@ -33956,7 +33948,7 @@
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
       <c r="J108" s="54" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
@@ -33979,10 +33971,10 @@
     </row>
     <row r="112" spans="1:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B112" s="39" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C112" s="36"/>
       <c r="D112" s="1"/>
@@ -33995,168 +33987,168 @@
     </row>
     <row r="113" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B113" s="40"/>
       <c r="C113" s="37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D113" s="3">
         <v>10</v>
       </c>
       <c r="E113" s="3"/>
       <c r="F113" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G113" s="3"/>
       <c r="H113" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I113" s="3"/>
       <c r="J113" s="46"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B114" s="40"/>
       <c r="C114" s="37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D114" s="3">
         <v>10</v>
       </c>
       <c r="E114" s="3"/>
       <c r="F114" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G114" s="3"/>
       <c r="H114" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I114" s="3"/>
       <c r="J114" s="46" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B115" s="40" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C115" s="37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D115" s="3">
         <v>10</v>
       </c>
       <c r="E115" s="3"/>
       <c r="F115" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G115" s="3"/>
       <c r="H115" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I115" s="3"/>
       <c r="J115" s="46"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B116" s="40" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C116" s="37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D116" s="3">
         <v>10</v>
       </c>
       <c r="E116" s="3"/>
       <c r="F116" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G116" s="3"/>
       <c r="H116" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I116" s="3"/>
       <c r="J116" s="46"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" s="65" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B117" s="81" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D117" s="3">
         <v>10</v>
       </c>
       <c r="E117" s="3"/>
       <c r="F117" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G117" s="3"/>
       <c r="H117" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I117" s="3"/>
       <c r="J117" s="46" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="34" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B118" s="40" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C118" s="37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D118" s="3">
         <v>10</v>
       </c>
       <c r="E118" s="3"/>
       <c r="F118" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G118" s="3"/>
       <c r="H118" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I118" s="3"/>
       <c r="J118" s="46"/>
     </row>
     <row r="119" spans="1:12" s="136" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="65" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B119" s="81" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C119" s="37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D119" s="3">
         <v>10</v>
       </c>
       <c r="E119" s="3"/>
       <c r="F119" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G119" s="3"/>
       <c r="H119" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I119" s="3"/>
       <c r="J119" s="46"/>
@@ -34166,10 +34158,10 @@
         <v>8</v>
       </c>
       <c r="B120" s="40" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C120" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D120" s="3">
         <v>255</v>
@@ -34183,10 +34175,10 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="140" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B121" s="139" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C121" s="137"/>
       <c r="D121" s="135"/>
@@ -34196,15 +34188,15 @@
       <c r="H121" s="135"/>
       <c r="I121" s="135"/>
       <c r="J121" s="153" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="140" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B122" s="139" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C122" s="137"/>
       <c r="D122" s="135"/>
@@ -34214,15 +34206,15 @@
       <c r="H122" s="135"/>
       <c r="I122" s="135"/>
       <c r="J122" s="153" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="138" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B123" s="139" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C123" s="37"/>
       <c r="D123" s="3"/>
@@ -34232,18 +34224,18 @@
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
       <c r="J123" s="46" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B124" s="40" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C124" s="37" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -34255,13 +34247,13 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B125" s="105" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C125" s="37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D125" s="3">
         <v>10</v>
@@ -34270,24 +34262,24 @@
         <v>0</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
       <c r="J125" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="55" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B126" s="40" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D126" s="3">
         <v>10</v>
@@ -34296,26 +34288,26 @@
         <v>0</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
       <c r="J126" s="46" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="55" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B127" s="40" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D127" s="3">
         <v>10</v>
@@ -34324,7 +34316,7 @@
         <v>0</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
@@ -34335,18 +34327,18 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B128" s="40" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C128" s="37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
       <c r="F128" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
@@ -34355,13 +34347,13 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B129" s="40" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C129" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D129" s="3">
         <v>255</v>
@@ -34372,7 +34364,7 @@
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
       <c r="J129" s="46" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
@@ -34380,10 +34372,10 @@
         <v>12</v>
       </c>
       <c r="B130" s="40" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C130" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D130" s="3">
         <v>10</v>
@@ -34397,13 +34389,13 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B131" s="40" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C131" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -34412,18 +34404,18 @@
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
       <c r="J131" s="46" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B132" s="40" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C132" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -34435,13 +34427,13 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B133" s="40" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C133" s="37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -34453,13 +34445,13 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B134" s="40" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C134" s="37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -34473,13 +34465,13 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B135" s="40" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C135" s="37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -34491,13 +34483,13 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="8" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B136" s="40" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C136" s="37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D136" s="3"/>
       <c r="E136" s="3">
@@ -34508,18 +34500,18 @@
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
       <c r="J136" s="46" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B137" s="40" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C137" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D137" s="3">
         <v>255</v>
@@ -34536,10 +34528,10 @@
         <v>1</v>
       </c>
       <c r="B138" s="40" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C138" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D138" s="3">
         <v>191</v>
@@ -34556,10 +34548,10 @@
         <v>9</v>
       </c>
       <c r="B139" s="40" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C139" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D139" s="3">
         <v>191</v>
@@ -34573,13 +34565,13 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" s="55" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B140" s="40" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C140" s="37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D140" s="3"/>
       <c r="E140" s="3" t="b">
@@ -34590,7 +34582,7 @@
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
       <c r="J140" s="46" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
@@ -34613,10 +34605,10 @@
     </row>
     <row r="144" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B144" s="39" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C144" s="36"/>
       <c r="D144" s="1"/>
@@ -34629,22 +34621,22 @@
     </row>
     <row r="145" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B145" s="150"/>
       <c r="C145" s="149" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D145" s="143">
         <v>10</v>
       </c>
       <c r="E145" s="143"/>
       <c r="F145" s="142" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G145" s="143"/>
       <c r="H145" s="143" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I145" s="143"/>
       <c r="J145" s="153"/>
@@ -34653,50 +34645,50 @@
     </row>
     <row r="146" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" s="184" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B146" s="40" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C146" s="37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D146" s="3">
         <v>10</v>
       </c>
       <c r="E146" s="3"/>
       <c r="F146" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G146" s="3"/>
       <c r="H146" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I146" s="3"/>
       <c r="J146" s="46" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="147" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" s="191" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B147" s="40" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C147" s="37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D147" s="3">
         <v>10</v>
       </c>
       <c r="E147" s="3"/>
       <c r="F147" s="142" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G147" s="3"/>
       <c r="H147" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I147" s="3"/>
       <c r="J147" s="46"/>
@@ -34706,10 +34698,10 @@
         <v>8</v>
       </c>
       <c r="B148" s="186" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C148" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D148" s="3">
         <v>191</v>
@@ -34718,22 +34710,22 @@
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
       <c r="H148" s="143" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I148" s="3"/>
       <c r="J148" s="46" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B149" s="186" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C149" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D149" s="3">
         <v>255</v>
@@ -34747,13 +34739,13 @@
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B150" s="40" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C150" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D150" s="3">
         <v>10</v>
@@ -34764,18 +34756,18 @@
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
       <c r="J150" s="46" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B151" s="40" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C151" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D151" s="3">
         <v>10</v>
@@ -34786,18 +34778,18 @@
       <c r="H151" s="3"/>
       <c r="I151" s="3"/>
       <c r="J151" s="153" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B152" s="40" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C152" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D152" s="3">
         <v>255</v>
@@ -34811,13 +34803,13 @@
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B153" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="B153" s="40" t="s">
-        <v>215</v>
-      </c>
       <c r="C153" s="37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -34849,10 +34841,10 @@
     </row>
     <row r="157" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B157" s="39" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C157" s="36"/>
       <c r="D157" s="1"/>
@@ -34865,22 +34857,22 @@
     </row>
     <row r="158" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A158" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B158" s="150"/>
       <c r="C158" s="149" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D158" s="143">
         <v>10</v>
       </c>
       <c r="E158" s="143"/>
       <c r="F158" s="142" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G158" s="143"/>
       <c r="H158" s="143" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I158" s="143"/>
       <c r="J158" s="153"/>
@@ -34892,28 +34884,28 @@
     </row>
     <row r="159" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A159" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B159" s="40" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C159" s="37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D159" s="3">
         <v>10</v>
       </c>
       <c r="E159" s="3"/>
       <c r="F159" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G159" s="3"/>
       <c r="H159" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I159" s="3"/>
       <c r="J159" s="46" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K159" s="51"/>
       <c r="L159" s="51"/>
@@ -34926,10 +34918,10 @@
         <v>3</v>
       </c>
       <c r="B160" s="40" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C160" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D160" s="3">
         <v>191</v>
@@ -34938,11 +34930,11 @@
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
       <c r="H160" s="143" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I160" s="3"/>
       <c r="J160" s="46" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K160" s="51"/>
       <c r="L160" s="51"/>
@@ -34952,24 +34944,24 @@
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B161" s="40" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C161" s="37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D161" s="3">
         <v>10</v>
       </c>
       <c r="E161" s="3"/>
       <c r="F161" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G161" s="3"/>
       <c r="H161" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I161" s="3"/>
       <c r="J161" s="46"/>
@@ -34981,13 +34973,13 @@
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B162" s="150" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C162" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D162" s="3">
         <v>10</v>
@@ -34998,7 +34990,7 @@
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
       <c r="J162" s="153" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="K162" s="51"/>
       <c r="L162" s="51"/>
@@ -35008,13 +35000,13 @@
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B163" s="150" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C163" s="149" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D163" s="143">
         <v>10</v>
@@ -35025,7 +35017,7 @@
       <c r="H163" s="3"/>
       <c r="I163" s="3"/>
       <c r="J163" s="153" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="K163" s="51"/>
       <c r="L163" s="51"/>
@@ -35038,26 +35030,18 @@
         <v>19</v>
       </c>
       <c r="B164" s="40" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C164" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="D164" s="3">
-        <v>10</v>
-      </c>
-      <c r="E164" s="3">
-        <v>0</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>88</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="D164" s="3"/>
+      <c r="E164" s="3"/>
+      <c r="F164" s="3"/>
       <c r="G164" s="3"/>
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
-      <c r="J164" s="46" t="s">
-        <v>100</v>
-      </c>
+      <c r="J164" s="46"/>
       <c r="K164" s="51"/>
       <c r="L164" s="51"/>
       <c r="M164" s="51"/>
@@ -35065,14 +35049,12 @@
       <c r="O164" s="51"/>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A165" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="A165" s="9"/>
       <c r="B165" s="40" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C165" s="37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -35088,112 +35070,109 @@
       <c r="O165" s="51"/>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A166" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B166" s="40" t="s">
-        <v>165</v>
-      </c>
-      <c r="C166" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="D166" s="3"/>
-      <c r="E166" s="3"/>
-      <c r="F166" s="3"/>
-      <c r="G166" s="3"/>
-      <c r="H166" s="3"/>
-      <c r="I166" s="3"/>
-      <c r="J166" s="46"/>
-      <c r="K166" s="51"/>
-      <c r="L166" s="51"/>
-      <c r="M166" s="51"/>
-      <c r="N166" s="51"/>
-      <c r="O166" s="51"/>
+      <c r="B166" s="42"/>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B167" s="42"/>
+      <c r="A167" s="10"/>
+      <c r="B167" s="43"/>
+      <c r="C167" s="10"/>
+      <c r="D167" s="10"/>
+      <c r="E167" s="10"/>
+      <c r="F167" s="10"/>
+      <c r="G167" s="10"/>
+      <c r="H167" s="10"/>
+      <c r="I167" s="10"/>
+      <c r="J167" s="50"/>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A168" s="10"/>
-      <c r="B168" s="43"/>
-      <c r="C168" s="10"/>
-      <c r="D168" s="10"/>
-      <c r="E168" s="10"/>
-      <c r="F168" s="10"/>
-      <c r="G168" s="10"/>
-      <c r="H168" s="10"/>
-      <c r="I168" s="10"/>
-      <c r="J168" s="50"/>
+      <c r="B168" s="42"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B169" s="42"/>
+    <row r="169" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A169" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B169" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="C169" s="36"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1"/>
+      <c r="G169" s="1"/>
+      <c r="H169" s="1"/>
+      <c r="I169" s="1"/>
+      <c r="J169" s="47"/>
     </row>
     <row r="170" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A170" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B170" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="C170" s="36"/>
-      <c r="D170" s="1"/>
-      <c r="E170" s="1"/>
-      <c r="F170" s="1"/>
-      <c r="G170" s="1"/>
-      <c r="H170" s="1"/>
-      <c r="I170" s="1"/>
-      <c r="J170" s="47"/>
+      <c r="A170" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B170" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="C170" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D170" s="3">
+        <v>10</v>
+      </c>
+      <c r="E170" s="3"/>
+      <c r="F170" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G170" s="3"/>
+      <c r="H170" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I170" s="3"/>
+      <c r="J170" s="46" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="171" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A171" s="17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B171" s="40" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C171" s="37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D171" s="3">
         <v>10</v>
       </c>
       <c r="E171" s="3"/>
       <c r="F171" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G171" s="3"/>
       <c r="H171" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I171" s="3"/>
       <c r="J171" s="46" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="172" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A172" s="17" t="s">
-        <v>78</v>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A172" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="B172" s="40" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C172" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="D172" s="3">
-        <v>10</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D172" s="3"/>
       <c r="E172" s="3"/>
-      <c r="F172" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="F172" s="3"/>
       <c r="G172" s="3"/>
-      <c r="H172" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="H172" s="3"/>
       <c r="I172" s="3"/>
       <c r="J172" s="46" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.2">
@@ -35201,10 +35180,10 @@
         <v>42</v>
       </c>
       <c r="B173" s="40" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C173" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -35213,18 +35192,18 @@
       <c r="H173" s="3"/>
       <c r="I173" s="3"/>
       <c r="J173" s="46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15" s="144" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B174" s="40" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C174" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -35233,18 +35212,18 @@
       <c r="H174" s="3"/>
       <c r="I174" s="3"/>
       <c r="J174" s="46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="175" spans="1:15" s="144" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="8" t="s">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A175" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B175" s="40" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C175" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -35253,499 +35232,479 @@
       <c r="H175" s="3"/>
       <c r="I175" s="3"/>
       <c r="J175" s="46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A176" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B176" s="40" t="s">
-        <v>171</v>
-      </c>
-      <c r="C176" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="D176" s="3"/>
-      <c r="E176" s="3"/>
-      <c r="F176" s="3"/>
-      <c r="G176" s="3"/>
-      <c r="H176" s="3"/>
-      <c r="I176" s="3"/>
-      <c r="J176" s="46" t="s">
-        <v>66</v>
-      </c>
+      <c r="B176" s="42"/>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B177" s="42"/>
+      <c r="A177" s="10"/>
+      <c r="B177" s="43"/>
+      <c r="C177" s="10"/>
+      <c r="D177" s="10"/>
+      <c r="E177" s="10"/>
+      <c r="F177" s="10"/>
+      <c r="G177" s="10"/>
+      <c r="H177" s="10"/>
+      <c r="I177" s="10"/>
+      <c r="J177" s="50"/>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A178" s="10"/>
-      <c r="B178" s="43"/>
-      <c r="C178" s="10"/>
-      <c r="D178" s="10"/>
-      <c r="E178" s="10"/>
-      <c r="F178" s="10"/>
-      <c r="G178" s="10"/>
-      <c r="H178" s="10"/>
-      <c r="I178" s="10"/>
-      <c r="J178" s="50"/>
+      <c r="B178" s="42"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B179" s="42"/>
+    <row r="179" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A179" s="146" t="s">
+        <v>264</v>
+      </c>
+      <c r="B179" s="150"/>
+      <c r="C179" s="148"/>
+      <c r="D179" s="142"/>
+      <c r="E179" s="142"/>
+      <c r="F179" s="142"/>
+      <c r="G179" s="142"/>
+      <c r="H179" s="142"/>
+      <c r="I179" s="142"/>
+      <c r="J179" s="154"/>
     </row>
     <row r="180" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A180" s="146" t="s">
-        <v>267</v>
+      <c r="A180" s="147" t="s">
+        <v>81</v>
       </c>
       <c r="B180" s="150"/>
-      <c r="C180" s="148"/>
-      <c r="D180" s="142"/>
-      <c r="E180" s="142"/>
-      <c r="F180" s="142"/>
-      <c r="G180" s="142"/>
-      <c r="H180" s="142"/>
-      <c r="I180" s="142"/>
-      <c r="J180" s="154"/>
+      <c r="C180" s="149" t="s">
+        <v>66</v>
+      </c>
+      <c r="D180" s="143">
+        <v>10</v>
+      </c>
+      <c r="E180" s="143"/>
+      <c r="F180" s="142" t="s">
+        <v>86</v>
+      </c>
+      <c r="G180" s="143"/>
+      <c r="H180" s="143" t="s">
+        <v>90</v>
+      </c>
+      <c r="I180" s="143"/>
+      <c r="J180" s="153" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="181" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A181" s="147" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B181" s="150"/>
       <c r="C181" s="149" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D181" s="143">
         <v>10</v>
       </c>
       <c r="E181" s="143"/>
       <c r="F181" s="142" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G181" s="143"/>
       <c r="H181" s="143" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I181" s="143"/>
       <c r="J181" s="153" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="182" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A182" s="147" t="s">
-        <v>78</v>
-      </c>
-      <c r="B182" s="150"/>
-      <c r="C182" s="149" t="s">
-        <v>68</v>
-      </c>
-      <c r="D182" s="143">
-        <v>10</v>
-      </c>
-      <c r="E182" s="143"/>
-      <c r="F182" s="142" t="s">
-        <v>88</v>
-      </c>
-      <c r="G182" s="143"/>
-      <c r="H182" s="143" t="s">
-        <v>92</v>
-      </c>
-      <c r="I182" s="143"/>
-      <c r="J182" s="153" t="s">
-        <v>79</v>
-      </c>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A182" s="144"/>
+      <c r="B182" s="151"/>
+      <c r="C182" s="144"/>
+      <c r="D182" s="144"/>
+      <c r="E182" s="144"/>
+      <c r="F182" s="144"/>
+      <c r="G182" s="144"/>
+      <c r="H182" s="144"/>
+      <c r="I182" s="144"/>
+      <c r="J182" s="155"/>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A183" s="144"/>
-      <c r="B183" s="151"/>
-      <c r="C183" s="144"/>
-      <c r="D183" s="144"/>
-      <c r="E183" s="144"/>
-      <c r="F183" s="144"/>
-      <c r="G183" s="144"/>
-      <c r="H183" s="144"/>
-      <c r="I183" s="144"/>
-      <c r="J183" s="155"/>
+      <c r="A183" s="145"/>
+      <c r="B183" s="152"/>
+      <c r="C183" s="145"/>
+      <c r="D183" s="145"/>
+      <c r="E183" s="145"/>
+      <c r="F183" s="145"/>
+      <c r="G183" s="145"/>
+      <c r="H183" s="145"/>
+      <c r="I183" s="145"/>
+      <c r="J183" s="156"/>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A184" s="145"/>
-      <c r="B184" s="152"/>
-      <c r="C184" s="145"/>
-      <c r="D184" s="145"/>
-      <c r="E184" s="145"/>
-      <c r="F184" s="145"/>
-      <c r="G184" s="145"/>
-      <c r="H184" s="145"/>
-      <c r="I184" s="145"/>
-      <c r="J184" s="156"/>
+      <c r="A184" s="2"/>
+      <c r="B184" s="109"/>
+      <c r="C184" s="2"/>
+      <c r="D184" s="2"/>
+      <c r="E184" s="2"/>
+      <c r="F184" s="2"/>
+      <c r="G184" s="2"/>
+      <c r="H184" s="2"/>
+      <c r="I184" s="2"/>
+      <c r="J184" s="51"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A185" s="2"/>
-      <c r="B185" s="109"/>
-      <c r="C185" s="2"/>
-      <c r="D185" s="2"/>
-      <c r="E185" s="2"/>
-      <c r="F185" s="2"/>
-      <c r="G185" s="2"/>
-      <c r="H185" s="2"/>
-      <c r="I185" s="2"/>
-      <c r="J185" s="51"/>
+    <row r="185" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A185" s="146" t="s">
+        <v>251</v>
+      </c>
+      <c r="B185" s="150"/>
+      <c r="C185" s="148"/>
+      <c r="D185" s="142"/>
+      <c r="E185" s="142"/>
+      <c r="F185" s="142"/>
+      <c r="G185" s="142"/>
+      <c r="H185" s="142"/>
+      <c r="I185" s="142"/>
+      <c r="J185" s="154"/>
     </row>
     <row r="186" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A186" s="146" t="s">
-        <v>254</v>
+      <c r="A186" s="147" t="s">
+        <v>81</v>
       </c>
       <c r="B186" s="150"/>
-      <c r="C186" s="148"/>
-      <c r="D186" s="142"/>
-      <c r="E186" s="142"/>
-      <c r="F186" s="142"/>
-      <c r="G186" s="142"/>
-      <c r="H186" s="142"/>
-      <c r="I186" s="142"/>
-      <c r="J186" s="154"/>
+      <c r="C186" s="149" t="s">
+        <v>66</v>
+      </c>
+      <c r="D186" s="143">
+        <v>10</v>
+      </c>
+      <c r="E186" s="143"/>
+      <c r="F186" s="142" t="s">
+        <v>86</v>
+      </c>
+      <c r="G186" s="143"/>
+      <c r="H186" s="143" t="s">
+        <v>90</v>
+      </c>
+      <c r="I186" s="143"/>
+      <c r="J186" s="153" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="187" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A187" s="147" t="s">
-        <v>83</v>
+        <v>171</v>
       </c>
       <c r="B187" s="150"/>
       <c r="C187" s="149" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D187" s="143">
         <v>10</v>
       </c>
       <c r="E187" s="143"/>
       <c r="F187" s="142" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G187" s="143"/>
       <c r="H187" s="143" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I187" s="143"/>
       <c r="J187" s="153" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="188" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A188" s="147" t="s">
-        <v>174</v>
-      </c>
-      <c r="B188" s="150"/>
-      <c r="C188" s="149" t="s">
-        <v>68</v>
-      </c>
-      <c r="D188" s="143">
-        <v>10</v>
-      </c>
-      <c r="E188" s="143"/>
-      <c r="F188" s="142" t="s">
-        <v>88</v>
-      </c>
-      <c r="G188" s="143"/>
-      <c r="H188" s="143" t="s">
-        <v>92</v>
-      </c>
-      <c r="I188" s="143"/>
-      <c r="J188" s="153" t="s">
-        <v>79</v>
-      </c>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A188" s="144"/>
+      <c r="B188" s="151"/>
+      <c r="C188" s="144"/>
+      <c r="D188" s="144"/>
+      <c r="E188" s="144"/>
+      <c r="F188" s="144"/>
+      <c r="G188" s="144"/>
+      <c r="H188" s="144"/>
+      <c r="I188" s="144"/>
+      <c r="J188" s="155"/>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A189" s="144"/>
-      <c r="B189" s="151"/>
-      <c r="C189" s="144"/>
-      <c r="D189" s="144"/>
-      <c r="E189" s="144"/>
-      <c r="F189" s="144"/>
-      <c r="G189" s="144"/>
-      <c r="H189" s="144"/>
-      <c r="I189" s="144"/>
-      <c r="J189" s="155"/>
+      <c r="A189" s="145"/>
+      <c r="B189" s="152"/>
+      <c r="C189" s="145"/>
+      <c r="D189" s="145"/>
+      <c r="E189" s="145"/>
+      <c r="F189" s="145"/>
+      <c r="G189" s="145"/>
+      <c r="H189" s="145"/>
+      <c r="I189" s="145"/>
+      <c r="J189" s="156"/>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A190" s="145"/>
-      <c r="B190" s="152"/>
-      <c r="C190" s="145"/>
-      <c r="D190" s="145"/>
-      <c r="E190" s="145"/>
-      <c r="F190" s="145"/>
-      <c r="G190" s="145"/>
-      <c r="H190" s="145"/>
-      <c r="I190" s="145"/>
-      <c r="J190" s="156"/>
+      <c r="A190" s="141"/>
+      <c r="B190" s="141"/>
+      <c r="C190" s="141"/>
+      <c r="D190" s="141"/>
+      <c r="E190" s="141"/>
+      <c r="F190" s="141"/>
+      <c r="G190" s="141"/>
+      <c r="H190" s="141"/>
+      <c r="I190" s="141"/>
+      <c r="J190" s="141"/>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A191" s="141"/>
-      <c r="B191" s="141"/>
-      <c r="C191" s="141"/>
-      <c r="D191" s="141"/>
-      <c r="E191" s="141"/>
-      <c r="F191" s="141"/>
-      <c r="G191" s="141"/>
-      <c r="H191" s="141"/>
-      <c r="I191" s="141"/>
-      <c r="J191" s="141"/>
+    <row r="191" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A191" s="146" t="s">
+        <v>253</v>
+      </c>
+      <c r="B191" s="150"/>
+      <c r="C191" s="148"/>
+      <c r="D191" s="142"/>
+      <c r="E191" s="142"/>
+      <c r="F191" s="142"/>
+      <c r="G191" s="142"/>
+      <c r="H191" s="142"/>
+      <c r="I191" s="142"/>
+      <c r="J191" s="154"/>
     </row>
     <row r="192" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A192" s="146" t="s">
-        <v>256</v>
+      <c r="A192" s="147" t="s">
+        <v>68</v>
       </c>
       <c r="B192" s="150"/>
-      <c r="C192" s="148"/>
-      <c r="D192" s="142"/>
-      <c r="E192" s="142"/>
-      <c r="F192" s="142"/>
-      <c r="G192" s="142"/>
-      <c r="H192" s="142"/>
-      <c r="I192" s="142"/>
-      <c r="J192" s="154"/>
+      <c r="C192" s="149" t="s">
+        <v>66</v>
+      </c>
+      <c r="D192" s="143">
+        <v>10</v>
+      </c>
+      <c r="E192" s="143"/>
+      <c r="F192" s="142" t="s">
+        <v>86</v>
+      </c>
+      <c r="G192" s="143"/>
+      <c r="H192" s="143" t="s">
+        <v>90</v>
+      </c>
+      <c r="I192" s="143"/>
+      <c r="J192" s="153" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="193" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A193" s="147" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B193" s="150"/>
       <c r="C193" s="149" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D193" s="143">
         <v>10</v>
       </c>
       <c r="E193" s="143"/>
       <c r="F193" s="142" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G193" s="143"/>
       <c r="H193" s="143" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I193" s="143"/>
       <c r="J193" s="153" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="194" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A194" s="147" t="s">
-        <v>83</v>
-      </c>
-      <c r="B194" s="150"/>
-      <c r="C194" s="149" t="s">
-        <v>68</v>
-      </c>
-      <c r="D194" s="143">
-        <v>10</v>
-      </c>
-      <c r="E194" s="143"/>
-      <c r="F194" s="142" t="s">
-        <v>88</v>
-      </c>
-      <c r="G194" s="143"/>
-      <c r="H194" s="143" t="s">
-        <v>92</v>
-      </c>
-      <c r="I194" s="143"/>
-      <c r="J194" s="153" t="s">
-        <v>79</v>
-      </c>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A194" s="144"/>
+      <c r="B194" s="151"/>
+      <c r="C194" s="144"/>
+      <c r="D194" s="144"/>
+      <c r="E194" s="144"/>
+      <c r="F194" s="144"/>
+      <c r="G194" s="144"/>
+      <c r="H194" s="144"/>
+      <c r="I194" s="144"/>
+      <c r="J194" s="155"/>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A195" s="144"/>
-      <c r="B195" s="151"/>
-      <c r="C195" s="144"/>
-      <c r="D195" s="144"/>
-      <c r="E195" s="144"/>
-      <c r="F195" s="144"/>
-      <c r="G195" s="144"/>
-      <c r="H195" s="144"/>
-      <c r="I195" s="144"/>
-      <c r="J195" s="155"/>
+      <c r="A195" s="145"/>
+      <c r="B195" s="152"/>
+      <c r="C195" s="145"/>
+      <c r="D195" s="145"/>
+      <c r="E195" s="145"/>
+      <c r="F195" s="145"/>
+      <c r="G195" s="145"/>
+      <c r="H195" s="145"/>
+      <c r="I195" s="145"/>
+      <c r="J195" s="156"/>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A196" s="145"/>
-      <c r="B196" s="152"/>
-      <c r="C196" s="145"/>
-      <c r="D196" s="145"/>
-      <c r="E196" s="145"/>
-      <c r="F196" s="145"/>
-      <c r="G196" s="145"/>
-      <c r="H196" s="145"/>
-      <c r="I196" s="145"/>
-      <c r="J196" s="156"/>
+      <c r="A196" s="141"/>
+      <c r="B196" s="141"/>
+      <c r="C196" s="141"/>
+      <c r="D196" s="141"/>
+      <c r="E196" s="141"/>
+      <c r="F196" s="141"/>
+      <c r="G196" s="141"/>
+      <c r="H196" s="141"/>
+      <c r="I196" s="141"/>
+      <c r="J196" s="141"/>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A197" s="141"/>
-      <c r="B197" s="141"/>
-      <c r="C197" s="141"/>
-      <c r="D197" s="141"/>
-      <c r="E197" s="141"/>
-      <c r="F197" s="141"/>
-      <c r="G197" s="141"/>
-      <c r="H197" s="141"/>
-      <c r="I197" s="141"/>
-      <c r="J197" s="141"/>
+    <row r="197" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A197" s="146" t="s">
+        <v>254</v>
+      </c>
+      <c r="B197" s="150"/>
+      <c r="C197" s="148"/>
+      <c r="D197" s="142"/>
+      <c r="E197" s="142"/>
+      <c r="F197" s="142"/>
+      <c r="G197" s="142"/>
+      <c r="H197" s="142"/>
+      <c r="I197" s="142"/>
+      <c r="J197" s="154"/>
     </row>
     <row r="198" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A198" s="146" t="s">
-        <v>257</v>
+      <c r="A198" s="147" t="s">
+        <v>81</v>
       </c>
       <c r="B198" s="150"/>
-      <c r="C198" s="148"/>
-      <c r="D198" s="142"/>
-      <c r="E198" s="142"/>
-      <c r="F198" s="142"/>
-      <c r="G198" s="142"/>
-      <c r="H198" s="142"/>
-      <c r="I198" s="142"/>
-      <c r="J198" s="154"/>
+      <c r="C198" s="149" t="s">
+        <v>66</v>
+      </c>
+      <c r="D198" s="143">
+        <v>10</v>
+      </c>
+      <c r="E198" s="143"/>
+      <c r="F198" s="142" t="s">
+        <v>86</v>
+      </c>
+      <c r="G198" s="143"/>
+      <c r="H198" s="143" t="s">
+        <v>90</v>
+      </c>
+      <c r="I198" s="143"/>
+      <c r="J198" s="153" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="199" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A199" s="147" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B199" s="150"/>
       <c r="C199" s="149" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D199" s="143">
         <v>10</v>
       </c>
       <c r="E199" s="143"/>
       <c r="F199" s="142" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G199" s="143"/>
       <c r="H199" s="143" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I199" s="143"/>
       <c r="J199" s="153" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="200" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A200" s="147" t="s">
-        <v>80</v>
-      </c>
-      <c r="B200" s="150"/>
-      <c r="C200" s="149" t="s">
-        <v>68</v>
-      </c>
-      <c r="D200" s="143">
-        <v>10</v>
-      </c>
-      <c r="E200" s="143"/>
-      <c r="F200" s="142" t="s">
-        <v>88</v>
-      </c>
-      <c r="G200" s="143"/>
-      <c r="H200" s="143" t="s">
-        <v>92</v>
-      </c>
-      <c r="I200" s="143"/>
-      <c r="J200" s="153" t="s">
-        <v>79</v>
-      </c>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A200" s="144"/>
+      <c r="B200" s="151"/>
+      <c r="C200" s="144"/>
+      <c r="D200" s="144"/>
+      <c r="E200" s="144"/>
+      <c r="F200" s="144"/>
+      <c r="G200" s="144"/>
+      <c r="H200" s="144"/>
+      <c r="I200" s="144"/>
+      <c r="J200" s="155"/>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A201" s="144"/>
-      <c r="B201" s="151"/>
-      <c r="C201" s="144"/>
-      <c r="D201" s="144"/>
-      <c r="E201" s="144"/>
-      <c r="F201" s="144"/>
-      <c r="G201" s="144"/>
-      <c r="H201" s="144"/>
-      <c r="I201" s="144"/>
-      <c r="J201" s="155"/>
+      <c r="A201" s="145"/>
+      <c r="B201" s="152"/>
+      <c r="C201" s="145"/>
+      <c r="D201" s="145"/>
+      <c r="E201" s="145"/>
+      <c r="F201" s="145"/>
+      <c r="G201" s="145"/>
+      <c r="H201" s="145"/>
+      <c r="I201" s="145"/>
+      <c r="J201" s="156"/>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A202" s="145"/>
-      <c r="B202" s="152"/>
-      <c r="C202" s="145"/>
-      <c r="D202" s="145"/>
-      <c r="E202" s="145"/>
-      <c r="F202" s="145"/>
-      <c r="G202" s="145"/>
-      <c r="H202" s="145"/>
-      <c r="I202" s="145"/>
-      <c r="J202" s="156"/>
+      <c r="A202" s="141"/>
+      <c r="B202" s="141"/>
+      <c r="C202" s="141"/>
+      <c r="D202" s="141"/>
+      <c r="E202" s="141"/>
+      <c r="F202" s="141"/>
+      <c r="G202" s="141"/>
+      <c r="H202" s="141"/>
+      <c r="I202" s="141"/>
+      <c r="J202" s="141"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A203" s="141"/>
-      <c r="B203" s="141"/>
-      <c r="C203" s="141"/>
-      <c r="D203" s="141"/>
-      <c r="E203" s="141"/>
-      <c r="F203" s="141"/>
-      <c r="G203" s="141"/>
-      <c r="H203" s="141"/>
-      <c r="I203" s="141"/>
-      <c r="J203" s="141"/>
+    <row r="203" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A203" s="146" t="s">
+        <v>255</v>
+      </c>
+      <c r="B203" s="150"/>
+      <c r="C203" s="148"/>
+      <c r="D203" s="142"/>
+      <c r="E203" s="142"/>
+      <c r="F203" s="142"/>
+      <c r="G203" s="142"/>
+      <c r="H203" s="142"/>
+      <c r="I203" s="142"/>
+      <c r="J203" s="154"/>
     </row>
     <row r="204" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A204" s="146" t="s">
-        <v>258</v>
+      <c r="A204" s="147" t="s">
+        <v>76</v>
       </c>
       <c r="B204" s="150"/>
-      <c r="C204" s="148"/>
-      <c r="D204" s="142"/>
-      <c r="E204" s="142"/>
-      <c r="F204" s="142"/>
-      <c r="G204" s="142"/>
-      <c r="H204" s="142"/>
-      <c r="I204" s="142"/>
-      <c r="J204" s="154"/>
+      <c r="C204" s="149" t="s">
+        <v>66</v>
+      </c>
+      <c r="D204" s="143">
+        <v>10</v>
+      </c>
+      <c r="E204" s="143"/>
+      <c r="F204" s="142" t="s">
+        <v>86</v>
+      </c>
+      <c r="G204" s="143"/>
+      <c r="H204" s="143" t="s">
+        <v>90</v>
+      </c>
+      <c r="I204" s="143"/>
+      <c r="J204" s="153" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="205" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A205" s="147" t="s">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="B205" s="150"/>
       <c r="C205" s="149" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D205" s="143">
         <v>10</v>
       </c>
       <c r="E205" s="143"/>
       <c r="F205" s="142" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G205" s="143"/>
       <c r="H205" s="143" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I205" s="143"/>
       <c r="J205" s="153" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A206" s="147" t="s">
-        <v>174</v>
-      </c>
-      <c r="B206" s="150"/>
-      <c r="C206" s="149" t="s">
-        <v>68</v>
-      </c>
-      <c r="D206" s="143">
-        <v>10</v>
-      </c>
-      <c r="E206" s="143"/>
-      <c r="F206" s="142" t="s">
-        <v>88</v>
-      </c>
-      <c r="G206" s="143"/>
-      <c r="H206" s="143" t="s">
-        <v>92</v>
-      </c>
-      <c r="I206" s="143"/>
-      <c r="J206" s="153" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -38448,13 +38407,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>172</xdr:row>
+                    <xdr:row>171</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>173</xdr:row>
+                    <xdr:row>172</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38470,13 +38429,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>172</xdr:row>
+                    <xdr:row>171</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>173</xdr:row>
+                    <xdr:row>172</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38492,13 +38451,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>173</xdr:row>
+                    <xdr:row>172</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>174</xdr:row>
+                    <xdr:row>173</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38514,13 +38473,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>173</xdr:row>
+                    <xdr:row>172</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>174</xdr:row>
+                    <xdr:row>173</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38536,13 +38495,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>174</xdr:row>
+                    <xdr:row>173</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>175</xdr:row>
+                    <xdr:row>174</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38558,13 +38517,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>174</xdr:row>
+                    <xdr:row>173</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>175</xdr:row>
+                    <xdr:row>174</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38580,13 +38539,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>175</xdr:row>
+                    <xdr:row>174</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>176</xdr:row>
+                    <xdr:row>175</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38602,13 +38561,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>175</xdr:row>
+                    <xdr:row>174</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>176</xdr:row>
+                    <xdr:row>175</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38800,13 +38759,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>164</xdr:row>
+                    <xdr:row>163</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>165</xdr:row>
+                    <xdr:row>164</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38822,13 +38781,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>164</xdr:row>
+                    <xdr:row>163</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>165</xdr:row>
+                    <xdr:row>164</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38844,13 +38803,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>165</xdr:row>
+                    <xdr:row>164</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>166</xdr:row>
+                    <xdr:row>165</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38866,13 +38825,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>165</xdr:row>
+                    <xdr:row>164</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>166</xdr:row>
+                    <xdr:row>165</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -39020,13 +38979,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>170</xdr:row>
+                    <xdr:row>169</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>171</xdr:row>
+                    <xdr:row>170</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -39042,13 +39001,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>170</xdr:row>
+                    <xdr:row>169</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>171</xdr:row>
+                    <xdr:row>170</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -39196,13 +39155,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>171</xdr:row>
+                    <xdr:row>170</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>172</xdr:row>
+                    <xdr:row>171</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -39218,13 +39177,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>171</xdr:row>
+                    <xdr:row>170</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>172</xdr:row>
+                    <xdr:row>171</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40758,13 +40717,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>186</xdr:row>
+                    <xdr:row>185</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>187</xdr:row>
+                    <xdr:row>186</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40780,13 +40739,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>186</xdr:row>
+                    <xdr:row>185</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>187</xdr:row>
+                    <xdr:row>186</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40802,13 +40761,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>187</xdr:row>
+                    <xdr:row>186</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>188</xdr:row>
+                    <xdr:row>187</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40824,13 +40783,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>187</xdr:row>
+                    <xdr:row>186</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>188</xdr:row>
+                    <xdr:row>187</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40846,13 +40805,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>192</xdr:row>
+                    <xdr:row>191</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>193</xdr:row>
+                    <xdr:row>192</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40868,13 +40827,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>192</xdr:row>
+                    <xdr:row>191</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>193</xdr:row>
+                    <xdr:row>192</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40890,13 +40849,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>193</xdr:row>
+                    <xdr:row>192</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>194</xdr:row>
+                    <xdr:row>193</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40912,13 +40871,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>193</xdr:row>
+                    <xdr:row>192</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>194</xdr:row>
+                    <xdr:row>193</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40934,13 +40893,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>198</xdr:row>
+                    <xdr:row>197</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>199</xdr:row>
+                    <xdr:row>198</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40956,13 +40915,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>198</xdr:row>
+                    <xdr:row>197</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>199</xdr:row>
+                    <xdr:row>198</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40978,13 +40937,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>199</xdr:row>
+                    <xdr:row>198</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>200</xdr:row>
+                    <xdr:row>199</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -41000,13 +40959,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>199</xdr:row>
+                    <xdr:row>198</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>200</xdr:row>
+                    <xdr:row>199</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -41022,13 +40981,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>204</xdr:row>
+                    <xdr:row>203</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>205</xdr:row>
+                    <xdr:row>204</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -41044,13 +41003,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>204</xdr:row>
+                    <xdr:row>203</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>205</xdr:row>
+                    <xdr:row>204</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -41066,13 +41025,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>205</xdr:row>
+                    <xdr:row>204</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>206</xdr:row>
+                    <xdr:row>205</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -41088,13 +41047,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>205</xdr:row>
+                    <xdr:row>204</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>206</xdr:row>
+                    <xdr:row>205</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -41110,13 +41069,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>180</xdr:row>
+                    <xdr:row>179</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>181</xdr:row>
+                    <xdr:row>180</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -41132,13 +41091,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>180</xdr:row>
+                    <xdr:row>179</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>181</xdr:row>
+                    <xdr:row>180</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -41154,13 +41113,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>181</xdr:row>
+                    <xdr:row>180</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>182</xdr:row>
+                    <xdr:row>181</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -41176,13 +41135,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>181</xdr:row>
+                    <xdr:row>180</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>182</xdr:row>
+                    <xdr:row>181</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -41546,19 +41505,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="170" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B1" s="171" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C1" s="171" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D1" s="171" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E1" s="172" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -41566,12 +41525,12 @@
         <v>0</v>
       </c>
       <c r="B2" s="176" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C2" s="176"/>
       <c r="D2" s="176"/>
       <c r="E2" s="177" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -41579,190 +41538,190 @@
         <v>14</v>
       </c>
       <c r="B3" s="176" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C3" s="176"/>
       <c r="D3" s="176"/>
       <c r="E3" s="177" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="173" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4" s="176" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C4" s="176" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D4" s="176" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E4" s="177" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="173" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" s="176" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C5" s="176" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D5" s="176" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E5" s="177" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="173" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B6" s="176" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C6" s="176" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D6" s="176" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E6" s="177" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="173" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B7" s="176" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C7" s="176" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D7" s="176" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E7" s="177" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="173" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" s="176" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C8" s="176" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D8" s="176" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E8" s="177" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="173" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B9" s="176" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C9" s="176" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D9" s="176" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E9" s="177" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="173" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B10" s="176" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C10" s="176" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D10" s="176" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E10" s="177" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="175" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="176" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C11" s="176"/>
       <c r="D11" s="176"/>
       <c r="E11" s="177" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="173" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="176" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C12" s="176"/>
       <c r="D12" s="176" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E12" s="177" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="173" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B13" s="176" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C13" s="176"/>
       <c r="D13" s="176"/>
       <c r="E13" s="177" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="173" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B14" s="176" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C14" s="176"/>
       <c r="D14" s="176"/>
       <c r="E14" s="177" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="173" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B15" s="176"/>
       <c r="C15" s="176"/>
@@ -41771,7 +41730,7 @@
     </row>
     <row r="16" spans="1:5" s="141" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="178" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B16" s="179"/>
       <c r="C16" s="179"/>
@@ -41780,7 +41739,7 @@
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="173" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B17" s="176"/>
       <c r="C17" s="176"/>
@@ -41789,7 +41748,7 @@
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="173" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B18" s="176"/>
       <c r="C18" s="176"/>
@@ -41798,7 +41757,7 @@
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="173" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B19" s="176"/>
       <c r="C19" s="176"/>
@@ -41807,7 +41766,7 @@
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="173" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B20" s="176"/>
       <c r="C20" s="176"/>
@@ -41846,19 +41805,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="62" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C1" s="62" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D1" s="62" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E1" s="62" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1" s="62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G1" s="62"/>
       <c r="H1" s="62"/>
@@ -41869,19 +41828,19 @@
     <row r="2" spans="1:11" s="141" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="181"/>
       <c r="B2" s="62" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C2" s="62" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2" s="62" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E2" s="62" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F2" s="62" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G2" s="62"/>
       <c r="H2" s="62"/>
@@ -41908,19 +41867,19 @@
     <row r="5" spans="1:11" s="141" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="181" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B6" s="62" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C6" s="62" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D6" s="62" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E6" s="62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" s="62"/>
       <c r="G6" s="62"/>
@@ -41931,16 +41890,16 @@
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="181"/>
       <c r="B7" s="183" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C7" s="183" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D7" s="183" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E7" s="62" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F7" s="62"/>
       <c r="G7" s="62"/>
@@ -41986,75 +41945,75 @@
     </row>
     <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="181" t="s">
+        <v>265</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>266</v>
+      </c>
+      <c r="C11" s="62" t="s">
+        <v>267</v>
+      </c>
+      <c r="D11" s="62" t="s">
         <v>268</v>
       </c>
-      <c r="B11" s="62" t="s">
-        <v>269</v>
-      </c>
-      <c r="C11" s="62" t="s">
-        <v>270</v>
-      </c>
-      <c r="D11" s="62" t="s">
-        <v>271</v>
-      </c>
       <c r="E11" s="62" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F11" s="62" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="62" t="s">
+        <v>269</v>
+      </c>
+      <c r="H11" s="182" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="182" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="182" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" s="55" t="s">
         <v>272</v>
-      </c>
-      <c r="H11" s="182" t="s">
-        <v>72</v>
-      </c>
-      <c r="I11" s="182" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="182" t="s">
-        <v>49</v>
-      </c>
-      <c r="K11" s="55" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="62"/>
       <c r="B12" s="183" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C12" s="183" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D12" s="183" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E12" s="183" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F12" s="183" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G12" s="183" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H12" s="62" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I12" s="62" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J12" s="62" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="K12" s="62" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="98" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -42082,67 +42041,67 @@
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="62"/>
       <c r="B1" s="62" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C1" s="62" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D1" s="62" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="70" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B2" s="99" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="62" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D2" s="62"/>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="70" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B3" s="99" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="62" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D3" s="62" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="62" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B4" s="99" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="62" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D4" s="62" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="62" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B5" s="99" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="62" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D5" s="62" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -42153,11 +42112,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K144"/>
+  <dimension ref="A1:K146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A145" sqref="A145"/>
+      <selection pane="bottomLeft" activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -42173,39 +42132,39 @@
   <sheetData>
     <row r="1" spans="1:11" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="59" t="s">
+      <c r="F1" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="61" t="s">
+      <c r="G1" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="H1" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="I1" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="61" t="s">
+      <c r="J1" s="60" t="s">
         <v>58</v>
-      </c>
-      <c r="I1" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="J1" s="60" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="96" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="62"/>
       <c r="C2" s="62"/>
@@ -42217,18 +42176,18 @@
       <c r="I2" s="62"/>
       <c r="J2" s="62"/>
       <c r="K2" s="98" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D3" s="3">
         <v>255</v>
@@ -42240,18 +42199,18 @@
       <c r="I3" s="3"/>
       <c r="J3" s="62"/>
       <c r="K3" s="97" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="65" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C4" s="64" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="64">
@@ -42262,21 +42221,21 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="63" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K4" s="78" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -42285,21 +42244,21 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="63" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K5" s="73" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -42311,13 +42270,13 @@
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="65" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B7" s="66" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C7" s="64" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D7" s="64">
         <v>10</v>
@@ -42326,24 +42285,24 @@
         <v>0</v>
       </c>
       <c r="F7" s="67" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G7" s="64"/>
       <c r="H7" s="64"/>
       <c r="I7" s="64"/>
       <c r="J7" s="63" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="65" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C8" s="64" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D8" s="64">
         <v>10</v>
@@ -42352,7 +42311,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="67" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G8" s="64"/>
       <c r="H8" s="64"/>
@@ -42361,60 +42320,60 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="96" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="68" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B12" s="66" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="3">
         <v>10</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="55" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="1"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I13" s="64"/>
       <c r="J13" s="46" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -42422,10 +42381,10 @@
         <v>16</v>
       </c>
       <c r="B14" s="69" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C14" s="71" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D14" s="71">
         <v>255</v>
@@ -42436,47 +42395,47 @@
       <c r="H14" s="71"/>
       <c r="I14" s="71"/>
       <c r="J14" s="72" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="80" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B15" s="74" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C15" s="76" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D15" s="76">
         <v>10</v>
       </c>
       <c r="E15" s="76"/>
       <c r="F15" s="76" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G15" s="76"/>
       <c r="H15" s="76" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I15" s="76"/>
       <c r="J15" s="77" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K15" s="77" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="96" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B17" s="92" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C17" s="89"/>
       <c r="D17" s="87"/>
@@ -42486,42 +42445,42 @@
       <c r="H17" s="87"/>
       <c r="I17" s="87"/>
       <c r="J17" s="90"/>
-      <c r="K17" s="193" t="s">
-        <v>219</v>
+      <c r="K17" s="194" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="91" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B18" s="92"/>
       <c r="C18" s="89" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D18" s="87">
         <v>10</v>
       </c>
       <c r="E18" s="87"/>
       <c r="F18" s="87" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G18" s="87"/>
       <c r="H18" s="87" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I18" s="87"/>
       <c r="J18" s="90"/>
-      <c r="K18" s="193"/>
+      <c r="K18" s="194"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="93" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B19" s="74" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C19" s="75" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D19" s="76">
         <v>191</v>
@@ -42530,11 +42489,11 @@
       <c r="F19" s="76"/>
       <c r="G19" s="76"/>
       <c r="H19" s="76" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I19" s="76"/>
       <c r="J19" s="90"/>
-      <c r="K19" s="193"/>
+      <c r="K19" s="194"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
@@ -42550,44 +42509,44 @@
     </row>
     <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="86" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B22" s="74" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C22" s="75" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D22" s="76">
         <v>10</v>
       </c>
       <c r="E22" s="76"/>
       <c r="F22" s="87" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G22" s="76"/>
       <c r="H22" s="76" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I22" s="76"/>
       <c r="J22" s="77" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K22" s="77" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B24" s="92" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C24" s="89"/>
       <c r="D24" s="87"/>
@@ -42597,46 +42556,46 @@
       <c r="H24" s="87"/>
       <c r="I24" s="87"/>
       <c r="J24" s="90"/>
-      <c r="K24" s="194" t="s">
-        <v>217</v>
+      <c r="K24" s="195" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="94" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B25" s="74" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C25" s="75" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D25" s="76">
         <v>10</v>
       </c>
       <c r="E25" s="76"/>
       <c r="F25" s="87" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G25" s="76"/>
       <c r="H25" s="76" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I25" s="76"/>
       <c r="J25" s="77" t="s">
-        <v>79</v>
-      </c>
-      <c r="K25" s="195"/>
+        <v>77</v>
+      </c>
+      <c r="K25" s="196"/>
     </row>
     <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="94" t="s">
         <v>8</v>
       </c>
       <c r="B26" s="74" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C26" s="75" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D26" s="76">
         <v>191</v>
@@ -42645,23 +42604,23 @@
       <c r="F26" s="76"/>
       <c r="G26" s="76"/>
       <c r="H26" s="76" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I26" s="76"/>
       <c r="J26" s="77" t="s">
-        <v>79</v>
-      </c>
-      <c r="K26" s="195"/>
+        <v>77</v>
+      </c>
+      <c r="K26" s="196"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="95" t="s">
+        <v>209</v>
+      </c>
+      <c r="B27" s="74" t="s">
         <v>212</v>
       </c>
-      <c r="B27" s="74" t="s">
-        <v>215</v>
-      </c>
       <c r="C27" s="75" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D27" s="76"/>
       <c r="E27" s="76"/>
@@ -42670,7 +42629,7 @@
       <c r="H27" s="76"/>
       <c r="I27" s="76"/>
       <c r="J27" s="77"/>
-      <c r="K27" s="196"/>
+      <c r="K27" s="197"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="101">
@@ -42679,53 +42638,53 @@
     </row>
     <row r="30" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="102" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="103" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B31" s="74"/>
       <c r="C31" s="75" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D31" s="76">
         <v>10</v>
       </c>
       <c r="E31" s="76"/>
       <c r="F31" s="87" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G31" s="76"/>
       <c r="H31" s="76" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I31" s="76"/>
       <c r="J31" s="77"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="104" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B32" s="66"/>
       <c r="C32" s="37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D32" s="3">
         <v>10</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="64" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="63" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -42733,10 +42692,10 @@
         <v>3</v>
       </c>
       <c r="B33" s="105" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C33" s="106" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D33" s="107">
         <v>191</v>
@@ -42750,72 +42709,72 @@
     </row>
     <row r="34" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="112" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B34" s="105" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C34" s="113" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D34" s="107">
         <v>10</v>
       </c>
       <c r="E34" s="107"/>
       <c r="F34" s="114" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G34" s="107"/>
       <c r="H34" s="107" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I34" s="107"/>
       <c r="J34" s="48"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="112" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B35" s="105" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C35" s="113" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D35" s="107">
         <v>10</v>
       </c>
       <c r="E35" s="107"/>
       <c r="F35" s="114" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G35" s="107"/>
       <c r="H35" s="107" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I35" s="107"/>
       <c r="J35" s="48"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="112" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B36" s="105" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C36" s="113" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D36" s="107">
         <v>10</v>
       </c>
       <c r="E36" s="107"/>
       <c r="F36" s="114" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G36" s="107"/>
       <c r="H36" s="107" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I36" s="107"/>
       <c r="J36" s="48"/>
@@ -42825,10 +42784,10 @@
         <v>11</v>
       </c>
       <c r="B37" s="105" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C37" s="106" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D37" s="107"/>
       <c r="E37" s="107"/>
@@ -42837,18 +42796,18 @@
       <c r="H37" s="107"/>
       <c r="I37" s="107"/>
       <c r="J37" s="48" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="80" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B38" s="74" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C38" s="75" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D38" s="76"/>
       <c r="E38" s="76" t="b">
@@ -42859,7 +42818,7 @@
       <c r="H38" s="76"/>
       <c r="I38" s="76"/>
       <c r="J38" s="77" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -42876,53 +42835,53 @@
     </row>
     <row r="40" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="102" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="118" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B41" s="119"/>
       <c r="C41" s="120" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D41" s="121">
         <v>10</v>
       </c>
       <c r="E41" s="121"/>
       <c r="F41" s="122" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G41" s="121"/>
       <c r="H41" s="121" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I41" s="121"/>
       <c r="J41" s="123"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="100" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B42" s="66"/>
       <c r="C42" s="37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D42" s="3">
         <v>10</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="64" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="63" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -42930,10 +42889,10 @@
         <v>8</v>
       </c>
       <c r="B43" s="74" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C43" s="75" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D43" s="76">
         <v>191</v>
@@ -42942,7 +42901,7 @@
       <c r="F43" s="76"/>
       <c r="G43" s="76"/>
       <c r="H43" s="76" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I43" s="76"/>
       <c r="J43" s="77"/>
@@ -42952,10 +42911,10 @@
         <v>15</v>
       </c>
       <c r="B44" s="105" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C44" s="106" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D44" s="107"/>
       <c r="E44" s="107"/>
@@ -42964,18 +42923,18 @@
       <c r="H44" s="107"/>
       <c r="I44" s="107"/>
       <c r="J44" s="116" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="93" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B45" s="74" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C45" s="75" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D45" s="76"/>
       <c r="E45" s="76"/>
@@ -42984,18 +42943,18 @@
       <c r="H45" s="76"/>
       <c r="I45" s="76"/>
       <c r="J45" s="77" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="93" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B46" s="74" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C46" s="75" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D46" s="76"/>
       <c r="E46" s="76"/>
@@ -43004,18 +42963,18 @@
       <c r="H46" s="76"/>
       <c r="I46" s="76"/>
       <c r="J46" s="117" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B47" s="40" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D47" s="3">
         <v>2</v>
@@ -43029,10 +42988,10 @@
     </row>
     <row r="49" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B49" s="40" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="1"/>
@@ -43045,22 +43004,22 @@
     </row>
     <row r="50" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B50" s="39"/>
       <c r="C50" s="36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D50" s="1">
         <v>10</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="47"/>
@@ -43070,10 +43029,10 @@
         <v>8</v>
       </c>
       <c r="B51" s="40" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C51" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D51" s="3">
         <v>191</v>
@@ -43082,11 +43041,11 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I51" s="3"/>
       <c r="J51" s="52" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -43127,10 +43086,10 @@
     </row>
     <row r="55" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B55" s="40" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C55" s="36"/>
       <c r="D55" s="1"/>
@@ -43143,22 +43102,22 @@
     </row>
     <row r="56" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B56" s="39"/>
       <c r="C56" s="36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D56" s="1">
         <v>10</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="47"/>
@@ -43168,10 +43127,10 @@
         <v>8</v>
       </c>
       <c r="B57" s="40" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C57" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D57" s="3">
         <v>191</v>
@@ -43180,11 +43139,11 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I57" s="3"/>
       <c r="J57" s="52" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
@@ -43225,10 +43184,10 @@
     </row>
     <row r="61" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B61" s="40" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C61" s="36"/>
       <c r="D61" s="1"/>
@@ -43241,22 +43200,22 @@
     </row>
     <row r="62" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B62" s="39"/>
       <c r="C62" s="36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D62" s="1">
         <v>10</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="47"/>
@@ -43266,10 +43225,10 @@
         <v>8</v>
       </c>
       <c r="B63" s="40" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C63" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D63" s="3">
         <v>191</v>
@@ -43278,11 +43237,11 @@
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I63" s="3"/>
       <c r="J63" s="52" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
@@ -43323,10 +43282,10 @@
     </row>
     <row r="67" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B67" s="40" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C67" s="36"/>
       <c r="D67" s="1"/>
@@ -43339,22 +43298,22 @@
     </row>
     <row r="68" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B68" s="39"/>
       <c r="C68" s="36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D68" s="1">
         <v>10</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I68" s="1"/>
       <c r="J68" s="47"/>
@@ -43364,10 +43323,10 @@
         <v>8</v>
       </c>
       <c r="B69" s="40" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C69" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D69" s="3">
         <v>191</v>
@@ -43376,7 +43335,7 @@
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I69" s="3"/>
       <c r="J69" s="52"/>
@@ -43419,10 +43378,10 @@
     </row>
     <row r="73" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="96" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B73" s="39" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C73" s="36"/>
       <c r="D73" s="1"/>
@@ -43435,22 +43394,22 @@
     </row>
     <row r="74" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B74" s="39"/>
       <c r="C74" s="36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D74" s="1">
         <v>10</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I74" s="1"/>
       <c r="J74" s="47"/>
@@ -43460,10 +43419,10 @@
         <v>8</v>
       </c>
       <c r="B75" s="40" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C75" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D75" s="3">
         <v>191</v>
@@ -43472,7 +43431,7 @@
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I75" s="3"/>
       <c r="J75" s="52"/>
@@ -43484,31 +43443,31 @@
     </row>
     <row r="78" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="127" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="125" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B79" s="74" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C79" s="89" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D79" s="76">
         <v>10</v>
       </c>
       <c r="E79" s="76"/>
       <c r="F79" s="87" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G79" s="76"/>
       <c r="H79" s="76"/>
       <c r="I79" s="76"/>
       <c r="J79" s="126" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
@@ -43516,10 +43475,10 @@
         <v>17</v>
       </c>
       <c r="B80" s="105" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C80" s="106" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D80" s="107"/>
       <c r="E80" s="107"/>
@@ -43531,37 +43490,37 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="80" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B81" s="74" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C81" s="75" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D81" s="76">
         <v>10</v>
       </c>
       <c r="E81" s="76"/>
       <c r="F81" s="87" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G81" s="76"/>
       <c r="H81" s="76" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I81" s="76"/>
       <c r="J81" s="77"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="111" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B82" s="105" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C82" s="107" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D82" s="107">
         <v>10</v>
@@ -43570,24 +43529,24 @@
         <v>0</v>
       </c>
       <c r="F82" s="114" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G82" s="107"/>
       <c r="H82" s="107"/>
       <c r="I82" s="107"/>
       <c r="J82" s="116" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="111" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B83" s="105" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C83" s="107" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D83" s="107">
         <v>10</v>
@@ -43596,7 +43555,7 @@
         <v>0</v>
       </c>
       <c r="F83" s="114" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G83" s="107"/>
       <c r="H83" s="107"/>
@@ -43605,43 +43564,43 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="80" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B84" s="74" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C84" s="75" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D84" s="76">
         <v>10</v>
       </c>
       <c r="E84" s="76"/>
       <c r="F84" s="87" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G84" s="76"/>
       <c r="H84" s="76" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I84" s="76"/>
       <c r="J84" s="77"/>
     </row>
     <row r="86" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="67" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B86" s="131" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C86" s="128"/>
     </row>
     <row r="88" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="96" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B88" s="39" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C88" s="36"/>
       <c r="D88" s="1"/>
@@ -43654,22 +43613,22 @@
     </row>
     <row r="89" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="164" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B89" s="165"/>
       <c r="C89" s="162" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D89" s="161">
         <v>10</v>
       </c>
       <c r="E89" s="161"/>
       <c r="F89" s="161" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G89" s="161"/>
       <c r="H89" s="161" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I89" s="161"/>
       <c r="J89" s="163"/>
@@ -43679,10 +43638,10 @@
         <v>8</v>
       </c>
       <c r="B90" s="157" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C90" s="158" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D90" s="159">
         <v>191</v>
@@ -43691,19 +43650,19 @@
       <c r="F90" s="159"/>
       <c r="G90" s="159"/>
       <c r="H90" s="159" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I90" s="159"/>
       <c r="J90" s="163" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="96" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B92" s="39" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C92" s="36"/>
       <c r="D92" s="1"/>
@@ -43716,22 +43675,22 @@
     </row>
     <row r="93" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="164" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B93" s="165"/>
       <c r="C93" s="162" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D93" s="161">
         <v>10</v>
       </c>
       <c r="E93" s="161"/>
       <c r="F93" s="161" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G93" s="161"/>
       <c r="H93" s="161" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I93" s="161"/>
       <c r="J93" s="163"/>
@@ -43741,10 +43700,10 @@
         <v>8</v>
       </c>
       <c r="B94" s="157" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C94" s="158" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D94" s="159">
         <v>191</v>
@@ -43753,11 +43712,11 @@
       <c r="F94" s="159"/>
       <c r="G94" s="159"/>
       <c r="H94" s="159" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I94" s="159"/>
       <c r="J94" s="163" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
@@ -43767,62 +43726,62 @@
     </row>
     <row r="97" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="127" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="133" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B98" s="105" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C98" s="106" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D98" s="107"/>
       <c r="E98" s="107"/>
       <c r="F98" s="114"/>
       <c r="G98" s="107"/>
       <c r="H98" s="107" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I98" s="107"/>
       <c r="J98" s="116" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="99" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="134" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B99" s="105" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C99" s="106" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D99" s="107"/>
       <c r="E99" s="107"/>
       <c r="F99" s="114"/>
       <c r="G99" s="107"/>
       <c r="H99" s="107" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I99" s="107"/>
       <c r="J99" s="116" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="100" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="112" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B100" s="105" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C100" s="113" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D100" s="107"/>
       <c r="E100" s="107"/>
@@ -43831,15 +43790,15 @@
       <c r="H100" s="107"/>
       <c r="I100" s="107"/>
       <c r="J100" s="132" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="167" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B101" s="157" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C101" s="158"/>
       <c r="D101" s="159"/>
@@ -43849,15 +43808,15 @@
       <c r="H101" s="159"/>
       <c r="I101" s="159"/>
       <c r="J101" s="160" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="167" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B102" s="157" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C102" s="158"/>
       <c r="D102" s="159"/>
@@ -43867,15 +43826,15 @@
       <c r="H102" s="159"/>
       <c r="I102" s="159"/>
       <c r="J102" s="160" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="103" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="166" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B103" s="157" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C103" s="158"/>
       <c r="D103" s="159"/>
@@ -43885,42 +43844,42 @@
       <c r="H103" s="159"/>
       <c r="I103" s="159"/>
       <c r="J103" s="160" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="115" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B106" s="105" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C106" s="106" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D106" s="107"/>
       <c r="E106" s="107"/>
       <c r="F106" s="107"/>
       <c r="G106" s="107"/>
       <c r="H106" s="107" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I106" s="107"/>
       <c r="J106" s="116" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="107" spans="1:10" s="141" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="166" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B107" s="157" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C107" s="158"/>
       <c r="D107" s="159"/>
@@ -43930,12 +43889,12 @@
       <c r="H107" s="159"/>
       <c r="I107" s="159"/>
       <c r="J107" s="160" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="168" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B109" s="157"/>
       <c r="C109" s="162"/>
@@ -43949,55 +43908,55 @@
     </row>
     <row r="110" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="169" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B110" s="157"/>
       <c r="C110" s="158" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D110" s="159">
         <v>10</v>
       </c>
       <c r="E110" s="159"/>
       <c r="F110" s="161" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G110" s="159"/>
       <c r="H110" s="159" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I110" s="159"/>
       <c r="J110" s="160" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="169" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B111" s="157"/>
       <c r="C111" s="158" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D111" s="159">
         <v>10</v>
       </c>
       <c r="E111" s="159"/>
       <c r="F111" s="161" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G111" s="159"/>
       <c r="H111" s="159" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I111" s="159"/>
       <c r="J111" s="160" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="168" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B113" s="157"/>
       <c r="C113" s="162"/>
@@ -44011,55 +43970,55 @@
     </row>
     <row r="114" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="169" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B114" s="157"/>
       <c r="C114" s="158" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D114" s="159">
         <v>10</v>
       </c>
       <c r="E114" s="159"/>
       <c r="F114" s="161" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G114" s="159"/>
       <c r="H114" s="159" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I114" s="159"/>
       <c r="J114" s="160" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="169" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B115" s="157"/>
       <c r="C115" s="158" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D115" s="159">
         <v>10</v>
       </c>
       <c r="E115" s="159"/>
       <c r="F115" s="161" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G115" s="159"/>
       <c r="H115" s="159" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I115" s="159"/>
       <c r="J115" s="160" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="168" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B117" s="157"/>
       <c r="C117" s="162"/>
@@ -44073,55 +44032,55 @@
     </row>
     <row r="118" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="169" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B118" s="157"/>
       <c r="C118" s="158" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D118" s="159">
         <v>10</v>
       </c>
       <c r="E118" s="159"/>
       <c r="F118" s="161" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G118" s="159"/>
       <c r="H118" s="159" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I118" s="159"/>
       <c r="J118" s="160" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="169" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B119" s="157"/>
       <c r="C119" s="158" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D119" s="159">
         <v>10</v>
       </c>
       <c r="E119" s="159"/>
       <c r="F119" s="161" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G119" s="159"/>
       <c r="H119" s="159" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I119" s="159"/>
       <c r="J119" s="160" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="168" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B121" s="157"/>
       <c r="C121" s="162"/>
@@ -44135,55 +44094,55 @@
     </row>
     <row r="122" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="169" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B122" s="157"/>
       <c r="C122" s="158" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D122" s="159">
         <v>10</v>
       </c>
       <c r="E122" s="159"/>
       <c r="F122" s="161" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G122" s="159"/>
       <c r="H122" s="159" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I122" s="159"/>
       <c r="J122" s="160" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="169" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B123" s="157"/>
       <c r="C123" s="158" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D123" s="159">
         <v>10</v>
       </c>
       <c r="E123" s="159"/>
       <c r="F123" s="161" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G123" s="159"/>
       <c r="H123" s="159" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I123" s="159"/>
       <c r="J123" s="160" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="168" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B125" s="157"/>
       <c r="C125" s="162"/>
@@ -44197,58 +44156,58 @@
     </row>
     <row r="126" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="169" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B126" s="157"/>
       <c r="C126" s="158" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D126" s="159">
         <v>10</v>
       </c>
       <c r="E126" s="159"/>
       <c r="F126" s="161" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G126" s="159"/>
       <c r="H126" s="159" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I126" s="159"/>
       <c r="J126" s="160" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="169" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B127" s="157"/>
       <c r="C127" s="158" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D127" s="159">
         <v>10</v>
       </c>
       <c r="E127" s="159"/>
       <c r="F127" s="161" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G127" s="159"/>
       <c r="H127" s="159" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I127" s="159"/>
       <c r="J127" s="160" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B129" s="39" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C129" s="148"/>
       <c r="D129" s="142"/>
@@ -44261,32 +44220,32 @@
     </row>
     <row r="130" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="103" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B130" s="157"/>
       <c r="C130" s="158" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D130" s="159">
         <v>10</v>
       </c>
       <c r="E130" s="159"/>
       <c r="F130" s="161" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G130" s="159"/>
       <c r="H130" s="159" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I130" s="159"/>
       <c r="J130" s="160"/>
     </row>
     <row r="132" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B132" s="39" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C132" s="148"/>
       <c r="D132" s="142"/>
@@ -44299,32 +44258,32 @@
     </row>
     <row r="133" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="94" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B133" s="157"/>
       <c r="C133" s="158" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D133" s="159">
         <v>10</v>
       </c>
       <c r="E133" s="159"/>
       <c r="F133" s="161" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G133" s="159"/>
       <c r="H133" s="159" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I133" s="159"/>
       <c r="J133" s="160"/>
     </row>
     <row r="135" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A135" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B135" s="39" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C135" s="148"/>
       <c r="D135" s="142"/>
@@ -44337,22 +44296,22 @@
     </row>
     <row r="136" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="94" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B136" s="157"/>
       <c r="C136" s="158" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D136" s="159">
         <v>10</v>
       </c>
       <c r="E136" s="159"/>
       <c r="F136" s="161" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G136" s="159"/>
       <c r="H136" s="159" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I136" s="159"/>
       <c r="J136" s="160"/>
@@ -44364,19 +44323,19 @@
     </row>
     <row r="139" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" s="188" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B139" s="151"/>
     </row>
     <row r="140" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A140" s="128" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B140" s="187"/>
     </row>
     <row r="141" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
@@ -44386,7 +44345,17 @@
     </row>
     <row r="144" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" s="188" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" s="101">
+        <v>43417</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A146" s="193" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -47788,107 +47757,107 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="56" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="57" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="58" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="57" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="56" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="57" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="58" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="57" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="58" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="56" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="57" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="58" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="57" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="58" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="57" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="56" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="57" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="58" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="57" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="58" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="57" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/db_29_10_2018.xlsx
+++ b/db_29_10_2018.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="298">
   <si>
     <t>employers</t>
   </si>
@@ -11552,13 +11552,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>161</xdr:row>
+          <xdr:row>160</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>162</xdr:row>
+          <xdr:row>161</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11616,13 +11616,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>161</xdr:row>
+          <xdr:row>160</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>162</xdr:row>
+          <xdr:row>161</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11680,13 +11680,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>171</xdr:row>
+          <xdr:row>170</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>172</xdr:row>
+          <xdr:row>171</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11744,13 +11744,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>171</xdr:row>
+          <xdr:row>170</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>172</xdr:row>
+          <xdr:row>171</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11808,13 +11808,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>172</xdr:row>
+          <xdr:row>171</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>173</xdr:row>
+          <xdr:row>172</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11872,13 +11872,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>172</xdr:row>
+          <xdr:row>171</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>173</xdr:row>
+          <xdr:row>172</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11936,13 +11936,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>173</xdr:row>
+          <xdr:row>172</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>174</xdr:row>
+          <xdr:row>173</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12000,13 +12000,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>173</xdr:row>
+          <xdr:row>172</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>174</xdr:row>
+          <xdr:row>173</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12064,13 +12064,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>174</xdr:row>
+          <xdr:row>173</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>175</xdr:row>
+          <xdr:row>174</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12128,13 +12128,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>174</xdr:row>
+          <xdr:row>173</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>175</xdr:row>
+          <xdr:row>174</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12192,13 +12192,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>160</xdr:row>
+          <xdr:row>159</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>161</xdr:row>
+          <xdr:row>160</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12256,13 +12256,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>160</xdr:row>
+          <xdr:row>159</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>161</xdr:row>
+          <xdr:row>160</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12320,13 +12320,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>161</xdr:row>
+          <xdr:row>160</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>162</xdr:row>
+          <xdr:row>161</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12384,13 +12384,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>161</xdr:row>
+          <xdr:row>160</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>162</xdr:row>
+          <xdr:row>161</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12448,13 +12448,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>162</xdr:row>
+          <xdr:row>161</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>163</xdr:row>
+          <xdr:row>162</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12512,13 +12512,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>162</xdr:row>
+          <xdr:row>161</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>163</xdr:row>
+          <xdr:row>162</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12576,13 +12576,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>163</xdr:row>
+          <xdr:row>162</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>164</xdr:row>
+          <xdr:row>163</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12640,13 +12640,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>163</xdr:row>
+          <xdr:row>162</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>164</xdr:row>
+          <xdr:row>163</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12704,13 +12704,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>163</xdr:row>
+          <xdr:row>162</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>164</xdr:row>
+          <xdr:row>163</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12768,13 +12768,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>163</xdr:row>
+          <xdr:row>162</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>164</xdr:row>
+          <xdr:row>163</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12832,13 +12832,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>164</xdr:row>
+          <xdr:row>163</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>165</xdr:row>
+          <xdr:row>164</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12896,13 +12896,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>164</xdr:row>
+          <xdr:row>163</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>165</xdr:row>
+          <xdr:row>164</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -13344,13 +13344,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>169</xdr:row>
+          <xdr:row>168</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>170</xdr:row>
+          <xdr:row>169</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -13408,13 +13408,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>169</xdr:row>
+          <xdr:row>168</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>170</xdr:row>
+          <xdr:row>169</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -13856,13 +13856,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>170</xdr:row>
+          <xdr:row>169</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>171</xdr:row>
+          <xdr:row>170</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -13920,13 +13920,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>170</xdr:row>
+          <xdr:row>169</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>171</xdr:row>
+          <xdr:row>170</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -13984,13 +13984,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>158</xdr:row>
+          <xdr:row>157</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>159</xdr:row>
+          <xdr:row>158</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -14048,13 +14048,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>158</xdr:row>
+          <xdr:row>157</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>159</xdr:row>
+          <xdr:row>158</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -14496,13 +14496,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>159</xdr:row>
+          <xdr:row>158</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>160</xdr:row>
+          <xdr:row>159</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -14560,13 +14560,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>159</xdr:row>
+          <xdr:row>158</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>160</xdr:row>
+          <xdr:row>159</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -18400,13 +18400,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>185</xdr:row>
+          <xdr:row>184</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>186</xdr:row>
+          <xdr:row>185</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -18464,13 +18464,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>185</xdr:row>
+          <xdr:row>184</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>186</xdr:row>
+          <xdr:row>185</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -18528,13 +18528,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>186</xdr:row>
+          <xdr:row>185</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>187</xdr:row>
+          <xdr:row>186</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -18592,13 +18592,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>186</xdr:row>
+          <xdr:row>185</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>187</xdr:row>
+          <xdr:row>186</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -18656,13 +18656,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>191</xdr:row>
+          <xdr:row>190</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>192</xdr:row>
+          <xdr:row>191</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -18720,13 +18720,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>191</xdr:row>
+          <xdr:row>190</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>192</xdr:row>
+          <xdr:row>191</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -18784,13 +18784,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>192</xdr:row>
+          <xdr:row>191</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>193</xdr:row>
+          <xdr:row>192</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -18848,13 +18848,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>192</xdr:row>
+          <xdr:row>191</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>193</xdr:row>
+          <xdr:row>192</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -18912,13 +18912,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>197</xdr:row>
+          <xdr:row>196</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>198</xdr:row>
+          <xdr:row>197</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -18976,13 +18976,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>197</xdr:row>
+          <xdr:row>196</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>198</xdr:row>
+          <xdr:row>197</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -19040,13 +19040,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>198</xdr:row>
+          <xdr:row>197</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>199</xdr:row>
+          <xdr:row>198</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -19104,13 +19104,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>198</xdr:row>
+          <xdr:row>197</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>199</xdr:row>
+          <xdr:row>198</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -19168,13 +19168,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>203</xdr:row>
+          <xdr:row>202</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>204</xdr:row>
+          <xdr:row>203</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -19232,13 +19232,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>203</xdr:row>
+          <xdr:row>202</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>204</xdr:row>
+          <xdr:row>203</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -19296,13 +19296,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>204</xdr:row>
+          <xdr:row>203</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>205</xdr:row>
+          <xdr:row>204</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -19360,13 +19360,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>204</xdr:row>
+          <xdr:row>203</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>205</xdr:row>
+          <xdr:row>204</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -19424,13 +19424,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>179</xdr:row>
+          <xdr:row>178</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>180</xdr:row>
+          <xdr:row>179</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -19488,13 +19488,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>179</xdr:row>
+          <xdr:row>178</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>180</xdr:row>
+          <xdr:row>179</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -19552,13 +19552,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>180</xdr:row>
+          <xdr:row>179</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>181</xdr:row>
+          <xdr:row>180</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -19616,13 +19616,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>180</xdr:row>
+          <xdr:row>179</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>181</xdr:row>
+          <xdr:row>180</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -19680,13 +19680,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>157</xdr:row>
+          <xdr:row>156</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>158</xdr:row>
+          <xdr:row>157</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -19744,13 +19744,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>157</xdr:row>
+          <xdr:row>156</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>158</xdr:row>
+          <xdr:row>157</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -31929,11 +31929,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P205"/>
+  <dimension ref="A1:P204"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F155" sqref="F155"/>
+      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H153" sqref="H153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -34802,80 +34802,93 @@
       <c r="J152" s="46"/>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A153" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="B153" s="40" t="s">
-        <v>212</v>
-      </c>
-      <c r="C153" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D153" s="3"/>
-      <c r="E153" s="3"/>
-      <c r="F153" s="3"/>
-      <c r="G153" s="3"/>
-      <c r="H153" s="3"/>
-      <c r="I153" s="3"/>
-      <c r="J153" s="46"/>
+      <c r="B153" s="42"/>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B154" s="42"/>
+      <c r="A154" s="10"/>
+      <c r="B154" s="43"/>
+      <c r="C154" s="10"/>
+      <c r="D154" s="10"/>
+      <c r="E154" s="10"/>
+      <c r="F154" s="10"/>
+      <c r="G154" s="10"/>
+      <c r="H154" s="10"/>
+      <c r="I154" s="10"/>
+      <c r="J154" s="50"/>
+      <c r="K154" s="2"/>
+      <c r="L154" s="2"/>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A155" s="10"/>
-      <c r="B155" s="43"/>
-      <c r="C155" s="10"/>
-      <c r="D155" s="10"/>
-      <c r="E155" s="10"/>
-      <c r="F155" s="10"/>
-      <c r="G155" s="10"/>
-      <c r="H155" s="10"/>
-      <c r="I155" s="10"/>
-      <c r="J155" s="50"/>
-      <c r="K155" s="2"/>
-      <c r="L155" s="2"/>
+      <c r="B155" s="42"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B156" s="42"/>
+    <row r="156" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A156" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B156" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="C156" s="36"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="I156" s="1"/>
+      <c r="J156" s="47"/>
     </row>
     <row r="157" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A157" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="B157" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="C157" s="36"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
-      <c r="G157" s="1"/>
-      <c r="H157" s="1"/>
-      <c r="I157" s="1"/>
-      <c r="J157" s="47"/>
+      <c r="A157" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B157" s="150"/>
+      <c r="C157" s="149" t="s">
+        <v>66</v>
+      </c>
+      <c r="D157" s="143">
+        <v>10</v>
+      </c>
+      <c r="E157" s="143"/>
+      <c r="F157" s="142" t="s">
+        <v>86</v>
+      </c>
+      <c r="G157" s="143"/>
+      <c r="H157" s="143" t="s">
+        <v>90</v>
+      </c>
+      <c r="I157" s="143"/>
+      <c r="J157" s="153"/>
+      <c r="K157" s="51"/>
+      <c r="L157" s="51"/>
+      <c r="M157" s="51"/>
+      <c r="N157" s="51"/>
+      <c r="O157" s="51"/>
     </row>
     <row r="158" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A158" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B158" s="150"/>
-      <c r="C158" s="149" t="s">
+      <c r="A158" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B158" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="C158" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D158" s="143">
+      <c r="D158" s="3">
         <v>10</v>
       </c>
-      <c r="E158" s="143"/>
-      <c r="F158" s="142" t="s">
+      <c r="E158" s="3"/>
+      <c r="F158" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G158" s="143"/>
-      <c r="H158" s="143" t="s">
-        <v>90</v>
-      </c>
-      <c r="I158" s="143"/>
-      <c r="J158" s="153"/>
+      <c r="G158" s="3"/>
+      <c r="H158" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I158" s="3"/>
+      <c r="J158" s="46" t="s">
+        <v>77</v>
+      </c>
       <c r="K158" s="51"/>
       <c r="L158" s="51"/>
       <c r="M158" s="51"/>
@@ -34883,24 +34896,22 @@
       <c r="O158" s="51"/>
     </row>
     <row r="159" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A159" s="17" t="s">
-        <v>76</v>
+      <c r="A159" s="185" t="s">
+        <v>3</v>
       </c>
       <c r="B159" s="40" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="C159" s="37" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D159" s="3">
-        <v>10</v>
+        <v>191</v>
       </c>
       <c r="E159" s="3"/>
-      <c r="F159" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="F159" s="3"/>
       <c r="G159" s="3"/>
-      <c r="H159" s="3" t="s">
+      <c r="H159" s="143" t="s">
         <v>59</v>
       </c>
       <c r="I159" s="3"/>
@@ -34913,29 +34924,29 @@
       <c r="N159" s="51"/>
       <c r="O159" s="51"/>
     </row>
-    <row r="160" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A160" s="185" t="s">
-        <v>3</v>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A160" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="B160" s="40" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="C160" s="37" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D160" s="3">
-        <v>191</v>
+        <v>10</v>
       </c>
       <c r="E160" s="3"/>
-      <c r="F160" s="3"/>
+      <c r="F160" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="G160" s="3"/>
-      <c r="H160" s="143" t="s">
-        <v>59</v>
+      <c r="H160" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="I160" s="3"/>
-      <c r="J160" s="46" t="s">
-        <v>77</v>
-      </c>
+      <c r="J160" s="46"/>
       <c r="K160" s="51"/>
       <c r="L160" s="51"/>
       <c r="M160" s="51"/>
@@ -34943,28 +34954,26 @@
       <c r="O160" s="51"/>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A161" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B161" s="40" t="s">
-        <v>128</v>
+      <c r="A161" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B161" s="150" t="s">
+        <v>282</v>
       </c>
       <c r="C161" s="37" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D161" s="3">
         <v>10</v>
       </c>
       <c r="E161" s="3"/>
-      <c r="F161" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="F161" s="3"/>
       <c r="G161" s="3"/>
-      <c r="H161" s="3" t="s">
-        <v>91</v>
-      </c>
+      <c r="H161" s="3"/>
       <c r="I161" s="3"/>
-      <c r="J161" s="46"/>
+      <c r="J161" s="153" t="s">
+        <v>284</v>
+      </c>
       <c r="K161" s="51"/>
       <c r="L161" s="51"/>
       <c r="M161" s="51"/>
@@ -34973,15 +34982,15 @@
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B162" s="150" t="s">
-        <v>282</v>
-      </c>
-      <c r="C162" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="C162" s="149" t="s">
         <v>60</v>
       </c>
-      <c r="D162" s="3">
+      <c r="D162" s="143">
         <v>10</v>
       </c>
       <c r="E162" s="3"/>
@@ -34990,7 +34999,7 @@
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
       <c r="J162" s="153" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K162" s="51"/>
       <c r="L162" s="51"/>
@@ -35000,25 +35009,21 @@
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B163" s="150" t="s">
-        <v>283</v>
-      </c>
-      <c r="C163" s="149" t="s">
-        <v>60</v>
-      </c>
-      <c r="D163" s="143">
-        <v>10</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B163" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="C163" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D163" s="3"/>
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
       <c r="H163" s="3"/>
       <c r="I163" s="3"/>
-      <c r="J163" s="153" t="s">
-        <v>285</v>
-      </c>
+      <c r="J163" s="46"/>
       <c r="K163" s="51"/>
       <c r="L163" s="51"/>
       <c r="M163" s="51"/>
@@ -35026,11 +35031,9 @@
       <c r="O163" s="51"/>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A164" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="A164" s="9"/>
       <c r="B164" s="40" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C164" s="37" t="s">
         <v>61</v>
@@ -35049,66 +35052,71 @@
       <c r="O164" s="51"/>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A165" s="9"/>
-      <c r="B165" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="C165" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D165" s="3"/>
-      <c r="E165" s="3"/>
-      <c r="F165" s="3"/>
-      <c r="G165" s="3"/>
-      <c r="H165" s="3"/>
-      <c r="I165" s="3"/>
-      <c r="J165" s="46"/>
-      <c r="K165" s="51"/>
-      <c r="L165" s="51"/>
-      <c r="M165" s="51"/>
-      <c r="N165" s="51"/>
-      <c r="O165" s="51"/>
+      <c r="B165" s="42"/>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B166" s="42"/>
+      <c r="A166" s="10"/>
+      <c r="B166" s="43"/>
+      <c r="C166" s="10"/>
+      <c r="D166" s="10"/>
+      <c r="E166" s="10"/>
+      <c r="F166" s="10"/>
+      <c r="G166" s="10"/>
+      <c r="H166" s="10"/>
+      <c r="I166" s="10"/>
+      <c r="J166" s="50"/>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A167" s="10"/>
-      <c r="B167" s="43"/>
-      <c r="C167" s="10"/>
-      <c r="D167" s="10"/>
-      <c r="E167" s="10"/>
-      <c r="F167" s="10"/>
-      <c r="G167" s="10"/>
-      <c r="H167" s="10"/>
-      <c r="I167" s="10"/>
-      <c r="J167" s="50"/>
+      <c r="B167" s="42"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B168" s="42"/>
+    <row r="168" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A168" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B168" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="C168" s="36"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+      <c r="G168" s="1"/>
+      <c r="H168" s="1"/>
+      <c r="I168" s="1"/>
+      <c r="J168" s="47"/>
     </row>
     <row r="169" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A169" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B169" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="C169" s="36"/>
-      <c r="D169" s="1"/>
-      <c r="E169" s="1"/>
-      <c r="F169" s="1"/>
-      <c r="G169" s="1"/>
-      <c r="H169" s="1"/>
-      <c r="I169" s="1"/>
-      <c r="J169" s="47"/>
+      <c r="A169" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B169" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="C169" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D169" s="3">
+        <v>10</v>
+      </c>
+      <c r="E169" s="3"/>
+      <c r="F169" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G169" s="3"/>
+      <c r="H169" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I169" s="3"/>
+      <c r="J169" s="46" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="170" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A170" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B170" s="40" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C170" s="37" t="s">
         <v>66</v>
@@ -35129,38 +35137,32 @@
         <v>77</v>
       </c>
     </row>
-    <row r="171" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A171" s="17" t="s">
-        <v>76</v>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A171" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="B171" s="40" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C171" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="D171" s="3">
-        <v>10</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D171" s="3"/>
       <c r="E171" s="3"/>
-      <c r="F171" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="F171" s="3"/>
       <c r="G171" s="3"/>
-      <c r="H171" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="H171" s="3"/>
       <c r="I171" s="3"/>
       <c r="J171" s="46" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B172" s="40" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C172" s="37" t="s">
         <v>63</v>
@@ -35175,12 +35177,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15" s="144" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B173" s="40" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C173" s="37" t="s">
         <v>63</v>
@@ -35195,12 +35197,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="174" spans="1:15" s="144" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="8" t="s">
-        <v>41</v>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A174" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="B174" s="40" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C174" s="37" t="s">
         <v>63</v>
@@ -35216,60 +35218,64 @@
       </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A175" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B175" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="C175" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="D175" s="3"/>
-      <c r="E175" s="3"/>
-      <c r="F175" s="3"/>
-      <c r="G175" s="3"/>
-      <c r="H175" s="3"/>
-      <c r="I175" s="3"/>
-      <c r="J175" s="46" t="s">
-        <v>64</v>
-      </c>
+      <c r="B175" s="42"/>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B176" s="42"/>
+      <c r="A176" s="10"/>
+      <c r="B176" s="43"/>
+      <c r="C176" s="10"/>
+      <c r="D176" s="10"/>
+      <c r="E176" s="10"/>
+      <c r="F176" s="10"/>
+      <c r="G176" s="10"/>
+      <c r="H176" s="10"/>
+      <c r="I176" s="10"/>
+      <c r="J176" s="50"/>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A177" s="10"/>
-      <c r="B177" s="43"/>
-      <c r="C177" s="10"/>
-      <c r="D177" s="10"/>
-      <c r="E177" s="10"/>
-      <c r="F177" s="10"/>
-      <c r="G177" s="10"/>
-      <c r="H177" s="10"/>
-      <c r="I177" s="10"/>
-      <c r="J177" s="50"/>
+      <c r="B177" s="42"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B178" s="42"/>
+    <row r="178" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A178" s="146" t="s">
+        <v>264</v>
+      </c>
+      <c r="B178" s="150"/>
+      <c r="C178" s="148"/>
+      <c r="D178" s="142"/>
+      <c r="E178" s="142"/>
+      <c r="F178" s="142"/>
+      <c r="G178" s="142"/>
+      <c r="H178" s="142"/>
+      <c r="I178" s="142"/>
+      <c r="J178" s="154"/>
     </row>
     <row r="179" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A179" s="146" t="s">
-        <v>264</v>
+      <c r="A179" s="147" t="s">
+        <v>81</v>
       </c>
       <c r="B179" s="150"/>
-      <c r="C179" s="148"/>
-      <c r="D179" s="142"/>
-      <c r="E179" s="142"/>
-      <c r="F179" s="142"/>
-      <c r="G179" s="142"/>
-      <c r="H179" s="142"/>
-      <c r="I179" s="142"/>
-      <c r="J179" s="154"/>
+      <c r="C179" s="149" t="s">
+        <v>66</v>
+      </c>
+      <c r="D179" s="143">
+        <v>10</v>
+      </c>
+      <c r="E179" s="143"/>
+      <c r="F179" s="142" t="s">
+        <v>86</v>
+      </c>
+      <c r="G179" s="143"/>
+      <c r="H179" s="143" t="s">
+        <v>90</v>
+      </c>
+      <c r="I179" s="143"/>
+      <c r="J179" s="153" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="180" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A180" s="147" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B180" s="150"/>
       <c r="C180" s="149" t="s">
@@ -35291,83 +35297,83 @@
         <v>77</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A181" s="147" t="s">
-        <v>76</v>
-      </c>
-      <c r="B181" s="150"/>
-      <c r="C181" s="149" t="s">
-        <v>66</v>
-      </c>
-      <c r="D181" s="143">
-        <v>10</v>
-      </c>
-      <c r="E181" s="143"/>
-      <c r="F181" s="142" t="s">
-        <v>86</v>
-      </c>
-      <c r="G181" s="143"/>
-      <c r="H181" s="143" t="s">
-        <v>90</v>
-      </c>
-      <c r="I181" s="143"/>
-      <c r="J181" s="153" t="s">
-        <v>77</v>
-      </c>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A181" s="144"/>
+      <c r="B181" s="151"/>
+      <c r="C181" s="144"/>
+      <c r="D181" s="144"/>
+      <c r="E181" s="144"/>
+      <c r="F181" s="144"/>
+      <c r="G181" s="144"/>
+      <c r="H181" s="144"/>
+      <c r="I181" s="144"/>
+      <c r="J181" s="155"/>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A182" s="144"/>
-      <c r="B182" s="151"/>
-      <c r="C182" s="144"/>
-      <c r="D182" s="144"/>
-      <c r="E182" s="144"/>
-      <c r="F182" s="144"/>
-      <c r="G182" s="144"/>
-      <c r="H182" s="144"/>
-      <c r="I182" s="144"/>
-      <c r="J182" s="155"/>
+      <c r="A182" s="145"/>
+      <c r="B182" s="152"/>
+      <c r="C182" s="145"/>
+      <c r="D182" s="145"/>
+      <c r="E182" s="145"/>
+      <c r="F182" s="145"/>
+      <c r="G182" s="145"/>
+      <c r="H182" s="145"/>
+      <c r="I182" s="145"/>
+      <c r="J182" s="156"/>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A183" s="145"/>
-      <c r="B183" s="152"/>
-      <c r="C183" s="145"/>
-      <c r="D183" s="145"/>
-      <c r="E183" s="145"/>
-      <c r="F183" s="145"/>
-      <c r="G183" s="145"/>
-      <c r="H183" s="145"/>
-      <c r="I183" s="145"/>
-      <c r="J183" s="156"/>
+      <c r="A183" s="2"/>
+      <c r="B183" s="109"/>
+      <c r="C183" s="2"/>
+      <c r="D183" s="2"/>
+      <c r="E183" s="2"/>
+      <c r="F183" s="2"/>
+      <c r="G183" s="2"/>
+      <c r="H183" s="2"/>
+      <c r="I183" s="2"/>
+      <c r="J183" s="51"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A184" s="2"/>
-      <c r="B184" s="109"/>
-      <c r="C184" s="2"/>
-      <c r="D184" s="2"/>
-      <c r="E184" s="2"/>
-      <c r="F184" s="2"/>
-      <c r="G184" s="2"/>
-      <c r="H184" s="2"/>
-      <c r="I184" s="2"/>
-      <c r="J184" s="51"/>
+    <row r="184" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A184" s="146" t="s">
+        <v>251</v>
+      </c>
+      <c r="B184" s="150"/>
+      <c r="C184" s="148"/>
+      <c r="D184" s="142"/>
+      <c r="E184" s="142"/>
+      <c r="F184" s="142"/>
+      <c r="G184" s="142"/>
+      <c r="H184" s="142"/>
+      <c r="I184" s="142"/>
+      <c r="J184" s="154"/>
     </row>
     <row r="185" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A185" s="146" t="s">
-        <v>251</v>
+      <c r="A185" s="147" t="s">
+        <v>81</v>
       </c>
       <c r="B185" s="150"/>
-      <c r="C185" s="148"/>
-      <c r="D185" s="142"/>
-      <c r="E185" s="142"/>
-      <c r="F185" s="142"/>
-      <c r="G185" s="142"/>
-      <c r="H185" s="142"/>
-      <c r="I185" s="142"/>
-      <c r="J185" s="154"/>
+      <c r="C185" s="149" t="s">
+        <v>66</v>
+      </c>
+      <c r="D185" s="143">
+        <v>10</v>
+      </c>
+      <c r="E185" s="143"/>
+      <c r="F185" s="142" t="s">
+        <v>86</v>
+      </c>
+      <c r="G185" s="143"/>
+      <c r="H185" s="143" t="s">
+        <v>90</v>
+      </c>
+      <c r="I185" s="143"/>
+      <c r="J185" s="153" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="186" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A186" s="147" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="B186" s="150"/>
       <c r="C186" s="149" t="s">
@@ -35389,83 +35395,83 @@
         <v>77</v>
       </c>
     </row>
-    <row r="187" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A187" s="147" t="s">
-        <v>171</v>
-      </c>
-      <c r="B187" s="150"/>
-      <c r="C187" s="149" t="s">
-        <v>66</v>
-      </c>
-      <c r="D187" s="143">
-        <v>10</v>
-      </c>
-      <c r="E187" s="143"/>
-      <c r="F187" s="142" t="s">
-        <v>86</v>
-      </c>
-      <c r="G187" s="143"/>
-      <c r="H187" s="143" t="s">
-        <v>90</v>
-      </c>
-      <c r="I187" s="143"/>
-      <c r="J187" s="153" t="s">
-        <v>77</v>
-      </c>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A187" s="144"/>
+      <c r="B187" s="151"/>
+      <c r="C187" s="144"/>
+      <c r="D187" s="144"/>
+      <c r="E187" s="144"/>
+      <c r="F187" s="144"/>
+      <c r="G187" s="144"/>
+      <c r="H187" s="144"/>
+      <c r="I187" s="144"/>
+      <c r="J187" s="155"/>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A188" s="144"/>
-      <c r="B188" s="151"/>
-      <c r="C188" s="144"/>
-      <c r="D188" s="144"/>
-      <c r="E188" s="144"/>
-      <c r="F188" s="144"/>
-      <c r="G188" s="144"/>
-      <c r="H188" s="144"/>
-      <c r="I188" s="144"/>
-      <c r="J188" s="155"/>
+      <c r="A188" s="145"/>
+      <c r="B188" s="152"/>
+      <c r="C188" s="145"/>
+      <c r="D188" s="145"/>
+      <c r="E188" s="145"/>
+      <c r="F188" s="145"/>
+      <c r="G188" s="145"/>
+      <c r="H188" s="145"/>
+      <c r="I188" s="145"/>
+      <c r="J188" s="156"/>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A189" s="145"/>
-      <c r="B189" s="152"/>
-      <c r="C189" s="145"/>
-      <c r="D189" s="145"/>
-      <c r="E189" s="145"/>
-      <c r="F189" s="145"/>
-      <c r="G189" s="145"/>
-      <c r="H189" s="145"/>
-      <c r="I189" s="145"/>
-      <c r="J189" s="156"/>
+      <c r="A189" s="141"/>
+      <c r="B189" s="141"/>
+      <c r="C189" s="141"/>
+      <c r="D189" s="141"/>
+      <c r="E189" s="141"/>
+      <c r="F189" s="141"/>
+      <c r="G189" s="141"/>
+      <c r="H189" s="141"/>
+      <c r="I189" s="141"/>
+      <c r="J189" s="141"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A190" s="141"/>
-      <c r="B190" s="141"/>
-      <c r="C190" s="141"/>
-      <c r="D190" s="141"/>
-      <c r="E190" s="141"/>
-      <c r="F190" s="141"/>
-      <c r="G190" s="141"/>
-      <c r="H190" s="141"/>
-      <c r="I190" s="141"/>
-      <c r="J190" s="141"/>
+    <row r="190" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A190" s="146" t="s">
+        <v>253</v>
+      </c>
+      <c r="B190" s="150"/>
+      <c r="C190" s="148"/>
+      <c r="D190" s="142"/>
+      <c r="E190" s="142"/>
+      <c r="F190" s="142"/>
+      <c r="G190" s="142"/>
+      <c r="H190" s="142"/>
+      <c r="I190" s="142"/>
+      <c r="J190" s="154"/>
     </row>
     <row r="191" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A191" s="146" t="s">
-        <v>253</v>
+      <c r="A191" s="147" t="s">
+        <v>68</v>
       </c>
       <c r="B191" s="150"/>
-      <c r="C191" s="148"/>
-      <c r="D191" s="142"/>
-      <c r="E191" s="142"/>
-      <c r="F191" s="142"/>
-      <c r="G191" s="142"/>
-      <c r="H191" s="142"/>
-      <c r="I191" s="142"/>
-      <c r="J191" s="154"/>
+      <c r="C191" s="149" t="s">
+        <v>66</v>
+      </c>
+      <c r="D191" s="143">
+        <v>10</v>
+      </c>
+      <c r="E191" s="143"/>
+      <c r="F191" s="142" t="s">
+        <v>86</v>
+      </c>
+      <c r="G191" s="143"/>
+      <c r="H191" s="143" t="s">
+        <v>90</v>
+      </c>
+      <c r="I191" s="143"/>
+      <c r="J191" s="153" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="192" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A192" s="147" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B192" s="150"/>
       <c r="C192" s="149" t="s">
@@ -35487,83 +35493,83 @@
         <v>77</v>
       </c>
     </row>
-    <row r="193" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A193" s="147" t="s">
-        <v>81</v>
-      </c>
-      <c r="B193" s="150"/>
-      <c r="C193" s="149" t="s">
-        <v>66</v>
-      </c>
-      <c r="D193" s="143">
-        <v>10</v>
-      </c>
-      <c r="E193" s="143"/>
-      <c r="F193" s="142" t="s">
-        <v>86</v>
-      </c>
-      <c r="G193" s="143"/>
-      <c r="H193" s="143" t="s">
-        <v>90</v>
-      </c>
-      <c r="I193" s="143"/>
-      <c r="J193" s="153" t="s">
-        <v>77</v>
-      </c>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A193" s="144"/>
+      <c r="B193" s="151"/>
+      <c r="C193" s="144"/>
+      <c r="D193" s="144"/>
+      <c r="E193" s="144"/>
+      <c r="F193" s="144"/>
+      <c r="G193" s="144"/>
+      <c r="H193" s="144"/>
+      <c r="I193" s="144"/>
+      <c r="J193" s="155"/>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A194" s="144"/>
-      <c r="B194" s="151"/>
-      <c r="C194" s="144"/>
-      <c r="D194" s="144"/>
-      <c r="E194" s="144"/>
-      <c r="F194" s="144"/>
-      <c r="G194" s="144"/>
-      <c r="H194" s="144"/>
-      <c r="I194" s="144"/>
-      <c r="J194" s="155"/>
+      <c r="A194" s="145"/>
+      <c r="B194" s="152"/>
+      <c r="C194" s="145"/>
+      <c r="D194" s="145"/>
+      <c r="E194" s="145"/>
+      <c r="F194" s="145"/>
+      <c r="G194" s="145"/>
+      <c r="H194" s="145"/>
+      <c r="I194" s="145"/>
+      <c r="J194" s="156"/>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A195" s="145"/>
-      <c r="B195" s="152"/>
-      <c r="C195" s="145"/>
-      <c r="D195" s="145"/>
-      <c r="E195" s="145"/>
-      <c r="F195" s="145"/>
-      <c r="G195" s="145"/>
-      <c r="H195" s="145"/>
-      <c r="I195" s="145"/>
-      <c r="J195" s="156"/>
+      <c r="A195" s="141"/>
+      <c r="B195" s="141"/>
+      <c r="C195" s="141"/>
+      <c r="D195" s="141"/>
+      <c r="E195" s="141"/>
+      <c r="F195" s="141"/>
+      <c r="G195" s="141"/>
+      <c r="H195" s="141"/>
+      <c r="I195" s="141"/>
+      <c r="J195" s="141"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A196" s="141"/>
-      <c r="B196" s="141"/>
-      <c r="C196" s="141"/>
-      <c r="D196" s="141"/>
-      <c r="E196" s="141"/>
-      <c r="F196" s="141"/>
-      <c r="G196" s="141"/>
-      <c r="H196" s="141"/>
-      <c r="I196" s="141"/>
-      <c r="J196" s="141"/>
+    <row r="196" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A196" s="146" t="s">
+        <v>254</v>
+      </c>
+      <c r="B196" s="150"/>
+      <c r="C196" s="148"/>
+      <c r="D196" s="142"/>
+      <c r="E196" s="142"/>
+      <c r="F196" s="142"/>
+      <c r="G196" s="142"/>
+      <c r="H196" s="142"/>
+      <c r="I196" s="142"/>
+      <c r="J196" s="154"/>
     </row>
     <row r="197" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A197" s="146" t="s">
-        <v>254</v>
+      <c r="A197" s="147" t="s">
+        <v>81</v>
       </c>
       <c r="B197" s="150"/>
-      <c r="C197" s="148"/>
-      <c r="D197" s="142"/>
-      <c r="E197" s="142"/>
-      <c r="F197" s="142"/>
-      <c r="G197" s="142"/>
-      <c r="H197" s="142"/>
-      <c r="I197" s="142"/>
-      <c r="J197" s="154"/>
+      <c r="C197" s="149" t="s">
+        <v>66</v>
+      </c>
+      <c r="D197" s="143">
+        <v>10</v>
+      </c>
+      <c r="E197" s="143"/>
+      <c r="F197" s="142" t="s">
+        <v>86</v>
+      </c>
+      <c r="G197" s="143"/>
+      <c r="H197" s="143" t="s">
+        <v>90</v>
+      </c>
+      <c r="I197" s="143"/>
+      <c r="J197" s="153" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="198" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A198" s="147" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B198" s="150"/>
       <c r="C198" s="149" t="s">
@@ -35585,83 +35591,83 @@
         <v>77</v>
       </c>
     </row>
-    <row r="199" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A199" s="147" t="s">
-        <v>78</v>
-      </c>
-      <c r="B199" s="150"/>
-      <c r="C199" s="149" t="s">
-        <v>66</v>
-      </c>
-      <c r="D199" s="143">
-        <v>10</v>
-      </c>
-      <c r="E199" s="143"/>
-      <c r="F199" s="142" t="s">
-        <v>86</v>
-      </c>
-      <c r="G199" s="143"/>
-      <c r="H199" s="143" t="s">
-        <v>90</v>
-      </c>
-      <c r="I199" s="143"/>
-      <c r="J199" s="153" t="s">
-        <v>77</v>
-      </c>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A199" s="144"/>
+      <c r="B199" s="151"/>
+      <c r="C199" s="144"/>
+      <c r="D199" s="144"/>
+      <c r="E199" s="144"/>
+      <c r="F199" s="144"/>
+      <c r="G199" s="144"/>
+      <c r="H199" s="144"/>
+      <c r="I199" s="144"/>
+      <c r="J199" s="155"/>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A200" s="144"/>
-      <c r="B200" s="151"/>
-      <c r="C200" s="144"/>
-      <c r="D200" s="144"/>
-      <c r="E200" s="144"/>
-      <c r="F200" s="144"/>
-      <c r="G200" s="144"/>
-      <c r="H200" s="144"/>
-      <c r="I200" s="144"/>
-      <c r="J200" s="155"/>
+      <c r="A200" s="145"/>
+      <c r="B200" s="152"/>
+      <c r="C200" s="145"/>
+      <c r="D200" s="145"/>
+      <c r="E200" s="145"/>
+      <c r="F200" s="145"/>
+      <c r="G200" s="145"/>
+      <c r="H200" s="145"/>
+      <c r="I200" s="145"/>
+      <c r="J200" s="156"/>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A201" s="145"/>
-      <c r="B201" s="152"/>
-      <c r="C201" s="145"/>
-      <c r="D201" s="145"/>
-      <c r="E201" s="145"/>
-      <c r="F201" s="145"/>
-      <c r="G201" s="145"/>
-      <c r="H201" s="145"/>
-      <c r="I201" s="145"/>
-      <c r="J201" s="156"/>
+      <c r="A201" s="141"/>
+      <c r="B201" s="141"/>
+      <c r="C201" s="141"/>
+      <c r="D201" s="141"/>
+      <c r="E201" s="141"/>
+      <c r="F201" s="141"/>
+      <c r="G201" s="141"/>
+      <c r="H201" s="141"/>
+      <c r="I201" s="141"/>
+      <c r="J201" s="141"/>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A202" s="141"/>
-      <c r="B202" s="141"/>
-      <c r="C202" s="141"/>
-      <c r="D202" s="141"/>
-      <c r="E202" s="141"/>
-      <c r="F202" s="141"/>
-      <c r="G202" s="141"/>
-      <c r="H202" s="141"/>
-      <c r="I202" s="141"/>
-      <c r="J202" s="141"/>
+    <row r="202" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A202" s="146" t="s">
+        <v>255</v>
+      </c>
+      <c r="B202" s="150"/>
+      <c r="C202" s="148"/>
+      <c r="D202" s="142"/>
+      <c r="E202" s="142"/>
+      <c r="F202" s="142"/>
+      <c r="G202" s="142"/>
+      <c r="H202" s="142"/>
+      <c r="I202" s="142"/>
+      <c r="J202" s="154"/>
     </row>
     <row r="203" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A203" s="146" t="s">
-        <v>255</v>
+      <c r="A203" s="147" t="s">
+        <v>76</v>
       </c>
       <c r="B203" s="150"/>
-      <c r="C203" s="148"/>
-      <c r="D203" s="142"/>
-      <c r="E203" s="142"/>
-      <c r="F203" s="142"/>
-      <c r="G203" s="142"/>
-      <c r="H203" s="142"/>
-      <c r="I203" s="142"/>
-      <c r="J203" s="154"/>
+      <c r="C203" s="149" t="s">
+        <v>66</v>
+      </c>
+      <c r="D203" s="143">
+        <v>10</v>
+      </c>
+      <c r="E203" s="143"/>
+      <c r="F203" s="142" t="s">
+        <v>86</v>
+      </c>
+      <c r="G203" s="143"/>
+      <c r="H203" s="143" t="s">
+        <v>90</v>
+      </c>
+      <c r="I203" s="143"/>
+      <c r="J203" s="153" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="204" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A204" s="147" t="s">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="B204" s="150"/>
       <c r="C204" s="149" t="s">
@@ -35680,30 +35686,6 @@
       </c>
       <c r="I204" s="143"/>
       <c r="J204" s="153" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A205" s="147" t="s">
-        <v>171</v>
-      </c>
-      <c r="B205" s="150"/>
-      <c r="C205" s="149" t="s">
-        <v>66</v>
-      </c>
-      <c r="D205" s="143">
-        <v>10</v>
-      </c>
-      <c r="E205" s="143"/>
-      <c r="F205" s="142" t="s">
-        <v>86</v>
-      </c>
-      <c r="G205" s="143"/>
-      <c r="H205" s="143" t="s">
-        <v>90</v>
-      </c>
-      <c r="I205" s="143"/>
-      <c r="J205" s="153" t="s">
         <v>77</v>
       </c>
     </row>
@@ -38363,13 +38345,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>161</xdr:row>
+                    <xdr:row>160</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>162</xdr:row>
+                    <xdr:row>161</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38385,13 +38367,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>161</xdr:row>
+                    <xdr:row>160</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>162</xdr:row>
+                    <xdr:row>161</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38407,13 +38389,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>171</xdr:row>
+                    <xdr:row>170</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>172</xdr:row>
+                    <xdr:row>171</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38429,13 +38411,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>171</xdr:row>
+                    <xdr:row>170</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>172</xdr:row>
+                    <xdr:row>171</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38451,13 +38433,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>172</xdr:row>
+                    <xdr:row>171</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>173</xdr:row>
+                    <xdr:row>172</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38473,13 +38455,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>172</xdr:row>
+                    <xdr:row>171</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>173</xdr:row>
+                    <xdr:row>172</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38495,13 +38477,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>173</xdr:row>
+                    <xdr:row>172</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>174</xdr:row>
+                    <xdr:row>173</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38517,13 +38499,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>173</xdr:row>
+                    <xdr:row>172</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>174</xdr:row>
+                    <xdr:row>173</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38539,13 +38521,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>174</xdr:row>
+                    <xdr:row>173</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>175</xdr:row>
+                    <xdr:row>174</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38561,13 +38543,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>174</xdr:row>
+                    <xdr:row>173</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>175</xdr:row>
+                    <xdr:row>174</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38583,13 +38565,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>160</xdr:row>
+                    <xdr:row>159</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>161</xdr:row>
+                    <xdr:row>160</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38605,13 +38587,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>160</xdr:row>
+                    <xdr:row>159</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>161</xdr:row>
+                    <xdr:row>160</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38627,13 +38609,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>161</xdr:row>
+                    <xdr:row>160</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>162</xdr:row>
+                    <xdr:row>161</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38649,13 +38631,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>161</xdr:row>
+                    <xdr:row>160</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>162</xdr:row>
+                    <xdr:row>161</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38671,13 +38653,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>162</xdr:row>
+                    <xdr:row>161</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>163</xdr:row>
+                    <xdr:row>162</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38693,13 +38675,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>162</xdr:row>
+                    <xdr:row>161</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>163</xdr:row>
+                    <xdr:row>162</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38715,13 +38697,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>163</xdr:row>
+                    <xdr:row>162</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>164</xdr:row>
+                    <xdr:row>163</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38737,13 +38719,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>163</xdr:row>
+                    <xdr:row>162</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>164</xdr:row>
+                    <xdr:row>163</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38759,13 +38741,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>163</xdr:row>
+                    <xdr:row>162</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>164</xdr:row>
+                    <xdr:row>163</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38781,13 +38763,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>163</xdr:row>
+                    <xdr:row>162</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>164</xdr:row>
+                    <xdr:row>163</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38803,13 +38785,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>164</xdr:row>
+                    <xdr:row>163</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>165</xdr:row>
+                    <xdr:row>164</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38825,13 +38807,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>164</xdr:row>
+                    <xdr:row>163</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>165</xdr:row>
+                    <xdr:row>164</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38979,13 +38961,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>169</xdr:row>
+                    <xdr:row>168</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>170</xdr:row>
+                    <xdr:row>169</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -39001,13 +38983,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>169</xdr:row>
+                    <xdr:row>168</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>170</xdr:row>
+                    <xdr:row>169</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -39155,13 +39137,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>170</xdr:row>
+                    <xdr:row>169</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>171</xdr:row>
+                    <xdr:row>170</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -39177,13 +39159,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>170</xdr:row>
+                    <xdr:row>169</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>171</xdr:row>
+                    <xdr:row>170</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -39199,13 +39181,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>158</xdr:row>
+                    <xdr:row>157</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>159</xdr:row>
+                    <xdr:row>158</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -39221,13 +39203,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>158</xdr:row>
+                    <xdr:row>157</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>159</xdr:row>
+                    <xdr:row>158</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -39375,13 +39357,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>159</xdr:row>
+                    <xdr:row>158</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>160</xdr:row>
+                    <xdr:row>159</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -39397,13 +39379,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>159</xdr:row>
+                    <xdr:row>158</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>160</xdr:row>
+                    <xdr:row>159</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40717,13 +40699,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>185</xdr:row>
+                    <xdr:row>184</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>186</xdr:row>
+                    <xdr:row>185</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40739,13 +40721,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>185</xdr:row>
+                    <xdr:row>184</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>186</xdr:row>
+                    <xdr:row>185</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40761,13 +40743,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>186</xdr:row>
+                    <xdr:row>185</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>187</xdr:row>
+                    <xdr:row>186</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40783,13 +40765,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>186</xdr:row>
+                    <xdr:row>185</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>187</xdr:row>
+                    <xdr:row>186</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40805,13 +40787,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>191</xdr:row>
+                    <xdr:row>190</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>192</xdr:row>
+                    <xdr:row>191</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40827,13 +40809,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>191</xdr:row>
+                    <xdr:row>190</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>192</xdr:row>
+                    <xdr:row>191</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40849,13 +40831,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>192</xdr:row>
+                    <xdr:row>191</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>193</xdr:row>
+                    <xdr:row>192</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40871,13 +40853,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>192</xdr:row>
+                    <xdr:row>191</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>193</xdr:row>
+                    <xdr:row>192</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40893,13 +40875,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>197</xdr:row>
+                    <xdr:row>196</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>198</xdr:row>
+                    <xdr:row>197</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40915,13 +40897,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>197</xdr:row>
+                    <xdr:row>196</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>198</xdr:row>
+                    <xdr:row>197</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40937,13 +40919,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>198</xdr:row>
+                    <xdr:row>197</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>199</xdr:row>
+                    <xdr:row>198</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40959,13 +40941,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>198</xdr:row>
+                    <xdr:row>197</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>199</xdr:row>
+                    <xdr:row>198</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40981,13 +40963,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>203</xdr:row>
+                    <xdr:row>202</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>204</xdr:row>
+                    <xdr:row>203</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -41003,13 +40985,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>203</xdr:row>
+                    <xdr:row>202</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>204</xdr:row>
+                    <xdr:row>203</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -41025,13 +41007,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>204</xdr:row>
+                    <xdr:row>203</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>205</xdr:row>
+                    <xdr:row>204</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -41047,13 +41029,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>204</xdr:row>
+                    <xdr:row>203</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>205</xdr:row>
+                    <xdr:row>204</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -41069,13 +41051,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>179</xdr:row>
+                    <xdr:row>178</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>180</xdr:row>
+                    <xdr:row>179</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -41091,13 +41073,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>179</xdr:row>
+                    <xdr:row>178</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>180</xdr:row>
+                    <xdr:row>179</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -41113,13 +41095,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>180</xdr:row>
+                    <xdr:row>179</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>181</xdr:row>
+                    <xdr:row>180</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -41135,13 +41117,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>180</xdr:row>
+                    <xdr:row>179</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>181</xdr:row>
+                    <xdr:row>180</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -41157,13 +41139,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>157</xdr:row>
+                    <xdr:row>156</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>158</xdr:row>
+                    <xdr:row>157</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -41179,13 +41161,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>157</xdr:row>
+                    <xdr:row>156</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>158</xdr:row>
+                    <xdr:row>157</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>

--- a/db_29_10_2018.xlsx
+++ b/db_29_10_2018.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="298">
   <si>
     <t>employers</t>
   </si>
@@ -7136,13 +7136,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>148</xdr:row>
+          <xdr:row>146</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>149</xdr:row>
+          <xdr:row>147</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -7200,13 +7200,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>149</xdr:row>
+          <xdr:row>147</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>150</xdr:row>
+          <xdr:row>148</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -7264,13 +7264,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>149</xdr:row>
+          <xdr:row>147</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>150</xdr:row>
+          <xdr:row>148</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -7328,13 +7328,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>150</xdr:row>
+          <xdr:row>148</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>151</xdr:row>
+          <xdr:row>149</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -7392,13 +7392,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>151</xdr:row>
+          <xdr:row>149</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>152</xdr:row>
+          <xdr:row>150</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -7456,13 +7456,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>146</xdr:row>
+          <xdr:row>144</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>146</xdr:row>
+          <xdr:row>144</xdr:row>
           <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -7840,13 +7840,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>148</xdr:row>
+          <xdr:row>146</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>149</xdr:row>
+          <xdr:row>147</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -7904,13 +7904,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>149</xdr:row>
+          <xdr:row>147</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>150</xdr:row>
+          <xdr:row>148</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -7968,13 +7968,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>149</xdr:row>
+          <xdr:row>147</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>150</xdr:row>
+          <xdr:row>148</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -8032,13 +8032,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>150</xdr:row>
+          <xdr:row>148</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>151</xdr:row>
+          <xdr:row>149</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -8096,13 +8096,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>151</xdr:row>
+          <xdr:row>149</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>152</xdr:row>
+          <xdr:row>150</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -8160,13 +8160,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>146</xdr:row>
+          <xdr:row>144</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>146</xdr:row>
+          <xdr:row>144</xdr:row>
           <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9504,13 +9504,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>127</xdr:row>
+          <xdr:row>125</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>128</xdr:row>
+          <xdr:row>126</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9568,13 +9568,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>127</xdr:row>
+          <xdr:row>125</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>128</xdr:row>
+          <xdr:row>126</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9632,13 +9632,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>127</xdr:row>
+          <xdr:row>125</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>128</xdr:row>
+          <xdr:row>126</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9696,13 +9696,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>127</xdr:row>
+          <xdr:row>125</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>128</xdr:row>
+          <xdr:row>126</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9760,13 +9760,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>128</xdr:row>
+          <xdr:row>126</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>129</xdr:row>
+          <xdr:row>127</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9824,13 +9824,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>128</xdr:row>
+          <xdr:row>126</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>129</xdr:row>
+          <xdr:row>127</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9888,13 +9888,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>128</xdr:row>
+          <xdr:row>126</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>129</xdr:row>
+          <xdr:row>127</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9952,13 +9952,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>128</xdr:row>
+          <xdr:row>126</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>129</xdr:row>
+          <xdr:row>127</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10016,13 +10016,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>128</xdr:row>
+          <xdr:row>126</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>129</xdr:row>
+          <xdr:row>127</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10080,13 +10080,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>128</xdr:row>
+          <xdr:row>126</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>129</xdr:row>
+          <xdr:row>127</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10144,13 +10144,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>128</xdr:row>
+          <xdr:row>126</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>129</xdr:row>
+          <xdr:row>127</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10208,13 +10208,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>128</xdr:row>
+          <xdr:row>126</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>129</xdr:row>
+          <xdr:row>127</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10272,13 +10272,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>129</xdr:row>
+          <xdr:row>127</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>130</xdr:row>
+          <xdr:row>128</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10336,13 +10336,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>129</xdr:row>
+          <xdr:row>127</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>130</xdr:row>
+          <xdr:row>128</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10400,13 +10400,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>130</xdr:row>
+          <xdr:row>128</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>131</xdr:row>
+          <xdr:row>129</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10464,13 +10464,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>130</xdr:row>
+          <xdr:row>128</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>131</xdr:row>
+          <xdr:row>129</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10528,13 +10528,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>131</xdr:row>
+          <xdr:row>129</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>132</xdr:row>
+          <xdr:row>130</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10592,13 +10592,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>131</xdr:row>
+          <xdr:row>129</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>132</xdr:row>
+          <xdr:row>130</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10656,13 +10656,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>132</xdr:row>
+          <xdr:row>130</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>133</xdr:row>
+          <xdr:row>131</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10720,13 +10720,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>132</xdr:row>
+          <xdr:row>130</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>133</xdr:row>
+          <xdr:row>131</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10784,13 +10784,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>133</xdr:row>
+          <xdr:row>131</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>134</xdr:row>
+          <xdr:row>132</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10848,13 +10848,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>133</xdr:row>
+          <xdr:row>131</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>134</xdr:row>
+          <xdr:row>132</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10912,13 +10912,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>134</xdr:row>
+          <xdr:row>132</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>135</xdr:row>
+          <xdr:row>133</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -10976,13 +10976,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>134</xdr:row>
+          <xdr:row>132</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>135</xdr:row>
+          <xdr:row>133</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11040,13 +11040,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>135</xdr:row>
+          <xdr:row>133</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>136</xdr:row>
+          <xdr:row>134</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11104,13 +11104,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>135</xdr:row>
+          <xdr:row>133</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>136</xdr:row>
+          <xdr:row>134</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11168,13 +11168,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>136</xdr:row>
+          <xdr:row>134</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>137</xdr:row>
+          <xdr:row>135</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11232,13 +11232,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>136</xdr:row>
+          <xdr:row>134</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>137</xdr:row>
+          <xdr:row>135</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11296,13 +11296,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>147</xdr:row>
+          <xdr:row>145</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>148</xdr:row>
+          <xdr:row>146</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11360,13 +11360,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>147</xdr:row>
+          <xdr:row>145</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>148</xdr:row>
+          <xdr:row>146</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11424,13 +11424,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>152</xdr:row>
+          <xdr:row>150</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>153</xdr:row>
+          <xdr:row>151</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11488,13 +11488,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>152</xdr:row>
+          <xdr:row>150</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>153</xdr:row>
+          <xdr:row>151</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11552,13 +11552,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>160</xdr:row>
+          <xdr:row>158</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>161</xdr:row>
+          <xdr:row>159</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11616,13 +11616,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>160</xdr:row>
+          <xdr:row>158</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>161</xdr:row>
+          <xdr:row>159</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11680,13 +11680,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>170</xdr:row>
+          <xdr:row>168</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>171</xdr:row>
+          <xdr:row>169</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11744,13 +11744,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>170</xdr:row>
+          <xdr:row>168</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>171</xdr:row>
+          <xdr:row>169</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11808,13 +11808,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>171</xdr:row>
+          <xdr:row>169</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>172</xdr:row>
+          <xdr:row>170</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11872,13 +11872,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>171</xdr:row>
+          <xdr:row>169</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>172</xdr:row>
+          <xdr:row>170</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -11936,13 +11936,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>172</xdr:row>
+          <xdr:row>170</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>173</xdr:row>
+          <xdr:row>171</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12000,13 +12000,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>172</xdr:row>
+          <xdr:row>170</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>173</xdr:row>
+          <xdr:row>171</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12064,13 +12064,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>173</xdr:row>
+          <xdr:row>171</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>174</xdr:row>
+          <xdr:row>172</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12128,13 +12128,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>173</xdr:row>
+          <xdr:row>171</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>174</xdr:row>
+          <xdr:row>172</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12192,13 +12192,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>159</xdr:row>
+          <xdr:row>157</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>160</xdr:row>
+          <xdr:row>158</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12256,13 +12256,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>159</xdr:row>
+          <xdr:row>157</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>160</xdr:row>
+          <xdr:row>158</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12320,13 +12320,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>160</xdr:row>
+          <xdr:row>158</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>161</xdr:row>
+          <xdr:row>159</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12384,13 +12384,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>160</xdr:row>
+          <xdr:row>158</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>161</xdr:row>
+          <xdr:row>159</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12448,13 +12448,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>161</xdr:row>
+          <xdr:row>159</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>162</xdr:row>
+          <xdr:row>160</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12512,13 +12512,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>161</xdr:row>
+          <xdr:row>159</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>162</xdr:row>
+          <xdr:row>160</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12576,13 +12576,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>162</xdr:row>
+          <xdr:row>160</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>163</xdr:row>
+          <xdr:row>161</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12640,13 +12640,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>162</xdr:row>
+          <xdr:row>160</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>163</xdr:row>
+          <xdr:row>161</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12704,13 +12704,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>162</xdr:row>
+          <xdr:row>160</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>163</xdr:row>
+          <xdr:row>161</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12768,13 +12768,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>162</xdr:row>
+          <xdr:row>160</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>163</xdr:row>
+          <xdr:row>161</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12832,13 +12832,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>163</xdr:row>
+          <xdr:row>161</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>164</xdr:row>
+          <xdr:row>162</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -12896,13 +12896,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>163</xdr:row>
+          <xdr:row>161</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>164</xdr:row>
+          <xdr:row>162</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -13344,13 +13344,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>168</xdr:row>
+          <xdr:row>166</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>169</xdr:row>
+          <xdr:row>167</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -13408,13 +13408,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>168</xdr:row>
+          <xdr:row>166</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>169</xdr:row>
+          <xdr:row>167</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -13600,13 +13600,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>137</xdr:row>
+          <xdr:row>135</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>138</xdr:row>
+          <xdr:row>136</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -13664,13 +13664,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>137</xdr:row>
+          <xdr:row>135</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>138</xdr:row>
+          <xdr:row>136</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -13728,13 +13728,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>138</xdr:row>
+          <xdr:row>136</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>139</xdr:row>
+          <xdr:row>137</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -13792,13 +13792,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>138</xdr:row>
+          <xdr:row>136</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>139</xdr:row>
+          <xdr:row>137</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -13856,13 +13856,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>169</xdr:row>
+          <xdr:row>167</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>170</xdr:row>
+          <xdr:row>168</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -13920,13 +13920,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>169</xdr:row>
+          <xdr:row>167</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>170</xdr:row>
+          <xdr:row>168</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -13984,13 +13984,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>157</xdr:row>
+          <xdr:row>155</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>158</xdr:row>
+          <xdr:row>156</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -14048,13 +14048,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>157</xdr:row>
+          <xdr:row>155</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>158</xdr:row>
+          <xdr:row>156</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -14112,13 +14112,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>145</xdr:row>
+          <xdr:row>143</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>146</xdr:row>
+          <xdr:row>144</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -14176,13 +14176,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>145</xdr:row>
+          <xdr:row>143</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>146</xdr:row>
+          <xdr:row>144</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -14496,13 +14496,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>158</xdr:row>
+          <xdr:row>156</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>159</xdr:row>
+          <xdr:row>157</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -14560,13 +14560,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>158</xdr:row>
+          <xdr:row>156</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>159</xdr:row>
+          <xdr:row>157</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -16544,13 +16544,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>126</xdr:row>
+          <xdr:row>125</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>127</xdr:row>
+          <xdr:row>126</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -16608,13 +16608,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>126</xdr:row>
+          <xdr:row>125</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>127</xdr:row>
+          <xdr:row>126</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -17632,13 +17632,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>139</xdr:row>
+          <xdr:row>137</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>140</xdr:row>
+          <xdr:row>138</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -17696,13 +17696,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>139</xdr:row>
+          <xdr:row>137</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>140</xdr:row>
+          <xdr:row>138</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -18400,13 +18400,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>184</xdr:row>
+          <xdr:row>182</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>185</xdr:row>
+          <xdr:row>183</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -18464,13 +18464,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>184</xdr:row>
+          <xdr:row>182</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>185</xdr:row>
+          <xdr:row>183</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -18528,13 +18528,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>185</xdr:row>
+          <xdr:row>183</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>186</xdr:row>
+          <xdr:row>184</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -18592,13 +18592,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>185</xdr:row>
+          <xdr:row>183</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>186</xdr:row>
+          <xdr:row>184</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -18656,13 +18656,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>190</xdr:row>
+          <xdr:row>188</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>191</xdr:row>
+          <xdr:row>189</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -18720,13 +18720,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>190</xdr:row>
+          <xdr:row>188</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>191</xdr:row>
+          <xdr:row>189</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -18784,13 +18784,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>191</xdr:row>
+          <xdr:row>189</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>192</xdr:row>
+          <xdr:row>190</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -18848,13 +18848,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>191</xdr:row>
+          <xdr:row>189</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>192</xdr:row>
+          <xdr:row>190</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -18912,13 +18912,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>196</xdr:row>
+          <xdr:row>194</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>197</xdr:row>
+          <xdr:row>195</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -18976,13 +18976,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>196</xdr:row>
+          <xdr:row>194</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>197</xdr:row>
+          <xdr:row>195</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -19040,13 +19040,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>197</xdr:row>
+          <xdr:row>195</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>198</xdr:row>
+          <xdr:row>196</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -19104,13 +19104,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>197</xdr:row>
+          <xdr:row>195</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>198</xdr:row>
+          <xdr:row>196</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -19168,13 +19168,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>202</xdr:row>
+          <xdr:row>200</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>203</xdr:row>
+          <xdr:row>201</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -19232,13 +19232,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>202</xdr:row>
+          <xdr:row>200</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>203</xdr:row>
+          <xdr:row>201</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -19296,13 +19296,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>203</xdr:row>
+          <xdr:row>201</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>204</xdr:row>
+          <xdr:row>202</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -19360,13 +19360,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>203</xdr:row>
+          <xdr:row>201</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>204</xdr:row>
+          <xdr:row>202</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -19424,13 +19424,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>178</xdr:row>
+          <xdr:row>176</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>179</xdr:row>
+          <xdr:row>177</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -19488,13 +19488,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>178</xdr:row>
+          <xdr:row>176</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>179</xdr:row>
+          <xdr:row>177</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -19552,13 +19552,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>179</xdr:row>
+          <xdr:row>177</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>180</xdr:row>
+          <xdr:row>178</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -19616,13 +19616,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>179</xdr:row>
+          <xdr:row>177</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>180</xdr:row>
+          <xdr:row>178</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -19680,13 +19680,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>156</xdr:row>
+          <xdr:row>154</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>157</xdr:row>
+          <xdr:row>155</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -19744,13 +19744,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>156</xdr:row>
+          <xdr:row>154</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>157</xdr:row>
+          <xdr:row>155</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -19808,13 +19808,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>144</xdr:row>
+          <xdr:row>142</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>145</xdr:row>
+          <xdr:row>143</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -19872,13 +19872,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>144</xdr:row>
+          <xdr:row>142</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>145</xdr:row>
+          <xdr:row>143</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -31929,11 +31929,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P204"/>
+  <dimension ref="A1:P202"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H153" sqref="H153"/>
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -33985,7 +33985,7 @@
       <c r="I112" s="1"/>
       <c r="J112" s="47"/>
     </row>
-    <row r="113" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="20" t="s">
         <v>85</v>
       </c>
@@ -34007,7 +34007,7 @@
       <c r="I113" s="3"/>
       <c r="J113" s="46"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="15" t="s">
         <v>83</v>
       </c>
@@ -34031,7 +34031,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="33" t="s">
         <v>74</v>
       </c>
@@ -34055,7 +34055,7 @@
       <c r="I115" s="3"/>
       <c r="J115" s="46"/>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="34" t="s">
         <v>69</v>
       </c>
@@ -34079,7 +34079,7 @@
       <c r="I116" s="3"/>
       <c r="J116" s="46"/>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="65" t="s">
         <v>213</v>
       </c>
@@ -34105,7 +34105,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="34" t="s">
         <v>243</v>
       </c>
@@ -34129,7 +34129,7 @@
       <c r="I118" s="3"/>
       <c r="J118" s="46"/>
     </row>
-    <row r="119" spans="1:12" s="136" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" s="136" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="65" t="s">
         <v>244</v>
       </c>
@@ -34153,7 +34153,7 @@
       <c r="I119" s="3"/>
       <c r="J119" s="46"/>
     </row>
-    <row r="120" spans="1:12" s="136" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" s="136" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="8" t="s">
         <v>8</v>
       </c>
@@ -34173,7 +34173,7 @@
       <c r="I120" s="3"/>
       <c r="J120" s="46"/>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="140" t="s">
         <v>257</v>
       </c>
@@ -34191,7 +34191,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="140" t="s">
         <v>258</v>
       </c>
@@ -34209,7 +34209,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="138" t="s">
         <v>256</v>
       </c>
@@ -34227,7 +34227,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="s">
         <v>21</v>
       </c>
@@ -34245,7 +34245,7 @@
       <c r="I124" s="3"/>
       <c r="J124" s="46"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="8" t="s">
         <v>22</v>
       </c>
@@ -34271,75 +34271,63 @@
         <v>99</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A126" s="55" t="s">
-        <v>189</v>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A126" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="B126" s="40" t="s">
-        <v>191</v>
-      </c>
-      <c r="C126" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C126" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D126" s="3">
-        <v>10</v>
-      </c>
-      <c r="E126" s="3">
-        <v>0</v>
-      </c>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3"/>
       <c r="F126" s="1" t="s">
         <v>86</v>
       </c>
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
-      <c r="J126" s="46" t="s">
-        <v>193</v>
-      </c>
-      <c r="K126" s="2"/>
-      <c r="L126" s="2"/>
+      <c r="J126" s="46"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A127" s="55" t="s">
-        <v>190</v>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A127" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="B127" s="40" t="s">
-        <v>192</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>66</v>
+        <v>150</v>
+      </c>
+      <c r="C127" s="37" t="s">
+        <v>60</v>
       </c>
       <c r="D127" s="3">
-        <v>10</v>
-      </c>
-      <c r="E127" s="3">
-        <v>0</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>86</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3"/>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
-      <c r="J127" s="46"/>
-      <c r="K127" s="2"/>
-      <c r="L127" s="2"/>
+      <c r="J127" s="46" t="s">
+        <v>239</v>
+      </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B128" s="40" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C128" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="D128" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="D128" s="3">
+        <v>10</v>
+      </c>
       <c r="E128" s="3"/>
-      <c r="F128" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="F128" s="3"/>
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
@@ -34347,39 +34335,35 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B129" s="40" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C129" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D129" s="3">
-        <v>255</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D129" s="3"/>
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
       <c r="J129" s="46" t="s">
-        <v>239</v>
+        <v>188</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="8" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B130" s="40" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C130" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D130" s="3">
-        <v>10</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D130" s="3"/>
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
@@ -34389,13 +34373,13 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B131" s="40" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C131" s="37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -34403,19 +34387,17 @@
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
-      <c r="J131" s="46" t="s">
-        <v>188</v>
-      </c>
+      <c r="J131" s="46"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B132" s="40" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C132" s="37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -34424,13 +34406,15 @@
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
       <c r="J132" s="46"/>
+      <c r="K132" s="2"/>
+      <c r="L132" s="2"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A133" s="8" t="s">
-        <v>19</v>
+      <c r="A133" s="26" t="s">
+        <v>28</v>
       </c>
       <c r="B133" s="40" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C133" s="37" t="s">
         <v>61</v>
@@ -34445,35 +34429,39 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="s">
-        <v>27</v>
+        <v>186</v>
       </c>
       <c r="B134" s="40" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C134" s="37" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="D134" s="3"/>
-      <c r="E134" s="3"/>
+      <c r="E134" s="3">
+        <v>1</v>
+      </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
-      <c r="J134" s="46"/>
-      <c r="K134" s="2"/>
-      <c r="L134" s="2"/>
+      <c r="J134" s="46" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A135" s="26" t="s">
-        <v>28</v>
+      <c r="A135" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="B135" s="40" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C135" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D135" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="D135" s="3">
+        <v>255</v>
+      </c>
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
@@ -34483,38 +34471,36 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="8" t="s">
-        <v>186</v>
+        <v>1</v>
       </c>
       <c r="B136" s="40" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="C136" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="D136" s="3"/>
-      <c r="E136" s="3">
-        <v>1</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D136" s="3">
+        <v>191</v>
+      </c>
+      <c r="E136" s="3"/>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
-      <c r="J136" s="46" t="s">
-        <v>187</v>
-      </c>
+      <c r="J136" s="46"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A137" s="8" t="s">
-        <v>30</v>
+      <c r="A137" s="55" t="s">
+        <v>9</v>
       </c>
       <c r="B137" s="40" t="s">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="C137" s="37" t="s">
         <v>60</v>
       </c>
       <c r="D137" s="3">
-        <v>255</v>
+        <v>191</v>
       </c>
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
@@ -34524,144 +34510,152 @@
       <c r="J137" s="46"/>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A138" s="8" t="s">
-        <v>1</v>
+      <c r="A138" s="55" t="s">
+        <v>236</v>
       </c>
       <c r="B138" s="40" t="s">
-        <v>107</v>
+        <v>237</v>
       </c>
       <c r="C138" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D138" s="3">
-        <v>191</v>
-      </c>
-      <c r="E138" s="3"/>
+        <v>94</v>
+      </c>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
       <c r="H138" s="3"/>
       <c r="I138" s="3"/>
-      <c r="J138" s="46"/>
+      <c r="J138" s="46" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A139" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="B139" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="C139" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D139" s="3">
-        <v>191</v>
-      </c>
-      <c r="E139" s="3"/>
-      <c r="F139" s="3"/>
-      <c r="G139" s="3"/>
-      <c r="H139" s="3"/>
-      <c r="I139" s="3"/>
-      <c r="J139" s="46"/>
+      <c r="B139" s="42"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A140" s="55" t="s">
-        <v>236</v>
-      </c>
-      <c r="B140" s="40" t="s">
-        <v>237</v>
-      </c>
-      <c r="C140" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="D140" s="3"/>
-      <c r="E140" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F140" s="3"/>
-      <c r="G140" s="3"/>
-      <c r="H140" s="3"/>
-      <c r="I140" s="3"/>
-      <c r="J140" s="46" t="s">
-        <v>238</v>
-      </c>
+      <c r="A140" s="10"/>
+      <c r="B140" s="43"/>
+      <c r="C140" s="10"/>
+      <c r="D140" s="10"/>
+      <c r="E140" s="10"/>
+      <c r="F140" s="10"/>
+      <c r="G140" s="10"/>
+      <c r="H140" s="10"/>
+      <c r="I140" s="10"/>
+      <c r="J140" s="50"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B141" s="42"/>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A142" s="10"/>
-      <c r="B142" s="43"/>
-      <c r="C142" s="10"/>
-      <c r="D142" s="10"/>
-      <c r="E142" s="10"/>
-      <c r="F142" s="10"/>
-      <c r="G142" s="10"/>
-      <c r="H142" s="10"/>
-      <c r="I142" s="10"/>
-      <c r="J142" s="50"/>
+    <row r="142" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A142" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B142" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="C142" s="36"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="1"/>
+      <c r="J142" s="47"/>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B143" s="42"/>
+    <row r="143" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A143" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B143" s="150"/>
+      <c r="C143" s="149" t="s">
+        <v>66</v>
+      </c>
+      <c r="D143" s="143">
+        <v>10</v>
+      </c>
+      <c r="E143" s="143"/>
+      <c r="F143" s="142" t="s">
+        <v>86</v>
+      </c>
+      <c r="G143" s="143"/>
+      <c r="H143" s="143" t="s">
+        <v>90</v>
+      </c>
+      <c r="I143" s="143"/>
+      <c r="J143" s="153"/>
+      <c r="K143" s="2"/>
+      <c r="L143" s="2"/>
     </row>
     <row r="144" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A144" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="B144" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="C144" s="36"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="1"/>
-      <c r="F144" s="1"/>
-      <c r="G144" s="1"/>
-      <c r="H144" s="1"/>
-      <c r="I144" s="1"/>
-      <c r="J144" s="47"/>
+      <c r="A144" s="184" t="s">
+        <v>76</v>
+      </c>
+      <c r="B144" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="C144" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D144" s="3">
+        <v>10</v>
+      </c>
+      <c r="E144" s="3"/>
+      <c r="F144" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G144" s="3"/>
+      <c r="H144" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I144" s="3"/>
+      <c r="J144" s="46" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="145" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A145" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B145" s="150"/>
-      <c r="C145" s="149" t="s">
+      <c r="A145" s="191" t="s">
+        <v>289</v>
+      </c>
+      <c r="B145" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="C145" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D145" s="143">
+      <c r="D145" s="3">
         <v>10</v>
       </c>
-      <c r="E145" s="143"/>
+      <c r="E145" s="3"/>
       <c r="F145" s="142" t="s">
         <v>86</v>
       </c>
-      <c r="G145" s="143"/>
-      <c r="H145" s="143" t="s">
-        <v>90</v>
-      </c>
-      <c r="I145" s="143"/>
-      <c r="J145" s="153"/>
-      <c r="K145" s="2"/>
-      <c r="L145" s="2"/>
+      <c r="G145" s="3"/>
+      <c r="H145" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I145" s="3"/>
+      <c r="J145" s="46"/>
     </row>
     <row r="146" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A146" s="184" t="s">
-        <v>76</v>
-      </c>
-      <c r="B146" s="40" t="s">
-        <v>160</v>
+      <c r="A146" s="185" t="s">
+        <v>8</v>
+      </c>
+      <c r="B146" s="186" t="s">
+        <v>287</v>
       </c>
       <c r="C146" s="37" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D146" s="3">
-        <v>10</v>
+        <v>191</v>
       </c>
       <c r="E146" s="3"/>
-      <c r="F146" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="F146" s="3"/>
       <c r="G146" s="3"/>
-      <c r="H146" s="3" t="s">
+      <c r="H146" s="143" t="s">
         <v>59</v>
       </c>
       <c r="I146" s="3"/>
@@ -34669,207 +34663,219 @@
         <v>77</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A147" s="191" t="s">
-        <v>289</v>
-      </c>
-      <c r="B147" s="40" t="s">
-        <v>135</v>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A147" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B147" s="186" t="s">
+        <v>286</v>
       </c>
       <c r="C147" s="37" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D147" s="3">
-        <v>10</v>
+        <v>255</v>
       </c>
       <c r="E147" s="3"/>
-      <c r="F147" s="142" t="s">
-        <v>86</v>
-      </c>
+      <c r="F147" s="3"/>
       <c r="G147" s="3"/>
-      <c r="H147" s="3" t="s">
-        <v>91</v>
-      </c>
+      <c r="H147" s="3"/>
       <c r="I147" s="3"/>
       <c r="J147" s="46"/>
     </row>
-    <row r="148" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A148" s="185" t="s">
-        <v>8</v>
-      </c>
-      <c r="B148" s="186" t="s">
-        <v>287</v>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A148" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B148" s="40" t="s">
+        <v>282</v>
       </c>
       <c r="C148" s="37" t="s">
         <v>60</v>
       </c>
       <c r="D148" s="3">
-        <v>191</v>
+        <v>10</v>
       </c>
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
-      <c r="H148" s="143" t="s">
-        <v>59</v>
-      </c>
+      <c r="H148" s="3"/>
       <c r="I148" s="3"/>
       <c r="J148" s="46" t="s">
-        <v>77</v>
+        <v>284</v>
       </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B149" s="186" t="s">
-        <v>286</v>
+        <v>34</v>
+      </c>
+      <c r="B149" s="40" t="s">
+        <v>283</v>
       </c>
       <c r="C149" s="37" t="s">
         <v>60</v>
       </c>
       <c r="D149" s="3">
-        <v>255</v>
+        <v>10</v>
       </c>
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
       <c r="H149" s="3"/>
       <c r="I149" s="3"/>
-      <c r="J149" s="46"/>
+      <c r="J149" s="153" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="28" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B150" s="40" t="s">
-        <v>282</v>
+        <v>134</v>
       </c>
       <c r="C150" s="37" t="s">
         <v>60</v>
       </c>
       <c r="D150" s="3">
-        <v>10</v>
+        <v>255</v>
       </c>
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
-      <c r="J150" s="46" t="s">
-        <v>284</v>
-      </c>
+      <c r="J150" s="46"/>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A151" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B151" s="40" t="s">
-        <v>283</v>
-      </c>
-      <c r="C151" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D151" s="3">
-        <v>10</v>
-      </c>
-      <c r="E151" s="3"/>
-      <c r="F151" s="3"/>
-      <c r="G151" s="3"/>
-      <c r="H151" s="3"/>
-      <c r="I151" s="3"/>
-      <c r="J151" s="153" t="s">
-        <v>285</v>
-      </c>
+      <c r="B151" s="42"/>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A152" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B152" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="C152" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D152" s="3">
-        <v>255</v>
-      </c>
-      <c r="E152" s="3"/>
-      <c r="F152" s="3"/>
-      <c r="G152" s="3"/>
-      <c r="H152" s="3"/>
-      <c r="I152" s="3"/>
-      <c r="J152" s="46"/>
+      <c r="A152" s="10"/>
+      <c r="B152" s="43"/>
+      <c r="C152" s="10"/>
+      <c r="D152" s="10"/>
+      <c r="E152" s="10"/>
+      <c r="F152" s="10"/>
+      <c r="G152" s="10"/>
+      <c r="H152" s="10"/>
+      <c r="I152" s="10"/>
+      <c r="J152" s="50"/>
+      <c r="K152" s="2"/>
+      <c r="L152" s="2"/>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B153" s="42"/>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A154" s="10"/>
-      <c r="B154" s="43"/>
-      <c r="C154" s="10"/>
-      <c r="D154" s="10"/>
-      <c r="E154" s="10"/>
-      <c r="F154" s="10"/>
-      <c r="G154" s="10"/>
-      <c r="H154" s="10"/>
-      <c r="I154" s="10"/>
-      <c r="J154" s="50"/>
-      <c r="K154" s="2"/>
-      <c r="L154" s="2"/>
+    <row r="154" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A154" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B154" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="C154" s="36"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+      <c r="H154" s="1"/>
+      <c r="I154" s="1"/>
+      <c r="J154" s="47"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B155" s="42"/>
+    <row r="155" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A155" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B155" s="150"/>
+      <c r="C155" s="149" t="s">
+        <v>66</v>
+      </c>
+      <c r="D155" s="143">
+        <v>10</v>
+      </c>
+      <c r="E155" s="143"/>
+      <c r="F155" s="142" t="s">
+        <v>86</v>
+      </c>
+      <c r="G155" s="143"/>
+      <c r="H155" s="143" t="s">
+        <v>90</v>
+      </c>
+      <c r="I155" s="143"/>
+      <c r="J155" s="153"/>
+      <c r="K155" s="51"/>
+      <c r="L155" s="51"/>
+      <c r="M155" s="51"/>
+      <c r="N155" s="51"/>
+      <c r="O155" s="51"/>
     </row>
     <row r="156" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A156" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="B156" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="C156" s="36"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
-      <c r="G156" s="1"/>
-      <c r="H156" s="1"/>
-      <c r="I156" s="1"/>
-      <c r="J156" s="47"/>
+      <c r="A156" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B156" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="C156" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D156" s="3">
+        <v>10</v>
+      </c>
+      <c r="E156" s="3"/>
+      <c r="F156" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G156" s="3"/>
+      <c r="H156" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I156" s="3"/>
+      <c r="J156" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="K156" s="51"/>
+      <c r="L156" s="51"/>
+      <c r="M156" s="51"/>
+      <c r="N156" s="51"/>
+      <c r="O156" s="51"/>
     </row>
     <row r="157" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A157" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B157" s="150"/>
-      <c r="C157" s="149" t="s">
-        <v>66</v>
-      </c>
-      <c r="D157" s="143">
-        <v>10</v>
-      </c>
-      <c r="E157" s="143"/>
-      <c r="F157" s="142" t="s">
-        <v>86</v>
-      </c>
-      <c r="G157" s="143"/>
+      <c r="A157" s="185" t="s">
+        <v>3</v>
+      </c>
+      <c r="B157" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="C157" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D157" s="3">
+        <v>191</v>
+      </c>
+      <c r="E157" s="3"/>
+      <c r="F157" s="3"/>
+      <c r="G157" s="3"/>
       <c r="H157" s="143" t="s">
-        <v>90</v>
-      </c>
-      <c r="I157" s="143"/>
-      <c r="J157" s="153"/>
+        <v>59</v>
+      </c>
+      <c r="I157" s="3"/>
+      <c r="J157" s="46" t="s">
+        <v>77</v>
+      </c>
       <c r="K157" s="51"/>
       <c r="L157" s="51"/>
       <c r="M157" s="51"/>
       <c r="N157" s="51"/>
       <c r="O157" s="51"/>
     </row>
-    <row r="158" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A158" s="17" t="s">
-        <v>76</v>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A158" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="B158" s="40" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="C158" s="37" t="s">
         <v>66</v>
@@ -34883,40 +34889,36 @@
       </c>
       <c r="G158" s="3"/>
       <c r="H158" s="3" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="I158" s="3"/>
-      <c r="J158" s="46" t="s">
-        <v>77</v>
-      </c>
+      <c r="J158" s="46"/>
       <c r="K158" s="51"/>
       <c r="L158" s="51"/>
       <c r="M158" s="51"/>
       <c r="N158" s="51"/>
       <c r="O158" s="51"/>
     </row>
-    <row r="159" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A159" s="185" t="s">
-        <v>3</v>
-      </c>
-      <c r="B159" s="40" t="s">
-        <v>110</v>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A159" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B159" s="150" t="s">
+        <v>282</v>
       </c>
       <c r="C159" s="37" t="s">
         <v>60</v>
       </c>
       <c r="D159" s="3">
-        <v>191</v>
+        <v>10</v>
       </c>
       <c r="E159" s="3"/>
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
-      <c r="H159" s="143" t="s">
-        <v>59</v>
-      </c>
+      <c r="H159" s="3"/>
       <c r="I159" s="3"/>
-      <c r="J159" s="46" t="s">
-        <v>77</v>
+      <c r="J159" s="153" t="s">
+        <v>284</v>
       </c>
       <c r="K159" s="51"/>
       <c r="L159" s="51"/>
@@ -34925,28 +34927,26 @@
       <c r="O159" s="51"/>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A160" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B160" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="C160" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="D160" s="3">
+      <c r="A160" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B160" s="150" t="s">
+        <v>283</v>
+      </c>
+      <c r="C160" s="149" t="s">
+        <v>60</v>
+      </c>
+      <c r="D160" s="143">
         <v>10</v>
       </c>
       <c r="E160" s="3"/>
-      <c r="F160" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="F160" s="3"/>
       <c r="G160" s="3"/>
-      <c r="H160" s="3" t="s">
-        <v>91</v>
-      </c>
+      <c r="H160" s="3"/>
       <c r="I160" s="3"/>
-      <c r="J160" s="46"/>
+      <c r="J160" s="153" t="s">
+        <v>285</v>
+      </c>
       <c r="K160" s="51"/>
       <c r="L160" s="51"/>
       <c r="M160" s="51"/>
@@ -34955,25 +34955,21 @@
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B161" s="150" t="s">
-        <v>282</v>
+        <v>19</v>
+      </c>
+      <c r="B161" s="40" t="s">
+        <v>154</v>
       </c>
       <c r="C161" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D161" s="3">
-        <v>10</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="D161" s="3"/>
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
       <c r="H161" s="3"/>
       <c r="I161" s="3"/>
-      <c r="J161" s="153" t="s">
-        <v>284</v>
-      </c>
+      <c r="J161" s="46"/>
       <c r="K161" s="51"/>
       <c r="L161" s="51"/>
       <c r="M161" s="51"/>
@@ -34981,26 +34977,20 @@
       <c r="O161" s="51"/>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A162" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B162" s="150" t="s">
-        <v>283</v>
-      </c>
-      <c r="C162" s="149" t="s">
-        <v>60</v>
-      </c>
-      <c r="D162" s="143">
-        <v>10</v>
-      </c>
+      <c r="A162" s="9"/>
+      <c r="B162" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="C162" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D162" s="3"/>
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
-      <c r="J162" s="153" t="s">
-        <v>285</v>
-      </c>
+      <c r="J162" s="46"/>
       <c r="K162" s="51"/>
       <c r="L162" s="51"/>
       <c r="M162" s="51"/>
@@ -35008,141 +34998,137 @@
       <c r="O162" s="51"/>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A163" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B163" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="C163" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D163" s="3"/>
-      <c r="E163" s="3"/>
-      <c r="F163" s="3"/>
-      <c r="G163" s="3"/>
-      <c r="H163" s="3"/>
-      <c r="I163" s="3"/>
-      <c r="J163" s="46"/>
-      <c r="K163" s="51"/>
-      <c r="L163" s="51"/>
-      <c r="M163" s="51"/>
-      <c r="N163" s="51"/>
-      <c r="O163" s="51"/>
+      <c r="B163" s="42"/>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A164" s="9"/>
-      <c r="B164" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="C164" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D164" s="3"/>
-      <c r="E164" s="3"/>
-      <c r="F164" s="3"/>
-      <c r="G164" s="3"/>
-      <c r="H164" s="3"/>
-      <c r="I164" s="3"/>
-      <c r="J164" s="46"/>
-      <c r="K164" s="51"/>
-      <c r="L164" s="51"/>
-      <c r="M164" s="51"/>
-      <c r="N164" s="51"/>
-      <c r="O164" s="51"/>
+      <c r="A164" s="10"/>
+      <c r="B164" s="43"/>
+      <c r="C164" s="10"/>
+      <c r="D164" s="10"/>
+      <c r="E164" s="10"/>
+      <c r="F164" s="10"/>
+      <c r="G164" s="10"/>
+      <c r="H164" s="10"/>
+      <c r="I164" s="10"/>
+      <c r="J164" s="50"/>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B165" s="42"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A166" s="10"/>
-      <c r="B166" s="43"/>
-      <c r="C166" s="10"/>
-      <c r="D166" s="10"/>
-      <c r="E166" s="10"/>
-      <c r="F166" s="10"/>
-      <c r="G166" s="10"/>
-      <c r="H166" s="10"/>
-      <c r="I166" s="10"/>
-      <c r="J166" s="50"/>
+    <row r="166" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A166" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B166" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="C166" s="36"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+      <c r="G166" s="1"/>
+      <c r="H166" s="1"/>
+      <c r="I166" s="1"/>
+      <c r="J166" s="47"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B167" s="42"/>
+    <row r="167" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A167" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B167" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="C167" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D167" s="3">
+        <v>10</v>
+      </c>
+      <c r="E167" s="3"/>
+      <c r="F167" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G167" s="3"/>
+      <c r="H167" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I167" s="3"/>
+      <c r="J167" s="46" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="168" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A168" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B168" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="C168" s="36"/>
-      <c r="D168" s="1"/>
-      <c r="E168" s="1"/>
-      <c r="F168" s="1"/>
-      <c r="G168" s="1"/>
-      <c r="H168" s="1"/>
-      <c r="I168" s="1"/>
-      <c r="J168" s="47"/>
+      <c r="A168" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B168" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="C168" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D168" s="3">
+        <v>10</v>
+      </c>
+      <c r="E168" s="3"/>
+      <c r="F168" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G168" s="3"/>
+      <c r="H168" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I168" s="3"/>
+      <c r="J168" s="46" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="169" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A169" s="17" t="s">
-        <v>78</v>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A169" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="B169" s="40" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C169" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="D169" s="3">
-        <v>10</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D169" s="3"/>
       <c r="E169" s="3"/>
-      <c r="F169" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="F169" s="3"/>
       <c r="G169" s="3"/>
-      <c r="H169" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="H169" s="3"/>
       <c r="I169" s="3"/>
       <c r="J169" s="46" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="170" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A170" s="17" t="s">
-        <v>76</v>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A170" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="B170" s="40" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C170" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="D170" s="3">
-        <v>10</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D170" s="3"/>
       <c r="E170" s="3"/>
-      <c r="F170" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="F170" s="3"/>
       <c r="G170" s="3"/>
-      <c r="H170" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="H170" s="3"/>
       <c r="I170" s="3"/>
       <c r="J170" s="46" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15" s="144" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B171" s="40" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C171" s="37" t="s">
         <v>63</v>
@@ -35158,11 +35144,11 @@
       </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A172" s="8" t="s">
-        <v>42</v>
+      <c r="A172" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="B172" s="40" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C172" s="37" t="s">
         <v>63</v>
@@ -35177,515 +35163,475 @@
         <v>64</v>
       </c>
     </row>
-    <row r="173" spans="1:15" s="144" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B173" s="40" t="s">
-        <v>167</v>
-      </c>
-      <c r="C173" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="D173" s="3"/>
-      <c r="E173" s="3"/>
-      <c r="F173" s="3"/>
-      <c r="G173" s="3"/>
-      <c r="H173" s="3"/>
-      <c r="I173" s="3"/>
-      <c r="J173" s="46" t="s">
-        <v>64</v>
-      </c>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B173" s="42"/>
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A174" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B174" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="C174" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="D174" s="3"/>
-      <c r="E174" s="3"/>
-      <c r="F174" s="3"/>
-      <c r="G174" s="3"/>
-      <c r="H174" s="3"/>
-      <c r="I174" s="3"/>
-      <c r="J174" s="46" t="s">
-        <v>64</v>
-      </c>
+      <c r="A174" s="10"/>
+      <c r="B174" s="43"/>
+      <c r="C174" s="10"/>
+      <c r="D174" s="10"/>
+      <c r="E174" s="10"/>
+      <c r="F174" s="10"/>
+      <c r="G174" s="10"/>
+      <c r="H174" s="10"/>
+      <c r="I174" s="10"/>
+      <c r="J174" s="50"/>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B175" s="42"/>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A176" s="10"/>
-      <c r="B176" s="43"/>
-      <c r="C176" s="10"/>
-      <c r="D176" s="10"/>
-      <c r="E176" s="10"/>
-      <c r="F176" s="10"/>
-      <c r="G176" s="10"/>
-      <c r="H176" s="10"/>
-      <c r="I176" s="10"/>
-      <c r="J176" s="50"/>
+    <row r="176" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A176" s="146" t="s">
+        <v>264</v>
+      </c>
+      <c r="B176" s="150"/>
+      <c r="C176" s="148"/>
+      <c r="D176" s="142"/>
+      <c r="E176" s="142"/>
+      <c r="F176" s="142"/>
+      <c r="G176" s="142"/>
+      <c r="H176" s="142"/>
+      <c r="I176" s="142"/>
+      <c r="J176" s="154"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B177" s="42"/>
+    <row r="177" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A177" s="147" t="s">
+        <v>81</v>
+      </c>
+      <c r="B177" s="150"/>
+      <c r="C177" s="149" t="s">
+        <v>66</v>
+      </c>
+      <c r="D177" s="143">
+        <v>10</v>
+      </c>
+      <c r="E177" s="143"/>
+      <c r="F177" s="142" t="s">
+        <v>86</v>
+      </c>
+      <c r="G177" s="143"/>
+      <c r="H177" s="143" t="s">
+        <v>90</v>
+      </c>
+      <c r="I177" s="143"/>
+      <c r="J177" s="153" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="178" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A178" s="146" t="s">
-        <v>264</v>
+      <c r="A178" s="147" t="s">
+        <v>76</v>
       </c>
       <c r="B178" s="150"/>
-      <c r="C178" s="148"/>
-      <c r="D178" s="142"/>
-      <c r="E178" s="142"/>
-      <c r="F178" s="142"/>
-      <c r="G178" s="142"/>
-      <c r="H178" s="142"/>
-      <c r="I178" s="142"/>
-      <c r="J178" s="154"/>
+      <c r="C178" s="149" t="s">
+        <v>66</v>
+      </c>
+      <c r="D178" s="143">
+        <v>10</v>
+      </c>
+      <c r="E178" s="143"/>
+      <c r="F178" s="142" t="s">
+        <v>86</v>
+      </c>
+      <c r="G178" s="143"/>
+      <c r="H178" s="143" t="s">
+        <v>90</v>
+      </c>
+      <c r="I178" s="143"/>
+      <c r="J178" s="153" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="179" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A179" s="147" t="s">
-        <v>81</v>
-      </c>
-      <c r="B179" s="150"/>
-      <c r="C179" s="149" t="s">
-        <v>66</v>
-      </c>
-      <c r="D179" s="143">
-        <v>10</v>
-      </c>
-      <c r="E179" s="143"/>
-      <c r="F179" s="142" t="s">
-        <v>86</v>
-      </c>
-      <c r="G179" s="143"/>
-      <c r="H179" s="143" t="s">
-        <v>90</v>
-      </c>
-      <c r="I179" s="143"/>
-      <c r="J179" s="153" t="s">
-        <v>77</v>
-      </c>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A179" s="144"/>
+      <c r="B179" s="151"/>
+      <c r="C179" s="144"/>
+      <c r="D179" s="144"/>
+      <c r="E179" s="144"/>
+      <c r="F179" s="144"/>
+      <c r="G179" s="144"/>
+      <c r="H179" s="144"/>
+      <c r="I179" s="144"/>
+      <c r="J179" s="155"/>
     </row>
-    <row r="180" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A180" s="147" t="s">
-        <v>76</v>
-      </c>
-      <c r="B180" s="150"/>
-      <c r="C180" s="149" t="s">
-        <v>66</v>
-      </c>
-      <c r="D180" s="143">
-        <v>10</v>
-      </c>
-      <c r="E180" s="143"/>
-      <c r="F180" s="142" t="s">
-        <v>86</v>
-      </c>
-      <c r="G180" s="143"/>
-      <c r="H180" s="143" t="s">
-        <v>90</v>
-      </c>
-      <c r="I180" s="143"/>
-      <c r="J180" s="153" t="s">
-        <v>77</v>
-      </c>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A180" s="145"/>
+      <c r="B180" s="152"/>
+      <c r="C180" s="145"/>
+      <c r="D180" s="145"/>
+      <c r="E180" s="145"/>
+      <c r="F180" s="145"/>
+      <c r="G180" s="145"/>
+      <c r="H180" s="145"/>
+      <c r="I180" s="145"/>
+      <c r="J180" s="156"/>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A181" s="144"/>
-      <c r="B181" s="151"/>
-      <c r="C181" s="144"/>
-      <c r="D181" s="144"/>
-      <c r="E181" s="144"/>
-      <c r="F181" s="144"/>
-      <c r="G181" s="144"/>
-      <c r="H181" s="144"/>
-      <c r="I181" s="144"/>
-      <c r="J181" s="155"/>
+      <c r="A181" s="2"/>
+      <c r="B181" s="109"/>
+      <c r="C181" s="2"/>
+      <c r="D181" s="2"/>
+      <c r="E181" s="2"/>
+      <c r="F181" s="2"/>
+      <c r="G181" s="2"/>
+      <c r="H181" s="2"/>
+      <c r="I181" s="2"/>
+      <c r="J181" s="51"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A182" s="145"/>
-      <c r="B182" s="152"/>
-      <c r="C182" s="145"/>
-      <c r="D182" s="145"/>
-      <c r="E182" s="145"/>
-      <c r="F182" s="145"/>
-      <c r="G182" s="145"/>
-      <c r="H182" s="145"/>
-      <c r="I182" s="145"/>
-      <c r="J182" s="156"/>
+    <row r="182" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A182" s="146" t="s">
+        <v>251</v>
+      </c>
+      <c r="B182" s="150"/>
+      <c r="C182" s="148"/>
+      <c r="D182" s="142"/>
+      <c r="E182" s="142"/>
+      <c r="F182" s="142"/>
+      <c r="G182" s="142"/>
+      <c r="H182" s="142"/>
+      <c r="I182" s="142"/>
+      <c r="J182" s="154"/>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A183" s="2"/>
-      <c r="B183" s="109"/>
-      <c r="C183" s="2"/>
-      <c r="D183" s="2"/>
-      <c r="E183" s="2"/>
-      <c r="F183" s="2"/>
-      <c r="G183" s="2"/>
-      <c r="H183" s="2"/>
-      <c r="I183" s="2"/>
-      <c r="J183" s="51"/>
+    <row r="183" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A183" s="147" t="s">
+        <v>81</v>
+      </c>
+      <c r="B183" s="150"/>
+      <c r="C183" s="149" t="s">
+        <v>66</v>
+      </c>
+      <c r="D183" s="143">
+        <v>10</v>
+      </c>
+      <c r="E183" s="143"/>
+      <c r="F183" s="142" t="s">
+        <v>86</v>
+      </c>
+      <c r="G183" s="143"/>
+      <c r="H183" s="143" t="s">
+        <v>90</v>
+      </c>
+      <c r="I183" s="143"/>
+      <c r="J183" s="153" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="184" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A184" s="146" t="s">
-        <v>251</v>
+      <c r="A184" s="147" t="s">
+        <v>171</v>
       </c>
       <c r="B184" s="150"/>
-      <c r="C184" s="148"/>
-      <c r="D184" s="142"/>
-      <c r="E184" s="142"/>
-      <c r="F184" s="142"/>
-      <c r="G184" s="142"/>
-      <c r="H184" s="142"/>
-      <c r="I184" s="142"/>
-      <c r="J184" s="154"/>
+      <c r="C184" s="149" t="s">
+        <v>66</v>
+      </c>
+      <c r="D184" s="143">
+        <v>10</v>
+      </c>
+      <c r="E184" s="143"/>
+      <c r="F184" s="142" t="s">
+        <v>86</v>
+      </c>
+      <c r="G184" s="143"/>
+      <c r="H184" s="143" t="s">
+        <v>90</v>
+      </c>
+      <c r="I184" s="143"/>
+      <c r="J184" s="153" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="185" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A185" s="147" t="s">
-        <v>81</v>
-      </c>
-      <c r="B185" s="150"/>
-      <c r="C185" s="149" t="s">
-        <v>66</v>
-      </c>
-      <c r="D185" s="143">
-        <v>10</v>
-      </c>
-      <c r="E185" s="143"/>
-      <c r="F185" s="142" t="s">
-        <v>86</v>
-      </c>
-      <c r="G185" s="143"/>
-      <c r="H185" s="143" t="s">
-        <v>90</v>
-      </c>
-      <c r="I185" s="143"/>
-      <c r="J185" s="153" t="s">
-        <v>77</v>
-      </c>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A185" s="144"/>
+      <c r="B185" s="151"/>
+      <c r="C185" s="144"/>
+      <c r="D185" s="144"/>
+      <c r="E185" s="144"/>
+      <c r="F185" s="144"/>
+      <c r="G185" s="144"/>
+      <c r="H185" s="144"/>
+      <c r="I185" s="144"/>
+      <c r="J185" s="155"/>
     </row>
-    <row r="186" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A186" s="147" t="s">
-        <v>171</v>
-      </c>
-      <c r="B186" s="150"/>
-      <c r="C186" s="149" t="s">
-        <v>66</v>
-      </c>
-      <c r="D186" s="143">
-        <v>10</v>
-      </c>
-      <c r="E186" s="143"/>
-      <c r="F186" s="142" t="s">
-        <v>86</v>
-      </c>
-      <c r="G186" s="143"/>
-      <c r="H186" s="143" t="s">
-        <v>90</v>
-      </c>
-      <c r="I186" s="143"/>
-      <c r="J186" s="153" t="s">
-        <v>77</v>
-      </c>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A186" s="145"/>
+      <c r="B186" s="152"/>
+      <c r="C186" s="145"/>
+      <c r="D186" s="145"/>
+      <c r="E186" s="145"/>
+      <c r="F186" s="145"/>
+      <c r="G186" s="145"/>
+      <c r="H186" s="145"/>
+      <c r="I186" s="145"/>
+      <c r="J186" s="156"/>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A187" s="144"/>
-      <c r="B187" s="151"/>
-      <c r="C187" s="144"/>
-      <c r="D187" s="144"/>
-      <c r="E187" s="144"/>
-      <c r="F187" s="144"/>
-      <c r="G187" s="144"/>
-      <c r="H187" s="144"/>
-      <c r="I187" s="144"/>
-      <c r="J187" s="155"/>
+      <c r="A187" s="141"/>
+      <c r="B187" s="141"/>
+      <c r="C187" s="141"/>
+      <c r="D187" s="141"/>
+      <c r="E187" s="141"/>
+      <c r="F187" s="141"/>
+      <c r="G187" s="141"/>
+      <c r="H187" s="141"/>
+      <c r="I187" s="141"/>
+      <c r="J187" s="141"/>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A188" s="145"/>
-      <c r="B188" s="152"/>
-      <c r="C188" s="145"/>
-      <c r="D188" s="145"/>
-      <c r="E188" s="145"/>
-      <c r="F188" s="145"/>
-      <c r="G188" s="145"/>
-      <c r="H188" s="145"/>
-      <c r="I188" s="145"/>
-      <c r="J188" s="156"/>
+    <row r="188" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A188" s="146" t="s">
+        <v>253</v>
+      </c>
+      <c r="B188" s="150"/>
+      <c r="C188" s="148"/>
+      <c r="D188" s="142"/>
+      <c r="E188" s="142"/>
+      <c r="F188" s="142"/>
+      <c r="G188" s="142"/>
+      <c r="H188" s="142"/>
+      <c r="I188" s="142"/>
+      <c r="J188" s="154"/>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A189" s="141"/>
-      <c r="B189" s="141"/>
-      <c r="C189" s="141"/>
-      <c r="D189" s="141"/>
-      <c r="E189" s="141"/>
-      <c r="F189" s="141"/>
-      <c r="G189" s="141"/>
-      <c r="H189" s="141"/>
-      <c r="I189" s="141"/>
-      <c r="J189" s="141"/>
+    <row r="189" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A189" s="147" t="s">
+        <v>68</v>
+      </c>
+      <c r="B189" s="150"/>
+      <c r="C189" s="149" t="s">
+        <v>66</v>
+      </c>
+      <c r="D189" s="143">
+        <v>10</v>
+      </c>
+      <c r="E189" s="143"/>
+      <c r="F189" s="142" t="s">
+        <v>86</v>
+      </c>
+      <c r="G189" s="143"/>
+      <c r="H189" s="143" t="s">
+        <v>90</v>
+      </c>
+      <c r="I189" s="143"/>
+      <c r="J189" s="153" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="190" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A190" s="146" t="s">
-        <v>253</v>
+      <c r="A190" s="147" t="s">
+        <v>81</v>
       </c>
       <c r="B190" s="150"/>
-      <c r="C190" s="148"/>
-      <c r="D190" s="142"/>
-      <c r="E190" s="142"/>
-      <c r="F190" s="142"/>
-      <c r="G190" s="142"/>
-      <c r="H190" s="142"/>
-      <c r="I190" s="142"/>
-      <c r="J190" s="154"/>
+      <c r="C190" s="149" t="s">
+        <v>66</v>
+      </c>
+      <c r="D190" s="143">
+        <v>10</v>
+      </c>
+      <c r="E190" s="143"/>
+      <c r="F190" s="142" t="s">
+        <v>86</v>
+      </c>
+      <c r="G190" s="143"/>
+      <c r="H190" s="143" t="s">
+        <v>90</v>
+      </c>
+      <c r="I190" s="143"/>
+      <c r="J190" s="153" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="191" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A191" s="147" t="s">
-        <v>68</v>
-      </c>
-      <c r="B191" s="150"/>
-      <c r="C191" s="149" t="s">
-        <v>66</v>
-      </c>
-      <c r="D191" s="143">
-        <v>10</v>
-      </c>
-      <c r="E191" s="143"/>
-      <c r="F191" s="142" t="s">
-        <v>86</v>
-      </c>
-      <c r="G191" s="143"/>
-      <c r="H191" s="143" t="s">
-        <v>90</v>
-      </c>
-      <c r="I191" s="143"/>
-      <c r="J191" s="153" t="s">
-        <v>77</v>
-      </c>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A191" s="144"/>
+      <c r="B191" s="151"/>
+      <c r="C191" s="144"/>
+      <c r="D191" s="144"/>
+      <c r="E191" s="144"/>
+      <c r="F191" s="144"/>
+      <c r="G191" s="144"/>
+      <c r="H191" s="144"/>
+      <c r="I191" s="144"/>
+      <c r="J191" s="155"/>
     </row>
-    <row r="192" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A192" s="147" t="s">
-        <v>81</v>
-      </c>
-      <c r="B192" s="150"/>
-      <c r="C192" s="149" t="s">
-        <v>66</v>
-      </c>
-      <c r="D192" s="143">
-        <v>10</v>
-      </c>
-      <c r="E192" s="143"/>
-      <c r="F192" s="142" t="s">
-        <v>86</v>
-      </c>
-      <c r="G192" s="143"/>
-      <c r="H192" s="143" t="s">
-        <v>90</v>
-      </c>
-      <c r="I192" s="143"/>
-      <c r="J192" s="153" t="s">
-        <v>77</v>
-      </c>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A192" s="145"/>
+      <c r="B192" s="152"/>
+      <c r="C192" s="145"/>
+      <c r="D192" s="145"/>
+      <c r="E192" s="145"/>
+      <c r="F192" s="145"/>
+      <c r="G192" s="145"/>
+      <c r="H192" s="145"/>
+      <c r="I192" s="145"/>
+      <c r="J192" s="156"/>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A193" s="144"/>
-      <c r="B193" s="151"/>
-      <c r="C193" s="144"/>
-      <c r="D193" s="144"/>
-      <c r="E193" s="144"/>
-      <c r="F193" s="144"/>
-      <c r="G193" s="144"/>
-      <c r="H193" s="144"/>
-      <c r="I193" s="144"/>
-      <c r="J193" s="155"/>
+      <c r="A193" s="141"/>
+      <c r="B193" s="141"/>
+      <c r="C193" s="141"/>
+      <c r="D193" s="141"/>
+      <c r="E193" s="141"/>
+      <c r="F193" s="141"/>
+      <c r="G193" s="141"/>
+      <c r="H193" s="141"/>
+      <c r="I193" s="141"/>
+      <c r="J193" s="141"/>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A194" s="145"/>
-      <c r="B194" s="152"/>
-      <c r="C194" s="145"/>
-      <c r="D194" s="145"/>
-      <c r="E194" s="145"/>
-      <c r="F194" s="145"/>
-      <c r="G194" s="145"/>
-      <c r="H194" s="145"/>
-      <c r="I194" s="145"/>
-      <c r="J194" s="156"/>
+    <row r="194" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A194" s="146" t="s">
+        <v>254</v>
+      </c>
+      <c r="B194" s="150"/>
+      <c r="C194" s="148"/>
+      <c r="D194" s="142"/>
+      <c r="E194" s="142"/>
+      <c r="F194" s="142"/>
+      <c r="G194" s="142"/>
+      <c r="H194" s="142"/>
+      <c r="I194" s="142"/>
+      <c r="J194" s="154"/>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A195" s="141"/>
-      <c r="B195" s="141"/>
-      <c r="C195" s="141"/>
-      <c r="D195" s="141"/>
-      <c r="E195" s="141"/>
-      <c r="F195" s="141"/>
-      <c r="G195" s="141"/>
-      <c r="H195" s="141"/>
-      <c r="I195" s="141"/>
-      <c r="J195" s="141"/>
+    <row r="195" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A195" s="147" t="s">
+        <v>81</v>
+      </c>
+      <c r="B195" s="150"/>
+      <c r="C195" s="149" t="s">
+        <v>66</v>
+      </c>
+      <c r="D195" s="143">
+        <v>10</v>
+      </c>
+      <c r="E195" s="143"/>
+      <c r="F195" s="142" t="s">
+        <v>86</v>
+      </c>
+      <c r="G195" s="143"/>
+      <c r="H195" s="143" t="s">
+        <v>90</v>
+      </c>
+      <c r="I195" s="143"/>
+      <c r="J195" s="153" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="196" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A196" s="146" t="s">
-        <v>254</v>
+      <c r="A196" s="147" t="s">
+        <v>78</v>
       </c>
       <c r="B196" s="150"/>
-      <c r="C196" s="148"/>
-      <c r="D196" s="142"/>
-      <c r="E196" s="142"/>
-      <c r="F196" s="142"/>
-      <c r="G196" s="142"/>
-      <c r="H196" s="142"/>
-      <c r="I196" s="142"/>
-      <c r="J196" s="154"/>
+      <c r="C196" s="149" t="s">
+        <v>66</v>
+      </c>
+      <c r="D196" s="143">
+        <v>10</v>
+      </c>
+      <c r="E196" s="143"/>
+      <c r="F196" s="142" t="s">
+        <v>86</v>
+      </c>
+      <c r="G196" s="143"/>
+      <c r="H196" s="143" t="s">
+        <v>90</v>
+      </c>
+      <c r="I196" s="143"/>
+      <c r="J196" s="153" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="197" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A197" s="147" t="s">
-        <v>81</v>
-      </c>
-      <c r="B197" s="150"/>
-      <c r="C197" s="149" t="s">
-        <v>66</v>
-      </c>
-      <c r="D197" s="143">
-        <v>10</v>
-      </c>
-      <c r="E197" s="143"/>
-      <c r="F197" s="142" t="s">
-        <v>86</v>
-      </c>
-      <c r="G197" s="143"/>
-      <c r="H197" s="143" t="s">
-        <v>90</v>
-      </c>
-      <c r="I197" s="143"/>
-      <c r="J197" s="153" t="s">
-        <v>77</v>
-      </c>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A197" s="144"/>
+      <c r="B197" s="151"/>
+      <c r="C197" s="144"/>
+      <c r="D197" s="144"/>
+      <c r="E197" s="144"/>
+      <c r="F197" s="144"/>
+      <c r="G197" s="144"/>
+      <c r="H197" s="144"/>
+      <c r="I197" s="144"/>
+      <c r="J197" s="155"/>
     </row>
-    <row r="198" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A198" s="147" t="s">
-        <v>78</v>
-      </c>
-      <c r="B198" s="150"/>
-      <c r="C198" s="149" t="s">
-        <v>66</v>
-      </c>
-      <c r="D198" s="143">
-        <v>10</v>
-      </c>
-      <c r="E198" s="143"/>
-      <c r="F198" s="142" t="s">
-        <v>86</v>
-      </c>
-      <c r="G198" s="143"/>
-      <c r="H198" s="143" t="s">
-        <v>90</v>
-      </c>
-      <c r="I198" s="143"/>
-      <c r="J198" s="153" t="s">
-        <v>77</v>
-      </c>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A198" s="145"/>
+      <c r="B198" s="152"/>
+      <c r="C198" s="145"/>
+      <c r="D198" s="145"/>
+      <c r="E198" s="145"/>
+      <c r="F198" s="145"/>
+      <c r="G198" s="145"/>
+      <c r="H198" s="145"/>
+      <c r="I198" s="145"/>
+      <c r="J198" s="156"/>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A199" s="144"/>
-      <c r="B199" s="151"/>
-      <c r="C199" s="144"/>
-      <c r="D199" s="144"/>
-      <c r="E199" s="144"/>
-      <c r="F199" s="144"/>
-      <c r="G199" s="144"/>
-      <c r="H199" s="144"/>
-      <c r="I199" s="144"/>
-      <c r="J199" s="155"/>
+      <c r="A199" s="141"/>
+      <c r="B199" s="141"/>
+      <c r="C199" s="141"/>
+      <c r="D199" s="141"/>
+      <c r="E199" s="141"/>
+      <c r="F199" s="141"/>
+      <c r="G199" s="141"/>
+      <c r="H199" s="141"/>
+      <c r="I199" s="141"/>
+      <c r="J199" s="141"/>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A200" s="145"/>
-      <c r="B200" s="152"/>
-      <c r="C200" s="145"/>
-      <c r="D200" s="145"/>
-      <c r="E200" s="145"/>
-      <c r="F200" s="145"/>
-      <c r="G200" s="145"/>
-      <c r="H200" s="145"/>
-      <c r="I200" s="145"/>
-      <c r="J200" s="156"/>
+    <row r="200" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A200" s="146" t="s">
+        <v>255</v>
+      </c>
+      <c r="B200" s="150"/>
+      <c r="C200" s="148"/>
+      <c r="D200" s="142"/>
+      <c r="E200" s="142"/>
+      <c r="F200" s="142"/>
+      <c r="G200" s="142"/>
+      <c r="H200" s="142"/>
+      <c r="I200" s="142"/>
+      <c r="J200" s="154"/>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A201" s="141"/>
-      <c r="B201" s="141"/>
-      <c r="C201" s="141"/>
-      <c r="D201" s="141"/>
-      <c r="E201" s="141"/>
-      <c r="F201" s="141"/>
-      <c r="G201" s="141"/>
-      <c r="H201" s="141"/>
-      <c r="I201" s="141"/>
-      <c r="J201" s="141"/>
+    <row r="201" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A201" s="147" t="s">
+        <v>76</v>
+      </c>
+      <c r="B201" s="150"/>
+      <c r="C201" s="149" t="s">
+        <v>66</v>
+      </c>
+      <c r="D201" s="143">
+        <v>10</v>
+      </c>
+      <c r="E201" s="143"/>
+      <c r="F201" s="142" t="s">
+        <v>86</v>
+      </c>
+      <c r="G201" s="143"/>
+      <c r="H201" s="143" t="s">
+        <v>90</v>
+      </c>
+      <c r="I201" s="143"/>
+      <c r="J201" s="153" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="202" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A202" s="146" t="s">
-        <v>255</v>
+      <c r="A202" s="147" t="s">
+        <v>171</v>
       </c>
       <c r="B202" s="150"/>
-      <c r="C202" s="148"/>
-      <c r="D202" s="142"/>
-      <c r="E202" s="142"/>
-      <c r="F202" s="142"/>
-      <c r="G202" s="142"/>
-      <c r="H202" s="142"/>
-      <c r="I202" s="142"/>
-      <c r="J202" s="154"/>
-    </row>
-    <row r="203" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A203" s="147" t="s">
-        <v>76</v>
-      </c>
-      <c r="B203" s="150"/>
-      <c r="C203" s="149" t="s">
+      <c r="C202" s="149" t="s">
         <v>66</v>
       </c>
-      <c r="D203" s="143">
+      <c r="D202" s="143">
         <v>10</v>
       </c>
-      <c r="E203" s="143"/>
-      <c r="F203" s="142" t="s">
+      <c r="E202" s="143"/>
+      <c r="F202" s="142" t="s">
         <v>86</v>
       </c>
-      <c r="G203" s="143"/>
-      <c r="H203" s="143" t="s">
+      <c r="G202" s="143"/>
+      <c r="H202" s="143" t="s">
         <v>90</v>
       </c>
-      <c r="I203" s="143"/>
-      <c r="J203" s="153" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A204" s="147" t="s">
-        <v>171</v>
-      </c>
-      <c r="B204" s="150"/>
-      <c r="C204" s="149" t="s">
-        <v>66</v>
-      </c>
-      <c r="D204" s="143">
-        <v>10</v>
-      </c>
-      <c r="E204" s="143"/>
-      <c r="F204" s="142" t="s">
-        <v>86</v>
-      </c>
-      <c r="G204" s="143"/>
-      <c r="H204" s="143" t="s">
-        <v>90</v>
-      </c>
-      <c r="I204" s="143"/>
-      <c r="J204" s="153" t="s">
+      <c r="I202" s="143"/>
+      <c r="J202" s="153" t="s">
         <v>77</v>
       </c>
     </row>
@@ -36827,13 +36773,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>148</xdr:row>
+                    <xdr:row>146</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>149</xdr:row>
+                    <xdr:row>147</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -36849,13 +36795,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>149</xdr:row>
+                    <xdr:row>147</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>150</xdr:row>
+                    <xdr:row>148</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -36871,13 +36817,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>149</xdr:row>
+                    <xdr:row>147</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>150</xdr:row>
+                    <xdr:row>148</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -36893,13 +36839,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>150</xdr:row>
+                    <xdr:row>148</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>151</xdr:row>
+                    <xdr:row>149</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -36915,13 +36861,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>151</xdr:row>
+                    <xdr:row>149</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>152</xdr:row>
+                    <xdr:row>150</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -36937,13 +36883,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>146</xdr:row>
+                    <xdr:row>144</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>146</xdr:row>
+                    <xdr:row>144</xdr:row>
                     <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
@@ -37069,13 +37015,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>148</xdr:row>
+                    <xdr:row>146</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>149</xdr:row>
+                    <xdr:row>147</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -37091,13 +37037,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>149</xdr:row>
+                    <xdr:row>147</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>150</xdr:row>
+                    <xdr:row>148</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -37113,13 +37059,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>149</xdr:row>
+                    <xdr:row>147</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>150</xdr:row>
+                    <xdr:row>148</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -37135,13 +37081,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>150</xdr:row>
+                    <xdr:row>148</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>151</xdr:row>
+                    <xdr:row>149</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -37157,13 +37103,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>151</xdr:row>
+                    <xdr:row>149</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>152</xdr:row>
+                    <xdr:row>150</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -37179,13 +37125,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>146</xdr:row>
+                    <xdr:row>144</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>146</xdr:row>
+                    <xdr:row>144</xdr:row>
                     <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
@@ -37641,13 +37587,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>127</xdr:row>
+                    <xdr:row>125</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>128</xdr:row>
+                    <xdr:row>126</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -37663,13 +37609,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>127</xdr:row>
+                    <xdr:row>125</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>128</xdr:row>
+                    <xdr:row>126</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -37685,13 +37631,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>127</xdr:row>
+                    <xdr:row>125</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>128</xdr:row>
+                    <xdr:row>126</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -37707,13 +37653,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>127</xdr:row>
+                    <xdr:row>125</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>128</xdr:row>
+                    <xdr:row>126</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -37729,13 +37675,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>128</xdr:row>
+                    <xdr:row>126</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>129</xdr:row>
+                    <xdr:row>127</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -37751,13 +37697,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>128</xdr:row>
+                    <xdr:row>126</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>129</xdr:row>
+                    <xdr:row>127</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -37773,13 +37719,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>128</xdr:row>
+                    <xdr:row>126</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>129</xdr:row>
+                    <xdr:row>127</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -37795,13 +37741,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>128</xdr:row>
+                    <xdr:row>126</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>129</xdr:row>
+                    <xdr:row>127</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -37817,13 +37763,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>128</xdr:row>
+                    <xdr:row>126</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>129</xdr:row>
+                    <xdr:row>127</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -37839,13 +37785,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>128</xdr:row>
+                    <xdr:row>126</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>129</xdr:row>
+                    <xdr:row>127</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -37861,13 +37807,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>128</xdr:row>
+                    <xdr:row>126</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>129</xdr:row>
+                    <xdr:row>127</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -37883,13 +37829,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>128</xdr:row>
+                    <xdr:row>126</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>129</xdr:row>
+                    <xdr:row>127</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -37905,13 +37851,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>129</xdr:row>
+                    <xdr:row>127</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>130</xdr:row>
+                    <xdr:row>128</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -37927,13 +37873,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>129</xdr:row>
+                    <xdr:row>127</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>130</xdr:row>
+                    <xdr:row>128</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -37949,13 +37895,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>130</xdr:row>
+                    <xdr:row>128</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>131</xdr:row>
+                    <xdr:row>129</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -37971,13 +37917,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>130</xdr:row>
+                    <xdr:row>128</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>131</xdr:row>
+                    <xdr:row>129</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -37993,13 +37939,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>131</xdr:row>
+                    <xdr:row>129</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>132</xdr:row>
+                    <xdr:row>130</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38015,13 +37961,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>131</xdr:row>
+                    <xdr:row>129</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>132</xdr:row>
+                    <xdr:row>130</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38037,13 +37983,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>132</xdr:row>
+                    <xdr:row>130</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>133</xdr:row>
+                    <xdr:row>131</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38059,13 +38005,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>132</xdr:row>
+                    <xdr:row>130</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>133</xdr:row>
+                    <xdr:row>131</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38081,13 +38027,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>133</xdr:row>
+                    <xdr:row>131</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>134</xdr:row>
+                    <xdr:row>132</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38103,13 +38049,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>133</xdr:row>
+                    <xdr:row>131</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>134</xdr:row>
+                    <xdr:row>132</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38125,13 +38071,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>134</xdr:row>
+                    <xdr:row>132</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>135</xdr:row>
+                    <xdr:row>133</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38147,13 +38093,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>134</xdr:row>
+                    <xdr:row>132</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>135</xdr:row>
+                    <xdr:row>133</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38169,13 +38115,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>135</xdr:row>
+                    <xdr:row>133</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>136</xdr:row>
+                    <xdr:row>134</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38191,13 +38137,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>135</xdr:row>
+                    <xdr:row>133</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>136</xdr:row>
+                    <xdr:row>134</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38213,13 +38159,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>136</xdr:row>
+                    <xdr:row>134</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>137</xdr:row>
+                    <xdr:row>135</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38235,13 +38181,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>136</xdr:row>
+                    <xdr:row>134</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>137</xdr:row>
+                    <xdr:row>135</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38257,13 +38203,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>147</xdr:row>
+                    <xdr:row>145</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>148</xdr:row>
+                    <xdr:row>146</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38279,13 +38225,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>147</xdr:row>
+                    <xdr:row>145</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>148</xdr:row>
+                    <xdr:row>146</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38301,13 +38247,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>152</xdr:row>
+                    <xdr:row>150</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>153</xdr:row>
+                    <xdr:row>151</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38323,13 +38269,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>152</xdr:row>
+                    <xdr:row>150</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>153</xdr:row>
+                    <xdr:row>151</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38345,13 +38291,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>160</xdr:row>
+                    <xdr:row>158</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>161</xdr:row>
+                    <xdr:row>159</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38367,13 +38313,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>160</xdr:row>
+                    <xdr:row>158</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>161</xdr:row>
+                    <xdr:row>159</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38389,13 +38335,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>170</xdr:row>
+                    <xdr:row>168</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>171</xdr:row>
+                    <xdr:row>169</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38411,13 +38357,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>170</xdr:row>
+                    <xdr:row>168</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>171</xdr:row>
+                    <xdr:row>169</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38433,13 +38379,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>171</xdr:row>
+                    <xdr:row>169</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>172</xdr:row>
+                    <xdr:row>170</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38455,13 +38401,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>171</xdr:row>
+                    <xdr:row>169</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>172</xdr:row>
+                    <xdr:row>170</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38477,13 +38423,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>172</xdr:row>
+                    <xdr:row>170</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>173</xdr:row>
+                    <xdr:row>171</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38499,13 +38445,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>172</xdr:row>
+                    <xdr:row>170</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>173</xdr:row>
+                    <xdr:row>171</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38521,13 +38467,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>173</xdr:row>
+                    <xdr:row>171</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>174</xdr:row>
+                    <xdr:row>172</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38543,13 +38489,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>173</xdr:row>
+                    <xdr:row>171</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>174</xdr:row>
+                    <xdr:row>172</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38565,13 +38511,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>159</xdr:row>
+                    <xdr:row>157</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>160</xdr:row>
+                    <xdr:row>158</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38587,13 +38533,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>159</xdr:row>
+                    <xdr:row>157</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>160</xdr:row>
+                    <xdr:row>158</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38609,13 +38555,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>160</xdr:row>
+                    <xdr:row>158</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>161</xdr:row>
+                    <xdr:row>159</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38631,13 +38577,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>160</xdr:row>
+                    <xdr:row>158</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>161</xdr:row>
+                    <xdr:row>159</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38653,13 +38599,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>161</xdr:row>
+                    <xdr:row>159</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>162</xdr:row>
+                    <xdr:row>160</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38675,13 +38621,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>161</xdr:row>
+                    <xdr:row>159</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>162</xdr:row>
+                    <xdr:row>160</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38697,13 +38643,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>162</xdr:row>
+                    <xdr:row>160</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>163</xdr:row>
+                    <xdr:row>161</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38719,13 +38665,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>162</xdr:row>
+                    <xdr:row>160</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>163</xdr:row>
+                    <xdr:row>161</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38741,13 +38687,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>162</xdr:row>
+                    <xdr:row>160</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>163</xdr:row>
+                    <xdr:row>161</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38763,13 +38709,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>162</xdr:row>
+                    <xdr:row>160</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>163</xdr:row>
+                    <xdr:row>161</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38785,13 +38731,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>163</xdr:row>
+                    <xdr:row>161</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>164</xdr:row>
+                    <xdr:row>162</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38807,13 +38753,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>163</xdr:row>
+                    <xdr:row>161</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>164</xdr:row>
+                    <xdr:row>162</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38961,13 +38907,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>168</xdr:row>
+                    <xdr:row>166</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>169</xdr:row>
+                    <xdr:row>167</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -38983,13 +38929,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>168</xdr:row>
+                    <xdr:row>166</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>169</xdr:row>
+                    <xdr:row>167</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -39049,13 +38995,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>137</xdr:row>
+                    <xdr:row>135</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>138</xdr:row>
+                    <xdr:row>136</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -39071,13 +39017,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>137</xdr:row>
+                    <xdr:row>135</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>138</xdr:row>
+                    <xdr:row>136</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -39093,13 +39039,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>138</xdr:row>
+                    <xdr:row>136</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>139</xdr:row>
+                    <xdr:row>137</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -39115,13 +39061,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>138</xdr:row>
+                    <xdr:row>136</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>139</xdr:row>
+                    <xdr:row>137</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -39137,13 +39083,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>169</xdr:row>
+                    <xdr:row>167</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>170</xdr:row>
+                    <xdr:row>168</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -39159,13 +39105,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>169</xdr:row>
+                    <xdr:row>167</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>170</xdr:row>
+                    <xdr:row>168</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -39181,13 +39127,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>157</xdr:row>
+                    <xdr:row>155</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>158</xdr:row>
+                    <xdr:row>156</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -39203,13 +39149,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>157</xdr:row>
+                    <xdr:row>155</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>158</xdr:row>
+                    <xdr:row>156</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -39225,13 +39171,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>145</xdr:row>
+                    <xdr:row>143</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>146</xdr:row>
+                    <xdr:row>144</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -39247,13 +39193,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>145</xdr:row>
+                    <xdr:row>143</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>146</xdr:row>
+                    <xdr:row>144</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -39357,13 +39303,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>158</xdr:row>
+                    <xdr:row>156</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>159</xdr:row>
+                    <xdr:row>157</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -39379,13 +39325,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>158</xdr:row>
+                    <xdr:row>156</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>159</xdr:row>
+                    <xdr:row>157</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40061,13 +40007,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>126</xdr:row>
+                    <xdr:row>125</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>127</xdr:row>
+                    <xdr:row>126</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40083,13 +40029,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>126</xdr:row>
+                    <xdr:row>125</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>127</xdr:row>
+                    <xdr:row>126</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40435,13 +40381,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>139</xdr:row>
+                    <xdr:row>137</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>140</xdr:row>
+                    <xdr:row>138</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40457,13 +40403,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>139</xdr:row>
+                    <xdr:row>137</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>140</xdr:row>
+                    <xdr:row>138</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40699,13 +40645,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>184</xdr:row>
+                    <xdr:row>182</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>185</xdr:row>
+                    <xdr:row>183</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40721,13 +40667,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>184</xdr:row>
+                    <xdr:row>182</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>185</xdr:row>
+                    <xdr:row>183</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40743,13 +40689,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>185</xdr:row>
+                    <xdr:row>183</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>186</xdr:row>
+                    <xdr:row>184</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40765,13 +40711,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>185</xdr:row>
+                    <xdr:row>183</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>186</xdr:row>
+                    <xdr:row>184</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40787,13 +40733,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>190</xdr:row>
+                    <xdr:row>188</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>191</xdr:row>
+                    <xdr:row>189</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40809,13 +40755,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>190</xdr:row>
+                    <xdr:row>188</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>191</xdr:row>
+                    <xdr:row>189</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40831,13 +40777,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>191</xdr:row>
+                    <xdr:row>189</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>192</xdr:row>
+                    <xdr:row>190</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40853,13 +40799,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>191</xdr:row>
+                    <xdr:row>189</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>192</xdr:row>
+                    <xdr:row>190</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40875,13 +40821,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>196</xdr:row>
+                    <xdr:row>194</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>197</xdr:row>
+                    <xdr:row>195</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40897,13 +40843,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>196</xdr:row>
+                    <xdr:row>194</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>197</xdr:row>
+                    <xdr:row>195</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40919,13 +40865,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>197</xdr:row>
+                    <xdr:row>195</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>198</xdr:row>
+                    <xdr:row>196</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40941,13 +40887,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>197</xdr:row>
+                    <xdr:row>195</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>198</xdr:row>
+                    <xdr:row>196</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40963,13 +40909,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>202</xdr:row>
+                    <xdr:row>200</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>203</xdr:row>
+                    <xdr:row>201</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -40985,13 +40931,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>202</xdr:row>
+                    <xdr:row>200</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>203</xdr:row>
+                    <xdr:row>201</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -41007,13 +40953,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>203</xdr:row>
+                    <xdr:row>201</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>204</xdr:row>
+                    <xdr:row>202</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -41029,13 +40975,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>203</xdr:row>
+                    <xdr:row>201</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>204</xdr:row>
+                    <xdr:row>202</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -41051,13 +40997,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>178</xdr:row>
+                    <xdr:row>176</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>179</xdr:row>
+                    <xdr:row>177</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -41073,13 +41019,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>178</xdr:row>
+                    <xdr:row>176</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>179</xdr:row>
+                    <xdr:row>177</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -41095,13 +41041,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>179</xdr:row>
+                    <xdr:row>177</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>180</xdr:row>
+                    <xdr:row>178</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -41117,13 +41063,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>179</xdr:row>
+                    <xdr:row>177</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>180</xdr:row>
+                    <xdr:row>178</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -41139,13 +41085,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>156</xdr:row>
+                    <xdr:row>154</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>157</xdr:row>
+                    <xdr:row>155</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -41161,13 +41107,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>156</xdr:row>
+                    <xdr:row>154</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>157</xdr:row>
+                    <xdr:row>155</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -41183,13 +41129,13 @@
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>144</xdr:row>
+                    <xdr:row>142</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>145</xdr:row>
+                    <xdr:row>143</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -41205,13 +41151,13 @@
                   <from>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>144</xdr:row>
+                    <xdr:row>142</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>285750</xdr:colOff>
-                    <xdr:row>145</xdr:row>
+                    <xdr:row>143</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>

--- a/db_29_10_2018.xlsx
+++ b/db_29_10_2018.xlsx
@@ -31932,8 +31932,8 @@
   <dimension ref="A1:P202"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B102" sqref="B102"/>
+      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/db_29_10_2018.xlsx
+++ b/db_29_10_2018.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="299">
   <si>
     <t>employers</t>
   </si>
@@ -990,6 +990,9 @@
   </si>
   <si>
     <t>Phần Mềm Khác</t>
+  </si>
+  <si>
+    <t>1-&gt;4</t>
   </si>
 </sst>
 </file>
@@ -31932,8 +31935,8 @@
   <dimension ref="A1:P202"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B145" sqref="B145"/>
+      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F172" activeCellId="1" sqref="B172 F172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -35100,7 +35103,7 @@
       <c r="H169" s="3"/>
       <c r="I169" s="3"/>
       <c r="J169" s="46" t="s">
-        <v>64</v>
+        <v>298</v>
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.2">
@@ -35119,8 +35122,8 @@
       <c r="G170" s="3"/>
       <c r="H170" s="3"/>
       <c r="I170" s="3"/>
-      <c r="J170" s="46" t="s">
-        <v>64</v>
+      <c r="J170" s="153" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="171" spans="1:15" s="144" customFormat="1" x14ac:dyDescent="0.2">
@@ -35139,8 +35142,8 @@
       <c r="G171" s="3"/>
       <c r="H171" s="3"/>
       <c r="I171" s="3"/>
-      <c r="J171" s="46" t="s">
-        <v>64</v>
+      <c r="J171" s="153" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.2">
@@ -35159,8 +35162,8 @@
       <c r="G172" s="3"/>
       <c r="H172" s="3"/>
       <c r="I172" s="3"/>
-      <c r="J172" s="46" t="s">
-        <v>64</v>
+      <c r="J172" s="153" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.2">
